--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14473C44-FB80-435B-92D5-35464809B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F299FC1-FC72-4E81-92EA-0C98B59D4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="502">
   <si>
     <t>Our Locations</t>
   </si>
@@ -1563,6 +1563,9 @@
   </si>
   <si>
     <t>Their Lon</t>
+  </si>
+  <si>
+    <t>Version:</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1608,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1661,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1679,6 +1690,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2064,7 +2081,7 @@
   <dimension ref="A1:L358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2083,6 +2100,13 @@
       <c r="A1" s="1" t="s">
         <v>490</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="12" t="str" cm="1">
+        <f t="array" ref="F1">_xll.GEO_VERSION()</f>
+        <v>v0.3.3</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -17398,7 +17422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296D7F6F-40D7-4B9F-B6AA-54A974DF1EF8}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18824,7 +18848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDCFF1-09C9-462D-8CA1-D03B5949E6F3}">
   <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F299FC1-FC72-4E81-92EA-0C98B59D4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A3EBF-74B0-4AB1-AF00-9E01151BD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="505">
   <si>
     <t>Our Locations</t>
   </si>
@@ -1566,6 +1566,19 @@
   </si>
   <si>
     <t>Version:</t>
+  </si>
+  <si>
+    <t>Reverse Lookup Country</t>
+  </si>
+  <si>
+    <t>Reverse 
+Lookup 
+City</t>
+  </si>
+  <si>
+    <t>Reverse
+Lookup
+Timezone</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1695,6 +1708,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2078,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C592D3-75AA-4C40-9417-51BDDD9A314A}">
-  <dimension ref="A1:L358"/>
+  <dimension ref="A1:O358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2094,9 +2110,12 @@
     <col min="6" max="6" width="9.19921875" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>490</v>
       </c>
@@ -2105,10 +2124,10 @@
       </c>
       <c r="F1" s="12" t="str" cm="1">
         <f t="array" ref="F1">_xll.GEO_VERSION()</f>
-        <v>v0.3.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1.0.0+58a4ae999c00f90551a3423852e06e2e4687a247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>496</v>
       </c>
@@ -2145,8 +2164,17 @@
       <c r="L3" s="8" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="str" cm="1">
         <f t="array" ref="A4:E358">TheirLocations[]</f>
         <v>Z000</v>
@@ -2189,8 +2217,20 @@
         <f>_xlfn.XLOOKUP(F4,OurLocations[Id],OurLocations[Lon])</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="6" t="e" cm="1">
+        <f t="array" ref="M4">_xll.GEO_COUNTRY(B4,C4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N4" s="6" t="e" cm="1">
+        <f t="array" ref="N4">_xll.GEO_COUNTRY(C4,D4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="6" t="e" cm="1">
+        <f t="array" ref="O4">_xll.GEO_TIMEZONE(B4,C4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="str">
         <v>Z001</v>
       </c>
@@ -2232,8 +2272,20 @@
         <f>_xlfn.XLOOKUP(F5,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.58410052413299</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="6" t="str" cm="1">
+        <f t="array" ref="M5">_xll.GEO_COUNTRY(B5,C5)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N5" s="6" t="str" cm="1">
+        <f t="array" ref="N5">_xll.GEO_CITY(B5,C5)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O5" s="6" t="str" cm="1">
+        <f t="array" ref="O5">_xll.GEO_TIMEZONE(B5,C5)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="str">
         <v>Z002</v>
       </c>
@@ -2275,8 +2327,20 @@
         <f>_xlfn.XLOOKUP(F6,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.599118317197</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="6" t="str" cm="1">
+        <f t="array" ref="M6">_xll.GEO_COUNTRY(B6,C6)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N6" s="6" t="str" cm="1">
+        <f t="array" ref="N6">_xll.GEO_CITY(B6,C6)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O6" s="6" t="str" cm="1">
+        <f t="array" ref="O6">_xll.GEO_TIMEZONE(B6,C6)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="str">
         <v>Z003</v>
       </c>
@@ -2318,8 +2382,20 @@
         <f>_xlfn.XLOOKUP(F7,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7" s="6" t="str" cm="1">
+        <f t="array" ref="M7">_xll.GEO_COUNTRY(B7,C7)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N7" s="6" t="str" cm="1">
+        <f t="array" ref="N7">_xll.GEO_CITY(B7,C7)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O7" s="6" t="str" cm="1">
+        <f t="array" ref="O7">_xll.GEO_TIMEZONE(B7,C7)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="str">
         <v>Z004</v>
       </c>
@@ -2361,8 +2437,20 @@
         <f>_xlfn.XLOOKUP(F8,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8" s="6" t="str" cm="1">
+        <f t="array" ref="M8">_xll.GEO_COUNTRY(B8,C8)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N8" s="6" t="str" cm="1">
+        <f t="array" ref="N8">_xll.GEO_CITY(B8,C8)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O8" s="6" t="str" cm="1">
+        <f t="array" ref="O8">_xll.GEO_TIMEZONE(B8,C8)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="str">
         <v>Z005</v>
       </c>
@@ -2404,8 +2492,20 @@
         <f>_xlfn.XLOOKUP(F9,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.59780285189899</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9" s="6" t="str" cm="1">
+        <f t="array" ref="M9">_xll.GEO_COUNTRY(B9,C9)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N9" s="6" t="str" cm="1">
+        <f t="array" ref="N9">_xll.GEO_CITY(B9,C9)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O9" s="6" t="str" cm="1">
+        <f t="array" ref="O9">_xll.GEO_TIMEZONE(B9,C9)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="str">
         <v>Z006</v>
       </c>
@@ -2447,8 +2547,20 @@
         <f>_xlfn.XLOOKUP(F10,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10" s="6" t="str" cm="1">
+        <f t="array" ref="M10">_xll.GEO_COUNTRY(B10,C10)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N10" s="6" t="str" cm="1">
+        <f t="array" ref="N10">_xll.GEO_CITY(B10,C10)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O10" s="6" t="str" cm="1">
+        <f t="array" ref="O10">_xll.GEO_TIMEZONE(B10,C10)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="str">
         <v>Z007</v>
       </c>
@@ -2490,8 +2602,20 @@
         <f>_xlfn.XLOOKUP(F11,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11" s="6" t="str" cm="1">
+        <f t="array" ref="M11">_xll.GEO_COUNTRY(B11,C11)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N11" s="6" t="str" cm="1">
+        <f t="array" ref="N11">_xll.GEO_CITY(B11,C11)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O11" s="6" t="str" cm="1">
+        <f t="array" ref="O11">_xll.GEO_TIMEZONE(B11,C11)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="str">
         <v>Z008</v>
       </c>
@@ -2533,8 +2657,20 @@
         <f>_xlfn.XLOOKUP(F12,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12" s="6" t="str" cm="1">
+        <f t="array" ref="M12">_xll.GEO_COUNTRY(B12,C12)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N12" s="6" t="str" cm="1">
+        <f t="array" ref="N12">_xll.GEO_CITY(B12,C12)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O12" s="6" t="str" cm="1">
+        <f t="array" ref="O12">_xll.GEO_TIMEZONE(B12,C12)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="str">
         <v>Z009</v>
       </c>
@@ -2576,8 +2712,20 @@
         <f>_xlfn.XLOOKUP(F13,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.599118317197</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13" s="6" t="str" cm="1">
+        <f t="array" ref="M13">_xll.GEO_COUNTRY(B13,C13)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N13" s="6" t="str" cm="1">
+        <f t="array" ref="N13">_xll.GEO_CITY(B13,C13)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O13" s="6" t="str" cm="1">
+        <f t="array" ref="O13">_xll.GEO_TIMEZONE(B13,C13)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="str">
         <v>Z010</v>
       </c>
@@ -2619,8 +2767,20 @@
         <f>_xlfn.XLOOKUP(F14,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.599118317197</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14" s="6" t="str" cm="1">
+        <f t="array" ref="M14">_xll.GEO_COUNTRY(B14,C14)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N14" s="6" t="str" cm="1">
+        <f t="array" ref="N14">_xll.GEO_CITY(B14,C14)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O14" s="6" t="str" cm="1">
+        <f t="array" ref="O14">_xll.GEO_TIMEZONE(B14,C14)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="str">
         <v>Z011</v>
       </c>
@@ -2662,8 +2822,20 @@
         <f>_xlfn.XLOOKUP(F15,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15" s="6" t="str" cm="1">
+        <f t="array" ref="M15">_xll.GEO_COUNTRY(B15,C15)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N15" s="6" t="str" cm="1">
+        <f t="array" ref="N15">_xll.GEO_CITY(B15,C15)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O15" s="6" t="str" cm="1">
+        <f t="array" ref="O15">_xll.GEO_TIMEZONE(B15,C15)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="str">
         <v>Z012</v>
       </c>
@@ -2705,8 +2877,20 @@
         <f>_xlfn.XLOOKUP(F16,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.59780285189899</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16" s="6" t="str" cm="1">
+        <f t="array" ref="M16">_xll.GEO_COUNTRY(B16,C16)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N16" s="6" t="str" cm="1">
+        <f t="array" ref="N16">_xll.GEO_CITY(B16,C16)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O16" s="6" t="str" cm="1">
+        <f t="array" ref="O16">_xll.GEO_TIMEZONE(B16,C16)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="str">
         <v>Z013</v>
       </c>
@@ -2748,8 +2932,20 @@
         <f>_xlfn.XLOOKUP(F17,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17" s="6" t="str" cm="1">
+        <f t="array" ref="M17">_xll.GEO_COUNTRY(B17,C17)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N17" s="6" t="str" cm="1">
+        <f t="array" ref="N17">_xll.GEO_CITY(B17,C17)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O17" s="6" t="str" cm="1">
+        <f t="array" ref="O17">_xll.GEO_TIMEZONE(B17,C17)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="str">
         <v>Z014</v>
       </c>
@@ -2791,8 +2987,20 @@
         <f>_xlfn.XLOOKUP(F18,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.601</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18" s="6" t="str" cm="1">
+        <f t="array" ref="M18">_xll.GEO_COUNTRY(B18,C18)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N18" s="6" t="str" cm="1">
+        <f t="array" ref="N18">_xll.GEO_CITY(B18,C18)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O18" s="6" t="str" cm="1">
+        <f t="array" ref="O18">_xll.GEO_TIMEZONE(B18,C18)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="str">
         <v>Z015</v>
       </c>
@@ -2834,8 +3042,20 @@
         <f>_xlfn.XLOOKUP(F19,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.59780285189899</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19" s="6" t="str" cm="1">
+        <f t="array" ref="M19">_xll.GEO_COUNTRY(B19,C19)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N19" s="6" t="str" cm="1">
+        <f t="array" ref="N19">_xll.GEO_CITY(B19,C19)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O19" s="6" t="str" cm="1">
+        <f t="array" ref="O19">_xll.GEO_TIMEZONE(B19,C19)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="str">
         <v>Z016</v>
       </c>
@@ -2877,8 +3097,20 @@
         <f>_xlfn.XLOOKUP(F20,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.59780285189899</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" s="6" t="str" cm="1">
+        <f t="array" ref="M20">_xll.GEO_COUNTRY(B20,C20)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N20" s="6" t="str" cm="1">
+        <f t="array" ref="N20">_xll.GEO_CITY(B20,C20)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O20" s="6" t="str" cm="1">
+        <f t="array" ref="O20">_xll.GEO_TIMEZONE(B20,C20)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="str">
         <v>Z017</v>
       </c>
@@ -2920,8 +3152,20 @@
         <f>_xlfn.XLOOKUP(F21,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.61667</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" s="6" t="str" cm="1">
+        <f t="array" ref="M21">_xll.GEO_COUNTRY(B21,C21)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N21" s="6" t="str" cm="1">
+        <f t="array" ref="N21">_xll.GEO_CITY(B21,C21)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O21" s="6" t="str" cm="1">
+        <f t="array" ref="O21">_xll.GEO_TIMEZONE(B21,C21)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="str">
         <v>Z018</v>
       </c>
@@ -2963,8 +3207,20 @@
         <f>_xlfn.XLOOKUP(F22,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.61667</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22" s="6" t="str" cm="1">
+        <f t="array" ref="M22">_xll.GEO_COUNTRY(B22,C22)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N22" s="6" t="str" cm="1">
+        <f t="array" ref="N22">_xll.GEO_CITY(B22,C22)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O22" s="6" t="str" cm="1">
+        <f t="array" ref="O22">_xll.GEO_TIMEZONE(B22,C22)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="str">
         <v>Z019</v>
       </c>
@@ -3006,8 +3262,20 @@
         <f>_xlfn.XLOOKUP(F23,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.61667</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23" s="6" t="str" cm="1">
+        <f t="array" ref="M23">_xll.GEO_COUNTRY(B23,C23)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N23" s="6" t="str" cm="1">
+        <f t="array" ref="N23">_xll.GEO_CITY(B23,C23)</f>
+        <v>Adelaide</v>
+      </c>
+      <c r="O23" s="6" t="str" cm="1">
+        <f t="array" ref="O23">_xll.GEO_TIMEZONE(B23,C23)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="str">
         <v>Z020</v>
       </c>
@@ -3049,8 +3317,20 @@
         <f>_xlfn.XLOOKUP(F24,OurLocations[Id],OurLocations[Lon])</f>
         <v>138.61667</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M24" s="6" t="str" cm="1">
+        <f t="array" ref="M24">_xll.GEO_COUNTRY(B24,C24)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N24" s="6" t="str" cm="1">
+        <f t="array" ref="N24">_xll.GEO_CITY(B24,C24)</f>
+        <v>Nuriootpa</v>
+      </c>
+      <c r="O24" s="6" t="str" cm="1">
+        <f t="array" ref="O24">_xll.GEO_TIMEZONE(B24,C24)</f>
+        <v>Australia/Adelaide</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="str">
         <v>Z021</v>
       </c>
@@ -3092,8 +3372,20 @@
         <f>_xlfn.XLOOKUP(F25,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M25" s="6" t="str" cm="1">
+        <f t="array" ref="M25">_xll.GEO_COUNTRY(B25,C25)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N25" s="6" t="str" cm="1">
+        <f t="array" ref="N25">_xll.GEO_CITY(B25,C25)</f>
+        <v>Ballarat</v>
+      </c>
+      <c r="O25" s="6" t="str" cm="1">
+        <f t="array" ref="O25">_xll.GEO_TIMEZONE(B25,C25)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="str">
         <v>Z022</v>
       </c>
@@ -3135,8 +3427,20 @@
         <f>_xlfn.XLOOKUP(F26,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M26" s="6" t="str" cm="1">
+        <f t="array" ref="M26">_xll.GEO_COUNTRY(B26,C26)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N26" s="6" t="str" cm="1">
+        <f t="array" ref="N26">_xll.GEO_CITY(B26,C26)</f>
+        <v>Ballarat</v>
+      </c>
+      <c r="O26" s="6" t="str" cm="1">
+        <f t="array" ref="O26">_xll.GEO_TIMEZONE(B26,C26)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="str">
         <v>Z023</v>
       </c>
@@ -3178,8 +3482,20 @@
         <f>_xlfn.XLOOKUP(F27,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.90160754173399</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M27" s="6" t="str" cm="1">
+        <f t="array" ref="M27">_xll.GEO_COUNTRY(B27,C27)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N27" s="6" t="str" cm="1">
+        <f t="array" ref="N27">_xll.GEO_CITY(B27,C27)</f>
+        <v>Bomaderry</v>
+      </c>
+      <c r="O27" s="6" t="str" cm="1">
+        <f t="array" ref="O27">_xll.GEO_TIMEZONE(B27,C27)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="str">
         <v>Z024</v>
       </c>
@@ -3221,8 +3537,20 @@
         <f>_xlfn.XLOOKUP(F28,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.90160754173399</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M28" s="6" t="str" cm="1">
+        <f t="array" ref="M28">_xll.GEO_COUNTRY(B28,C28)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N28" s="6" t="str" cm="1">
+        <f t="array" ref="N28">_xll.GEO_CITY(B28,C28)</f>
+        <v>Bomaderry</v>
+      </c>
+      <c r="O28" s="6" t="str" cm="1">
+        <f t="array" ref="O28">_xll.GEO_TIMEZONE(B28,C28)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="str">
         <v>Z025</v>
       </c>
@@ -3264,8 +3592,20 @@
         <f>_xlfn.XLOOKUP(F29,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.169624186508</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M29" s="6" t="str" cm="1">
+        <f t="array" ref="M29">_xll.GEO_COUNTRY(B29,C29)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N29" s="6" t="str" cm="1">
+        <f t="array" ref="N29">_xll.GEO_CITY(B29,C29)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O29" s="6" t="str" cm="1">
+        <f t="array" ref="O29">_xll.GEO_TIMEZONE(B29,C29)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="str">
         <v>Z026</v>
       </c>
@@ -3307,8 +3647,20 @@
         <f>_xlfn.XLOOKUP(F30,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.90160754173399</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M30" s="6" t="str" cm="1">
+        <f t="array" ref="M30">_xll.GEO_COUNTRY(B30,C30)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N30" s="6" t="str" cm="1">
+        <f t="array" ref="N30">_xll.GEO_CITY(B30,C30)</f>
+        <v>Bowral</v>
+      </c>
+      <c r="O30" s="6" t="str" cm="1">
+        <f t="array" ref="O30">_xll.GEO_TIMEZONE(B30,C30)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="str">
         <v>Z027</v>
       </c>
@@ -3350,8 +3702,20 @@
         <f>_xlfn.XLOOKUP(F31,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M31" s="6" t="str" cm="1">
+        <f t="array" ref="M31">_xll.GEO_COUNTRY(B31,C31)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N31" s="6" t="str" cm="1">
+        <f t="array" ref="N31">_xll.GEO_CITY(B31,C31)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O31" s="6" t="str" cm="1">
+        <f t="array" ref="O31">_xll.GEO_TIMEZONE(B31,C31)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="str">
         <v>Z028</v>
       </c>
@@ -3393,8 +3757,20 @@
         <f>_xlfn.XLOOKUP(F32,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M32" s="6" t="str" cm="1">
+        <f t="array" ref="M32">_xll.GEO_COUNTRY(B32,C32)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N32" s="6" t="str" cm="1">
+        <f t="array" ref="N32">_xll.GEO_CITY(B32,C32)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O32" s="6" t="str" cm="1">
+        <f t="array" ref="O32">_xll.GEO_TIMEZONE(B32,C32)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="str">
         <v>Z029</v>
       </c>
@@ -3436,8 +3812,20 @@
         <f>_xlfn.XLOOKUP(F33,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M33" s="6" t="str" cm="1">
+        <f t="array" ref="M33">_xll.GEO_COUNTRY(B33,C33)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N33" s="6" t="str" cm="1">
+        <f t="array" ref="N33">_xll.GEO_CITY(B33,C33)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O33" s="6" t="str" cm="1">
+        <f t="array" ref="O33">_xll.GEO_TIMEZONE(B33,C33)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="str">
         <v>Z030</v>
       </c>
@@ -3479,8 +3867,20 @@
         <f>_xlfn.XLOOKUP(F34,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M34" s="6" t="str" cm="1">
+        <f t="array" ref="M34">_xll.GEO_COUNTRY(B34,C34)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N34" s="6" t="str" cm="1">
+        <f t="array" ref="N34">_xll.GEO_CITY(B34,C34)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O34" s="6" t="str" cm="1">
+        <f t="array" ref="O34">_xll.GEO_TIMEZONE(B34,C34)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="str">
         <v>Z031</v>
       </c>
@@ -3522,8 +3922,20 @@
         <f>_xlfn.XLOOKUP(F35,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M35" s="6" t="str" cm="1">
+        <f t="array" ref="M35">_xll.GEO_COUNTRY(B35,C35)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N35" s="6" t="str" cm="1">
+        <f t="array" ref="N35">_xll.GEO_CITY(B35,C35)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O35" s="6" t="str" cm="1">
+        <f t="array" ref="O35">_xll.GEO_TIMEZONE(B35,C35)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="str">
         <v>Z032</v>
       </c>
@@ -3565,8 +3977,20 @@
         <f>_xlfn.XLOOKUP(F36,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M36" s="6" t="str" cm="1">
+        <f t="array" ref="M36">_xll.GEO_COUNTRY(B36,C36)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N36" s="6" t="str" cm="1">
+        <f t="array" ref="N36">_xll.GEO_CITY(B36,C36)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O36" s="6" t="str" cm="1">
+        <f t="array" ref="O36">_xll.GEO_TIMEZONE(B36,C36)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="str">
         <v>Z033</v>
       </c>
@@ -3608,8 +4032,20 @@
         <f>_xlfn.XLOOKUP(F37,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M37" s="6" t="str" cm="1">
+        <f t="array" ref="M37">_xll.GEO_COUNTRY(B37,C37)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N37" s="6" t="str" cm="1">
+        <f t="array" ref="N37">_xll.GEO_CITY(B37,C37)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O37" s="6" t="str" cm="1">
+        <f t="array" ref="O37">_xll.GEO_TIMEZONE(B37,C37)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="str">
         <v>Z034</v>
       </c>
@@ -3651,8 +4087,20 @@
         <f>_xlfn.XLOOKUP(F38,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M38" s="6" t="str" cm="1">
+        <f t="array" ref="M38">_xll.GEO_COUNTRY(B38,C38)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N38" s="6" t="str" cm="1">
+        <f t="array" ref="N38">_xll.GEO_CITY(B38,C38)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O38" s="6" t="str" cm="1">
+        <f t="array" ref="O38">_xll.GEO_TIMEZONE(B38,C38)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="str">
         <v>Z035</v>
       </c>
@@ -3694,8 +4142,20 @@
         <f>_xlfn.XLOOKUP(F39,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M39" s="6" t="str" cm="1">
+        <f t="array" ref="M39">_xll.GEO_COUNTRY(B39,C39)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N39" s="6" t="str" cm="1">
+        <f t="array" ref="N39">_xll.GEO_CITY(B39,C39)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O39" s="6" t="str" cm="1">
+        <f t="array" ref="O39">_xll.GEO_TIMEZONE(B39,C39)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="str">
         <v>Z036</v>
       </c>
@@ -3737,8 +4197,20 @@
         <f>_xlfn.XLOOKUP(F40,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M40" s="6" t="str" cm="1">
+        <f t="array" ref="M40">_xll.GEO_COUNTRY(B40,C40)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N40" s="6" t="str" cm="1">
+        <f t="array" ref="N40">_xll.GEO_CITY(B40,C40)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O40" s="6" t="str" cm="1">
+        <f t="array" ref="O40">_xll.GEO_TIMEZONE(B40,C40)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="str">
         <v>Z037</v>
       </c>
@@ -3780,8 +4252,20 @@
         <f>_xlfn.XLOOKUP(F41,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M41" s="6" t="str" cm="1">
+        <f t="array" ref="M41">_xll.GEO_COUNTRY(B41,C41)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N41" s="6" t="str" cm="1">
+        <f t="array" ref="N41">_xll.GEO_CITY(B41,C41)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O41" s="6" t="str" cm="1">
+        <f t="array" ref="O41">_xll.GEO_TIMEZONE(B41,C41)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="str">
         <v>Z038</v>
       </c>
@@ -3823,8 +4307,20 @@
         <f>_xlfn.XLOOKUP(F42,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M42" s="6" t="str" cm="1">
+        <f t="array" ref="M42">_xll.GEO_COUNTRY(B42,C42)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N42" s="6" t="str" cm="1">
+        <f t="array" ref="N42">_xll.GEO_CITY(B42,C42)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O42" s="6" t="str" cm="1">
+        <f t="array" ref="O42">_xll.GEO_TIMEZONE(B42,C42)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="str">
         <v>Z039</v>
       </c>
@@ -3866,8 +4362,20 @@
         <f>_xlfn.XLOOKUP(F43,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M43" s="6" t="str" cm="1">
+        <f t="array" ref="M43">_xll.GEO_COUNTRY(B43,C43)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N43" s="6" t="str" cm="1">
+        <f t="array" ref="N43">_xll.GEO_CITY(B43,C43)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O43" s="6" t="str" cm="1">
+        <f t="array" ref="O43">_xll.GEO_TIMEZONE(B43,C43)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="str">
         <v>Z040</v>
       </c>
@@ -3909,8 +4417,20 @@
         <f>_xlfn.XLOOKUP(F44,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M44" s="6" t="str" cm="1">
+        <f t="array" ref="M44">_xll.GEO_COUNTRY(B44,C44)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N44" s="6" t="str" cm="1">
+        <f t="array" ref="N44">_xll.GEO_CITY(B44,C44)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O44" s="6" t="str" cm="1">
+        <f t="array" ref="O44">_xll.GEO_TIMEZONE(B44,C44)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="str">
         <v>Z041</v>
       </c>
@@ -3952,8 +4472,20 @@
         <f>_xlfn.XLOOKUP(F45,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M45" s="6" t="str" cm="1">
+        <f t="array" ref="M45">_xll.GEO_COUNTRY(B45,C45)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N45" s="6" t="str" cm="1">
+        <f t="array" ref="N45">_xll.GEO_CITY(B45,C45)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O45" s="6" t="str" cm="1">
+        <f t="array" ref="O45">_xll.GEO_TIMEZONE(B45,C45)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="str">
         <v>Z042</v>
       </c>
@@ -3995,8 +4527,20 @@
         <f>_xlfn.XLOOKUP(F46,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M46" s="6" t="str" cm="1">
+        <f t="array" ref="M46">_xll.GEO_COUNTRY(B46,C46)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N46" s="6" t="str" cm="1">
+        <f t="array" ref="N46">_xll.GEO_CITY(B46,C46)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O46" s="6" t="str" cm="1">
+        <f t="array" ref="O46">_xll.GEO_TIMEZONE(B46,C46)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="str">
         <v>Z043</v>
       </c>
@@ -4038,8 +4582,20 @@
         <f>_xlfn.XLOOKUP(F47,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M47" s="6" t="str" cm="1">
+        <f t="array" ref="M47">_xll.GEO_COUNTRY(B47,C47)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N47" s="6" t="str" cm="1">
+        <f t="array" ref="N47">_xll.GEO_CITY(B47,C47)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O47" s="6" t="str" cm="1">
+        <f t="array" ref="O47">_xll.GEO_TIMEZONE(B47,C47)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="str">
         <v>Z044</v>
       </c>
@@ -4081,8 +4637,20 @@
         <f>_xlfn.XLOOKUP(F48,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M48" s="6" t="str" cm="1">
+        <f t="array" ref="M48">_xll.GEO_COUNTRY(B48,C48)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N48" s="6" t="str" cm="1">
+        <f t="array" ref="N48">_xll.GEO_CITY(B48,C48)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O48" s="6" t="str" cm="1">
+        <f t="array" ref="O48">_xll.GEO_TIMEZONE(B48,C48)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="str">
         <v>Z045</v>
       </c>
@@ -4124,8 +4692,20 @@
         <f>_xlfn.XLOOKUP(F49,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03045610000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M49" s="6" t="str" cm="1">
+        <f t="array" ref="M49">_xll.GEO_COUNTRY(B49,C49)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N49" s="6" t="str" cm="1">
+        <f t="array" ref="N49">_xll.GEO_CITY(B49,C49)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O49" s="6" t="str" cm="1">
+        <f t="array" ref="O49">_xll.GEO_TIMEZONE(B49,C49)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="str">
         <v>Z046</v>
       </c>
@@ -4167,8 +4747,20 @@
         <f>_xlfn.XLOOKUP(F50,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M50" s="6" t="str" cm="1">
+        <f t="array" ref="M50">_xll.GEO_COUNTRY(B50,C50)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N50" s="6" t="str" cm="1">
+        <f t="array" ref="N50">_xll.GEO_CITY(B50,C50)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O50" s="6" t="str" cm="1">
+        <f t="array" ref="O50">_xll.GEO_TIMEZONE(B50,C50)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="str">
         <v>Z047</v>
       </c>
@@ -4210,8 +4802,20 @@
         <f>_xlfn.XLOOKUP(F51,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M51" s="6" t="str" cm="1">
+        <f t="array" ref="M51">_xll.GEO_COUNTRY(B51,C51)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N51" s="6" t="str" cm="1">
+        <f t="array" ref="N51">_xll.GEO_CITY(B51,C51)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O51" s="6" t="str" cm="1">
+        <f t="array" ref="O51">_xll.GEO_TIMEZONE(B51,C51)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="str">
         <v>Z048</v>
       </c>
@@ -4253,8 +4857,20 @@
         <f>_xlfn.XLOOKUP(F52,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M52" s="6" t="str" cm="1">
+        <f t="array" ref="M52">_xll.GEO_COUNTRY(B52,C52)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N52" s="6" t="str" cm="1">
+        <f t="array" ref="N52">_xll.GEO_CITY(B52,C52)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O52" s="6" t="str" cm="1">
+        <f t="array" ref="O52">_xll.GEO_TIMEZONE(B52,C52)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="str">
         <v>Z049</v>
       </c>
@@ -4296,8 +4912,20 @@
         <f>_xlfn.XLOOKUP(F53,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M53" s="6" t="str" cm="1">
+        <f t="array" ref="M53">_xll.GEO_COUNTRY(B53,C53)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N53" s="6" t="str" cm="1">
+        <f t="array" ref="N53">_xll.GEO_CITY(B53,C53)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O53" s="6" t="str" cm="1">
+        <f t="array" ref="O53">_xll.GEO_TIMEZONE(B53,C53)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="str">
         <v>Z050</v>
       </c>
@@ -4339,8 +4967,20 @@
         <f>_xlfn.XLOOKUP(F54,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M54" s="6" t="str" cm="1">
+        <f t="array" ref="M54">_xll.GEO_COUNTRY(B54,C54)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N54" s="6" t="str" cm="1">
+        <f t="array" ref="N54">_xll.GEO_CITY(B54,C54)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O54" s="6" t="str" cm="1">
+        <f t="array" ref="O54">_xll.GEO_TIMEZONE(B54,C54)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="str">
         <v>Z051</v>
       </c>
@@ -4382,8 +5022,20 @@
         <f>_xlfn.XLOOKUP(F55,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M55" s="6" t="str" cm="1">
+        <f t="array" ref="M55">_xll.GEO_COUNTRY(B55,C55)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N55" s="6" t="str" cm="1">
+        <f t="array" ref="N55">_xll.GEO_CITY(B55,C55)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O55" s="6" t="str" cm="1">
+        <f t="array" ref="O55">_xll.GEO_TIMEZONE(B55,C55)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="str">
         <v>Z052</v>
       </c>
@@ -4425,8 +5077,20 @@
         <f>_xlfn.XLOOKUP(F56,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M56" s="6" t="str" cm="1">
+        <f t="array" ref="M56">_xll.GEO_COUNTRY(B56,C56)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N56" s="6" t="str" cm="1">
+        <f t="array" ref="N56">_xll.GEO_CITY(B56,C56)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O56" s="6" t="str" cm="1">
+        <f t="array" ref="O56">_xll.GEO_TIMEZONE(B56,C56)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="str">
         <v>Z053</v>
       </c>
@@ -4468,8 +5132,20 @@
         <f>_xlfn.XLOOKUP(F57,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M57" s="6" t="str" cm="1">
+        <f t="array" ref="M57">_xll.GEO_COUNTRY(B57,C57)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N57" s="6" t="str" cm="1">
+        <f t="array" ref="N57">_xll.GEO_CITY(B57,C57)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O57" s="6" t="str" cm="1">
+        <f t="array" ref="O57">_xll.GEO_TIMEZONE(B57,C57)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="str">
         <v>Z054</v>
       </c>
@@ -4511,8 +5187,20 @@
         <f>_xlfn.XLOOKUP(F58,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M58" s="6" t="str" cm="1">
+        <f t="array" ref="M58">_xll.GEO_COUNTRY(B58,C58)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N58" s="6" t="str" cm="1">
+        <f t="array" ref="N58">_xll.GEO_CITY(B58,C58)</f>
+        <v>Brisbane</v>
+      </c>
+      <c r="O58" s="6" t="str" cm="1">
+        <f t="array" ref="O58">_xll.GEO_TIMEZONE(B58,C58)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="str">
         <v>Z055</v>
       </c>
@@ -4554,8 +5242,20 @@
         <f>_xlfn.XLOOKUP(F59,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M59" s="6" t="str" cm="1">
+        <f t="array" ref="M59">_xll.GEO_COUNTRY(B59,C59)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N59" s="6" t="str" cm="1">
+        <f t="array" ref="N59">_xll.GEO_CITY(B59,C59)</f>
+        <v>Narangba</v>
+      </c>
+      <c r="O59" s="6" t="str" cm="1">
+        <f t="array" ref="O59">_xll.GEO_TIMEZONE(B59,C59)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="str">
         <v>Z056</v>
       </c>
@@ -4597,8 +5297,20 @@
         <f>_xlfn.XLOOKUP(F60,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.08759000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M60" s="6" t="str" cm="1">
+        <f t="array" ref="M60">_xll.GEO_COUNTRY(B60,C60)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N60" s="6" t="str" cm="1">
+        <f t="array" ref="N60">_xll.GEO_CITY(B60,C60)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O60" s="6" t="str" cm="1">
+        <f t="array" ref="O60">_xll.GEO_TIMEZONE(B60,C60)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="str">
         <v>Z057</v>
       </c>
@@ -4640,8 +5352,20 @@
         <f>_xlfn.XLOOKUP(F61,OurLocations[Id],OurLocations[Lon])</f>
         <v>146.81792590000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M61" s="6" t="str" cm="1">
+        <f t="array" ref="M61">_xll.GEO_COUNTRY(B61,C61)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N61" s="6" t="str" cm="1">
+        <f t="array" ref="N61">_xll.GEO_CITY(B61,C61)</f>
+        <v>Cairns</v>
+      </c>
+      <c r="O61" s="6" t="str" cm="1">
+        <f t="array" ref="O61">_xll.GEO_TIMEZONE(B61,C61)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="str">
         <v>Z058</v>
       </c>
@@ -4683,8 +5407,20 @@
         <f>_xlfn.XLOOKUP(F62,OurLocations[Id],OurLocations[Lon])</f>
         <v>146.81792590000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M62" s="6" t="str" cm="1">
+        <f t="array" ref="M62">_xll.GEO_COUNTRY(B62,C62)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N62" s="6" t="str" cm="1">
+        <f t="array" ref="N62">_xll.GEO_CITY(B62,C62)</f>
+        <v>Cairns</v>
+      </c>
+      <c r="O62" s="6" t="str" cm="1">
+        <f t="array" ref="O62">_xll.GEO_TIMEZONE(B62,C62)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="str">
         <v>Z059</v>
       </c>
@@ -4726,8 +5462,20 @@
         <f>_xlfn.XLOOKUP(F63,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.126</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M63" s="6" t="str" cm="1">
+        <f t="array" ref="M63">_xll.GEO_COUNTRY(B63,C63)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N63" s="6" t="str" cm="1">
+        <f t="array" ref="N63">_xll.GEO_CITY(B63,C63)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O63" s="6" t="str" cm="1">
+        <f t="array" ref="O63">_xll.GEO_TIMEZONE(B63,C63)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="str">
         <v>Z060</v>
       </c>
@@ -4769,8 +5517,20 @@
         <f>_xlfn.XLOOKUP(F64,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.126</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M64" s="6" t="str" cm="1">
+        <f t="array" ref="M64">_xll.GEO_COUNTRY(B64,C64)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N64" s="6" t="str" cm="1">
+        <f t="array" ref="N64">_xll.GEO_CITY(B64,C64)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O64" s="6" t="str" cm="1">
+        <f t="array" ref="O64">_xll.GEO_TIMEZONE(B64,C64)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="str">
         <v>Z061</v>
       </c>
@@ -4812,8 +5572,20 @@
         <f>_xlfn.XLOOKUP(F65,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.19016149999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M65" s="6" t="str" cm="1">
+        <f t="array" ref="M65">_xll.GEO_COUNTRY(B65,C65)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N65" s="6" t="str" cm="1">
+        <f t="array" ref="N65">_xll.GEO_CITY(B65,C65)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O65" s="6" t="str" cm="1">
+        <f t="array" ref="O65">_xll.GEO_TIMEZONE(B65,C65)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="str">
         <v>Z062</v>
       </c>
@@ -4855,8 +5627,20 @@
         <f>_xlfn.XLOOKUP(F66,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.126</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M66" s="6" t="str" cm="1">
+        <f t="array" ref="M66">_xll.GEO_COUNTRY(B66,C66)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N66" s="6" t="str" cm="1">
+        <f t="array" ref="N66">_xll.GEO_CITY(B66,C66)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O66" s="6" t="str" cm="1">
+        <f t="array" ref="O66">_xll.GEO_TIMEZONE(B66,C66)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="str">
         <v>Z063</v>
       </c>
@@ -4898,8 +5682,20 @@
         <f>_xlfn.XLOOKUP(F67,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.126</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M67" s="6" t="str" cm="1">
+        <f t="array" ref="M67">_xll.GEO_COUNTRY(B67,C67)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N67" s="6" t="str" cm="1">
+        <f t="array" ref="N67">_xll.GEO_CITY(B67,C67)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O67" s="6" t="str" cm="1">
+        <f t="array" ref="O67">_xll.GEO_TIMEZONE(B67,C67)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="str">
         <v>Z064</v>
       </c>
@@ -4941,8 +5737,20 @@
         <f>_xlfn.XLOOKUP(F68,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.12776650000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M68" s="6" t="str" cm="1">
+        <f t="array" ref="M68">_xll.GEO_COUNTRY(B68,C68)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N68" s="6" t="str" cm="1">
+        <f t="array" ref="N68">_xll.GEO_CITY(B68,C68)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O68" s="6" t="str" cm="1">
+        <f t="array" ref="O68">_xll.GEO_TIMEZONE(B68,C68)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="str">
         <v>Z065</v>
       </c>
@@ -4984,8 +5792,20 @@
         <f>_xlfn.XLOOKUP(F69,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.12776650000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M69" s="6" t="str" cm="1">
+        <f t="array" ref="M69">_xll.GEO_COUNTRY(B69,C69)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N69" s="6" t="str" cm="1">
+        <f t="array" ref="N69">_xll.GEO_CITY(B69,C69)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O69" s="6" t="str" cm="1">
+        <f t="array" ref="O69">_xll.GEO_TIMEZONE(B69,C69)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="str">
         <v>Z066</v>
       </c>
@@ -5027,8 +5847,20 @@
         <f>_xlfn.XLOOKUP(F70,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.12776650000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M70" s="6" t="str" cm="1">
+        <f t="array" ref="M70">_xll.GEO_COUNTRY(B70,C70)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N70" s="6" t="str" cm="1">
+        <f t="array" ref="N70">_xll.GEO_CITY(B70,C70)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O70" s="6" t="str" cm="1">
+        <f t="array" ref="O70">_xll.GEO_TIMEZONE(B70,C70)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="str">
         <v>Z067</v>
       </c>
@@ -5070,8 +5902,20 @@
         <f>_xlfn.XLOOKUP(F71,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.12776650000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M71" s="6" t="str" cm="1">
+        <f t="array" ref="M71">_xll.GEO_COUNTRY(B71,C71)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N71" s="6" t="str" cm="1">
+        <f t="array" ref="N71">_xll.GEO_CITY(B71,C71)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O71" s="6" t="str" cm="1">
+        <f t="array" ref="O71">_xll.GEO_TIMEZONE(B71,C71)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="str">
         <v>Z068</v>
       </c>
@@ -5113,8 +5957,20 @@
         <f>_xlfn.XLOOKUP(F72,OurLocations[Id],OurLocations[Lon])</f>
         <v>149.126</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M72" s="6" t="str" cm="1">
+        <f t="array" ref="M72">_xll.GEO_COUNTRY(B72,C72)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N72" s="6" t="str" cm="1">
+        <f t="array" ref="N72">_xll.GEO_CITY(B72,C72)</f>
+        <v>Canberra</v>
+      </c>
+      <c r="O72" s="6" t="str" cm="1">
+        <f t="array" ref="O72">_xll.GEO_TIMEZONE(B72,C72)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="str">
         <v>Z069</v>
       </c>
@@ -5156,8 +6012,20 @@
         <f>_xlfn.XLOOKUP(F73,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.17975480337699</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M73" s="6" t="str" cm="1">
+        <f t="array" ref="M73">_xll.GEO_COUNTRY(B73,C73)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N73" s="6" t="str" cm="1">
+        <f t="array" ref="N73">_xll.GEO_CITY(B73,C73)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O73" s="6" t="str" cm="1">
+        <f t="array" ref="O73">_xll.GEO_TIMEZONE(B73,C73)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="str">
         <v>Z070</v>
       </c>
@@ -5199,8 +6067,20 @@
         <f>_xlfn.XLOOKUP(F74,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M74" s="6" t="str" cm="1">
+        <f t="array" ref="M74">_xll.GEO_COUNTRY(B74,C74)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N74" s="6" t="str" cm="1">
+        <f t="array" ref="N74">_xll.GEO_CITY(B74,C74)</f>
+        <v>Narangba</v>
+      </c>
+      <c r="O74" s="6" t="str" cm="1">
+        <f t="array" ref="O74">_xll.GEO_TIMEZONE(B74,C74)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="str">
         <v>Z071</v>
       </c>
@@ -5242,8 +6122,20 @@
         <f>_xlfn.XLOOKUP(F75,OurLocations[Id],OurLocations[Lon])</f>
         <v>130.84317166239299</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M75" s="6" t="str" cm="1">
+        <f t="array" ref="M75">_xll.GEO_COUNTRY(B75,C75)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N75" s="6" t="str" cm="1">
+        <f t="array" ref="N75">_xll.GEO_CITY(B75,C75)</f>
+        <v>Darwin</v>
+      </c>
+      <c r="O75" s="6" t="str" cm="1">
+        <f t="array" ref="O75">_xll.GEO_TIMEZONE(B75,C75)</f>
+        <v>Australia/Darwin</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="str">
         <v>Z072</v>
       </c>
@@ -5285,8 +6177,20 @@
         <f>_xlfn.XLOOKUP(F76,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.797226296178</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M76" s="6" t="str" cm="1">
+        <f t="array" ref="M76">_xll.GEO_COUNTRY(B76,C76)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N76" s="6" t="str" cm="1">
+        <f t="array" ref="N76">_xll.GEO_CITY(B76,C76)</f>
+        <v>Fremantle</v>
+      </c>
+      <c r="O76" s="6" t="str" cm="1">
+        <f t="array" ref="O76">_xll.GEO_TIMEZONE(B76,C76)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="str">
         <v>Z073</v>
       </c>
@@ -5328,8 +6232,20 @@
         <f>_xlfn.XLOOKUP(F77,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M77" s="6" t="str" cm="1">
+        <f t="array" ref="M77">_xll.GEO_COUNTRY(B77,C77)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N77" s="6" t="str" cm="1">
+        <f t="array" ref="N77">_xll.GEO_CITY(B77,C77)</f>
+        <v>Merrimac</v>
+      </c>
+      <c r="O77" s="6" t="str" cm="1">
+        <f t="array" ref="O77">_xll.GEO_TIMEZONE(B77,C77)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="str">
         <v>Z074</v>
       </c>
@@ -5371,8 +6287,20 @@
         <f>_xlfn.XLOOKUP(F78,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M78" s="6" t="str" cm="1">
+        <f t="array" ref="M78">_xll.GEO_COUNTRY(B78,C78)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N78" s="6" t="str" cm="1">
+        <f t="array" ref="N78">_xll.GEO_CITY(B78,C78)</f>
+        <v>Merrimac</v>
+      </c>
+      <c r="O78" s="6" t="str" cm="1">
+        <f t="array" ref="O78">_xll.GEO_TIMEZONE(B78,C78)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="str">
         <v>Z075</v>
       </c>
@@ -5414,8 +6342,20 @@
         <f>_xlfn.XLOOKUP(F79,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M79" s="6" t="str" cm="1">
+        <f t="array" ref="M79">_xll.GEO_COUNTRY(B79,C79)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N79" s="6" t="str" cm="1">
+        <f t="array" ref="N79">_xll.GEO_CITY(B79,C79)</f>
+        <v>Gold Coast</v>
+      </c>
+      <c r="O79" s="6" t="str" cm="1">
+        <f t="array" ref="O79">_xll.GEO_TIMEZONE(B79,C79)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="str">
         <v>Z076</v>
       </c>
@@ -5457,8 +6397,20 @@
         <f>_xlfn.XLOOKUP(F80,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M80" s="6" t="str" cm="1">
+        <f t="array" ref="M80">_xll.GEO_COUNTRY(B80,C80)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N80" s="6" t="str" cm="1">
+        <f t="array" ref="N80">_xll.GEO_CITY(B80,C80)</f>
+        <v>Gold Coast</v>
+      </c>
+      <c r="O80" s="6" t="str" cm="1">
+        <f t="array" ref="O80">_xll.GEO_TIMEZONE(B80,C80)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="str">
         <v>Z077</v>
       </c>
@@ -5500,8 +6452,20 @@
         <f>_xlfn.XLOOKUP(F81,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M81" s="6" t="str" cm="1">
+        <f t="array" ref="M81">_xll.GEO_COUNTRY(B81,C81)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N81" s="6" t="str" cm="1">
+        <f t="array" ref="N81">_xll.GEO_CITY(B81,C81)</f>
+        <v>Southport</v>
+      </c>
+      <c r="O81" s="6" t="str" cm="1">
+        <f t="array" ref="O81">_xll.GEO_TIMEZONE(B81,C81)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="10" t="str">
         <v>Z078</v>
       </c>
@@ -5543,8 +6507,20 @@
         <f>_xlfn.XLOOKUP(F82,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M82" s="6" t="str" cm="1">
+        <f t="array" ref="M82">_xll.GEO_COUNTRY(B82,C82)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N82" s="6" t="str" cm="1">
+        <f t="array" ref="N82">_xll.GEO_CITY(B82,C82)</f>
+        <v>Southport</v>
+      </c>
+      <c r="O82" s="6" t="str" cm="1">
+        <f t="array" ref="O82">_xll.GEO_TIMEZONE(B82,C82)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="str">
         <v>Z079</v>
       </c>
@@ -5586,8 +6562,20 @@
         <f>_xlfn.XLOOKUP(F83,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M83" s="6" t="str" cm="1">
+        <f t="array" ref="M83">_xll.GEO_COUNTRY(B83,C83)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N83" s="6" t="str" cm="1">
+        <f t="array" ref="N83">_xll.GEO_CITY(B83,C83)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O83" s="6" t="str" cm="1">
+        <f t="array" ref="O83">_xll.GEO_TIMEZONE(B83,C83)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="str">
         <v>Z080</v>
       </c>
@@ -5629,8 +6617,20 @@
         <f>_xlfn.XLOOKUP(F84,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M84" s="6" t="str" cm="1">
+        <f t="array" ref="M84">_xll.GEO_COUNTRY(B84,C84)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N84" s="6" t="str" cm="1">
+        <f t="array" ref="N84">_xll.GEO_CITY(B84,C84)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O84" s="6" t="str" cm="1">
+        <f t="array" ref="O84">_xll.GEO_TIMEZONE(B84,C84)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="str">
         <v>Z081</v>
       </c>
@@ -5672,8 +6672,20 @@
         <f>_xlfn.XLOOKUP(F85,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M85" s="6" t="str" cm="1">
+        <f t="array" ref="M85">_xll.GEO_COUNTRY(B85,C85)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N85" s="6" t="str" cm="1">
+        <f t="array" ref="N85">_xll.GEO_CITY(B85,C85)</f>
+        <v>Hobart</v>
+      </c>
+      <c r="O85" s="6" t="str" cm="1">
+        <f t="array" ref="O85">_xll.GEO_TIMEZONE(B85,C85)</f>
+        <v>Australia/Hobart</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="10" t="str">
         <v>Z082</v>
       </c>
@@ -5715,8 +6727,20 @@
         <f>_xlfn.XLOOKUP(F86,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M86" s="6" t="str" cm="1">
+        <f t="array" ref="M86">_xll.GEO_COUNTRY(B86,C86)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N86" s="6" t="str" cm="1">
+        <f t="array" ref="N86">_xll.GEO_CITY(B86,C86)</f>
+        <v>Hobart</v>
+      </c>
+      <c r="O86" s="6" t="str" cm="1">
+        <f t="array" ref="O86">_xll.GEO_TIMEZONE(B86,C86)</f>
+        <v>Australia/Hobart</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="str">
         <v>Z083</v>
       </c>
@@ -5758,8 +6782,20 @@
         <f>_xlfn.XLOOKUP(F87,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M87" s="6" t="str" cm="1">
+        <f t="array" ref="M87">_xll.GEO_COUNTRY(B87,C87)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N87" s="6" t="str" cm="1">
+        <f t="array" ref="N87">_xll.GEO_CITY(B87,C87)</f>
+        <v>Rutherford</v>
+      </c>
+      <c r="O87" s="6" t="str" cm="1">
+        <f t="array" ref="O87">_xll.GEO_TIMEZONE(B87,C87)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="str">
         <v>Z084</v>
       </c>
@@ -5801,8 +6837,20 @@
         <f>_xlfn.XLOOKUP(F88,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.797226296178</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M88" s="6" t="str" cm="1">
+        <f t="array" ref="M88">_xll.GEO_COUNTRY(B88,C88)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N88" s="6" t="str" cm="1">
+        <f t="array" ref="N88">_xll.GEO_CITY(B88,C88)</f>
+        <v>Mandurah</v>
+      </c>
+      <c r="O88" s="6" t="str" cm="1">
+        <f t="array" ref="O88">_xll.GEO_TIMEZONE(B88,C88)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="str">
         <v>Z085</v>
       </c>
@@ -5844,8 +6892,20 @@
         <f>_xlfn.XLOOKUP(F89,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9516404</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M89" s="6" t="str" cm="1">
+        <f t="array" ref="M89">_xll.GEO_COUNTRY(B89,C89)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N89" s="6" t="str" cm="1">
+        <f t="array" ref="N89">_xll.GEO_CITY(B89,C89)</f>
+        <v>Geelong</v>
+      </c>
+      <c r="O89" s="6" t="str" cm="1">
+        <f t="array" ref="O89">_xll.GEO_TIMEZONE(B89,C89)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="10" t="str">
         <v>Z086</v>
       </c>
@@ -5887,8 +6947,20 @@
         <f>_xlfn.XLOOKUP(F90,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M90" s="6" t="str" cm="1">
+        <f t="array" ref="M90">_xll.GEO_COUNTRY(B90,C90)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N90" s="6" t="str" cm="1">
+        <f t="array" ref="N90">_xll.GEO_CITY(B90,C90)</f>
+        <v>Frankston</v>
+      </c>
+      <c r="O90" s="6" t="str" cm="1">
+        <f t="array" ref="O90">_xll.GEO_TIMEZONE(B90,C90)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="str">
         <v>Z087</v>
       </c>
@@ -5930,8 +7002,20 @@
         <f>_xlfn.XLOOKUP(F91,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M91" s="6" t="str" cm="1">
+        <f t="array" ref="M91">_xll.GEO_COUNTRY(B91,C91)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N91" s="6" t="str" cm="1">
+        <f t="array" ref="N91">_xll.GEO_CITY(B91,C91)</f>
+        <v>Narre Warren North</v>
+      </c>
+      <c r="O91" s="6" t="str" cm="1">
+        <f t="array" ref="O91">_xll.GEO_TIMEZONE(B91,C91)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="10" t="str">
         <v>Z088</v>
       </c>
@@ -5973,8 +7057,20 @@
         <f>_xlfn.XLOOKUP(F92,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M92" s="6" t="str" cm="1">
+        <f t="array" ref="M92">_xll.GEO_COUNTRY(B92,C92)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N92" s="6" t="str" cm="1">
+        <f t="array" ref="N92">_xll.GEO_CITY(B92,C92)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O92" s="6" t="str" cm="1">
+        <f t="array" ref="O92">_xll.GEO_TIMEZONE(B92,C92)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="str">
         <v>Z089</v>
       </c>
@@ -6016,8 +7112,20 @@
         <f>_xlfn.XLOOKUP(F93,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M93" s="6" t="str" cm="1">
+        <f t="array" ref="M93">_xll.GEO_COUNTRY(B93,C93)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N93" s="6" t="str" cm="1">
+        <f t="array" ref="N93">_xll.GEO_CITY(B93,C93)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O93" s="6" t="str" cm="1">
+        <f t="array" ref="O93">_xll.GEO_TIMEZONE(B93,C93)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="10" t="str">
         <v>Z090</v>
       </c>
@@ -6059,8 +7167,20 @@
         <f>_xlfn.XLOOKUP(F94,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M94" s="6" t="str" cm="1">
+        <f t="array" ref="M94">_xll.GEO_COUNTRY(B94,C94)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N94" s="6" t="str" cm="1">
+        <f t="array" ref="N94">_xll.GEO_CITY(B94,C94)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O94" s="6" t="str" cm="1">
+        <f t="array" ref="O94">_xll.GEO_TIMEZONE(B94,C94)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="str">
         <v>Z091</v>
       </c>
@@ -6102,8 +7222,20 @@
         <f>_xlfn.XLOOKUP(F95,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.21100000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M95" s="6" t="str" cm="1">
+        <f t="array" ref="M95">_xll.GEO_COUNTRY(B95,C95)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N95" s="6" t="str" cm="1">
+        <f t="array" ref="N95">_xll.GEO_CITY(B95,C95)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O95" s="6" t="str" cm="1">
+        <f t="array" ref="O95">_xll.GEO_TIMEZONE(B95,C95)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="str">
         <v>Z092</v>
       </c>
@@ -6145,8 +7277,20 @@
         <f>_xlfn.XLOOKUP(F96,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M96" s="6" t="str" cm="1">
+        <f t="array" ref="M96">_xll.GEO_COUNTRY(B96,C96)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N96" s="6" t="str" cm="1">
+        <f t="array" ref="N96">_xll.GEO_CITY(B96,C96)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O96" s="6" t="str" cm="1">
+        <f t="array" ref="O96">_xll.GEO_TIMEZONE(B96,C96)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="str">
         <v>Z093</v>
       </c>
@@ -6188,8 +7332,20 @@
         <f>_xlfn.XLOOKUP(F97,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M97" s="6" t="str" cm="1">
+        <f t="array" ref="M97">_xll.GEO_COUNTRY(B97,C97)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N97" s="6" t="str" cm="1">
+        <f t="array" ref="N97">_xll.GEO_CITY(B97,C97)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O97" s="6" t="str" cm="1">
+        <f t="array" ref="O97">_xll.GEO_TIMEZONE(B97,C97)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="10" t="str">
         <v>Z094</v>
       </c>
@@ -6231,8 +7387,20 @@
         <f>_xlfn.XLOOKUP(F98,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M98" s="6" t="str" cm="1">
+        <f t="array" ref="M98">_xll.GEO_COUNTRY(B98,C98)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N98" s="6" t="str" cm="1">
+        <f t="array" ref="N98">_xll.GEO_CITY(B98,C98)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O98" s="6" t="str" cm="1">
+        <f t="array" ref="O98">_xll.GEO_TIMEZONE(B98,C98)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="str">
         <v>Z095</v>
       </c>
@@ -6274,8 +7442,20 @@
         <f>_xlfn.XLOOKUP(F99,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M99" s="6" t="str" cm="1">
+        <f t="array" ref="M99">_xll.GEO_COUNTRY(B99,C99)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N99" s="6" t="str" cm="1">
+        <f t="array" ref="N99">_xll.GEO_CITY(B99,C99)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O99" s="6" t="str" cm="1">
+        <f t="array" ref="O99">_xll.GEO_TIMEZONE(B99,C99)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="10" t="str">
         <v>Z096</v>
       </c>
@@ -6317,8 +7497,20 @@
         <f>_xlfn.XLOOKUP(F100,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M100" s="6" t="str" cm="1">
+        <f t="array" ref="M100">_xll.GEO_COUNTRY(B100,C100)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N100" s="6" t="str" cm="1">
+        <f t="array" ref="N100">_xll.GEO_CITY(B100,C100)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O100" s="6" t="str" cm="1">
+        <f t="array" ref="O100">_xll.GEO_TIMEZONE(B100,C100)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="str">
         <v>Z097</v>
       </c>
@@ -6360,8 +7552,20 @@
         <f>_xlfn.XLOOKUP(F101,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M101" s="6" t="str" cm="1">
+        <f t="array" ref="M101">_xll.GEO_COUNTRY(B101,C101)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N101" s="6" t="str" cm="1">
+        <f t="array" ref="N101">_xll.GEO_CITY(B101,C101)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O101" s="6" t="str" cm="1">
+        <f t="array" ref="O101">_xll.GEO_TIMEZONE(B101,C101)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="str">
         <v>Z098</v>
       </c>
@@ -6403,8 +7607,20 @@
         <f>_xlfn.XLOOKUP(F102,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M102" s="6" t="str" cm="1">
+        <f t="array" ref="M102">_xll.GEO_COUNTRY(B102,C102)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N102" s="6" t="str" cm="1">
+        <f t="array" ref="N102">_xll.GEO_CITY(B102,C102)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O102" s="6" t="str" cm="1">
+        <f t="array" ref="O102">_xll.GEO_TIMEZONE(B102,C102)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="str">
         <v>Z099</v>
       </c>
@@ -6446,8 +7662,20 @@
         <f>_xlfn.XLOOKUP(F103,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M103" s="6" t="str" cm="1">
+        <f t="array" ref="M103">_xll.GEO_COUNTRY(B103,C103)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N103" s="6" t="str" cm="1">
+        <f t="array" ref="N103">_xll.GEO_CITY(B103,C103)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O103" s="6" t="str" cm="1">
+        <f t="array" ref="O103">_xll.GEO_TIMEZONE(B103,C103)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="10" t="str">
         <v>Z100</v>
       </c>
@@ -6489,8 +7717,20 @@
         <f>_xlfn.XLOOKUP(F104,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M104" s="6" t="str" cm="1">
+        <f t="array" ref="M104">_xll.GEO_COUNTRY(B104,C104)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N104" s="6" t="str" cm="1">
+        <f t="array" ref="N104">_xll.GEO_CITY(B104,C104)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O104" s="6" t="str" cm="1">
+        <f t="array" ref="O104">_xll.GEO_TIMEZONE(B104,C104)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="str">
         <v>Z101</v>
       </c>
@@ -6532,8 +7772,20 @@
         <f>_xlfn.XLOOKUP(F105,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.12102999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M105" s="6" t="str" cm="1">
+        <f t="array" ref="M105">_xll.GEO_COUNTRY(B105,C105)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N105" s="6" t="str" cm="1">
+        <f t="array" ref="N105">_xll.GEO_CITY(B105,C105)</f>
+        <v>Dandenong</v>
+      </c>
+      <c r="O105" s="6" t="str" cm="1">
+        <f t="array" ref="O105">_xll.GEO_TIMEZONE(B105,C105)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="10" t="str">
         <v>Z102</v>
       </c>
@@ -6575,8 +7827,20 @@
         <f>_xlfn.XLOOKUP(F106,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M106" s="6" t="str" cm="1">
+        <f t="array" ref="M106">_xll.GEO_COUNTRY(B106,C106)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N106" s="6" t="str" cm="1">
+        <f t="array" ref="N106">_xll.GEO_CITY(B106,C106)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O106" s="6" t="str" cm="1">
+        <f t="array" ref="O106">_xll.GEO_TIMEZONE(B106,C106)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="str">
         <v>Z103</v>
       </c>
@@ -6618,8 +7882,20 @@
         <f>_xlfn.XLOOKUP(F107,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M107" s="6" t="str" cm="1">
+        <f t="array" ref="M107">_xll.GEO_COUNTRY(B107,C107)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N107" s="6" t="str" cm="1">
+        <f t="array" ref="N107">_xll.GEO_CITY(B107,C107)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O107" s="6" t="str" cm="1">
+        <f t="array" ref="O107">_xll.GEO_TIMEZONE(B107,C107)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="str">
         <v>Z104</v>
       </c>
@@ -6661,8 +7937,20 @@
         <f>_xlfn.XLOOKUP(F108,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M108" s="6" t="str" cm="1">
+        <f t="array" ref="M108">_xll.GEO_COUNTRY(B108,C108)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N108" s="6" t="str" cm="1">
+        <f t="array" ref="N108">_xll.GEO_CITY(B108,C108)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O108" s="6" t="str" cm="1">
+        <f t="array" ref="O108">_xll.GEO_TIMEZONE(B108,C108)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="str">
         <v>Z105</v>
       </c>
@@ -6704,8 +7992,20 @@
         <f>_xlfn.XLOOKUP(F109,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M109" s="6" t="str" cm="1">
+        <f t="array" ref="M109">_xll.GEO_COUNTRY(B109,C109)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N109" s="6" t="str" cm="1">
+        <f t="array" ref="N109">_xll.GEO_CITY(B109,C109)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O109" s="6" t="str" cm="1">
+        <f t="array" ref="O109">_xll.GEO_TIMEZONE(B109,C109)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="10" t="str">
         <v>Z106</v>
       </c>
@@ -6747,8 +8047,20 @@
         <f>_xlfn.XLOOKUP(F110,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M110" s="6" t="str" cm="1">
+        <f t="array" ref="M110">_xll.GEO_COUNTRY(B110,C110)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N110" s="6" t="str" cm="1">
+        <f t="array" ref="N110">_xll.GEO_CITY(B110,C110)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O110" s="6" t="str" cm="1">
+        <f t="array" ref="O110">_xll.GEO_TIMEZONE(B110,C110)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="str">
         <v>Z107</v>
       </c>
@@ -6790,8 +8102,20 @@
         <f>_xlfn.XLOOKUP(F111,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M111" s="6" t="str" cm="1">
+        <f t="array" ref="M111">_xll.GEO_COUNTRY(B111,C111)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N111" s="6" t="str" cm="1">
+        <f t="array" ref="N111">_xll.GEO_CITY(B111,C111)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O111" s="6" t="str" cm="1">
+        <f t="array" ref="O111">_xll.GEO_TIMEZONE(B111,C111)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="str">
         <v>Z108</v>
       </c>
@@ -6833,8 +8157,20 @@
         <f>_xlfn.XLOOKUP(F112,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M112" s="6" t="str" cm="1">
+        <f t="array" ref="M112">_xll.GEO_COUNTRY(B112,C112)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N112" s="6" t="str" cm="1">
+        <f t="array" ref="N112">_xll.GEO_CITY(B112,C112)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O112" s="6" t="str" cm="1">
+        <f t="array" ref="O112">_xll.GEO_TIMEZONE(B112,C112)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="str">
         <v>Z109</v>
       </c>
@@ -6876,8 +8212,20 @@
         <f>_xlfn.XLOOKUP(F113,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M113" s="6" t="str" cm="1">
+        <f t="array" ref="M113">_xll.GEO_COUNTRY(B113,C113)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N113" s="6" t="str" cm="1">
+        <f t="array" ref="N113">_xll.GEO_CITY(B113,C113)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O113" s="6" t="str" cm="1">
+        <f t="array" ref="O113">_xll.GEO_TIMEZONE(B113,C113)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="10" t="str">
         <v>Z110</v>
       </c>
@@ -6919,8 +8267,20 @@
         <f>_xlfn.XLOOKUP(F114,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M114" s="6" t="str" cm="1">
+        <f t="array" ref="M114">_xll.GEO_COUNTRY(B114,C114)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N114" s="6" t="str" cm="1">
+        <f t="array" ref="N114">_xll.GEO_CITY(B114,C114)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O114" s="6" t="str" cm="1">
+        <f t="array" ref="O114">_xll.GEO_TIMEZONE(B114,C114)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="str">
         <v>Z111</v>
       </c>
@@ -6962,8 +8322,20 @@
         <f>_xlfn.XLOOKUP(F115,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M115" s="6" t="str" cm="1">
+        <f t="array" ref="M115">_xll.GEO_COUNTRY(B115,C115)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N115" s="6" t="str" cm="1">
+        <f t="array" ref="N115">_xll.GEO_CITY(B115,C115)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O115" s="6" t="str" cm="1">
+        <f t="array" ref="O115">_xll.GEO_TIMEZONE(B115,C115)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A116" s="10" t="str">
         <v>Z112</v>
       </c>
@@ -7005,8 +8377,20 @@
         <f>_xlfn.XLOOKUP(F116,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M116" s="6" t="str" cm="1">
+        <f t="array" ref="M116">_xll.GEO_COUNTRY(B116,C116)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N116" s="6" t="str" cm="1">
+        <f t="array" ref="N116">_xll.GEO_CITY(B116,C116)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O116" s="6" t="str" cm="1">
+        <f t="array" ref="O116">_xll.GEO_TIMEZONE(B116,C116)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="str">
         <v>Z113</v>
       </c>
@@ -7048,8 +8432,20 @@
         <f>_xlfn.XLOOKUP(F117,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M117" s="6" t="str" cm="1">
+        <f t="array" ref="M117">_xll.GEO_COUNTRY(B117,C117)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N117" s="6" t="str" cm="1">
+        <f t="array" ref="N117">_xll.GEO_CITY(B117,C117)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O117" s="6" t="str" cm="1">
+        <f t="array" ref="O117">_xll.GEO_TIMEZONE(B117,C117)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A118" s="10" t="str">
         <v>Z114</v>
       </c>
@@ -7091,8 +8487,20 @@
         <f>_xlfn.XLOOKUP(F118,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M118" s="6" t="str" cm="1">
+        <f t="array" ref="M118">_xll.GEO_COUNTRY(B118,C118)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N118" s="6" t="str" cm="1">
+        <f t="array" ref="N118">_xll.GEO_CITY(B118,C118)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O118" s="6" t="str" cm="1">
+        <f t="array" ref="O118">_xll.GEO_TIMEZONE(B118,C118)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="str">
         <v>Z115</v>
       </c>
@@ -7134,8 +8542,20 @@
         <f>_xlfn.XLOOKUP(F119,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M119" s="6" t="str" cm="1">
+        <f t="array" ref="M119">_xll.GEO_COUNTRY(B119,C119)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N119" s="6" t="str" cm="1">
+        <f t="array" ref="N119">_xll.GEO_CITY(B119,C119)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O119" s="6" t="str" cm="1">
+        <f t="array" ref="O119">_xll.GEO_TIMEZONE(B119,C119)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="10" t="str">
         <v>Z116</v>
       </c>
@@ -7177,8 +8597,20 @@
         <f>_xlfn.XLOOKUP(F120,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M120" s="6" t="str" cm="1">
+        <f t="array" ref="M120">_xll.GEO_COUNTRY(B120,C120)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N120" s="6" t="str" cm="1">
+        <f t="array" ref="N120">_xll.GEO_CITY(B120,C120)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O120" s="6" t="str" cm="1">
+        <f t="array" ref="O120">_xll.GEO_TIMEZONE(B120,C120)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="str">
         <v>Z117</v>
       </c>
@@ -7220,8 +8652,20 @@
         <f>_xlfn.XLOOKUP(F121,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9516404</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M121" s="6" t="str" cm="1">
+        <f t="array" ref="M121">_xll.GEO_COUNTRY(B121,C121)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N121" s="6" t="str" cm="1">
+        <f t="array" ref="N121">_xll.GEO_CITY(B121,C121)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O121" s="6" t="str" cm="1">
+        <f t="array" ref="O121">_xll.GEO_TIMEZONE(B121,C121)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="10" t="str">
         <v>Z118</v>
       </c>
@@ -7263,8 +8707,20 @@
         <f>_xlfn.XLOOKUP(F122,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9516404</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M122" s="6" t="str" cm="1">
+        <f t="array" ref="M122">_xll.GEO_COUNTRY(B122,C122)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N122" s="6" t="str" cm="1">
+        <f t="array" ref="N122">_xll.GEO_CITY(B122,C122)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O122" s="6" t="str" cm="1">
+        <f t="array" ref="O122">_xll.GEO_TIMEZONE(B122,C122)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="str">
         <v>Z119</v>
       </c>
@@ -7306,8 +8762,20 @@
         <f>_xlfn.XLOOKUP(F123,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9516404</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M123" s="6" t="str" cm="1">
+        <f t="array" ref="M123">_xll.GEO_COUNTRY(B123,C123)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N123" s="6" t="str" cm="1">
+        <f t="array" ref="N123">_xll.GEO_CITY(B123,C123)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O123" s="6" t="str" cm="1">
+        <f t="array" ref="O123">_xll.GEO_TIMEZONE(B123,C123)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="10" t="str">
         <v>Z120</v>
       </c>
@@ -7349,8 +8817,20 @@
         <f>_xlfn.XLOOKUP(F124,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9575002</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M124" s="6" t="str" cm="1">
+        <f t="array" ref="M124">_xll.GEO_COUNTRY(B124,C124)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N124" s="6" t="str" cm="1">
+        <f t="array" ref="N124">_xll.GEO_CITY(B124,C124)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O124" s="6" t="str" cm="1">
+        <f t="array" ref="O124">_xll.GEO_TIMEZONE(B124,C124)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="str">
         <v>Z121</v>
       </c>
@@ -7392,8 +8872,20 @@
         <f>_xlfn.XLOOKUP(F125,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M125" s="6" t="str" cm="1">
+        <f t="array" ref="M125">_xll.GEO_COUNTRY(B125,C125)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N125" s="6" t="str" cm="1">
+        <f t="array" ref="N125">_xll.GEO_CITY(B125,C125)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O125" s="6" t="str" cm="1">
+        <f t="array" ref="O125">_xll.GEO_TIMEZONE(B125,C125)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="10" t="str">
         <v>Z122</v>
       </c>
@@ -7435,8 +8927,20 @@
         <f>_xlfn.XLOOKUP(F126,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M126" s="6" t="str" cm="1">
+        <f t="array" ref="M126">_xll.GEO_COUNTRY(B126,C126)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N126" s="6" t="str" cm="1">
+        <f t="array" ref="N126">_xll.GEO_CITY(B126,C126)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O126" s="6" t="str" cm="1">
+        <f t="array" ref="O126">_xll.GEO_TIMEZONE(B126,C126)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="str">
         <v>Z123</v>
       </c>
@@ -7478,8 +8982,20 @@
         <f>_xlfn.XLOOKUP(F127,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M127" s="6" t="str" cm="1">
+        <f t="array" ref="M127">_xll.GEO_COUNTRY(B127,C127)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N127" s="6" t="str" cm="1">
+        <f t="array" ref="N127">_xll.GEO_CITY(B127,C127)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O127" s="6" t="str" cm="1">
+        <f t="array" ref="O127">_xll.GEO_TIMEZONE(B127,C127)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="10" t="str">
         <v>Z124</v>
       </c>
@@ -7521,8 +9037,20 @@
         <f>_xlfn.XLOOKUP(F128,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M128" s="6" t="str" cm="1">
+        <f t="array" ref="M128">_xll.GEO_COUNTRY(B128,C128)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N128" s="6" t="str" cm="1">
+        <f t="array" ref="N128">_xll.GEO_CITY(B128,C128)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O128" s="6" t="str" cm="1">
+        <f t="array" ref="O128">_xll.GEO_TIMEZONE(B128,C128)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="str">
         <v>Z125</v>
       </c>
@@ -7564,8 +9092,20 @@
         <f>_xlfn.XLOOKUP(F129,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M129" s="6" t="str" cm="1">
+        <f t="array" ref="M129">_xll.GEO_COUNTRY(B129,C129)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N129" s="6" t="str" cm="1">
+        <f t="array" ref="N129">_xll.GEO_CITY(B129,C129)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O129" s="6" t="str" cm="1">
+        <f t="array" ref="O129">_xll.GEO_TIMEZONE(B129,C129)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="10" t="str">
         <v>Z126</v>
       </c>
@@ -7607,8 +9147,20 @@
         <f>_xlfn.XLOOKUP(F130,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M130" s="6" t="str" cm="1">
+        <f t="array" ref="M130">_xll.GEO_COUNTRY(B130,C130)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N130" s="6" t="str" cm="1">
+        <f t="array" ref="N130">_xll.GEO_CITY(B130,C130)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O130" s="6" t="str" cm="1">
+        <f t="array" ref="O130">_xll.GEO_TIMEZONE(B130,C130)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="str">
         <v>Z127</v>
       </c>
@@ -7650,8 +9202,20 @@
         <f>_xlfn.XLOOKUP(F131,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M131" s="6" t="str" cm="1">
+        <f t="array" ref="M131">_xll.GEO_COUNTRY(B131,C131)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N131" s="6" t="str" cm="1">
+        <f t="array" ref="N131">_xll.GEO_CITY(B131,C131)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O131" s="6" t="str" cm="1">
+        <f t="array" ref="O131">_xll.GEO_TIMEZONE(B131,C131)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="10" t="str">
         <v>Z128</v>
       </c>
@@ -7693,8 +9257,20 @@
         <f>_xlfn.XLOOKUP(F132,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M132" s="6" t="str" cm="1">
+        <f t="array" ref="M132">_xll.GEO_COUNTRY(B132,C132)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N132" s="6" t="str" cm="1">
+        <f t="array" ref="N132">_xll.GEO_CITY(B132,C132)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O132" s="6" t="str" cm="1">
+        <f t="array" ref="O132">_xll.GEO_TIMEZONE(B132,C132)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="str">
         <v>Z129</v>
       </c>
@@ -7736,8 +9312,20 @@
         <f>_xlfn.XLOOKUP(F133,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M133" s="6" t="str" cm="1">
+        <f t="array" ref="M133">_xll.GEO_COUNTRY(B133,C133)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N133" s="6" t="str" cm="1">
+        <f t="array" ref="N133">_xll.GEO_CITY(B133,C133)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O133" s="6" t="str" cm="1">
+        <f t="array" ref="O133">_xll.GEO_TIMEZONE(B133,C133)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="10" t="str">
         <v>Z130</v>
       </c>
@@ -7779,8 +9367,20 @@
         <f>_xlfn.XLOOKUP(F134,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M134" s="6" t="str" cm="1">
+        <f t="array" ref="M134">_xll.GEO_COUNTRY(B134,C134)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N134" s="6" t="str" cm="1">
+        <f t="array" ref="N134">_xll.GEO_CITY(B134,C134)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O134" s="6" t="str" cm="1">
+        <f t="array" ref="O134">_xll.GEO_TIMEZONE(B134,C134)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="str">
         <v>Z131</v>
       </c>
@@ -7822,8 +9422,20 @@
         <f>_xlfn.XLOOKUP(F135,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M135" s="6" t="str" cm="1">
+        <f t="array" ref="M135">_xll.GEO_COUNTRY(B135,C135)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N135" s="6" t="str" cm="1">
+        <f t="array" ref="N135">_xll.GEO_CITY(B135,C135)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O135" s="6" t="str" cm="1">
+        <f t="array" ref="O135">_xll.GEO_TIMEZONE(B135,C135)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="10" t="str">
         <v>Z132</v>
       </c>
@@ -7865,8 +9477,20 @@
         <f>_xlfn.XLOOKUP(F136,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M136" s="6" t="str" cm="1">
+        <f t="array" ref="M136">_xll.GEO_COUNTRY(B136,C136)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N136" s="6" t="str" cm="1">
+        <f t="array" ref="N136">_xll.GEO_CITY(B136,C136)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O136" s="6" t="str" cm="1">
+        <f t="array" ref="O136">_xll.GEO_TIMEZONE(B136,C136)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="str">
         <v>Z133</v>
       </c>
@@ -7908,8 +9532,20 @@
         <f>_xlfn.XLOOKUP(F137,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.11600000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M137" s="6" t="str" cm="1">
+        <f t="array" ref="M137">_xll.GEO_COUNTRY(B137,C137)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N137" s="6" t="str" cm="1">
+        <f t="array" ref="N137">_xll.GEO_CITY(B137,C137)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O137" s="6" t="str" cm="1">
+        <f t="array" ref="O137">_xll.GEO_TIMEZONE(B137,C137)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="10" t="str">
         <v>Z134</v>
       </c>
@@ -7951,8 +9587,20 @@
         <f>_xlfn.XLOOKUP(F138,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M138" s="6" t="str" cm="1">
+        <f t="array" ref="M138">_xll.GEO_COUNTRY(B138,C138)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N138" s="6" t="str" cm="1">
+        <f t="array" ref="N138">_xll.GEO_CITY(B138,C138)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O138" s="6" t="str" cm="1">
+        <f t="array" ref="O138">_xll.GEO_TIMEZONE(B138,C138)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="str">
         <v>Z135</v>
       </c>
@@ -7994,8 +9642,20 @@
         <f>_xlfn.XLOOKUP(F139,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M139" s="6" t="str" cm="1">
+        <f t="array" ref="M139">_xll.GEO_COUNTRY(B139,C139)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N139" s="6" t="str" cm="1">
+        <f t="array" ref="N139">_xll.GEO_CITY(B139,C139)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O139" s="6" t="str" cm="1">
+        <f t="array" ref="O139">_xll.GEO_TIMEZONE(B139,C139)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="10" t="str">
         <v>Z136</v>
       </c>
@@ -8037,8 +9697,20 @@
         <f>_xlfn.XLOOKUP(F140,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.11600000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M140" s="6" t="str" cm="1">
+        <f t="array" ref="M140">_xll.GEO_COUNTRY(B140,C140)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N140" s="6" t="str" cm="1">
+        <f t="array" ref="N140">_xll.GEO_CITY(B140,C140)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O140" s="6" t="str" cm="1">
+        <f t="array" ref="O140">_xll.GEO_TIMEZONE(B140,C140)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="str">
         <v>Z137</v>
       </c>
@@ -8080,8 +9752,20 @@
         <f>_xlfn.XLOOKUP(F141,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M141" s="6" t="str" cm="1">
+        <f t="array" ref="M141">_xll.GEO_COUNTRY(B141,C141)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N141" s="6" t="str" cm="1">
+        <f t="array" ref="N141">_xll.GEO_CITY(B141,C141)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O141" s="6" t="str" cm="1">
+        <f t="array" ref="O141">_xll.GEO_TIMEZONE(B141,C141)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="str">
         <v>Z138</v>
       </c>
@@ -8123,8 +9807,20 @@
         <f>_xlfn.XLOOKUP(F142,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97308247473001</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M142" s="6" t="str" cm="1">
+        <f t="array" ref="M142">_xll.GEO_COUNTRY(B142,C142)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N142" s="6" t="str" cm="1">
+        <f t="array" ref="N142">_xll.GEO_CITY(B142,C142)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O142" s="6" t="str" cm="1">
+        <f t="array" ref="O142">_xll.GEO_TIMEZONE(B142,C142)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="str">
         <v>Z139</v>
       </c>
@@ -8166,8 +9862,20 @@
         <f>_xlfn.XLOOKUP(F143,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M143" s="6" t="str" cm="1">
+        <f t="array" ref="M143">_xll.GEO_COUNTRY(B143,C143)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N143" s="6" t="str" cm="1">
+        <f t="array" ref="N143">_xll.GEO_CITY(B143,C143)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O143" s="6" t="str" cm="1">
+        <f t="array" ref="O143">_xll.GEO_TIMEZONE(B143,C143)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="10" t="str">
         <v>Z140</v>
       </c>
@@ -8209,8 +9917,20 @@
         <f>_xlfn.XLOOKUP(F144,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M144" s="6" t="str" cm="1">
+        <f t="array" ref="M144">_xll.GEO_COUNTRY(B144,C144)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N144" s="6" t="str" cm="1">
+        <f t="array" ref="N144">_xll.GEO_CITY(B144,C144)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O144" s="6" t="str" cm="1">
+        <f t="array" ref="O144">_xll.GEO_TIMEZONE(B144,C144)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="str">
         <v>Z141</v>
       </c>
@@ -8252,8 +9972,20 @@
         <f>_xlfn.XLOOKUP(F145,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9575002</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M145" s="6" t="str" cm="1">
+        <f t="array" ref="M145">_xll.GEO_COUNTRY(B145,C145)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N145" s="6" t="str" cm="1">
+        <f t="array" ref="N145">_xll.GEO_CITY(B145,C145)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O145" s="6" t="str" cm="1">
+        <f t="array" ref="O145">_xll.GEO_TIMEZONE(B145,C145)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="str">
         <v>Z142</v>
       </c>
@@ -8295,8 +10027,20 @@
         <f>_xlfn.XLOOKUP(F146,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9575002</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M146" s="6" t="str" cm="1">
+        <f t="array" ref="M146">_xll.GEO_COUNTRY(B146,C146)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N146" s="6" t="str" cm="1">
+        <f t="array" ref="N146">_xll.GEO_CITY(B146,C146)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O146" s="6" t="str" cm="1">
+        <f t="array" ref="O146">_xll.GEO_TIMEZONE(B146,C146)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="str">
         <v>Z143</v>
       </c>
@@ -8338,8 +10082,20 @@
         <f>_xlfn.XLOOKUP(F147,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M147" s="6" t="str" cm="1">
+        <f t="array" ref="M147">_xll.GEO_COUNTRY(B147,C147)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N147" s="6" t="str" cm="1">
+        <f t="array" ref="N147">_xll.GEO_CITY(B147,C147)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O147" s="6" t="str" cm="1">
+        <f t="array" ref="O147">_xll.GEO_TIMEZONE(B147,C147)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="str">
         <v>Z144</v>
       </c>
@@ -8381,8 +10137,20 @@
         <f>_xlfn.XLOOKUP(F148,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M148" s="6" t="str" cm="1">
+        <f t="array" ref="M148">_xll.GEO_COUNTRY(B148,C148)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N148" s="6" t="str" cm="1">
+        <f t="array" ref="N148">_xll.GEO_CITY(B148,C148)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O148" s="6" t="str" cm="1">
+        <f t="array" ref="O148">_xll.GEO_TIMEZONE(B148,C148)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="str">
         <v>Z145</v>
       </c>
@@ -8424,8 +10192,20 @@
         <f>_xlfn.XLOOKUP(F149,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M149" s="6" t="str" cm="1">
+        <f t="array" ref="M149">_xll.GEO_COUNTRY(B149,C149)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N149" s="6" t="str" cm="1">
+        <f t="array" ref="N149">_xll.GEO_CITY(B149,C149)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O149" s="6" t="str" cm="1">
+        <f t="array" ref="O149">_xll.GEO_TIMEZONE(B149,C149)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="10" t="str">
         <v>Z146</v>
       </c>
@@ -8467,8 +10247,20 @@
         <f>_xlfn.XLOOKUP(F150,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M150" s="6" t="str" cm="1">
+        <f t="array" ref="M150">_xll.GEO_COUNTRY(B150,C150)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N150" s="6" t="str" cm="1">
+        <f t="array" ref="N150">_xll.GEO_CITY(B150,C150)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O150" s="6" t="str" cm="1">
+        <f t="array" ref="O150">_xll.GEO_TIMEZONE(B150,C150)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="str">
         <v>Z147</v>
       </c>
@@ -8510,8 +10302,20 @@
         <f>_xlfn.XLOOKUP(F151,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M151" s="6" t="str" cm="1">
+        <f t="array" ref="M151">_xll.GEO_COUNTRY(B151,C151)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N151" s="6" t="str" cm="1">
+        <f t="array" ref="N151">_xll.GEO_CITY(B151,C151)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O151" s="6" t="str" cm="1">
+        <f t="array" ref="O151">_xll.GEO_TIMEZONE(B151,C151)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="10" t="str">
         <v>Z148</v>
       </c>
@@ -8553,8 +10357,20 @@
         <f>_xlfn.XLOOKUP(F152,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.11600000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M152" s="6" t="str" cm="1">
+        <f t="array" ref="M152">_xll.GEO_COUNTRY(B152,C152)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N152" s="6" t="str" cm="1">
+        <f t="array" ref="N152">_xll.GEO_CITY(B152,C152)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O152" s="6" t="str" cm="1">
+        <f t="array" ref="O152">_xll.GEO_TIMEZONE(B152,C152)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="str">
         <v>Z149</v>
       </c>
@@ -8596,8 +10412,20 @@
         <f>_xlfn.XLOOKUP(F153,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9575002</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M153" s="6" t="str" cm="1">
+        <f t="array" ref="M153">_xll.GEO_COUNTRY(B153,C153)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N153" s="6" t="str" cm="1">
+        <f t="array" ref="N153">_xll.GEO_CITY(B153,C153)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O153" s="6" t="str" cm="1">
+        <f t="array" ref="O153">_xll.GEO_TIMEZONE(B153,C153)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="10" t="str">
         <v>Z150</v>
       </c>
@@ -8639,8 +10467,20 @@
         <f>_xlfn.XLOOKUP(F154,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M154" s="6" t="str" cm="1">
+        <f t="array" ref="M154">_xll.GEO_COUNTRY(B154,C154)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N154" s="6" t="str" cm="1">
+        <f t="array" ref="N154">_xll.GEO_CITY(B154,C154)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O154" s="6" t="str" cm="1">
+        <f t="array" ref="O154">_xll.GEO_TIMEZONE(B154,C154)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="str">
         <v>Z151</v>
       </c>
@@ -8682,8 +10522,20 @@
         <f>_xlfn.XLOOKUP(F155,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M155" s="6" t="str" cm="1">
+        <f t="array" ref="M155">_xll.GEO_COUNTRY(B155,C155)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N155" s="6" t="str" cm="1">
+        <f t="array" ref="N155">_xll.GEO_CITY(B155,C155)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O155" s="6" t="str" cm="1">
+        <f t="array" ref="O155">_xll.GEO_TIMEZONE(B155,C155)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="10" t="str">
         <v>Z152</v>
       </c>
@@ -8725,8 +10577,20 @@
         <f>_xlfn.XLOOKUP(F156,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9696783</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M156" s="6" t="str" cm="1">
+        <f t="array" ref="M156">_xll.GEO_COUNTRY(B156,C156)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N156" s="6" t="str" cm="1">
+        <f t="array" ref="N156">_xll.GEO_CITY(B156,C156)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O156" s="6" t="str" cm="1">
+        <f t="array" ref="O156">_xll.GEO_TIMEZONE(B156,C156)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="str">
         <v>Z153</v>
       </c>
@@ -8768,8 +10632,20 @@
         <f>_xlfn.XLOOKUP(F157,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M157" s="6" t="str" cm="1">
+        <f t="array" ref="M157">_xll.GEO_COUNTRY(B157,C157)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N157" s="6" t="str" cm="1">
+        <f t="array" ref="N157">_xll.GEO_CITY(B157,C157)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O157" s="6" t="str" cm="1">
+        <f t="array" ref="O157">_xll.GEO_TIMEZONE(B157,C157)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="10" t="str">
         <v>Z154</v>
       </c>
@@ -8811,8 +10687,20 @@
         <f>_xlfn.XLOOKUP(F158,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M158" s="6" t="str" cm="1">
+        <f t="array" ref="M158">_xll.GEO_COUNTRY(B158,C158)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N158" s="6" t="str" cm="1">
+        <f t="array" ref="N158">_xll.GEO_CITY(B158,C158)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O158" s="6" t="str" cm="1">
+        <f t="array" ref="O158">_xll.GEO_TIMEZONE(B158,C158)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="str">
         <v>Z155</v>
       </c>
@@ -8854,8 +10742,20 @@
         <f>_xlfn.XLOOKUP(F159,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9575002</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M159" s="6" t="str" cm="1">
+        <f t="array" ref="M159">_xll.GEO_COUNTRY(B159,C159)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N159" s="6" t="str" cm="1">
+        <f t="array" ref="N159">_xll.GEO_CITY(B159,C159)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O159" s="6" t="str" cm="1">
+        <f t="array" ref="O159">_xll.GEO_TIMEZONE(B159,C159)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="10" t="str">
         <v>Z156</v>
       </c>
@@ -8897,8 +10797,20 @@
         <f>_xlfn.XLOOKUP(F160,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M160" s="6" t="str" cm="1">
+        <f t="array" ref="M160">_xll.GEO_COUNTRY(B160,C160)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N160" s="6" t="str" cm="1">
+        <f t="array" ref="N160">_xll.GEO_CITY(B160,C160)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O160" s="6" t="str" cm="1">
+        <f t="array" ref="O160">_xll.GEO_TIMEZONE(B160,C160)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="str">
         <v>Z157</v>
       </c>
@@ -8940,8 +10852,20 @@
         <f>_xlfn.XLOOKUP(F161,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M161" s="6" t="str" cm="1">
+        <f t="array" ref="M161">_xll.GEO_COUNTRY(B161,C161)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N161" s="6" t="str" cm="1">
+        <f t="array" ref="N161">_xll.GEO_CITY(B161,C161)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O161" s="6" t="str" cm="1">
+        <f t="array" ref="O161">_xll.GEO_TIMEZONE(B161,C161)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="10" t="str">
         <v>Z158</v>
       </c>
@@ -8983,8 +10907,20 @@
         <f>_xlfn.XLOOKUP(F162,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M162" s="6" t="str" cm="1">
+        <f t="array" ref="M162">_xll.GEO_COUNTRY(B162,C162)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N162" s="6" t="str" cm="1">
+        <f t="array" ref="N162">_xll.GEO_CITY(B162,C162)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O162" s="6" t="str" cm="1">
+        <f t="array" ref="O162">_xll.GEO_TIMEZONE(B162,C162)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="str">
         <v>Z159</v>
       </c>
@@ -9026,8 +10962,20 @@
         <f>_xlfn.XLOOKUP(F163,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M163" s="6" t="str" cm="1">
+        <f t="array" ref="M163">_xll.GEO_COUNTRY(B163,C163)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N163" s="6" t="str" cm="1">
+        <f t="array" ref="N163">_xll.GEO_CITY(B163,C163)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O163" s="6" t="str" cm="1">
+        <f t="array" ref="O163">_xll.GEO_TIMEZONE(B163,C163)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="10" t="str">
         <v>Z160</v>
       </c>
@@ -9069,8 +11017,20 @@
         <f>_xlfn.XLOOKUP(F164,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M164" s="6" t="str" cm="1">
+        <f t="array" ref="M164">_xll.GEO_COUNTRY(B164,C164)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N164" s="6" t="str" cm="1">
+        <f t="array" ref="N164">_xll.GEO_CITY(B164,C164)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O164" s="6" t="str" cm="1">
+        <f t="array" ref="O164">_xll.GEO_TIMEZONE(B164,C164)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="str">
         <v>Z161</v>
       </c>
@@ -9112,8 +11072,20 @@
         <f>_xlfn.XLOOKUP(F165,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M165" s="6" t="str" cm="1">
+        <f t="array" ref="M165">_xll.GEO_COUNTRY(B165,C165)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N165" s="6" t="str" cm="1">
+        <f t="array" ref="N165">_xll.GEO_CITY(B165,C165)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O165" s="6" t="str" cm="1">
+        <f t="array" ref="O165">_xll.GEO_TIMEZONE(B165,C165)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="10" t="str">
         <v>Z162</v>
       </c>
@@ -9155,8 +11127,20 @@
         <f>_xlfn.XLOOKUP(F166,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M166" s="6" t="str" cm="1">
+        <f t="array" ref="M166">_xll.GEO_COUNTRY(B166,C166)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N166" s="6" t="str" cm="1">
+        <f t="array" ref="N166">_xll.GEO_CITY(B166,C166)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O166" s="6" t="str" cm="1">
+        <f t="array" ref="O166">_xll.GEO_TIMEZONE(B166,C166)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="str">
         <v>Z163</v>
       </c>
@@ -9198,8 +11182,20 @@
         <f>_xlfn.XLOOKUP(F167,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M167" s="6" t="str" cm="1">
+        <f t="array" ref="M167">_xll.GEO_COUNTRY(B167,C167)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N167" s="6" t="str" cm="1">
+        <f t="array" ref="N167">_xll.GEO_CITY(B167,C167)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O167" s="6" t="str" cm="1">
+        <f t="array" ref="O167">_xll.GEO_TIMEZONE(B167,C167)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="10" t="str">
         <v>Z164</v>
       </c>
@@ -9241,8 +11237,20 @@
         <f>_xlfn.XLOOKUP(F168,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95599999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M168" s="6" t="str" cm="1">
+        <f t="array" ref="M168">_xll.GEO_COUNTRY(B168,C168)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N168" s="6" t="str" cm="1">
+        <f t="array" ref="N168">_xll.GEO_CITY(B168,C168)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O168" s="6" t="str" cm="1">
+        <f t="array" ref="O168">_xll.GEO_TIMEZONE(B168,C168)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="str">
         <v>Z165</v>
       </c>
@@ -9284,8 +11292,20 @@
         <f>_xlfn.XLOOKUP(F169,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M169" s="6" t="str" cm="1">
+        <f t="array" ref="M169">_xll.GEO_COUNTRY(B169,C169)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N169" s="6" t="str" cm="1">
+        <f t="array" ref="N169">_xll.GEO_CITY(B169,C169)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O169" s="6" t="str" cm="1">
+        <f t="array" ref="O169">_xll.GEO_TIMEZONE(B169,C169)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="10" t="str">
         <v>Z166</v>
       </c>
@@ -9327,8 +11347,20 @@
         <f>_xlfn.XLOOKUP(F170,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95928900000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M170" s="6" t="str" cm="1">
+        <f t="array" ref="M170">_xll.GEO_COUNTRY(B170,C170)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N170" s="6" t="str" cm="1">
+        <f t="array" ref="N170">_xll.GEO_CITY(B170,C170)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O170" s="6" t="str" cm="1">
+        <f t="array" ref="O170">_xll.GEO_TIMEZONE(B170,C170)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="str">
         <v>Z167</v>
       </c>
@@ -9370,8 +11402,20 @@
         <f>_xlfn.XLOOKUP(F171,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M171" s="6" t="str" cm="1">
+        <f t="array" ref="M171">_xll.GEO_COUNTRY(B171,C171)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N171" s="6" t="str" cm="1">
+        <f t="array" ref="N171">_xll.GEO_CITY(B171,C171)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O171" s="6" t="str" cm="1">
+        <f t="array" ref="O171">_xll.GEO_TIMEZONE(B171,C171)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="10" t="str">
         <v>Z168</v>
       </c>
@@ -9413,8 +11457,20 @@
         <f>_xlfn.XLOOKUP(F172,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9696783</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M172" s="6" t="str" cm="1">
+        <f t="array" ref="M172">_xll.GEO_COUNTRY(B172,C172)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N172" s="6" t="str" cm="1">
+        <f t="array" ref="N172">_xll.GEO_CITY(B172,C172)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O172" s="6" t="str" cm="1">
+        <f t="array" ref="O172">_xll.GEO_TIMEZONE(B172,C172)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="str">
         <v>Z169</v>
       </c>
@@ -9456,8 +11512,20 @@
         <f>_xlfn.XLOOKUP(F173,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9696783</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M173" s="6" t="str" cm="1">
+        <f t="array" ref="M173">_xll.GEO_COUNTRY(B173,C173)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N173" s="6" t="str" cm="1">
+        <f t="array" ref="N173">_xll.GEO_CITY(B173,C173)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O173" s="6" t="str" cm="1">
+        <f t="array" ref="O173">_xll.GEO_TIMEZONE(B173,C173)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A174" s="10" t="str">
         <v>Z170</v>
       </c>
@@ -9499,8 +11567,20 @@
         <f>_xlfn.XLOOKUP(F174,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M174" s="6" t="str" cm="1">
+        <f t="array" ref="M174">_xll.GEO_COUNTRY(B174,C174)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N174" s="6" t="str" cm="1">
+        <f t="array" ref="N174">_xll.GEO_CITY(B174,C174)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O174" s="6" t="str" cm="1">
+        <f t="array" ref="O174">_xll.GEO_TIMEZONE(B174,C174)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="str">
         <v>Z171</v>
       </c>
@@ -9542,8 +11622,20 @@
         <f>_xlfn.XLOOKUP(F175,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96199999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M175" s="6" t="str" cm="1">
+        <f t="array" ref="M175">_xll.GEO_COUNTRY(B175,C175)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N175" s="6" t="str" cm="1">
+        <f t="array" ref="N175">_xll.GEO_CITY(B175,C175)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O175" s="6" t="str" cm="1">
+        <f t="array" ref="O175">_xll.GEO_TIMEZONE(B175,C175)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="str">
         <v>Z172</v>
       </c>
@@ -9585,8 +11677,20 @@
         <f>_xlfn.XLOOKUP(F176,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9696783</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M176" s="6" t="str" cm="1">
+        <f t="array" ref="M176">_xll.GEO_COUNTRY(B176,C176)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N176" s="6" t="str" cm="1">
+        <f t="array" ref="N176">_xll.GEO_CITY(B176,C176)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O176" s="6" t="str" cm="1">
+        <f t="array" ref="O176">_xll.GEO_TIMEZONE(B176,C176)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="str">
         <v>Z173</v>
       </c>
@@ -9628,8 +11732,20 @@
         <f>_xlfn.XLOOKUP(F177,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.169624186508</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M177" s="6" t="str" cm="1">
+        <f t="array" ref="M177">_xll.GEO_COUNTRY(B177,C177)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N177" s="6" t="str" cm="1">
+        <f t="array" ref="N177">_xll.GEO_CITY(B177,C177)</f>
+        <v>Lysterfield</v>
+      </c>
+      <c r="O177" s="6" t="str" cm="1">
+        <f t="array" ref="O177">_xll.GEO_TIMEZONE(B177,C177)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="10" t="str">
         <v>Z174</v>
       </c>
@@ -9671,8 +11787,20 @@
         <f>_xlfn.XLOOKUP(F178,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95928900000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M178" s="6" t="str" cm="1">
+        <f t="array" ref="M178">_xll.GEO_COUNTRY(B178,C178)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N178" s="6" t="str" cm="1">
+        <f t="array" ref="N178">_xll.GEO_CITY(B178,C178)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O178" s="6" t="str" cm="1">
+        <f t="array" ref="O178">_xll.GEO_TIMEZONE(B178,C178)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="str">
         <v>Z175</v>
       </c>
@@ -9714,8 +11842,20 @@
         <f>_xlfn.XLOOKUP(F179,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97308247473001</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M179" s="6" t="str" cm="1">
+        <f t="array" ref="M179">_xll.GEO_COUNTRY(B179,C179)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N179" s="6" t="str" cm="1">
+        <f t="array" ref="N179">_xll.GEO_CITY(B179,C179)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O179" s="6" t="str" cm="1">
+        <f t="array" ref="O179">_xll.GEO_TIMEZONE(B179,C179)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="10" t="str">
         <v>Z176</v>
       </c>
@@ -9757,8 +11897,20 @@
         <f>_xlfn.XLOOKUP(F180,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M180" s="6" t="str" cm="1">
+        <f t="array" ref="M180">_xll.GEO_COUNTRY(B180,C180)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N180" s="6" t="str" cm="1">
+        <f t="array" ref="N180">_xll.GEO_CITY(B180,C180)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O180" s="6" t="str" cm="1">
+        <f t="array" ref="O180">_xll.GEO_TIMEZONE(B180,C180)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="str">
         <v>Z177</v>
       </c>
@@ -9800,8 +11952,20 @@
         <f>_xlfn.XLOOKUP(F181,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M181" s="6" t="str" cm="1">
+        <f t="array" ref="M181">_xll.GEO_COUNTRY(B181,C181)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N181" s="6" t="str" cm="1">
+        <f t="array" ref="N181">_xll.GEO_CITY(B181,C181)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O181" s="6" t="str" cm="1">
+        <f t="array" ref="O181">_xll.GEO_TIMEZONE(B181,C181)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="10" t="str">
         <v>Z178</v>
       </c>
@@ -9843,8 +12007,20 @@
         <f>_xlfn.XLOOKUP(F182,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M182" s="6" t="str" cm="1">
+        <f t="array" ref="M182">_xll.GEO_COUNTRY(B182,C182)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N182" s="6" t="str" cm="1">
+        <f t="array" ref="N182">_xll.GEO_CITY(B182,C182)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O182" s="6" t="str" cm="1">
+        <f t="array" ref="O182">_xll.GEO_TIMEZONE(B182,C182)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="str">
         <v>Z179</v>
       </c>
@@ -9886,8 +12062,20 @@
         <f>_xlfn.XLOOKUP(F183,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M183" s="6" t="str" cm="1">
+        <f t="array" ref="M183">_xll.GEO_COUNTRY(B183,C183)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N183" s="6" t="str" cm="1">
+        <f t="array" ref="N183">_xll.GEO_CITY(B183,C183)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O183" s="6" t="str" cm="1">
+        <f t="array" ref="O183">_xll.GEO_TIMEZONE(B183,C183)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="10" t="str">
         <v>Z180</v>
       </c>
@@ -9929,8 +12117,20 @@
         <f>_xlfn.XLOOKUP(F184,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95928900000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M184" s="6" t="str" cm="1">
+        <f t="array" ref="M184">_xll.GEO_COUNTRY(B184,C184)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N184" s="6" t="str" cm="1">
+        <f t="array" ref="N184">_xll.GEO_CITY(B184,C184)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O184" s="6" t="str" cm="1">
+        <f t="array" ref="O184">_xll.GEO_TIMEZONE(B184,C184)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="str">
         <v>Z181</v>
       </c>
@@ -9972,8 +12172,20 @@
         <f>_xlfn.XLOOKUP(F185,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M185" s="6" t="str" cm="1">
+        <f t="array" ref="M185">_xll.GEO_COUNTRY(B185,C185)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N185" s="6" t="str" cm="1">
+        <f t="array" ref="N185">_xll.GEO_CITY(B185,C185)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O185" s="6" t="str" cm="1">
+        <f t="array" ref="O185">_xll.GEO_TIMEZONE(B185,C185)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="10" t="str">
         <v>Z182</v>
       </c>
@@ -10015,8 +12227,20 @@
         <f>_xlfn.XLOOKUP(F186,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96600000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M186" s="6" t="str" cm="1">
+        <f t="array" ref="M186">_xll.GEO_COUNTRY(B186,C186)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N186" s="6" t="str" cm="1">
+        <f t="array" ref="N186">_xll.GEO_CITY(B186,C186)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O186" s="6" t="str" cm="1">
+        <f t="array" ref="O186">_xll.GEO_TIMEZONE(B186,C186)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="str">
         <v>Z183</v>
       </c>
@@ -10058,8 +12282,20 @@
         <f>_xlfn.XLOOKUP(F187,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96600000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M187" s="6" t="str" cm="1">
+        <f t="array" ref="M187">_xll.GEO_COUNTRY(B187,C187)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N187" s="6" t="str" cm="1">
+        <f t="array" ref="N187">_xll.GEO_CITY(B187,C187)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O187" s="6" t="str" cm="1">
+        <f t="array" ref="O187">_xll.GEO_TIMEZONE(B187,C187)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="10" t="str">
         <v>Z184</v>
       </c>
@@ -10101,8 +12337,20 @@
         <f>_xlfn.XLOOKUP(F188,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96600000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M188" s="6" t="str" cm="1">
+        <f t="array" ref="M188">_xll.GEO_COUNTRY(B188,C188)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N188" s="6" t="str" cm="1">
+        <f t="array" ref="N188">_xll.GEO_CITY(B188,C188)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O188" s="6" t="str" cm="1">
+        <f t="array" ref="O188">_xll.GEO_TIMEZONE(B188,C188)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="str">
         <v>Z185</v>
       </c>
@@ -10144,8 +12392,20 @@
         <f>_xlfn.XLOOKUP(F189,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96895599999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M189" s="6" t="str" cm="1">
+        <f t="array" ref="M189">_xll.GEO_COUNTRY(B189,C189)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N189" s="6" t="str" cm="1">
+        <f t="array" ref="N189">_xll.GEO_CITY(B189,C189)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O189" s="6" t="str" cm="1">
+        <f t="array" ref="O189">_xll.GEO_TIMEZONE(B189,C189)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="10" t="str">
         <v>Z186</v>
       </c>
@@ -10187,8 +12447,20 @@
         <f>_xlfn.XLOOKUP(F190,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.97308247473001</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M190" s="6" t="str" cm="1">
+        <f t="array" ref="M190">_xll.GEO_COUNTRY(B190,C190)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N190" s="6" t="str" cm="1">
+        <f t="array" ref="N190">_xll.GEO_CITY(B190,C190)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O190" s="6" t="str" cm="1">
+        <f t="array" ref="O190">_xll.GEO_TIMEZONE(B190,C190)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="str">
         <v>Z187</v>
       </c>
@@ -10230,8 +12502,20 @@
         <f>_xlfn.XLOOKUP(F191,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M191" s="6" t="str" cm="1">
+        <f t="array" ref="M191">_xll.GEO_COUNTRY(B191,C191)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N191" s="6" t="str" cm="1">
+        <f t="array" ref="N191">_xll.GEO_CITY(B191,C191)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O191" s="6" t="str" cm="1">
+        <f t="array" ref="O191">_xll.GEO_TIMEZONE(B191,C191)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="10" t="str">
         <v>Z188</v>
       </c>
@@ -10273,8 +12557,20 @@
         <f>_xlfn.XLOOKUP(F192,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M192" s="6" t="str" cm="1">
+        <f t="array" ref="M192">_xll.GEO_COUNTRY(B192,C192)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N192" s="6" t="str" cm="1">
+        <f t="array" ref="N192">_xll.GEO_CITY(B192,C192)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O192" s="6" t="str" cm="1">
+        <f t="array" ref="O192">_xll.GEO_TIMEZONE(B192,C192)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="str">
         <v>Z189</v>
       </c>
@@ -10316,8 +12612,20 @@
         <f>_xlfn.XLOOKUP(F193,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M193" s="6" t="str" cm="1">
+        <f t="array" ref="M193">_xll.GEO_COUNTRY(B193,C193)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N193" s="6" t="str" cm="1">
+        <f t="array" ref="N193">_xll.GEO_CITY(B193,C193)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O193" s="6" t="str" cm="1">
+        <f t="array" ref="O193">_xll.GEO_TIMEZONE(B193,C193)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="10" t="str">
         <v>Z190</v>
       </c>
@@ -10359,8 +12667,20 @@
         <f>_xlfn.XLOOKUP(F194,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M194" s="6" t="str" cm="1">
+        <f t="array" ref="M194">_xll.GEO_COUNTRY(B194,C194)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N194" s="6" t="str" cm="1">
+        <f t="array" ref="N194">_xll.GEO_CITY(B194,C194)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O194" s="6" t="str" cm="1">
+        <f t="array" ref="O194">_xll.GEO_TIMEZONE(B194,C194)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="str">
         <v>Z191</v>
       </c>
@@ -10402,8 +12722,20 @@
         <f>_xlfn.XLOOKUP(F195,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M195" s="6" t="str" cm="1">
+        <f t="array" ref="M195">_xll.GEO_COUNTRY(B195,C195)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N195" s="6" t="str" cm="1">
+        <f t="array" ref="N195">_xll.GEO_CITY(B195,C195)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O195" s="6" t="str" cm="1">
+        <f t="array" ref="O195">_xll.GEO_TIMEZONE(B195,C195)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="10" t="str">
         <v>Z192</v>
       </c>
@@ -10445,8 +12777,20 @@
         <f>_xlfn.XLOOKUP(F196,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M196" s="6" t="str" cm="1">
+        <f t="array" ref="M196">_xll.GEO_COUNTRY(B196,C196)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N196" s="6" t="str" cm="1">
+        <f t="array" ref="N196">_xll.GEO_CITY(B196,C196)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O196" s="6" t="str" cm="1">
+        <f t="array" ref="O196">_xll.GEO_TIMEZONE(B196,C196)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="str">
         <v>Z193</v>
       </c>
@@ -10488,8 +12832,20 @@
         <f>_xlfn.XLOOKUP(F197,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96600000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M197" s="6" t="str" cm="1">
+        <f t="array" ref="M197">_xll.GEO_COUNTRY(B197,C197)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N197" s="6" t="str" cm="1">
+        <f t="array" ref="N197">_xll.GEO_CITY(B197,C197)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O197" s="6" t="str" cm="1">
+        <f t="array" ref="O197">_xll.GEO_TIMEZONE(B197,C197)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="10" t="str">
         <v>Z194</v>
       </c>
@@ -10531,8 +12887,20 @@
         <f>_xlfn.XLOOKUP(F198,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.96600000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M198" s="6" t="str" cm="1">
+        <f t="array" ref="M198">_xll.GEO_COUNTRY(B198,C198)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N198" s="6" t="str" cm="1">
+        <f t="array" ref="N198">_xll.GEO_CITY(B198,C198)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O198" s="6" t="str" cm="1">
+        <f t="array" ref="O198">_xll.GEO_TIMEZONE(B198,C198)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="str">
         <v>Z195</v>
       </c>
@@ -10574,8 +12942,20 @@
         <f>_xlfn.XLOOKUP(F199,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.98991000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M199" s="6" t="str" cm="1">
+        <f t="array" ref="M199">_xll.GEO_COUNTRY(B199,C199)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N199" s="6" t="str" cm="1">
+        <f t="array" ref="N199">_xll.GEO_CITY(B199,C199)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O199" s="6" t="str" cm="1">
+        <f t="array" ref="O199">_xll.GEO_TIMEZONE(B199,C199)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="10" t="str">
         <v>Z196</v>
       </c>
@@ -10617,8 +12997,20 @@
         <f>_xlfn.XLOOKUP(F200,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.95928900000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M200" s="6" t="str" cm="1">
+        <f t="array" ref="M200">_xll.GEO_COUNTRY(B200,C200)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N200" s="6" t="str" cm="1">
+        <f t="array" ref="N200">_xll.GEO_CITY(B200,C200)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O200" s="6" t="str" cm="1">
+        <f t="array" ref="O200">_xll.GEO_TIMEZONE(B200,C200)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="str">
         <v>Z197</v>
       </c>
@@ -10660,8 +13052,20 @@
         <f>_xlfn.XLOOKUP(F201,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.00331806813401</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M201" s="6" t="str" cm="1">
+        <f t="array" ref="M201">_xll.GEO_COUNTRY(B201,C201)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N201" s="6" t="str" cm="1">
+        <f t="array" ref="N201">_xll.GEO_CITY(B201,C201)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O201" s="6" t="str" cm="1">
+        <f t="array" ref="O201">_xll.GEO_TIMEZONE(B201,C201)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="10" t="str">
         <v>Z198</v>
       </c>
@@ -10703,8 +13107,20 @@
         <f>_xlfn.XLOOKUP(F202,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.00331806813401</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M202" s="6" t="str" cm="1">
+        <f t="array" ref="M202">_xll.GEO_COUNTRY(B202,C202)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N202" s="6" t="str" cm="1">
+        <f t="array" ref="N202">_xll.GEO_CITY(B202,C202)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O202" s="6" t="str" cm="1">
+        <f t="array" ref="O202">_xll.GEO_TIMEZONE(B202,C202)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="str">
         <v>Z199</v>
       </c>
@@ -10746,8 +13162,20 @@
         <f>_xlfn.XLOOKUP(F203,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.00331806813401</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M203" s="6" t="str" cm="1">
+        <f t="array" ref="M203">_xll.GEO_COUNTRY(B203,C203)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N203" s="6" t="str" cm="1">
+        <f t="array" ref="N203">_xll.GEO_CITY(B203,C203)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O203" s="6" t="str" cm="1">
+        <f t="array" ref="O203">_xll.GEO_TIMEZONE(B203,C203)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="str">
         <v>Z200</v>
       </c>
@@ -10789,8 +13217,20 @@
         <f>_xlfn.XLOOKUP(F204,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.00331806813401</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M204" s="6" t="str" cm="1">
+        <f t="array" ref="M204">_xll.GEO_COUNTRY(B204,C204)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N204" s="6" t="str" cm="1">
+        <f t="array" ref="N204">_xll.GEO_CITY(B204,C204)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O204" s="6" t="str" cm="1">
+        <f t="array" ref="O204">_xll.GEO_TIMEZONE(B204,C204)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="str">
         <v>Z201</v>
       </c>
@@ -10832,8 +13272,20 @@
         <f>_xlfn.XLOOKUP(F205,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.06983109999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M205" s="6" t="str" cm="1">
+        <f t="array" ref="M205">_xll.GEO_COUNTRY(B205,C205)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N205" s="6" t="str" cm="1">
+        <f t="array" ref="N205">_xll.GEO_CITY(B205,C205)</f>
+        <v>Wollert</v>
+      </c>
+      <c r="O205" s="6" t="str" cm="1">
+        <f t="array" ref="O205">_xll.GEO_TIMEZONE(B205,C205)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A206" s="10" t="str">
         <v>Z202</v>
       </c>
@@ -10875,8 +13327,20 @@
         <f>_xlfn.XLOOKUP(F206,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.00331806813401</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M206" s="6" t="str" cm="1">
+        <f t="array" ref="M206">_xll.GEO_COUNTRY(B206,C206)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N206" s="6" t="str" cm="1">
+        <f t="array" ref="N206">_xll.GEO_CITY(B206,C206)</f>
+        <v>Wollert</v>
+      </c>
+      <c r="O206" s="6" t="str" cm="1">
+        <f t="array" ref="O206">_xll.GEO_TIMEZONE(B206,C206)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="str">
         <v>Z203</v>
       </c>
@@ -10918,8 +13382,20 @@
         <f>_xlfn.XLOOKUP(F207,OurLocations[Id],OurLocations[Lon])</f>
         <v>145.11600000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M207" s="6" t="str" cm="1">
+        <f t="array" ref="M207">_xll.GEO_COUNTRY(B207,C207)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N207" s="6" t="str" cm="1">
+        <f t="array" ref="N207">_xll.GEO_CITY(B207,C207)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O207" s="6" t="str" cm="1">
+        <f t="array" ref="O207">_xll.GEO_TIMEZONE(B207,C207)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" s="10" t="str">
         <v>Z204</v>
       </c>
@@ -10961,8 +13437,20 @@
         <f>_xlfn.XLOOKUP(F208,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M208" s="6" t="str" cm="1">
+        <f t="array" ref="M208">_xll.GEO_COUNTRY(B208,C208)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N208" s="6" t="str" cm="1">
+        <f t="array" ref="N208">_xll.GEO_CITY(B208,C208)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O208" s="6" t="str" cm="1">
+        <f t="array" ref="O208">_xll.GEO_TIMEZONE(B208,C208)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="str">
         <v>Z205</v>
       </c>
@@ -11004,8 +13492,20 @@
         <f>_xlfn.XLOOKUP(F209,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M209" s="6" t="str" cm="1">
+        <f t="array" ref="M209">_xll.GEO_COUNTRY(B209,C209)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N209" s="6" t="str" cm="1">
+        <f t="array" ref="N209">_xll.GEO_CITY(B209,C209)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O209" s="6" t="str" cm="1">
+        <f t="array" ref="O209">_xll.GEO_TIMEZONE(B209,C209)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A210" s="10" t="str">
         <v>Z206</v>
       </c>
@@ -11047,8 +13547,20 @@
         <f>_xlfn.XLOOKUP(F210,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M210" s="6" t="str" cm="1">
+        <f t="array" ref="M210">_xll.GEO_COUNTRY(B210,C210)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N210" s="6" t="str" cm="1">
+        <f t="array" ref="N210">_xll.GEO_CITY(B210,C210)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O210" s="6" t="str" cm="1">
+        <f t="array" ref="O210">_xll.GEO_TIMEZONE(B210,C210)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="str">
         <v>Z207</v>
       </c>
@@ -11090,8 +13602,20 @@
         <f>_xlfn.XLOOKUP(F211,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M211" s="6" t="str" cm="1">
+        <f t="array" ref="M211">_xll.GEO_COUNTRY(B211,C211)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N211" s="6" t="str" cm="1">
+        <f t="array" ref="N211">_xll.GEO_CITY(B211,C211)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O211" s="6" t="str" cm="1">
+        <f t="array" ref="O211">_xll.GEO_TIMEZONE(B211,C211)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" s="10" t="str">
         <v>Z208</v>
       </c>
@@ -11133,8 +13657,20 @@
         <f>_xlfn.XLOOKUP(F212,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M212" s="6" t="str" cm="1">
+        <f t="array" ref="M212">_xll.GEO_COUNTRY(B212,C212)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N212" s="6" t="str" cm="1">
+        <f t="array" ref="N212">_xll.GEO_CITY(B212,C212)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O212" s="6" t="str" cm="1">
+        <f t="array" ref="O212">_xll.GEO_TIMEZONE(B212,C212)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="str">
         <v>Z209</v>
       </c>
@@ -11176,8 +13712,20 @@
         <f>_xlfn.XLOOKUP(F213,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M213" s="6" t="str" cm="1">
+        <f t="array" ref="M213">_xll.GEO_COUNTRY(B213,C213)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N213" s="6" t="str" cm="1">
+        <f t="array" ref="N213">_xll.GEO_CITY(B213,C213)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O213" s="6" t="str" cm="1">
+        <f t="array" ref="O213">_xll.GEO_TIMEZONE(B213,C213)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" s="10" t="str">
         <v>Z210</v>
       </c>
@@ -11219,8 +13767,20 @@
         <f>_xlfn.XLOOKUP(F214,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.10307739999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M214" s="6" t="str" cm="1">
+        <f t="array" ref="M214">_xll.GEO_COUNTRY(B214,C214)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N214" s="6" t="str" cm="1">
+        <f t="array" ref="N214">_xll.GEO_CITY(B214,C214)</f>
+        <v>Newcastle</v>
+      </c>
+      <c r="O214" s="6" t="str" cm="1">
+        <f t="array" ref="O214">_xll.GEO_TIMEZONE(B214,C214)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="str">
         <v>Z211</v>
       </c>
@@ -11262,8 +13822,20 @@
         <f>_xlfn.XLOOKUP(F215,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M215" s="6" t="str" cm="1">
+        <f t="array" ref="M215">_xll.GEO_COUNTRY(B215,C215)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N215" s="6" t="str" cm="1">
+        <f t="array" ref="N215">_xll.GEO_CITY(B215,C215)</f>
+        <v>Coolum Beach</v>
+      </c>
+      <c r="O215" s="6" t="str" cm="1">
+        <f t="array" ref="O215">_xll.GEO_TIMEZONE(B215,C215)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" s="10" t="str">
         <v>Z212</v>
       </c>
@@ -11305,8 +13877,20 @@
         <f>_xlfn.XLOOKUP(F216,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9516404</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M216" s="6" t="str" cm="1">
+        <f t="array" ref="M216">_xll.GEO_COUNTRY(B216,C216)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N216" s="6" t="str" cm="1">
+        <f t="array" ref="N216">_xll.GEO_CITY(B216,C216)</f>
+        <v>Geelong</v>
+      </c>
+      <c r="O216" s="6" t="str" cm="1">
+        <f t="array" ref="O216">_xll.GEO_TIMEZONE(B216,C216)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="str">
         <v>Z213</v>
       </c>
@@ -11348,8 +13932,20 @@
         <f>_xlfn.XLOOKUP(F217,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M217" s="6" t="str" cm="1">
+        <f t="array" ref="M217">_xll.GEO_COUNTRY(B217,C217)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N217" s="6" t="str" cm="1">
+        <f t="array" ref="N217">_xll.GEO_CITY(B217,C217)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O217" s="6" t="str" cm="1">
+        <f t="array" ref="O217">_xll.GEO_TIMEZONE(B217,C217)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" s="10" t="str">
         <v>Z214</v>
       </c>
@@ -11391,8 +13987,20 @@
         <f>_xlfn.XLOOKUP(F218,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M218" s="6" t="str" cm="1">
+        <f t="array" ref="M218">_xll.GEO_COUNTRY(B218,C218)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N218" s="6" t="str" cm="1">
+        <f t="array" ref="N218">_xll.GEO_CITY(B218,C218)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O218" s="6" t="str" cm="1">
+        <f t="array" ref="O218">_xll.GEO_TIMEZONE(B218,C218)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="str">
         <v>Z215</v>
       </c>
@@ -11434,8 +14042,20 @@
         <f>_xlfn.XLOOKUP(F219,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M219" s="6" t="str" cm="1">
+        <f t="array" ref="M219">_xll.GEO_COUNTRY(B219,C219)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N219" s="6" t="str" cm="1">
+        <f t="array" ref="N219">_xll.GEO_CITY(B219,C219)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O219" s="6" t="str" cm="1">
+        <f t="array" ref="O219">_xll.GEO_TIMEZONE(B219,C219)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" s="10" t="str">
         <v>Z216</v>
       </c>
@@ -11477,8 +14097,20 @@
         <f>_xlfn.XLOOKUP(F220,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M220" s="6" t="str" cm="1">
+        <f t="array" ref="M220">_xll.GEO_COUNTRY(B220,C220)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N220" s="6" t="str" cm="1">
+        <f t="array" ref="N220">_xll.GEO_CITY(B220,C220)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O220" s="6" t="str" cm="1">
+        <f t="array" ref="O220">_xll.GEO_TIMEZONE(B220,C220)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="str">
         <v>Z217</v>
       </c>
@@ -11520,8 +14152,20 @@
         <f>_xlfn.XLOOKUP(F221,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M221" s="6" t="str" cm="1">
+        <f t="array" ref="M221">_xll.GEO_COUNTRY(B221,C221)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N221" s="6" t="str" cm="1">
+        <f t="array" ref="N221">_xll.GEO_CITY(B221,C221)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O221" s="6" t="str" cm="1">
+        <f t="array" ref="O221">_xll.GEO_TIMEZONE(B221,C221)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" s="10" t="str">
         <v>Z218</v>
       </c>
@@ -11563,8 +14207,20 @@
         <f>_xlfn.XLOOKUP(F222,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M222" s="6" t="str" cm="1">
+        <f t="array" ref="M222">_xll.GEO_COUNTRY(B222,C222)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N222" s="6" t="str" cm="1">
+        <f t="array" ref="N222">_xll.GEO_CITY(B222,C222)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O222" s="6" t="str" cm="1">
+        <f t="array" ref="O222">_xll.GEO_TIMEZONE(B222,C222)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="str">
         <v>Z219</v>
       </c>
@@ -11606,8 +14262,20 @@
         <f>_xlfn.XLOOKUP(F223,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M223" s="6" t="str" cm="1">
+        <f t="array" ref="M223">_xll.GEO_COUNTRY(B223,C223)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N223" s="6" t="str" cm="1">
+        <f t="array" ref="N223">_xll.GEO_CITY(B223,C223)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O223" s="6" t="str" cm="1">
+        <f t="array" ref="O223">_xll.GEO_TIMEZONE(B223,C223)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" s="10" t="str">
         <v>Z220</v>
       </c>
@@ -11649,8 +14317,20 @@
         <f>_xlfn.XLOOKUP(F224,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M224" s="6" t="str" cm="1">
+        <f t="array" ref="M224">_xll.GEO_COUNTRY(B224,C224)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N224" s="6" t="str" cm="1">
+        <f t="array" ref="N224">_xll.GEO_CITY(B224,C224)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O224" s="6" t="str" cm="1">
+        <f t="array" ref="O224">_xll.GEO_TIMEZONE(B224,C224)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="str">
         <v>Z221</v>
       </c>
@@ -11692,8 +14372,20 @@
         <f>_xlfn.XLOOKUP(F225,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8521161</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M225" s="6" t="str" cm="1">
+        <f t="array" ref="M225">_xll.GEO_COUNTRY(B225,C225)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N225" s="6" t="str" cm="1">
+        <f t="array" ref="N225">_xll.GEO_CITY(B225,C225)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O225" s="6" t="str" cm="1">
+        <f t="array" ref="O225">_xll.GEO_TIMEZONE(B225,C225)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" s="10" t="str">
         <v>Z222</v>
       </c>
@@ -11735,8 +14427,20 @@
         <f>_xlfn.XLOOKUP(F226,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M226" s="6" t="str" cm="1">
+        <f t="array" ref="M226">_xll.GEO_COUNTRY(B226,C226)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N226" s="6" t="str" cm="1">
+        <f t="array" ref="N226">_xll.GEO_CITY(B226,C226)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O226" s="6" t="str" cm="1">
+        <f t="array" ref="O226">_xll.GEO_TIMEZONE(B226,C226)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="str">
         <v>Z223</v>
       </c>
@@ -11778,8 +14482,20 @@
         <f>_xlfn.XLOOKUP(F227,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.85899999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M227" s="6" t="str" cm="1">
+        <f t="array" ref="M227">_xll.GEO_COUNTRY(B227,C227)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N227" s="6" t="str" cm="1">
+        <f t="array" ref="N227">_xll.GEO_CITY(B227,C227)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O227" s="6" t="str" cm="1">
+        <f t="array" ref="O227">_xll.GEO_TIMEZONE(B227,C227)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" s="10" t="str">
         <v>Z224</v>
       </c>
@@ -11821,8 +14537,20 @@
         <f>_xlfn.XLOOKUP(F228,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8521161</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M228" s="6" t="str" cm="1">
+        <f t="array" ref="M228">_xll.GEO_COUNTRY(B228,C228)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N228" s="6" t="str" cm="1">
+        <f t="array" ref="N228">_xll.GEO_CITY(B228,C228)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O228" s="6" t="str" cm="1">
+        <f t="array" ref="O228">_xll.GEO_TIMEZONE(B228,C228)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="str">
         <v>Z225</v>
       </c>
@@ -11864,8 +14592,20 @@
         <f>_xlfn.XLOOKUP(F229,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8521161</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M229" s="6" t="str" cm="1">
+        <f t="array" ref="M229">_xll.GEO_COUNTRY(B229,C229)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N229" s="6" t="str" cm="1">
+        <f t="array" ref="N229">_xll.GEO_CITY(B229,C229)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O229" s="6" t="str" cm="1">
+        <f t="array" ref="O229">_xll.GEO_TIMEZONE(B229,C229)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" s="10" t="str">
         <v>Z226</v>
       </c>
@@ -11907,8 +14647,20 @@
         <f>_xlfn.XLOOKUP(F230,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8571559</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M230" s="6" t="str" cm="1">
+        <f t="array" ref="M230">_xll.GEO_COUNTRY(B230,C230)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N230" s="6" t="str" cm="1">
+        <f t="array" ref="N230">_xll.GEO_CITY(B230,C230)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O230" s="6" t="str" cm="1">
+        <f t="array" ref="O230">_xll.GEO_TIMEZONE(B230,C230)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="str">
         <v>Z227</v>
       </c>
@@ -11950,8 +14702,20 @@
         <f>_xlfn.XLOOKUP(F231,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8521161</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M231" s="6" t="str" cm="1">
+        <f t="array" ref="M231">_xll.GEO_COUNTRY(B231,C231)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N231" s="6" t="str" cm="1">
+        <f t="array" ref="N231">_xll.GEO_CITY(B231,C231)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O231" s="6" t="str" cm="1">
+        <f t="array" ref="O231">_xll.GEO_TIMEZONE(B231,C231)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A232" s="10" t="str">
         <v>Z228</v>
       </c>
@@ -11993,8 +14757,20 @@
         <f>_xlfn.XLOOKUP(F232,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.84551860000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M232" s="6" t="str" cm="1">
+        <f t="array" ref="M232">_xll.GEO_COUNTRY(B232,C232)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N232" s="6" t="str" cm="1">
+        <f t="array" ref="N232">_xll.GEO_CITY(B232,C232)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O232" s="6" t="str" cm="1">
+        <f t="array" ref="O232">_xll.GEO_TIMEZONE(B232,C232)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="str">
         <v>Z229</v>
       </c>
@@ -12036,8 +14812,20 @@
         <f>_xlfn.XLOOKUP(F233,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.8571559</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M233" s="6" t="str" cm="1">
+        <f t="array" ref="M233">_xll.GEO_COUNTRY(B233,C233)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N233" s="6" t="str" cm="1">
+        <f t="array" ref="N233">_xll.GEO_CITY(B233,C233)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O233" s="6" t="str" cm="1">
+        <f t="array" ref="O233">_xll.GEO_TIMEZONE(B233,C233)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A234" s="10" t="str">
         <v>Z230</v>
       </c>
@@ -12079,8 +14867,20 @@
         <f>_xlfn.XLOOKUP(F234,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.84551860000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M234" s="6" t="str" cm="1">
+        <f t="array" ref="M234">_xll.GEO_COUNTRY(B234,C234)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N234" s="6" t="str" cm="1">
+        <f t="array" ref="N234">_xll.GEO_CITY(B234,C234)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O234" s="6" t="str" cm="1">
+        <f t="array" ref="O234">_xll.GEO_TIMEZONE(B234,C234)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="str">
         <v>Z231</v>
       </c>
@@ -12122,8 +14922,20 @@
         <f>_xlfn.XLOOKUP(F235,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.84551860000001</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M235" s="6" t="str" cm="1">
+        <f t="array" ref="M235">_xll.GEO_COUNTRY(B235,C235)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N235" s="6" t="str" cm="1">
+        <f t="array" ref="N235">_xll.GEO_CITY(B235,C235)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O235" s="6" t="str" cm="1">
+        <f t="array" ref="O235">_xll.GEO_TIMEZONE(B235,C235)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" s="10" t="str">
         <v>Z232</v>
       </c>
@@ -12165,8 +14977,20 @@
         <f>_xlfn.XLOOKUP(F236,OurLocations[Id],OurLocations[Lon])</f>
         <v>115.81842810000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M236" s="6" t="str" cm="1">
+        <f t="array" ref="M236">_xll.GEO_COUNTRY(B236,C236)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N236" s="6" t="str" cm="1">
+        <f t="array" ref="N236">_xll.GEO_CITY(B236,C236)</f>
+        <v>Perth</v>
+      </c>
+      <c r="O236" s="6" t="str" cm="1">
+        <f t="array" ref="O236">_xll.GEO_TIMEZONE(B236,C236)</f>
+        <v>Australia/Perth</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="str">
         <v>Z233</v>
       </c>
@@ -12208,8 +15032,20 @@
         <f>_xlfn.XLOOKUP(F237,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.9512723</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M237" s="6" t="str" cm="1">
+        <f t="array" ref="M237">_xll.GEO_COUNTRY(B237,C237)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N237" s="6" t="str" cm="1">
+        <f t="array" ref="N237">_xll.GEO_CITY(B237,C237)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O237" s="6" t="str" cm="1">
+        <f t="array" ref="O237">_xll.GEO_TIMEZONE(B237,C237)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" s="10" t="str">
         <v>Z234</v>
       </c>
@@ -12251,8 +15087,20 @@
         <f>_xlfn.XLOOKUP(F238,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M238" s="6" t="str" cm="1">
+        <f t="array" ref="M238">_xll.GEO_COUNTRY(B238,C238)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N238" s="6" t="str" cm="1">
+        <f t="array" ref="N238">_xll.GEO_CITY(B238,C238)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O238" s="6" t="str" cm="1">
+        <f t="array" ref="O238">_xll.GEO_TIMEZONE(B238,C238)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="str">
         <v>Z235</v>
       </c>
@@ -12294,8 +15142,20 @@
         <f>_xlfn.XLOOKUP(F239,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20099999999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M239" s="6" t="str" cm="1">
+        <f t="array" ref="M239">_xll.GEO_COUNTRY(B239,C239)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N239" s="6" t="str" cm="1">
+        <f t="array" ref="N239">_xll.GEO_CITY(B239,C239)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O239" s="6" t="str" cm="1">
+        <f t="array" ref="O239">_xll.GEO_TIMEZONE(B239,C239)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" s="10" t="str">
         <v>Z236</v>
       </c>
@@ -12337,8 +15197,20 @@
         <f>_xlfn.XLOOKUP(F240,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M240" s="6" t="str" cm="1">
+        <f t="array" ref="M240">_xll.GEO_COUNTRY(B240,C240)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N240" s="6" t="str" cm="1">
+        <f t="array" ref="N240">_xll.GEO_CITY(B240,C240)</f>
+        <v>Buderim</v>
+      </c>
+      <c r="O240" s="6" t="str" cm="1">
+        <f t="array" ref="O240">_xll.GEO_TIMEZONE(B240,C240)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="str">
         <v>Z237</v>
       </c>
@@ -12380,8 +15252,20 @@
         <f>_xlfn.XLOOKUP(F241,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M241" s="6" t="str" cm="1">
+        <f t="array" ref="M241">_xll.GEO_COUNTRY(B241,C241)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N241" s="6" t="str" cm="1">
+        <f t="array" ref="N241">_xll.GEO_CITY(B241,C241)</f>
+        <v>Maroochydore</v>
+      </c>
+      <c r="O241" s="6" t="str" cm="1">
+        <f t="array" ref="O241">_xll.GEO_TIMEZONE(B241,C241)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" s="10" t="str">
         <v>Z238</v>
       </c>
@@ -12423,8 +15307,20 @@
         <f>_xlfn.XLOOKUP(F242,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.03377</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M242" s="6" t="str" cm="1">
+        <f t="array" ref="M242">_xll.GEO_COUNTRY(B242,C242)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N242" s="6" t="str" cm="1">
+        <f t="array" ref="N242">_xll.GEO_CITY(B242,C242)</f>
+        <v>Maroochydore</v>
+      </c>
+      <c r="O242" s="6" t="str" cm="1">
+        <f t="array" ref="O242">_xll.GEO_TIMEZONE(B242,C242)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="str">
         <v>Z239</v>
       </c>
@@ -12466,8 +15362,20 @@
         <f>_xlfn.XLOOKUP(F243,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.42684499999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M243" s="6" t="str" cm="1">
+        <f t="array" ref="M243">_xll.GEO_COUNTRY(B243,C243)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N243" s="6" t="str" cm="1">
+        <f t="array" ref="N243">_xll.GEO_CITY(B243,C243)</f>
+        <v>Gold Coast</v>
+      </c>
+      <c r="O243" s="6" t="str" cm="1">
+        <f t="array" ref="O243">_xll.GEO_TIMEZONE(B243,C243)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A244" s="10" t="str">
         <v>Z240</v>
       </c>
@@ -12509,8 +15417,20 @@
         <f>_xlfn.XLOOKUP(F244,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M244" s="6" t="str" cm="1">
+        <f t="array" ref="M244">_xll.GEO_COUNTRY(B244,C244)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N244" s="6" t="str" cm="1">
+        <f t="array" ref="N244">_xll.GEO_CITY(B244,C244)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O244" s="6" t="str" cm="1">
+        <f t="array" ref="O244">_xll.GEO_TIMEZONE(B244,C244)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="str">
         <v>Z241</v>
       </c>
@@ -12552,8 +15472,20 @@
         <f>_xlfn.XLOOKUP(F245,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.90160754173399</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M245" s="6" t="str" cm="1">
+        <f t="array" ref="M245">_xll.GEO_COUNTRY(B245,C245)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N245" s="6" t="str" cm="1">
+        <f t="array" ref="N245">_xll.GEO_CITY(B245,C245)</f>
+        <v>Tahmoor</v>
+      </c>
+      <c r="O245" s="6" t="str" cm="1">
+        <f t="array" ref="O245">_xll.GEO_TIMEZONE(B245,C245)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A246" s="10" t="str">
         <v>Z242</v>
       </c>
@@ -12595,8 +15527,20 @@
         <f>_xlfn.XLOOKUP(F246,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.92500000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M246" s="6" t="str" cm="1">
+        <f t="array" ref="M246">_xll.GEO_COUNTRY(B246,C246)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N246" s="6" t="str" cm="1">
+        <f t="array" ref="N246">_xll.GEO_CITY(B246,C246)</f>
+        <v>Campbelltown</v>
+      </c>
+      <c r="O246" s="6" t="str" cm="1">
+        <f t="array" ref="O246">_xll.GEO_TIMEZONE(B246,C246)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="str">
         <v>Z243</v>
       </c>
@@ -12638,8 +15582,20 @@
         <f>_xlfn.XLOOKUP(F247,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.13900000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M247" s="6" t="str" cm="1">
+        <f t="array" ref="M247">_xll.GEO_COUNTRY(B247,C247)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N247" s="6" t="str" cm="1">
+        <f t="array" ref="N247">_xll.GEO_CITY(B247,C247)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O247" s="6" t="str" cm="1">
+        <f t="array" ref="O247">_xll.GEO_TIMEZONE(B247,C247)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" s="10" t="str">
         <v>Z244</v>
       </c>
@@ -12681,8 +15637,20 @@
         <f>_xlfn.XLOOKUP(F248,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.13900000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M248" s="6" t="str" cm="1">
+        <f t="array" ref="M248">_xll.GEO_COUNTRY(B248,C248)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N248" s="6" t="str" cm="1">
+        <f t="array" ref="N248">_xll.GEO_CITY(B248,C248)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O248" s="6" t="str" cm="1">
+        <f t="array" ref="O248">_xll.GEO_TIMEZONE(B248,C248)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="str">
         <v>Z245</v>
       </c>
@@ -12724,8 +15692,20 @@
         <f>_xlfn.XLOOKUP(F249,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M249" s="6" t="str" cm="1">
+        <f t="array" ref="M249">_xll.GEO_COUNTRY(B249,C249)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N249" s="6" t="str" cm="1">
+        <f t="array" ref="N249">_xll.GEO_CITY(B249,C249)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O249" s="6" t="str" cm="1">
+        <f t="array" ref="O249">_xll.GEO_TIMEZONE(B249,C249)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" s="10" t="str">
         <v>Z246</v>
       </c>
@@ -12767,8 +15747,20 @@
         <f>_xlfn.XLOOKUP(F250,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.13900000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M250" s="6" t="str" cm="1">
+        <f t="array" ref="M250">_xll.GEO_COUNTRY(B250,C250)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N250" s="6" t="str" cm="1">
+        <f t="array" ref="N250">_xll.GEO_CITY(B250,C250)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O250" s="6" t="str" cm="1">
+        <f t="array" ref="O250">_xll.GEO_TIMEZONE(B250,C250)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="str">
         <v>Z247</v>
       </c>
@@ -12810,8 +15802,20 @@
         <f>_xlfn.XLOOKUP(F251,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.92500000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M251" s="6" t="str" cm="1">
+        <f t="array" ref="M251">_xll.GEO_COUNTRY(B251,C251)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N251" s="6" t="str" cm="1">
+        <f t="array" ref="N251">_xll.GEO_CITY(B251,C251)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O251" s="6" t="str" cm="1">
+        <f t="array" ref="O251">_xll.GEO_TIMEZONE(B251,C251)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" s="10" t="str">
         <v>Z248</v>
       </c>
@@ -12853,8 +15857,20 @@
         <f>_xlfn.XLOOKUP(F252,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M252" s="6" t="str" cm="1">
+        <f t="array" ref="M252">_xll.GEO_COUNTRY(B252,C252)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N252" s="6" t="str" cm="1">
+        <f t="array" ref="N252">_xll.GEO_CITY(B252,C252)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O252" s="6" t="str" cm="1">
+        <f t="array" ref="O252">_xll.GEO_TIMEZONE(B252,C252)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="str">
         <v>Z249</v>
       </c>
@@ -12896,8 +15912,20 @@
         <f>_xlfn.XLOOKUP(F253,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M253" s="6" t="str" cm="1">
+        <f t="array" ref="M253">_xll.GEO_COUNTRY(B253,C253)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N253" s="6" t="str" cm="1">
+        <f t="array" ref="N253">_xll.GEO_CITY(B253,C253)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O253" s="6" t="str" cm="1">
+        <f t="array" ref="O253">_xll.GEO_TIMEZONE(B253,C253)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A254" s="10" t="str">
         <v>Z250</v>
       </c>
@@ -12939,8 +15967,20 @@
         <f>_xlfn.XLOOKUP(F254,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M254" s="6" t="str" cm="1">
+        <f t="array" ref="M254">_xll.GEO_COUNTRY(B254,C254)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N254" s="6" t="str" cm="1">
+        <f t="array" ref="N254">_xll.GEO_CITY(B254,C254)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O254" s="6" t="str" cm="1">
+        <f t="array" ref="O254">_xll.GEO_TIMEZONE(B254,C254)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="str">
         <v>Z251</v>
       </c>
@@ -12982,8 +16022,20 @@
         <f>_xlfn.XLOOKUP(F255,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M255" s="6" t="str" cm="1">
+        <f t="array" ref="M255">_xll.GEO_COUNTRY(B255,C255)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N255" s="6" t="str" cm="1">
+        <f t="array" ref="N255">_xll.GEO_CITY(B255,C255)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O255" s="6" t="str" cm="1">
+        <f t="array" ref="O255">_xll.GEO_TIMEZONE(B255,C255)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A256" s="10" t="str">
         <v>Z252</v>
       </c>
@@ -13025,8 +16077,20 @@
         <f>_xlfn.XLOOKUP(F256,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M256" s="6" t="str" cm="1">
+        <f t="array" ref="M256">_xll.GEO_COUNTRY(B256,C256)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N256" s="6" t="str" cm="1">
+        <f t="array" ref="N256">_xll.GEO_CITY(B256,C256)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O256" s="6" t="str" cm="1">
+        <f t="array" ref="O256">_xll.GEO_TIMEZONE(B256,C256)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="str">
         <v>Z253</v>
       </c>
@@ -13068,8 +16132,20 @@
         <f>_xlfn.XLOOKUP(F257,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M257" s="6" t="str" cm="1">
+        <f t="array" ref="M257">_xll.GEO_COUNTRY(B257,C257)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N257" s="6" t="str" cm="1">
+        <f t="array" ref="N257">_xll.GEO_CITY(B257,C257)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O257" s="6" t="str" cm="1">
+        <f t="array" ref="O257">_xll.GEO_TIMEZONE(B257,C257)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A258" s="10" t="str">
         <v>Z254</v>
       </c>
@@ -13111,8 +16187,20 @@
         <f>_xlfn.XLOOKUP(F258,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.174363</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M258" s="6" t="str" cm="1">
+        <f t="array" ref="M258">_xll.GEO_COUNTRY(B258,C258)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N258" s="6" t="str" cm="1">
+        <f t="array" ref="N258">_xll.GEO_CITY(B258,C258)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O258" s="6" t="str" cm="1">
+        <f t="array" ref="O258">_xll.GEO_TIMEZONE(B258,C258)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="str">
         <v>Z255</v>
       </c>
@@ -13154,8 +16242,20 @@
         <f>_xlfn.XLOOKUP(F259,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M259" s="6" t="str" cm="1">
+        <f t="array" ref="M259">_xll.GEO_COUNTRY(B259,C259)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N259" s="6" t="str" cm="1">
+        <f t="array" ref="N259">_xll.GEO_CITY(B259,C259)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O259" s="6" t="str" cm="1">
+        <f t="array" ref="O259">_xll.GEO_TIMEZONE(B259,C259)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A260" s="10" t="str">
         <v>Z256</v>
       </c>
@@ -13197,8 +16297,20 @@
         <f>_xlfn.XLOOKUP(F260,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M260" s="6" t="str" cm="1">
+        <f t="array" ref="M260">_xll.GEO_COUNTRY(B260,C260)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N260" s="6" t="str" cm="1">
+        <f t="array" ref="N260">_xll.GEO_CITY(B260,C260)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O260" s="6" t="str" cm="1">
+        <f t="array" ref="O260">_xll.GEO_TIMEZONE(B260,C260)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="str">
         <v>Z257</v>
       </c>
@@ -13240,8 +16352,20 @@
         <f>_xlfn.XLOOKUP(F261,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M261" s="6" t="str" cm="1">
+        <f t="array" ref="M261">_xll.GEO_COUNTRY(B261,C261)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N261" s="6" t="str" cm="1">
+        <f t="array" ref="N261">_xll.GEO_CITY(B261,C261)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O261" s="6" t="str" cm="1">
+        <f t="array" ref="O261">_xll.GEO_TIMEZONE(B261,C261)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A262" s="10" t="str">
         <v>Z258</v>
       </c>
@@ -13283,8 +16407,20 @@
         <f>_xlfn.XLOOKUP(F262,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M262" s="6" t="str" cm="1">
+        <f t="array" ref="M262">_xll.GEO_COUNTRY(B262,C262)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N262" s="6" t="str" cm="1">
+        <f t="array" ref="N262">_xll.GEO_CITY(B262,C262)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O262" s="6" t="str" cm="1">
+        <f t="array" ref="O262">_xll.GEO_TIMEZONE(B262,C262)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="str">
         <v>Z259</v>
       </c>
@@ -13326,8 +16462,20 @@
         <f>_xlfn.XLOOKUP(F263,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M263" s="6" t="str" cm="1">
+        <f t="array" ref="M263">_xll.GEO_COUNTRY(B263,C263)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N263" s="6" t="str" cm="1">
+        <f t="array" ref="N263">_xll.GEO_CITY(B263,C263)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O263" s="6" t="str" cm="1">
+        <f t="array" ref="O263">_xll.GEO_TIMEZONE(B263,C263)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A264" s="10" t="str">
         <v>Z260</v>
       </c>
@@ -13369,8 +16517,20 @@
         <f>_xlfn.XLOOKUP(F264,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M264" s="6" t="str" cm="1">
+        <f t="array" ref="M264">_xll.GEO_COUNTRY(B264,C264)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N264" s="6" t="str" cm="1">
+        <f t="array" ref="N264">_xll.GEO_CITY(B264,C264)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O264" s="6" t="str" cm="1">
+        <f t="array" ref="O264">_xll.GEO_TIMEZONE(B264,C264)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="str">
         <v>Z261</v>
       </c>
@@ -13412,8 +16572,20 @@
         <f>_xlfn.XLOOKUP(F265,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M265" s="6" t="str" cm="1">
+        <f t="array" ref="M265">_xll.GEO_COUNTRY(B265,C265)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N265" s="6" t="str" cm="1">
+        <f t="array" ref="N265">_xll.GEO_CITY(B265,C265)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O265" s="6" t="str" cm="1">
+        <f t="array" ref="O265">_xll.GEO_TIMEZONE(B265,C265)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A266" s="10" t="str">
         <v>Z262</v>
       </c>
@@ -13455,8 +16627,20 @@
         <f>_xlfn.XLOOKUP(F266,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20661079999999</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M266" s="6" t="str" cm="1">
+        <f t="array" ref="M266">_xll.GEO_COUNTRY(B266,C266)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N266" s="6" t="str" cm="1">
+        <f t="array" ref="N266">_xll.GEO_CITY(B266,C266)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O266" s="6" t="str" cm="1">
+        <f t="array" ref="O266">_xll.GEO_TIMEZONE(B266,C266)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="str">
         <v>Z263</v>
       </c>
@@ -13498,8 +16682,20 @@
         <f>_xlfn.XLOOKUP(F267,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M267" s="6" t="str" cm="1">
+        <f t="array" ref="M267">_xll.GEO_COUNTRY(B267,C267)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N267" s="6" t="str" cm="1">
+        <f t="array" ref="N267">_xll.GEO_CITY(B267,C267)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O267" s="6" t="str" cm="1">
+        <f t="array" ref="O267">_xll.GEO_TIMEZONE(B267,C267)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A268" s="10" t="str">
         <v>Z264</v>
       </c>
@@ -13541,8 +16737,20 @@
         <f>_xlfn.XLOOKUP(F268,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M268" s="6" t="str" cm="1">
+        <f t="array" ref="M268">_xll.GEO_COUNTRY(B268,C268)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N268" s="6" t="str" cm="1">
+        <f t="array" ref="N268">_xll.GEO_CITY(B268,C268)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O268" s="6" t="str" cm="1">
+        <f t="array" ref="O268">_xll.GEO_TIMEZONE(B268,C268)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="str">
         <v>Z265</v>
       </c>
@@ -13584,8 +16792,20 @@
         <f>_xlfn.XLOOKUP(F269,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M269" s="6" t="str" cm="1">
+        <f t="array" ref="M269">_xll.GEO_COUNTRY(B269,C269)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N269" s="6" t="str" cm="1">
+        <f t="array" ref="N269">_xll.GEO_CITY(B269,C269)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O269" s="6" t="str" cm="1">
+        <f t="array" ref="O269">_xll.GEO_TIMEZONE(B269,C269)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A270" s="10" t="str">
         <v>Z266</v>
       </c>
@@ -13627,8 +16847,20 @@
         <f>_xlfn.XLOOKUP(F270,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M270" s="6" t="str" cm="1">
+        <f t="array" ref="M270">_xll.GEO_COUNTRY(B270,C270)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N270" s="6" t="str" cm="1">
+        <f t="array" ref="N270">_xll.GEO_CITY(B270,C270)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O270" s="6" t="str" cm="1">
+        <f t="array" ref="O270">_xll.GEO_TIMEZONE(B270,C270)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="str">
         <v>Z267</v>
       </c>
@@ -13670,8 +16902,20 @@
         <f>_xlfn.XLOOKUP(F271,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20815999999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M271" s="6" t="str" cm="1">
+        <f t="array" ref="M271">_xll.GEO_COUNTRY(B271,C271)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N271" s="6" t="str" cm="1">
+        <f t="array" ref="N271">_xll.GEO_CITY(B271,C271)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O271" s="6" t="str" cm="1">
+        <f t="array" ref="O271">_xll.GEO_TIMEZONE(B271,C271)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A272" s="10" t="str">
         <v>Z268</v>
       </c>
@@ -13713,8 +16957,20 @@
         <f>_xlfn.XLOOKUP(F272,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M272" s="6" t="str" cm="1">
+        <f t="array" ref="M272">_xll.GEO_COUNTRY(B272,C272)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N272" s="6" t="str" cm="1">
+        <f t="array" ref="N272">_xll.GEO_CITY(B272,C272)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O272" s="6" t="str" cm="1">
+        <f t="array" ref="O272">_xll.GEO_TIMEZONE(B272,C272)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="str">
         <v>Z269</v>
       </c>
@@ -13756,8 +17012,20 @@
         <f>_xlfn.XLOOKUP(F273,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M273" s="6" t="str" cm="1">
+        <f t="array" ref="M273">_xll.GEO_COUNTRY(B273,C273)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N273" s="6" t="str" cm="1">
+        <f t="array" ref="N273">_xll.GEO_CITY(B273,C273)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O273" s="6" t="str" cm="1">
+        <f t="array" ref="O273">_xll.GEO_TIMEZONE(B273,C273)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A274" s="10" t="str">
         <v>Z270</v>
       </c>
@@ -13799,8 +17067,20 @@
         <f>_xlfn.XLOOKUP(F274,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M274" s="6" t="str" cm="1">
+        <f t="array" ref="M274">_xll.GEO_COUNTRY(B274,C274)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N274" s="6" t="str" cm="1">
+        <f t="array" ref="N274">_xll.GEO_CITY(B274,C274)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O274" s="6" t="str" cm="1">
+        <f t="array" ref="O274">_xll.GEO_TIMEZONE(B274,C274)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="str">
         <v>Z271</v>
       </c>
@@ -13842,8 +17122,20 @@
         <f>_xlfn.XLOOKUP(F275,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M275" s="6" t="str" cm="1">
+        <f t="array" ref="M275">_xll.GEO_COUNTRY(B275,C275)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N275" s="6" t="str" cm="1">
+        <f t="array" ref="N275">_xll.GEO_CITY(B275,C275)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O275" s="6" t="str" cm="1">
+        <f t="array" ref="O275">_xll.GEO_TIMEZONE(B275,C275)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A276" s="10" t="str">
         <v>Z272</v>
       </c>
@@ -13885,8 +17177,20 @@
         <f>_xlfn.XLOOKUP(F276,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M276" s="6" t="str" cm="1">
+        <f t="array" ref="M276">_xll.GEO_COUNTRY(B276,C276)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N276" s="6" t="str" cm="1">
+        <f t="array" ref="N276">_xll.GEO_CITY(B276,C276)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O276" s="6" t="str" cm="1">
+        <f t="array" ref="O276">_xll.GEO_TIMEZONE(B276,C276)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="str">
         <v>Z273</v>
       </c>
@@ -13928,8 +17232,20 @@
         <f>_xlfn.XLOOKUP(F277,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M277" s="6" t="str" cm="1">
+        <f t="array" ref="M277">_xll.GEO_COUNTRY(B277,C277)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N277" s="6" t="str" cm="1">
+        <f t="array" ref="N277">_xll.GEO_CITY(B277,C277)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O277" s="6" t="str" cm="1">
+        <f t="array" ref="O277">_xll.GEO_TIMEZONE(B277,C277)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A278" s="10" t="str">
         <v>Z274</v>
       </c>
@@ -13971,8 +17287,20 @@
         <f>_xlfn.XLOOKUP(F278,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M278" s="6" t="str" cm="1">
+        <f t="array" ref="M278">_xll.GEO_COUNTRY(B278,C278)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N278" s="6" t="str" cm="1">
+        <f t="array" ref="N278">_xll.GEO_CITY(B278,C278)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O278" s="6" t="str" cm="1">
+        <f t="array" ref="O278">_xll.GEO_TIMEZONE(B278,C278)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="str">
         <v>Z275</v>
       </c>
@@ -14014,8 +17342,20 @@
         <f>_xlfn.XLOOKUP(F279,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M279" s="6" t="str" cm="1">
+        <f t="array" ref="M279">_xll.GEO_COUNTRY(B279,C279)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N279" s="6" t="str" cm="1">
+        <f t="array" ref="N279">_xll.GEO_CITY(B279,C279)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O279" s="6" t="str" cm="1">
+        <f t="array" ref="O279">_xll.GEO_TIMEZONE(B279,C279)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A280" s="10" t="str">
         <v>Z276</v>
       </c>
@@ -14057,8 +17397,20 @@
         <f>_xlfn.XLOOKUP(F280,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M280" s="6" t="str" cm="1">
+        <f t="array" ref="M280">_xll.GEO_COUNTRY(B280,C280)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N280" s="6" t="str" cm="1">
+        <f t="array" ref="N280">_xll.GEO_CITY(B280,C280)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O280" s="6" t="str" cm="1">
+        <f t="array" ref="O280">_xll.GEO_TIMEZONE(B280,C280)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="str">
         <v>Z277</v>
       </c>
@@ -14100,8 +17452,20 @@
         <f>_xlfn.XLOOKUP(F281,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M281" s="6" t="str" cm="1">
+        <f t="array" ref="M281">_xll.GEO_COUNTRY(B281,C281)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N281" s="6" t="str" cm="1">
+        <f t="array" ref="N281">_xll.GEO_CITY(B281,C281)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O281" s="6" t="str" cm="1">
+        <f t="array" ref="O281">_xll.GEO_TIMEZONE(B281,C281)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A282" s="10" t="str">
         <v>Z278</v>
       </c>
@@ -14143,8 +17507,20 @@
         <f>_xlfn.XLOOKUP(F282,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M282" s="6" t="str" cm="1">
+        <f t="array" ref="M282">_xll.GEO_COUNTRY(B282,C282)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N282" s="6" t="str" cm="1">
+        <f t="array" ref="N282">_xll.GEO_CITY(B282,C282)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O282" s="6" t="str" cm="1">
+        <f t="array" ref="O282">_xll.GEO_TIMEZONE(B282,C282)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="str">
         <v>Z279</v>
       </c>
@@ -14186,8 +17562,20 @@
         <f>_xlfn.XLOOKUP(F283,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M283" s="6" t="str" cm="1">
+        <f t="array" ref="M283">_xll.GEO_COUNTRY(B283,C283)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N283" s="6" t="str" cm="1">
+        <f t="array" ref="N283">_xll.GEO_CITY(B283,C283)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O283" s="6" t="str" cm="1">
+        <f t="array" ref="O283">_xll.GEO_TIMEZONE(B283,C283)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A284" s="10" t="str">
         <v>Z280</v>
       </c>
@@ -14229,8 +17617,20 @@
         <f>_xlfn.XLOOKUP(F284,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M284" s="6" t="str" cm="1">
+        <f t="array" ref="M284">_xll.GEO_COUNTRY(B284,C284)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N284" s="6" t="str" cm="1">
+        <f t="array" ref="N284">_xll.GEO_CITY(B284,C284)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O284" s="6" t="str" cm="1">
+        <f t="array" ref="O284">_xll.GEO_TIMEZONE(B284,C284)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="str">
         <v>Z281</v>
       </c>
@@ -14272,8 +17672,20 @@
         <f>_xlfn.XLOOKUP(F285,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20400000000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M285" s="6" t="str" cm="1">
+        <f t="array" ref="M285">_xll.GEO_COUNTRY(B285,C285)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N285" s="6" t="str" cm="1">
+        <f t="array" ref="N285">_xll.GEO_CITY(B285,C285)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O285" s="6" t="str" cm="1">
+        <f t="array" ref="O285">_xll.GEO_TIMEZONE(B285,C285)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A286" s="10" t="str">
         <v>Z282</v>
       </c>
@@ -14315,8 +17727,20 @@
         <f>_xlfn.XLOOKUP(F286,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M286" s="6" t="str" cm="1">
+        <f t="array" ref="M286">_xll.GEO_COUNTRY(B286,C286)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N286" s="6" t="str" cm="1">
+        <f t="array" ref="N286">_xll.GEO_CITY(B286,C286)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O286" s="6" t="str" cm="1">
+        <f t="array" ref="O286">_xll.GEO_TIMEZONE(B286,C286)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="str">
         <v>Z283</v>
       </c>
@@ -14358,8 +17782,20 @@
         <f>_xlfn.XLOOKUP(F287,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M287" s="6" t="str" cm="1">
+        <f t="array" ref="M287">_xll.GEO_COUNTRY(B287,C287)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N287" s="6" t="str" cm="1">
+        <f t="array" ref="N287">_xll.GEO_CITY(B287,C287)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O287" s="6" t="str" cm="1">
+        <f t="array" ref="O287">_xll.GEO_TIMEZONE(B287,C287)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A288" s="10" t="str">
         <v>Z284</v>
       </c>
@@ -14401,8 +17837,20 @@
         <f>_xlfn.XLOOKUP(F288,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M288" s="6" t="str" cm="1">
+        <f t="array" ref="M288">_xll.GEO_COUNTRY(B288,C288)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N288" s="6" t="str" cm="1">
+        <f t="array" ref="N288">_xll.GEO_CITY(B288,C288)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O288" s="6" t="str" cm="1">
+        <f t="array" ref="O288">_xll.GEO_TIMEZONE(B288,C288)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="str">
         <v>Z285</v>
       </c>
@@ -14444,8 +17892,20 @@
         <f>_xlfn.XLOOKUP(F289,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M289" s="6" t="str" cm="1">
+        <f t="array" ref="M289">_xll.GEO_COUNTRY(B289,C289)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N289" s="6" t="str" cm="1">
+        <f t="array" ref="N289">_xll.GEO_CITY(B289,C289)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O289" s="6" t="str" cm="1">
+        <f t="array" ref="O289">_xll.GEO_TIMEZONE(B289,C289)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A290" s="10" t="str">
         <v>Z286</v>
       </c>
@@ -14487,8 +17947,20 @@
         <f>_xlfn.XLOOKUP(F290,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M290" s="6" t="str" cm="1">
+        <f t="array" ref="M290">_xll.GEO_COUNTRY(B290,C290)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N290" s="6" t="str" cm="1">
+        <f t="array" ref="N290">_xll.GEO_CITY(B290,C290)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O290" s="6" t="str" cm="1">
+        <f t="array" ref="O290">_xll.GEO_TIMEZONE(B290,C290)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="str">
         <v>Z287</v>
       </c>
@@ -14530,8 +18002,20 @@
         <f>_xlfn.XLOOKUP(F291,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M291" s="6" t="str" cm="1">
+        <f t="array" ref="M291">_xll.GEO_COUNTRY(B291,C291)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N291" s="6" t="str" cm="1">
+        <f t="array" ref="N291">_xll.GEO_CITY(B291,C291)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O291" s="6" t="str" cm="1">
+        <f t="array" ref="O291">_xll.GEO_TIMEZONE(B291,C291)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A292" s="10" t="str">
         <v>Z288</v>
       </c>
@@ -14573,8 +18057,20 @@
         <f>_xlfn.XLOOKUP(F292,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M292" s="6" t="str" cm="1">
+        <f t="array" ref="M292">_xll.GEO_COUNTRY(B292,C292)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N292" s="6" t="str" cm="1">
+        <f t="array" ref="N292">_xll.GEO_CITY(B292,C292)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O292" s="6" t="str" cm="1">
+        <f t="array" ref="O292">_xll.GEO_TIMEZONE(B292,C292)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="str">
         <v>Z289</v>
       </c>
@@ -14616,8 +18112,20 @@
         <f>_xlfn.XLOOKUP(F293,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M293" s="6" t="str" cm="1">
+        <f t="array" ref="M293">_xll.GEO_COUNTRY(B293,C293)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N293" s="6" t="str" cm="1">
+        <f t="array" ref="N293">_xll.GEO_CITY(B293,C293)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O293" s="6" t="str" cm="1">
+        <f t="array" ref="O293">_xll.GEO_TIMEZONE(B293,C293)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A294" s="10" t="str">
         <v>Z290</v>
       </c>
@@ -14659,8 +18167,20 @@
         <f>_xlfn.XLOOKUP(F294,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M294" s="6" t="str" cm="1">
+        <f t="array" ref="M294">_xll.GEO_COUNTRY(B294,C294)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N294" s="6" t="str" cm="1">
+        <f t="array" ref="N294">_xll.GEO_CITY(B294,C294)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O294" s="6" t="str" cm="1">
+        <f t="array" ref="O294">_xll.GEO_TIMEZONE(B294,C294)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="str">
         <v>Z291</v>
       </c>
@@ -14702,8 +18222,20 @@
         <f>_xlfn.XLOOKUP(F295,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M295" s="6" t="str" cm="1">
+        <f t="array" ref="M295">_xll.GEO_COUNTRY(B295,C295)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N295" s="6" t="str" cm="1">
+        <f t="array" ref="N295">_xll.GEO_CITY(B295,C295)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O295" s="6" t="str" cm="1">
+        <f t="array" ref="O295">_xll.GEO_TIMEZONE(B295,C295)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A296" s="10" t="str">
         <v>Z292</v>
       </c>
@@ -14745,8 +18277,20 @@
         <f>_xlfn.XLOOKUP(F296,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M296" s="6" t="str" cm="1">
+        <f t="array" ref="M296">_xll.GEO_COUNTRY(B296,C296)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N296" s="6" t="str" cm="1">
+        <f t="array" ref="N296">_xll.GEO_CITY(B296,C296)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O296" s="6" t="str" cm="1">
+        <f t="array" ref="O296">_xll.GEO_TIMEZONE(B296,C296)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="str">
         <v>Z293</v>
       </c>
@@ -14788,8 +18332,20 @@
         <f>_xlfn.XLOOKUP(F297,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M297" s="6" t="str" cm="1">
+        <f t="array" ref="M297">_xll.GEO_COUNTRY(B297,C297)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N297" s="6" t="str" cm="1">
+        <f t="array" ref="N297">_xll.GEO_CITY(B297,C297)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O297" s="6" t="str" cm="1">
+        <f t="array" ref="O297">_xll.GEO_TIMEZONE(B297,C297)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A298" s="10" t="str">
         <v>Z294</v>
       </c>
@@ -14831,8 +18387,20 @@
         <f>_xlfn.XLOOKUP(F298,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M298" s="6" t="str" cm="1">
+        <f t="array" ref="M298">_xll.GEO_COUNTRY(B298,C298)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N298" s="6" t="str" cm="1">
+        <f t="array" ref="N298">_xll.GEO_CITY(B298,C298)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O298" s="6" t="str" cm="1">
+        <f t="array" ref="O298">_xll.GEO_TIMEZONE(B298,C298)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="str">
         <v>Z295</v>
       </c>
@@ -14874,8 +18442,20 @@
         <f>_xlfn.XLOOKUP(F299,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M299" s="6" t="str" cm="1">
+        <f t="array" ref="M299">_xll.GEO_COUNTRY(B299,C299)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N299" s="6" t="str" cm="1">
+        <f t="array" ref="N299">_xll.GEO_CITY(B299,C299)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O299" s="6" t="str" cm="1">
+        <f t="array" ref="O299">_xll.GEO_TIMEZONE(B299,C299)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A300" s="10" t="str">
         <v>Z296</v>
       </c>
@@ -14917,8 +18497,20 @@
         <f>_xlfn.XLOOKUP(F300,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M300" s="6" t="str" cm="1">
+        <f t="array" ref="M300">_xll.GEO_COUNTRY(B300,C300)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N300" s="6" t="str" cm="1">
+        <f t="array" ref="N300">_xll.GEO_CITY(B300,C300)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O300" s="6" t="str" cm="1">
+        <f t="array" ref="O300">_xll.GEO_TIMEZONE(B300,C300)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="str">
         <v>Z297</v>
       </c>
@@ -14960,8 +18552,20 @@
         <f>_xlfn.XLOOKUP(F301,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M301" s="6" t="str" cm="1">
+        <f t="array" ref="M301">_xll.GEO_COUNTRY(B301,C301)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N301" s="6" t="str" cm="1">
+        <f t="array" ref="N301">_xll.GEO_CITY(B301,C301)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O301" s="6" t="str" cm="1">
+        <f t="array" ref="O301">_xll.GEO_TIMEZONE(B301,C301)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A302" s="10" t="str">
         <v>Z298</v>
       </c>
@@ -15003,8 +18607,20 @@
         <f>_xlfn.XLOOKUP(F302,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M302" s="6" t="str" cm="1">
+        <f t="array" ref="M302">_xll.GEO_COUNTRY(B302,C302)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N302" s="6" t="str" cm="1">
+        <f t="array" ref="N302">_xll.GEO_CITY(B302,C302)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O302" s="6" t="str" cm="1">
+        <f t="array" ref="O302">_xll.GEO_TIMEZONE(B302,C302)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="str">
         <v>Z299</v>
       </c>
@@ -15046,8 +18662,20 @@
         <f>_xlfn.XLOOKUP(F303,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M303" s="6" t="str" cm="1">
+        <f t="array" ref="M303">_xll.GEO_COUNTRY(B303,C303)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N303" s="6" t="str" cm="1">
+        <f t="array" ref="N303">_xll.GEO_CITY(B303,C303)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O303" s="6" t="str" cm="1">
+        <f t="array" ref="O303">_xll.GEO_TIMEZONE(B303,C303)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A304" s="10" t="str">
         <v>Z300</v>
       </c>
@@ -15089,8 +18717,20 @@
         <f>_xlfn.XLOOKUP(F304,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M304" s="6" t="str" cm="1">
+        <f t="array" ref="M304">_xll.GEO_COUNTRY(B304,C304)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N304" s="6" t="str" cm="1">
+        <f t="array" ref="N304">_xll.GEO_CITY(B304,C304)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O304" s="6" t="str" cm="1">
+        <f t="array" ref="O304">_xll.GEO_TIMEZONE(B304,C304)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="str">
         <v>Z301</v>
       </c>
@@ -15132,8 +18772,20 @@
         <f>_xlfn.XLOOKUP(F305,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M305" s="6" t="str" cm="1">
+        <f t="array" ref="M305">_xll.GEO_COUNTRY(B305,C305)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N305" s="6" t="str" cm="1">
+        <f t="array" ref="N305">_xll.GEO_CITY(B305,C305)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O305" s="6" t="str" cm="1">
+        <f t="array" ref="O305">_xll.GEO_TIMEZONE(B305,C305)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" s="10" t="str">
         <v>Z302</v>
       </c>
@@ -15175,8 +18827,20 @@
         <f>_xlfn.XLOOKUP(F306,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M306" s="6" t="str" cm="1">
+        <f t="array" ref="M306">_xll.GEO_COUNTRY(B306,C306)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N306" s="6" t="str" cm="1">
+        <f t="array" ref="N306">_xll.GEO_CITY(B306,C306)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O306" s="6" t="str" cm="1">
+        <f t="array" ref="O306">_xll.GEO_TIMEZONE(B306,C306)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="str">
         <v>Z303</v>
       </c>
@@ -15218,8 +18882,20 @@
         <f>_xlfn.XLOOKUP(F307,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M307" s="6" t="str" cm="1">
+        <f t="array" ref="M307">_xll.GEO_COUNTRY(B307,C307)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N307" s="6" t="str" cm="1">
+        <f t="array" ref="N307">_xll.GEO_CITY(B307,C307)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O307" s="6" t="str" cm="1">
+        <f t="array" ref="O307">_xll.GEO_TIMEZONE(B307,C307)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" s="10" t="str">
         <v>Z304</v>
       </c>
@@ -15261,8 +18937,20 @@
         <f>_xlfn.XLOOKUP(F308,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M308" s="6" t="str" cm="1">
+        <f t="array" ref="M308">_xll.GEO_COUNTRY(B308,C308)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N308" s="6" t="str" cm="1">
+        <f t="array" ref="N308">_xll.GEO_CITY(B308,C308)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O308" s="6" t="str" cm="1">
+        <f t="array" ref="O308">_xll.GEO_TIMEZONE(B308,C308)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="str">
         <v>Z305</v>
       </c>
@@ -15304,8 +18992,20 @@
         <f>_xlfn.XLOOKUP(F309,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M309" s="6" t="str" cm="1">
+        <f t="array" ref="M309">_xll.GEO_COUNTRY(B309,C309)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N309" s="6" t="str" cm="1">
+        <f t="array" ref="N309">_xll.GEO_CITY(B309,C309)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O309" s="6" t="str" cm="1">
+        <f t="array" ref="O309">_xll.GEO_TIMEZONE(B309,C309)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" s="10" t="str">
         <v>Z306</v>
       </c>
@@ -15347,8 +19047,20 @@
         <f>_xlfn.XLOOKUP(F310,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M310" s="6" t="str" cm="1">
+        <f t="array" ref="M310">_xll.GEO_COUNTRY(B310,C310)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N310" s="6" t="str" cm="1">
+        <f t="array" ref="N310">_xll.GEO_CITY(B310,C310)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O310" s="6" t="str" cm="1">
+        <f t="array" ref="O310">_xll.GEO_TIMEZONE(B310,C310)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="str">
         <v>Z307</v>
       </c>
@@ -15390,8 +19102,20 @@
         <f>_xlfn.XLOOKUP(F311,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M311" s="6" t="str" cm="1">
+        <f t="array" ref="M311">_xll.GEO_COUNTRY(B311,C311)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N311" s="6" t="str" cm="1">
+        <f t="array" ref="N311">_xll.GEO_CITY(B311,C311)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O311" s="6" t="str" cm="1">
+        <f t="array" ref="O311">_xll.GEO_TIMEZONE(B311,C311)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" s="10" t="str">
         <v>Z308</v>
       </c>
@@ -15433,8 +19157,20 @@
         <f>_xlfn.XLOOKUP(F312,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M312" s="6" t="str" cm="1">
+        <f t="array" ref="M312">_xll.GEO_COUNTRY(B312,C312)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N312" s="6" t="str" cm="1">
+        <f t="array" ref="N312">_xll.GEO_CITY(B312,C312)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O312" s="6" t="str" cm="1">
+        <f t="array" ref="O312">_xll.GEO_TIMEZONE(B312,C312)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="str">
         <v>Z309</v>
       </c>
@@ -15476,8 +19212,20 @@
         <f>_xlfn.XLOOKUP(F313,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M313" s="6" t="str" cm="1">
+        <f t="array" ref="M313">_xll.GEO_COUNTRY(B313,C313)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N313" s="6" t="str" cm="1">
+        <f t="array" ref="N313">_xll.GEO_CITY(B313,C313)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O313" s="6" t="str" cm="1">
+        <f t="array" ref="O313">_xll.GEO_TIMEZONE(B313,C313)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" s="10" t="str">
         <v>Z310</v>
       </c>
@@ -15519,8 +19267,20 @@
         <f>_xlfn.XLOOKUP(F314,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M314" s="6" t="str" cm="1">
+        <f t="array" ref="M314">_xll.GEO_COUNTRY(B314,C314)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N314" s="6" t="str" cm="1">
+        <f t="array" ref="N314">_xll.GEO_CITY(B314,C314)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O314" s="6" t="str" cm="1">
+        <f t="array" ref="O314">_xll.GEO_TIMEZONE(B314,C314)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="str">
         <v>Z311</v>
       </c>
@@ -15562,8 +19322,20 @@
         <f>_xlfn.XLOOKUP(F315,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M315" s="6" t="str" cm="1">
+        <f t="array" ref="M315">_xll.GEO_COUNTRY(B315,C315)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N315" s="6" t="str" cm="1">
+        <f t="array" ref="N315">_xll.GEO_CITY(B315,C315)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O315" s="6" t="str" cm="1">
+        <f t="array" ref="O315">_xll.GEO_TIMEZONE(B315,C315)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" s="10" t="str">
         <v>Z312</v>
       </c>
@@ -15605,8 +19377,20 @@
         <f>_xlfn.XLOOKUP(F316,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.08759000000001</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M316" s="6" t="str" cm="1">
+        <f t="array" ref="M316">_xll.GEO_COUNTRY(B316,C316)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N316" s="6" t="str" cm="1">
+        <f t="array" ref="N316">_xll.GEO_CITY(B316,C316)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O316" s="6" t="str" cm="1">
+        <f t="array" ref="O316">_xll.GEO_TIMEZONE(B316,C316)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="str">
         <v>Z313</v>
       </c>
@@ -15648,8 +19432,20 @@
         <f>_xlfn.XLOOKUP(F317,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M317" s="6" t="str" cm="1">
+        <f t="array" ref="M317">_xll.GEO_COUNTRY(B317,C317)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N317" s="6" t="str" cm="1">
+        <f t="array" ref="N317">_xll.GEO_CITY(B317,C317)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O317" s="6" t="str" cm="1">
+        <f t="array" ref="O317">_xll.GEO_TIMEZONE(B317,C317)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A318" s="10" t="str">
         <v>Z314</v>
       </c>
@@ -15691,8 +19487,20 @@
         <f>_xlfn.XLOOKUP(F318,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M318" s="6" t="str" cm="1">
+        <f t="array" ref="M318">_xll.GEO_COUNTRY(B318,C318)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N318" s="6" t="str" cm="1">
+        <f t="array" ref="N318">_xll.GEO_CITY(B318,C318)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O318" s="6" t="str" cm="1">
+        <f t="array" ref="O318">_xll.GEO_TIMEZONE(B318,C318)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="str">
         <v>Z315</v>
       </c>
@@ -15734,8 +19542,20 @@
         <f>_xlfn.XLOOKUP(F319,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M319" s="6" t="str" cm="1">
+        <f t="array" ref="M319">_xll.GEO_COUNTRY(B319,C319)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N319" s="6" t="str" cm="1">
+        <f t="array" ref="N319">_xll.GEO_CITY(B319,C319)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O319" s="6" t="str" cm="1">
+        <f t="array" ref="O319">_xll.GEO_TIMEZONE(B319,C319)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" s="10" t="str">
         <v>Z316</v>
       </c>
@@ -15777,8 +19597,20 @@
         <f>_xlfn.XLOOKUP(F320,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.21196860000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M320" s="6" t="str" cm="1">
+        <f t="array" ref="M320">_xll.GEO_COUNTRY(B320,C320)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N320" s="6" t="str" cm="1">
+        <f t="array" ref="N320">_xll.GEO_CITY(B320,C320)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O320" s="6" t="str" cm="1">
+        <f t="array" ref="O320">_xll.GEO_TIMEZONE(B320,C320)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="str">
         <v>Z317</v>
       </c>
@@ -15820,8 +19652,20 @@
         <f>_xlfn.XLOOKUP(F321,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2089727</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M321" s="6" t="str" cm="1">
+        <f t="array" ref="M321">_xll.GEO_COUNTRY(B321,C321)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N321" s="6" t="str" cm="1">
+        <f t="array" ref="N321">_xll.GEO_CITY(B321,C321)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O321" s="6" t="str" cm="1">
+        <f t="array" ref="O321">_xll.GEO_TIMEZONE(B321,C321)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A322" s="10" t="str">
         <v>Z318</v>
       </c>
@@ -15863,8 +19707,20 @@
         <f>_xlfn.XLOOKUP(F322,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M322" s="6" t="str" cm="1">
+        <f t="array" ref="M322">_xll.GEO_COUNTRY(B322,C322)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N322" s="6" t="str" cm="1">
+        <f t="array" ref="N322">_xll.GEO_CITY(B322,C322)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O322" s="6" t="str" cm="1">
+        <f t="array" ref="O322">_xll.GEO_TIMEZONE(B322,C322)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="str">
         <v>Z319</v>
       </c>
@@ -15906,8 +19762,20 @@
         <f>_xlfn.XLOOKUP(F323,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M323" s="6" t="str" cm="1">
+        <f t="array" ref="M323">_xll.GEO_COUNTRY(B323,C323)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N323" s="6" t="str" cm="1">
+        <f t="array" ref="N323">_xll.GEO_CITY(B323,C323)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O323" s="6" t="str" cm="1">
+        <f t="array" ref="O323">_xll.GEO_TIMEZONE(B323,C323)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A324" s="10" t="str">
         <v>Z320</v>
       </c>
@@ -15949,8 +19817,20 @@
         <f>_xlfn.XLOOKUP(F324,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M324" s="6" t="str" cm="1">
+        <f t="array" ref="M324">_xll.GEO_COUNTRY(B324,C324)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N324" s="6" t="str" cm="1">
+        <f t="array" ref="N324">_xll.GEO_CITY(B324,C324)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O324" s="6" t="str" cm="1">
+        <f t="array" ref="O324">_xll.GEO_TIMEZONE(B324,C324)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="str">
         <v>Z321</v>
       </c>
@@ -15992,8 +19872,20 @@
         <f>_xlfn.XLOOKUP(F325,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M325" s="6" t="str" cm="1">
+        <f t="array" ref="M325">_xll.GEO_COUNTRY(B325,C325)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N325" s="6" t="str" cm="1">
+        <f t="array" ref="N325">_xll.GEO_CITY(B325,C325)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O325" s="6" t="str" cm="1">
+        <f t="array" ref="O325">_xll.GEO_TIMEZONE(B325,C325)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A326" s="10" t="str">
         <v>Z322</v>
       </c>
@@ -16035,8 +19927,20 @@
         <f>_xlfn.XLOOKUP(F326,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M326" s="6" t="str" cm="1">
+        <f t="array" ref="M326">_xll.GEO_COUNTRY(B326,C326)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N326" s="6" t="str" cm="1">
+        <f t="array" ref="N326">_xll.GEO_CITY(B326,C326)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O326" s="6" t="str" cm="1">
+        <f t="array" ref="O326">_xll.GEO_TIMEZONE(B326,C326)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="str">
         <v>Z323</v>
       </c>
@@ -16078,8 +19982,20 @@
         <f>_xlfn.XLOOKUP(F327,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M327" s="6" t="str" cm="1">
+        <f t="array" ref="M327">_xll.GEO_COUNTRY(B327,C327)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N327" s="6" t="str" cm="1">
+        <f t="array" ref="N327">_xll.GEO_CITY(B327,C327)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O327" s="6" t="str" cm="1">
+        <f t="array" ref="O327">_xll.GEO_TIMEZONE(B327,C327)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A328" s="10" t="str">
         <v>Z324</v>
       </c>
@@ -16121,8 +20037,20 @@
         <f>_xlfn.XLOOKUP(F328,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20099999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M328" s="6" t="str" cm="1">
+        <f t="array" ref="M328">_xll.GEO_COUNTRY(B328,C328)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N328" s="6" t="str" cm="1">
+        <f t="array" ref="N328">_xll.GEO_CITY(B328,C328)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O328" s="6" t="str" cm="1">
+        <f t="array" ref="O328">_xll.GEO_TIMEZONE(B328,C328)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="str">
         <v>Z325</v>
       </c>
@@ -16164,8 +20092,20 @@
         <f>_xlfn.XLOOKUP(F329,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20099999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M329" s="6" t="str" cm="1">
+        <f t="array" ref="M329">_xll.GEO_COUNTRY(B329,C329)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N329" s="6" t="str" cm="1">
+        <f t="array" ref="N329">_xll.GEO_CITY(B329,C329)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O329" s="6" t="str" cm="1">
+        <f t="array" ref="O329">_xll.GEO_TIMEZONE(B329,C329)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A330" s="10" t="str">
         <v>Z326</v>
       </c>
@@ -16207,8 +20147,20 @@
         <f>_xlfn.XLOOKUP(F330,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20099999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M330" s="6" t="str" cm="1">
+        <f t="array" ref="M330">_xll.GEO_COUNTRY(B330,C330)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N330" s="6" t="str" cm="1">
+        <f t="array" ref="N330">_xll.GEO_CITY(B330,C330)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O330" s="6" t="str" cm="1">
+        <f t="array" ref="O330">_xll.GEO_TIMEZONE(B330,C330)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="str">
         <v>Z327</v>
       </c>
@@ -16250,8 +20202,20 @@
         <f>_xlfn.XLOOKUP(F331,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.20099999999999</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M331" s="6" t="str" cm="1">
+        <f t="array" ref="M331">_xll.GEO_COUNTRY(B331,C331)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N331" s="6" t="str" cm="1">
+        <f t="array" ref="N331">_xll.GEO_CITY(B331,C331)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O331" s="6" t="str" cm="1">
+        <f t="array" ref="O331">_xll.GEO_TIMEZONE(B331,C331)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A332" s="10" t="str">
         <v>Z328</v>
       </c>
@@ -16293,8 +20257,20 @@
         <f>_xlfn.XLOOKUP(F332,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.0065208</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M332" s="6" t="str" cm="1">
+        <f t="array" ref="M332">_xll.GEO_COUNTRY(B332,C332)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N332" s="6" t="str" cm="1">
+        <f t="array" ref="N332">_xll.GEO_CITY(B332,C332)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O332" s="6" t="str" cm="1">
+        <f t="array" ref="O332">_xll.GEO_TIMEZONE(B332,C332)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="str">
         <v>Z329</v>
       </c>
@@ -16336,8 +20312,20 @@
         <f>_xlfn.XLOOKUP(F333,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.009034510433</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M333" s="6" t="str" cm="1">
+        <f t="array" ref="M333">_xll.GEO_COUNTRY(B333,C333)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N333" s="6" t="str" cm="1">
+        <f t="array" ref="N333">_xll.GEO_CITY(B333,C333)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O333" s="6" t="str" cm="1">
+        <f t="array" ref="O333">_xll.GEO_TIMEZONE(B333,C333)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A334" s="10" t="str">
         <v>Z330</v>
       </c>
@@ -16379,8 +20367,20 @@
         <f>_xlfn.XLOOKUP(F334,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.2081968</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M334" s="6" t="str" cm="1">
+        <f t="array" ref="M334">_xll.GEO_COUNTRY(B334,C334)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N334" s="6" t="str" cm="1">
+        <f t="array" ref="N334">_xll.GEO_CITY(B334,C334)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O334" s="6" t="str" cm="1">
+        <f t="array" ref="O334">_xll.GEO_TIMEZONE(B334,C334)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="str">
         <v>Z331</v>
       </c>
@@ -16422,8 +20422,20 @@
         <f>_xlfn.XLOOKUP(F335,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.14562000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M335" s="6" t="str" cm="1">
+        <f t="array" ref="M335">_xll.GEO_COUNTRY(B335,C335)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N335" s="6" t="str" cm="1">
+        <f t="array" ref="N335">_xll.GEO_CITY(B335,C335)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O335" s="6" t="str" cm="1">
+        <f t="array" ref="O335">_xll.GEO_TIMEZONE(B335,C335)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A336" s="10" t="str">
         <v>Z332</v>
       </c>
@@ -16465,8 +20477,20 @@
         <f>_xlfn.XLOOKUP(F336,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.0065208</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M336" s="6" t="str" cm="1">
+        <f t="array" ref="M336">_xll.GEO_COUNTRY(B336,C336)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N336" s="6" t="str" cm="1">
+        <f t="array" ref="N336">_xll.GEO_CITY(B336,C336)</f>
+        <v>Flemington</v>
+      </c>
+      <c r="O336" s="6" t="str" cm="1">
+        <f t="array" ref="O336">_xll.GEO_TIMEZONE(B336,C336)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="str">
         <v>Z333</v>
       </c>
@@ -16508,8 +20532,20 @@
         <f>_xlfn.XLOOKUP(F337,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.17975480337699</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M337" s="6" t="str" cm="1">
+        <f t="array" ref="M337">_xll.GEO_COUNTRY(B337,C337)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N337" s="6" t="str" cm="1">
+        <f t="array" ref="N337">_xll.GEO_CITY(B337,C337)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O337" s="6" t="str" cm="1">
+        <f t="array" ref="O337">_xll.GEO_TIMEZONE(B337,C337)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A338" s="10" t="str">
         <v>Z334</v>
       </c>
@@ -16551,8 +20587,20 @@
         <f>_xlfn.XLOOKUP(F338,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.17975480337699</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M338" s="6" t="str" cm="1">
+        <f t="array" ref="M338">_xll.GEO_COUNTRY(B338,C338)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N338" s="6" t="str" cm="1">
+        <f t="array" ref="N338">_xll.GEO_CITY(B338,C338)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O338" s="6" t="str" cm="1">
+        <f t="array" ref="O338">_xll.GEO_TIMEZONE(B338,C338)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="str">
         <v>Z335</v>
       </c>
@@ -16594,8 +20642,20 @@
         <f>_xlfn.XLOOKUP(F339,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.99992309999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M339" s="6" t="str" cm="1">
+        <f t="array" ref="M339">_xll.GEO_COUNTRY(B339,C339)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N339" s="6" t="str" cm="1">
+        <f t="array" ref="N339">_xll.GEO_CITY(B339,C339)</f>
+        <v>Quakers Hill</v>
+      </c>
+      <c r="O339" s="6" t="str" cm="1">
+        <f t="array" ref="O339">_xll.GEO_TIMEZONE(B339,C339)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A340" s="10" t="str">
         <v>Z336</v>
       </c>
@@ -16637,8 +20697,20 @@
         <f>_xlfn.XLOOKUP(F340,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.92500000000001</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M340" s="6" t="str" cm="1">
+        <f t="array" ref="M340">_xll.GEO_COUNTRY(B340,C340)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N340" s="6" t="str" cm="1">
+        <f t="array" ref="N340">_xll.GEO_CITY(B340,C340)</f>
+        <v>Emu Plains</v>
+      </c>
+      <c r="O340" s="6" t="str" cm="1">
+        <f t="array" ref="O340">_xll.GEO_TIMEZONE(B340,C340)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="str">
         <v>Z337</v>
       </c>
@@ -16680,8 +20752,20 @@
         <f>_xlfn.XLOOKUP(F341,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.17975480337699</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M341" s="6" t="str" cm="1">
+        <f t="array" ref="M341">_xll.GEO_COUNTRY(B341,C341)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N341" s="6" t="str" cm="1">
+        <f t="array" ref="N341">_xll.GEO_CITY(B341,C341)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O341" s="6" t="str" cm="1">
+        <f t="array" ref="O341">_xll.GEO_TIMEZONE(B341,C341)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A342" s="10" t="str">
         <v>Z338</v>
       </c>
@@ -16723,8 +20807,20 @@
         <f>_xlfn.XLOOKUP(F342,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.92500000000001</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M342" s="6" t="str" cm="1">
+        <f t="array" ref="M342">_xll.GEO_COUNTRY(B342,C342)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N342" s="6" t="str" cm="1">
+        <f t="array" ref="N342">_xll.GEO_CITY(B342,C342)</f>
+        <v>Penrith</v>
+      </c>
+      <c r="O342" s="6" t="str" cm="1">
+        <f t="array" ref="O342">_xll.GEO_TIMEZONE(B342,C342)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="str">
         <v>Z339</v>
       </c>
@@ -16766,8 +20862,20 @@
         <f>_xlfn.XLOOKUP(F343,OurLocations[Id],OurLocations[Lon])</f>
         <v>151.17975480337699</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M343" s="6" t="str" cm="1">
+        <f t="array" ref="M343">_xll.GEO_COUNTRY(B343,C343)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N343" s="6" t="str" cm="1">
+        <f t="array" ref="N343">_xll.GEO_CITY(B343,C343)</f>
+        <v>Sydney</v>
+      </c>
+      <c r="O343" s="6" t="str" cm="1">
+        <f t="array" ref="O343">_xll.GEO_TIMEZONE(B343,C343)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A344" s="10" t="str">
         <v>Z340</v>
       </c>
@@ -16809,8 +20917,20 @@
         <f>_xlfn.XLOOKUP(F344,OurLocations[Id],OurLocations[Lon])</f>
         <v>153.0224102</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M344" s="6" t="str" cm="1">
+        <f t="array" ref="M344">_xll.GEO_COUNTRY(B344,C344)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N344" s="6" t="str" cm="1">
+        <f t="array" ref="N344">_xll.GEO_CITY(B344,C344)</f>
+        <v>Toowoomba</v>
+      </c>
+      <c r="O344" s="6" t="str" cm="1">
+        <f t="array" ref="O344">_xll.GEO_TIMEZONE(B344,C344)</f>
+        <v>Australia/Brisbane</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="str">
         <v>Z341</v>
       </c>
@@ -16852,8 +20972,20 @@
         <f>_xlfn.XLOOKUP(F345,OurLocations[Id],OurLocations[Lon])</f>
         <v>144.99700000000001</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M345" s="6" t="str" cm="1">
+        <f t="array" ref="M345">_xll.GEO_COUNTRY(B345,C345)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N345" s="6" t="str" cm="1">
+        <f t="array" ref="N345">_xll.GEO_CITY(B345,C345)</f>
+        <v>Melbourne</v>
+      </c>
+      <c r="O345" s="6" t="str" cm="1">
+        <f t="array" ref="O345">_xll.GEO_TIMEZONE(B345,C345)</f>
+        <v>Australia/Melbourne</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A346" s="10" t="str">
         <v>Z342</v>
       </c>
@@ -16895,8 +21027,20 @@
         <f>_xlfn.XLOOKUP(F346,OurLocations[Id],OurLocations[Lon])</f>
         <v>150.90160754173399</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M346" s="6" t="str" cm="1">
+        <f t="array" ref="M346">_xll.GEO_COUNTRY(B346,C346)</f>
+        <v>Australia</v>
+      </c>
+      <c r="N346" s="6" t="str" cm="1">
+        <f t="array" ref="N346">_xll.GEO_CITY(B346,C346)</f>
+        <v>Helensburgh</v>
+      </c>
+      <c r="O346" s="6" t="str" cm="1">
+        <f t="array" ref="O346">_xll.GEO_TIMEZONE(B346,C346)</f>
+        <v>Australia/Sydney</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="str">
         <v>Z2856</v>
       </c>
@@ -16938,8 +21082,20 @@
         <f>_xlfn.XLOOKUP(F347,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.77755046108999</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M347" s="6" t="str" cm="1">
+        <f t="array" ref="M347">_xll.GEO_COUNTRY(B347,C347)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N347" s="6" t="str" cm="1">
+        <f t="array" ref="N347">_xll.GEO_CITY(B347,C347)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O347" s="6" t="str" cm="1">
+        <f t="array" ref="O347">_xll.GEO_TIMEZONE(B347,C347)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A348" s="10" t="str">
         <v>Z2857</v>
       </c>
@@ -16981,8 +21137,20 @@
         <f>_xlfn.XLOOKUP(F348,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.83921348532999</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M348" s="6" t="str" cm="1">
+        <f t="array" ref="M348">_xll.GEO_COUNTRY(B348,C348)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N348" s="6" t="str" cm="1">
+        <f t="array" ref="N348">_xll.GEO_CITY(B348,C348)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O348" s="6" t="str" cm="1">
+        <f t="array" ref="O348">_xll.GEO_TIMEZONE(B348,C348)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="str">
         <v>Z2858</v>
       </c>
@@ -17024,8 +21192,20 @@
         <f>_xlfn.XLOOKUP(F349,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.765676266882</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M349" s="6" t="str" cm="1">
+        <f t="array" ref="M349">_xll.GEO_COUNTRY(B349,C349)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N349" s="6" t="str" cm="1">
+        <f t="array" ref="N349">_xll.GEO_CITY(B349,C349)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O349" s="6" t="str" cm="1">
+        <f t="array" ref="O349">_xll.GEO_TIMEZONE(B349,C349)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A350" s="10" t="str">
         <v>Z2859</v>
       </c>
@@ -17067,8 +21247,20 @@
         <f>_xlfn.XLOOKUP(F350,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.76670659999999</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M350" s="6" t="str" cm="1">
+        <f t="array" ref="M350">_xll.GEO_COUNTRY(B350,C350)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N350" s="6" t="str" cm="1">
+        <f t="array" ref="N350">_xll.GEO_CITY(B350,C350)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O350" s="6" t="str" cm="1">
+        <f t="array" ref="O350">_xll.GEO_TIMEZONE(B350,C350)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="str">
         <v>Z2860</v>
       </c>
@@ -17110,8 +21302,20 @@
         <f>_xlfn.XLOOKUP(F351,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.76670659999999</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M351" s="6" t="str" cm="1">
+        <f t="array" ref="M351">_xll.GEO_COUNTRY(B351,C351)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N351" s="6" t="str" cm="1">
+        <f t="array" ref="N351">_xll.GEO_CITY(B351,C351)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O351" s="6" t="str" cm="1">
+        <f t="array" ref="O351">_xll.GEO_TIMEZONE(B351,C351)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A352" s="10" t="str">
         <v>Z2861</v>
       </c>
@@ -17153,8 +21357,20 @@
         <f>_xlfn.XLOOKUP(F352,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.755017529908</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M352" s="6" t="str" cm="1">
+        <f t="array" ref="M352">_xll.GEO_COUNTRY(B352,C352)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N352" s="6" t="str" cm="1">
+        <f t="array" ref="N352">_xll.GEO_CITY(B352,C352)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="O352" s="6" t="str" cm="1">
+        <f t="array" ref="O352">_xll.GEO_TIMEZONE(B352,C352)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="str">
         <v>Z2862</v>
       </c>
@@ -17196,8 +21412,20 @@
         <f>_xlfn.XLOOKUP(F353,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.76670659999999</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M353" s="6" t="str" cm="1">
+        <f t="array" ref="M353">_xll.GEO_COUNTRY(B353,C353)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N353" s="6" t="str" cm="1">
+        <f t="array" ref="N353">_xll.GEO_CITY(B353,C353)</f>
+        <v>Northcote</v>
+      </c>
+      <c r="O353" s="6" t="str" cm="1">
+        <f t="array" ref="O353">_xll.GEO_TIMEZONE(B353,C353)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A354" s="10" t="str">
         <v>Z2863</v>
       </c>
@@ -17239,8 +21467,20 @@
         <f>_xlfn.XLOOKUP(F354,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.72995760000001</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M354" s="6" t="str" cm="1">
+        <f t="array" ref="M354">_xll.GEO_COUNTRY(B354,C354)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N354" s="6" t="str" cm="1">
+        <f t="array" ref="N354">_xll.GEO_CITY(B354,C354)</f>
+        <v>Northcote</v>
+      </c>
+      <c r="O354" s="6" t="str" cm="1">
+        <f t="array" ref="O354">_xll.GEO_TIMEZONE(B354,C354)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="str">
         <v>Z2864</v>
       </c>
@@ -17282,8 +21522,20 @@
         <f>_xlfn.XLOOKUP(F355,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.72995760000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M355" s="6" t="str" cm="1">
+        <f t="array" ref="M355">_xll.GEO_COUNTRY(B355,C355)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N355" s="6" t="str" cm="1">
+        <f t="array" ref="N355">_xll.GEO_CITY(B355,C355)</f>
+        <v>Northcote</v>
+      </c>
+      <c r="O355" s="6" t="str" cm="1">
+        <f t="array" ref="O355">_xll.GEO_TIMEZONE(B355,C355)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A356" s="10" t="str">
         <v>Z2865</v>
       </c>
@@ -17325,8 +21577,20 @@
         <f>_xlfn.XLOOKUP(F356,OurLocations[Id],OurLocations[Lon])</f>
         <v>172.63333399999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M356" s="6" t="str" cm="1">
+        <f t="array" ref="M356">_xll.GEO_COUNTRY(B356,C356)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N356" s="6" t="str" cm="1">
+        <f t="array" ref="N356">_xll.GEO_CITY(B356,C356)</f>
+        <v>Christchurch</v>
+      </c>
+      <c r="O356" s="6" t="str" cm="1">
+        <f t="array" ref="O356">_xll.GEO_TIMEZONE(B356,C356)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="str">
         <v>Z2866</v>
       </c>
@@ -17368,8 +21632,20 @@
         <f>_xlfn.XLOOKUP(F357,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.77484039999999</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M357" s="6" t="str" cm="1">
+        <f t="array" ref="M357">_xll.GEO_COUNTRY(B357,C357)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N357" s="6" t="str" cm="1">
+        <f t="array" ref="N357">_xll.GEO_CITY(B357,C357)</f>
+        <v>Wellington</v>
+      </c>
+      <c r="O357" s="6" t="str" cm="1">
+        <f t="array" ref="O357">_xll.GEO_TIMEZONE(B357,C357)</f>
+        <v>Pacific/Auckland</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A358" s="10" t="str">
         <v>Z2867</v>
       </c>
@@ -17410,6 +21686,18 @@
       <c r="L358" s="9">
         <f>_xlfn.XLOOKUP(F358,OurLocations[Id],OurLocations[Lon])</f>
         <v>174.77484039999999</v>
+      </c>
+      <c r="M358" s="6" t="str" cm="1">
+        <f t="array" ref="M358">_xll.GEO_COUNTRY(B358,C358)</f>
+        <v>New Zealand</v>
+      </c>
+      <c r="N358" s="6" t="str" cm="1">
+        <f t="array" ref="N358">_xll.GEO_CITY(B358,C358)</f>
+        <v>Wellington</v>
+      </c>
+      <c r="O358" s="6" t="str" cm="1">
+        <f t="array" ref="O358">_xll.GEO_TIMEZONE(B358,C358)</f>
+        <v>Pacific/Auckland</v>
       </c>
     </row>
   </sheetData>

--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4A3EBF-74B0-4AB1-AF00-9E01151BD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43833D-7D6B-4EC9-B3D7-182BB4EFD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C592D3-75AA-4C40-9417-51BDDD9A314A}">
   <dimension ref="A1:O358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F1" s="12" t="str" cm="1">
         <f t="array" ref="F1">_xll.GEO_VERSION()</f>
-        <v>1.0.0+58a4ae999c00f90551a3423852e06e2e4687a247</v>
+        <v>v0.3.4</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">

--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43833D-7D6B-4EC9-B3D7-182BB4EFD674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A2BC2-8F46-4BC4-9E26-1C89B089187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C592D3-75AA-4C40-9417-51BDDD9A314A}">
   <dimension ref="A1:O358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A2BC2-8F46-4BC4-9E26-1C89B089187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7D984-F9A1-497D-B499-2B51EFD93459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="TheirLocations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="508">
   <si>
     <t>Our Locations</t>
   </si>
@@ -1579,6 +1580,15 @@
     <t>Reverse
 Lookup
 Timezone</t>
+  </si>
+  <si>
+    <t>Reverse Lookup Admin Area</t>
+  </si>
+  <si>
+    <t>Reverse Lookup Admin Code</t>
+  </si>
+  <si>
+    <t>Reverse Lookup Admin Type</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C592D3-75AA-4C40-9417-51BDDD9A314A}">
-  <dimension ref="A1:O358"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2113,9 +2123,10 @@
     <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.9296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>490</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>v0.3.4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>496</v>
       </c>
@@ -2173,8 +2184,17 @@
       <c r="O3" s="13" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P3" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="str" cm="1">
         <f t="array" ref="A4:E358">TheirLocations[]</f>
         <v>Z000</v>
@@ -2229,8 +2249,20 @@
         <f t="array" ref="O4">_xll.GEO_TIMEZONE(B4,C4)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P4" s="6" t="e" cm="1">
+        <f t="array" ref="P4">_xll.GEO_ADMIN(B4,C4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="6" t="e" cm="1">
+        <f t="array" ref="Q4">_xll.GEO_ADMINCODE(B4,C4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" s="6" t="e" cm="1">
+        <f t="array" ref="R4">_xll.GEO_ADMINTYPE(B4,C4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="str">
         <v>Z001</v>
       </c>
@@ -2284,8 +2316,20 @@
         <f t="array" ref="O5">_xll.GEO_TIMEZONE(B5,C5)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P5" s="6" t="str" cm="1">
+        <f t="array" ref="P5">_xll.GEO_ADMIN(B5,C5)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q5" s="6" t="str" cm="1">
+        <f t="array" ref="Q5">_xll.GEO_ADMINCODE(B5,C5)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R5" s="6" t="str" cm="1">
+        <f t="array" ref="R5">_xll.GEO_ADMINTYPE(B5,C5)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="str">
         <v>Z002</v>
       </c>
@@ -2339,8 +2383,20 @@
         <f t="array" ref="O6">_xll.GEO_TIMEZONE(B6,C6)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P6" s="6" t="str" cm="1">
+        <f t="array" ref="P6">_xll.GEO_ADMIN(B6,C6)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q6" s="6" t="str" cm="1">
+        <f t="array" ref="Q6">_xll.GEO_ADMINCODE(B6,C6)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R6" s="6" t="str" cm="1">
+        <f t="array" ref="R6">_xll.GEO_ADMINTYPE(B6,C6)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="str">
         <v>Z003</v>
       </c>
@@ -2394,8 +2450,20 @@
         <f t="array" ref="O7">_xll.GEO_TIMEZONE(B7,C7)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P7" s="6" t="str" cm="1">
+        <f t="array" ref="P7">_xll.GEO_ADMIN(B7,C7)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q7" s="6" t="str" cm="1">
+        <f t="array" ref="Q7">_xll.GEO_ADMINCODE(B7,C7)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R7" s="6" t="str" cm="1">
+        <f t="array" ref="R7">_xll.GEO_ADMINTYPE(B7,C7)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="str">
         <v>Z004</v>
       </c>
@@ -2449,8 +2517,20 @@
         <f t="array" ref="O8">_xll.GEO_TIMEZONE(B8,C8)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P8" s="6" t="str" cm="1">
+        <f t="array" ref="P8">_xll.GEO_ADMIN(B8,C8)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q8" s="6" t="str" cm="1">
+        <f t="array" ref="Q8">_xll.GEO_ADMINCODE(B8,C8)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R8" s="6" t="str" cm="1">
+        <f t="array" ref="R8">_xll.GEO_ADMINTYPE(B8,C8)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="str">
         <v>Z005</v>
       </c>
@@ -2504,8 +2584,20 @@
         <f t="array" ref="O9">_xll.GEO_TIMEZONE(B9,C9)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P9" s="6" t="str" cm="1">
+        <f t="array" ref="P9">_xll.GEO_ADMIN(B9,C9)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q9" s="6" t="str" cm="1">
+        <f t="array" ref="Q9">_xll.GEO_ADMINCODE(B9,C9)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R9" s="6" t="str" cm="1">
+        <f t="array" ref="R9">_xll.GEO_ADMINTYPE(B9,C9)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="str">
         <v>Z006</v>
       </c>
@@ -2559,8 +2651,20 @@
         <f t="array" ref="O10">_xll.GEO_TIMEZONE(B10,C10)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P10" s="6" t="str" cm="1">
+        <f t="array" ref="P10">_xll.GEO_ADMIN(B10,C10)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q10" s="6" t="str" cm="1">
+        <f t="array" ref="Q10">_xll.GEO_ADMINCODE(B10,C10)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R10" s="6" t="str" cm="1">
+        <f t="array" ref="R10">_xll.GEO_ADMINTYPE(B10,C10)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="str">
         <v>Z007</v>
       </c>
@@ -2614,8 +2718,20 @@
         <f t="array" ref="O11">_xll.GEO_TIMEZONE(B11,C11)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P11" s="6" t="str" cm="1">
+        <f t="array" ref="P11">_xll.GEO_ADMIN(B11,C11)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q11" s="6" t="str" cm="1">
+        <f t="array" ref="Q11">_xll.GEO_ADMINCODE(B11,C11)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R11" s="6" t="str" cm="1">
+        <f t="array" ref="R11">_xll.GEO_ADMINTYPE(B11,C11)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="str">
         <v>Z008</v>
       </c>
@@ -2669,8 +2785,20 @@
         <f t="array" ref="O12">_xll.GEO_TIMEZONE(B12,C12)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P12" s="6" t="str" cm="1">
+        <f t="array" ref="P12">_xll.GEO_ADMIN(B12,C12)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q12" s="6" t="str" cm="1">
+        <f t="array" ref="Q12">_xll.GEO_ADMINCODE(B12,C12)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R12" s="6" t="str" cm="1">
+        <f t="array" ref="R12">_xll.GEO_ADMINTYPE(B12,C12)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="str">
         <v>Z009</v>
       </c>
@@ -2724,8 +2852,20 @@
         <f t="array" ref="O13">_xll.GEO_TIMEZONE(B13,C13)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P13" s="6" t="str" cm="1">
+        <f t="array" ref="P13">_xll.GEO_ADMIN(B13,C13)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q13" s="6" t="str" cm="1">
+        <f t="array" ref="Q13">_xll.GEO_ADMINCODE(B13,C13)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R13" s="6" t="str" cm="1">
+        <f t="array" ref="R13">_xll.GEO_ADMINTYPE(B13,C13)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="str">
         <v>Z010</v>
       </c>
@@ -2779,8 +2919,20 @@
         <f t="array" ref="O14">_xll.GEO_TIMEZONE(B14,C14)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P14" s="6" t="str" cm="1">
+        <f t="array" ref="P14">_xll.GEO_ADMIN(B14,C14)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q14" s="6" t="str" cm="1">
+        <f t="array" ref="Q14">_xll.GEO_ADMINCODE(B14,C14)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R14" s="6" t="str" cm="1">
+        <f t="array" ref="R14">_xll.GEO_ADMINTYPE(B14,C14)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="str">
         <v>Z011</v>
       </c>
@@ -2834,8 +2986,20 @@
         <f t="array" ref="O15">_xll.GEO_TIMEZONE(B15,C15)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P15" s="6" t="str" cm="1">
+        <f t="array" ref="P15">_xll.GEO_ADMIN(B15,C15)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q15" s="6" t="str" cm="1">
+        <f t="array" ref="Q15">_xll.GEO_ADMINCODE(B15,C15)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R15" s="6" t="str" cm="1">
+        <f t="array" ref="R15">_xll.GEO_ADMINTYPE(B15,C15)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="str">
         <v>Z012</v>
       </c>
@@ -2889,8 +3053,20 @@
         <f t="array" ref="O16">_xll.GEO_TIMEZONE(B16,C16)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16" s="6" t="str" cm="1">
+        <f t="array" ref="P16">_xll.GEO_ADMIN(B16,C16)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q16" s="6" t="str" cm="1">
+        <f t="array" ref="Q16">_xll.GEO_ADMINCODE(B16,C16)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R16" s="6" t="str" cm="1">
+        <f t="array" ref="R16">_xll.GEO_ADMINTYPE(B16,C16)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="str">
         <v>Z013</v>
       </c>
@@ -2944,8 +3120,20 @@
         <f t="array" ref="O17">_xll.GEO_TIMEZONE(B17,C17)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17" s="6" t="str" cm="1">
+        <f t="array" ref="P17">_xll.GEO_ADMIN(B17,C17)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q17" s="6" t="str" cm="1">
+        <f t="array" ref="Q17">_xll.GEO_ADMINCODE(B17,C17)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R17" s="6" t="str" cm="1">
+        <f t="array" ref="R17">_xll.GEO_ADMINTYPE(B17,C17)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="str">
         <v>Z014</v>
       </c>
@@ -2999,8 +3187,20 @@
         <f t="array" ref="O18">_xll.GEO_TIMEZONE(B18,C18)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P18" s="6" t="str" cm="1">
+        <f t="array" ref="P18">_xll.GEO_ADMIN(B18,C18)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q18" s="6" t="str" cm="1">
+        <f t="array" ref="Q18">_xll.GEO_ADMINCODE(B18,C18)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R18" s="6" t="str" cm="1">
+        <f t="array" ref="R18">_xll.GEO_ADMINTYPE(B18,C18)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="str">
         <v>Z015</v>
       </c>
@@ -3054,8 +3254,20 @@
         <f t="array" ref="O19">_xll.GEO_TIMEZONE(B19,C19)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P19" s="6" t="str" cm="1">
+        <f t="array" ref="P19">_xll.GEO_ADMIN(B19,C19)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q19" s="6" t="str" cm="1">
+        <f t="array" ref="Q19">_xll.GEO_ADMINCODE(B19,C19)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R19" s="6" t="str" cm="1">
+        <f t="array" ref="R19">_xll.GEO_ADMINTYPE(B19,C19)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="str">
         <v>Z016</v>
       </c>
@@ -3109,8 +3321,20 @@
         <f t="array" ref="O20">_xll.GEO_TIMEZONE(B20,C20)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P20" s="6" t="str" cm="1">
+        <f t="array" ref="P20">_xll.GEO_ADMIN(B20,C20)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q20" s="6" t="str" cm="1">
+        <f t="array" ref="Q20">_xll.GEO_ADMINCODE(B20,C20)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R20" s="6" t="str" cm="1">
+        <f t="array" ref="R20">_xll.GEO_ADMINTYPE(B20,C20)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="str">
         <v>Z017</v>
       </c>
@@ -3164,8 +3388,20 @@
         <f t="array" ref="O21">_xll.GEO_TIMEZONE(B21,C21)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P21" s="6" t="str" cm="1">
+        <f t="array" ref="P21">_xll.GEO_ADMIN(B21,C21)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q21" s="6" t="str" cm="1">
+        <f t="array" ref="Q21">_xll.GEO_ADMINCODE(B21,C21)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R21" s="6" t="str" cm="1">
+        <f t="array" ref="R21">_xll.GEO_ADMINTYPE(B21,C21)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="str">
         <v>Z018</v>
       </c>
@@ -3219,8 +3455,20 @@
         <f t="array" ref="O22">_xll.GEO_TIMEZONE(B22,C22)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P22" s="6" t="str" cm="1">
+        <f t="array" ref="P22">_xll.GEO_ADMIN(B22,C22)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q22" s="6" t="str" cm="1">
+        <f t="array" ref="Q22">_xll.GEO_ADMINCODE(B22,C22)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R22" s="6" t="str" cm="1">
+        <f t="array" ref="R22">_xll.GEO_ADMINTYPE(B22,C22)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="str">
         <v>Z019</v>
       </c>
@@ -3274,8 +3522,20 @@
         <f t="array" ref="O23">_xll.GEO_TIMEZONE(B23,C23)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P23" s="6" t="str" cm="1">
+        <f t="array" ref="P23">_xll.GEO_ADMIN(B23,C23)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q23" s="6" t="str" cm="1">
+        <f t="array" ref="Q23">_xll.GEO_ADMINCODE(B23,C23)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R23" s="6" t="str" cm="1">
+        <f t="array" ref="R23">_xll.GEO_ADMINTYPE(B23,C23)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="str">
         <v>Z020</v>
       </c>
@@ -3329,8 +3589,20 @@
         <f t="array" ref="O24">_xll.GEO_TIMEZONE(B24,C24)</f>
         <v>Australia/Adelaide</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P24" s="6" t="str" cm="1">
+        <f t="array" ref="P24">_xll.GEO_ADMIN(B24,C24)</f>
+        <v>South Australia</v>
+      </c>
+      <c r="Q24" s="6" t="str" cm="1">
+        <f t="array" ref="Q24">_xll.GEO_ADMINCODE(B24,C24)</f>
+        <v>AU-SA</v>
+      </c>
+      <c r="R24" s="6" t="str" cm="1">
+        <f t="array" ref="R24">_xll.GEO_ADMINTYPE(B24,C24)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="str">
         <v>Z021</v>
       </c>
@@ -3384,8 +3656,20 @@
         <f t="array" ref="O25">_xll.GEO_TIMEZONE(B25,C25)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P25" s="6" t="str" cm="1">
+        <f t="array" ref="P25">_xll.GEO_ADMIN(B25,C25)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q25" s="6" t="str" cm="1">
+        <f t="array" ref="Q25">_xll.GEO_ADMINCODE(B25,C25)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R25" s="6" t="str" cm="1">
+        <f t="array" ref="R25">_xll.GEO_ADMINTYPE(B25,C25)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="str">
         <v>Z022</v>
       </c>
@@ -3439,8 +3723,20 @@
         <f t="array" ref="O26">_xll.GEO_TIMEZONE(B26,C26)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P26" s="6" t="str" cm="1">
+        <f t="array" ref="P26">_xll.GEO_ADMIN(B26,C26)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q26" s="6" t="str" cm="1">
+        <f t="array" ref="Q26">_xll.GEO_ADMINCODE(B26,C26)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R26" s="6" t="str" cm="1">
+        <f t="array" ref="R26">_xll.GEO_ADMINTYPE(B26,C26)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="str">
         <v>Z023</v>
       </c>
@@ -3494,8 +3790,20 @@
         <f t="array" ref="O27">_xll.GEO_TIMEZONE(B27,C27)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P27" s="6" t="str" cm="1">
+        <f t="array" ref="P27">_xll.GEO_ADMIN(B27,C27)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q27" s="6" t="str" cm="1">
+        <f t="array" ref="Q27">_xll.GEO_ADMINCODE(B27,C27)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R27" s="6" t="str" cm="1">
+        <f t="array" ref="R27">_xll.GEO_ADMINTYPE(B27,C27)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="str">
         <v>Z024</v>
       </c>
@@ -3549,8 +3857,20 @@
         <f t="array" ref="O28">_xll.GEO_TIMEZONE(B28,C28)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P28" s="6" t="str" cm="1">
+        <f t="array" ref="P28">_xll.GEO_ADMIN(B28,C28)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q28" s="6" t="str" cm="1">
+        <f t="array" ref="Q28">_xll.GEO_ADMINCODE(B28,C28)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R28" s="6" t="str" cm="1">
+        <f t="array" ref="R28">_xll.GEO_ADMINTYPE(B28,C28)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="str">
         <v>Z025</v>
       </c>
@@ -3604,8 +3924,20 @@
         <f t="array" ref="O29">_xll.GEO_TIMEZONE(B29,C29)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P29" s="6" t="str" cm="1">
+        <f t="array" ref="P29">_xll.GEO_ADMIN(B29,C29)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q29" s="6" t="str" cm="1">
+        <f t="array" ref="Q29">_xll.GEO_ADMINCODE(B29,C29)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R29" s="6" t="str" cm="1">
+        <f t="array" ref="R29">_xll.GEO_ADMINTYPE(B29,C29)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="str">
         <v>Z026</v>
       </c>
@@ -3659,8 +3991,20 @@
         <f t="array" ref="O30">_xll.GEO_TIMEZONE(B30,C30)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P30" s="6" t="str" cm="1">
+        <f t="array" ref="P30">_xll.GEO_ADMIN(B30,C30)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q30" s="6" t="str" cm="1">
+        <f t="array" ref="Q30">_xll.GEO_ADMINCODE(B30,C30)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R30" s="6" t="str" cm="1">
+        <f t="array" ref="R30">_xll.GEO_ADMINTYPE(B30,C30)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="str">
         <v>Z027</v>
       </c>
@@ -3714,8 +4058,20 @@
         <f t="array" ref="O31">_xll.GEO_TIMEZONE(B31,C31)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P31" s="6" t="str" cm="1">
+        <f t="array" ref="P31">_xll.GEO_ADMIN(B31,C31)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q31" s="6" t="str" cm="1">
+        <f t="array" ref="Q31">_xll.GEO_ADMINCODE(B31,C31)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R31" s="6" t="str" cm="1">
+        <f t="array" ref="R31">_xll.GEO_ADMINTYPE(B31,C31)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="str">
         <v>Z028</v>
       </c>
@@ -3769,8 +4125,20 @@
         <f t="array" ref="O32">_xll.GEO_TIMEZONE(B32,C32)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P32" s="6" t="str" cm="1">
+        <f t="array" ref="P32">_xll.GEO_ADMIN(B32,C32)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q32" s="6" t="str" cm="1">
+        <f t="array" ref="Q32">_xll.GEO_ADMINCODE(B32,C32)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R32" s="6" t="str" cm="1">
+        <f t="array" ref="R32">_xll.GEO_ADMINTYPE(B32,C32)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="str">
         <v>Z029</v>
       </c>
@@ -3824,8 +4192,20 @@
         <f t="array" ref="O33">_xll.GEO_TIMEZONE(B33,C33)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P33" s="6" t="str" cm="1">
+        <f t="array" ref="P33">_xll.GEO_ADMIN(B33,C33)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q33" s="6" t="str" cm="1">
+        <f t="array" ref="Q33">_xll.GEO_ADMINCODE(B33,C33)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R33" s="6" t="str" cm="1">
+        <f t="array" ref="R33">_xll.GEO_ADMINTYPE(B33,C33)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="str">
         <v>Z030</v>
       </c>
@@ -3879,8 +4259,20 @@
         <f t="array" ref="O34">_xll.GEO_TIMEZONE(B34,C34)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P34" s="6" t="str" cm="1">
+        <f t="array" ref="P34">_xll.GEO_ADMIN(B34,C34)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q34" s="6" t="str" cm="1">
+        <f t="array" ref="Q34">_xll.GEO_ADMINCODE(B34,C34)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R34" s="6" t="str" cm="1">
+        <f t="array" ref="R34">_xll.GEO_ADMINTYPE(B34,C34)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="str">
         <v>Z031</v>
       </c>
@@ -3934,8 +4326,20 @@
         <f t="array" ref="O35">_xll.GEO_TIMEZONE(B35,C35)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P35" s="6" t="str" cm="1">
+        <f t="array" ref="P35">_xll.GEO_ADMIN(B35,C35)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q35" s="6" t="str" cm="1">
+        <f t="array" ref="Q35">_xll.GEO_ADMINCODE(B35,C35)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R35" s="6" t="str" cm="1">
+        <f t="array" ref="R35">_xll.GEO_ADMINTYPE(B35,C35)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="str">
         <v>Z032</v>
       </c>
@@ -3989,8 +4393,20 @@
         <f t="array" ref="O36">_xll.GEO_TIMEZONE(B36,C36)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P36" s="6" t="str" cm="1">
+        <f t="array" ref="P36">_xll.GEO_ADMIN(B36,C36)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q36" s="6" t="str" cm="1">
+        <f t="array" ref="Q36">_xll.GEO_ADMINCODE(B36,C36)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R36" s="6" t="str" cm="1">
+        <f t="array" ref="R36">_xll.GEO_ADMINTYPE(B36,C36)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="str">
         <v>Z033</v>
       </c>
@@ -4044,8 +4460,20 @@
         <f t="array" ref="O37">_xll.GEO_TIMEZONE(B37,C37)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P37" s="6" t="str" cm="1">
+        <f t="array" ref="P37">_xll.GEO_ADMIN(B37,C37)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q37" s="6" t="str" cm="1">
+        <f t="array" ref="Q37">_xll.GEO_ADMINCODE(B37,C37)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R37" s="6" t="str" cm="1">
+        <f t="array" ref="R37">_xll.GEO_ADMINTYPE(B37,C37)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="str">
         <v>Z034</v>
       </c>
@@ -4099,8 +4527,20 @@
         <f t="array" ref="O38">_xll.GEO_TIMEZONE(B38,C38)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P38" s="6" t="str" cm="1">
+        <f t="array" ref="P38">_xll.GEO_ADMIN(B38,C38)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q38" s="6" t="str" cm="1">
+        <f t="array" ref="Q38">_xll.GEO_ADMINCODE(B38,C38)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R38" s="6" t="str" cm="1">
+        <f t="array" ref="R38">_xll.GEO_ADMINTYPE(B38,C38)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="str">
         <v>Z035</v>
       </c>
@@ -4154,8 +4594,20 @@
         <f t="array" ref="O39">_xll.GEO_TIMEZONE(B39,C39)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P39" s="6" t="str" cm="1">
+        <f t="array" ref="P39">_xll.GEO_ADMIN(B39,C39)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q39" s="6" t="str" cm="1">
+        <f t="array" ref="Q39">_xll.GEO_ADMINCODE(B39,C39)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R39" s="6" t="str" cm="1">
+        <f t="array" ref="R39">_xll.GEO_ADMINTYPE(B39,C39)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="str">
         <v>Z036</v>
       </c>
@@ -4209,8 +4661,20 @@
         <f t="array" ref="O40">_xll.GEO_TIMEZONE(B40,C40)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P40" s="6" t="str" cm="1">
+        <f t="array" ref="P40">_xll.GEO_ADMIN(B40,C40)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q40" s="6" t="str" cm="1">
+        <f t="array" ref="Q40">_xll.GEO_ADMINCODE(B40,C40)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R40" s="6" t="str" cm="1">
+        <f t="array" ref="R40">_xll.GEO_ADMINTYPE(B40,C40)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="str">
         <v>Z037</v>
       </c>
@@ -4264,8 +4728,20 @@
         <f t="array" ref="O41">_xll.GEO_TIMEZONE(B41,C41)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P41" s="6" t="str" cm="1">
+        <f t="array" ref="P41">_xll.GEO_ADMIN(B41,C41)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q41" s="6" t="str" cm="1">
+        <f t="array" ref="Q41">_xll.GEO_ADMINCODE(B41,C41)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R41" s="6" t="str" cm="1">
+        <f t="array" ref="R41">_xll.GEO_ADMINTYPE(B41,C41)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="str">
         <v>Z038</v>
       </c>
@@ -4319,8 +4795,20 @@
         <f t="array" ref="O42">_xll.GEO_TIMEZONE(B42,C42)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P42" s="6" t="str" cm="1">
+        <f t="array" ref="P42">_xll.GEO_ADMIN(B42,C42)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q42" s="6" t="str" cm="1">
+        <f t="array" ref="Q42">_xll.GEO_ADMINCODE(B42,C42)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R42" s="6" t="str" cm="1">
+        <f t="array" ref="R42">_xll.GEO_ADMINTYPE(B42,C42)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="str">
         <v>Z039</v>
       </c>
@@ -4374,8 +4862,20 @@
         <f t="array" ref="O43">_xll.GEO_TIMEZONE(B43,C43)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P43" s="6" t="str" cm="1">
+        <f t="array" ref="P43">_xll.GEO_ADMIN(B43,C43)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q43" s="6" t="str" cm="1">
+        <f t="array" ref="Q43">_xll.GEO_ADMINCODE(B43,C43)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R43" s="6" t="str" cm="1">
+        <f t="array" ref="R43">_xll.GEO_ADMINTYPE(B43,C43)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="str">
         <v>Z040</v>
       </c>
@@ -4429,8 +4929,20 @@
         <f t="array" ref="O44">_xll.GEO_TIMEZONE(B44,C44)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P44" s="6" t="str" cm="1">
+        <f t="array" ref="P44">_xll.GEO_ADMIN(B44,C44)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q44" s="6" t="str" cm="1">
+        <f t="array" ref="Q44">_xll.GEO_ADMINCODE(B44,C44)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R44" s="6" t="str" cm="1">
+        <f t="array" ref="R44">_xll.GEO_ADMINTYPE(B44,C44)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="str">
         <v>Z041</v>
       </c>
@@ -4484,8 +4996,20 @@
         <f t="array" ref="O45">_xll.GEO_TIMEZONE(B45,C45)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P45" s="6" t="str" cm="1">
+        <f t="array" ref="P45">_xll.GEO_ADMIN(B45,C45)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q45" s="6" t="str" cm="1">
+        <f t="array" ref="Q45">_xll.GEO_ADMINCODE(B45,C45)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R45" s="6" t="str" cm="1">
+        <f t="array" ref="R45">_xll.GEO_ADMINTYPE(B45,C45)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="str">
         <v>Z042</v>
       </c>
@@ -4539,8 +5063,20 @@
         <f t="array" ref="O46">_xll.GEO_TIMEZONE(B46,C46)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P46" s="6" t="str" cm="1">
+        <f t="array" ref="P46">_xll.GEO_ADMIN(B46,C46)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q46" s="6" t="str" cm="1">
+        <f t="array" ref="Q46">_xll.GEO_ADMINCODE(B46,C46)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R46" s="6" t="str" cm="1">
+        <f t="array" ref="R46">_xll.GEO_ADMINTYPE(B46,C46)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="str">
         <v>Z043</v>
       </c>
@@ -4594,8 +5130,20 @@
         <f t="array" ref="O47">_xll.GEO_TIMEZONE(B47,C47)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P47" s="6" t="str" cm="1">
+        <f t="array" ref="P47">_xll.GEO_ADMIN(B47,C47)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q47" s="6" t="str" cm="1">
+        <f t="array" ref="Q47">_xll.GEO_ADMINCODE(B47,C47)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R47" s="6" t="str" cm="1">
+        <f t="array" ref="R47">_xll.GEO_ADMINTYPE(B47,C47)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="str">
         <v>Z044</v>
       </c>
@@ -4649,8 +5197,20 @@
         <f t="array" ref="O48">_xll.GEO_TIMEZONE(B48,C48)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P48" s="6" t="str" cm="1">
+        <f t="array" ref="P48">_xll.GEO_ADMIN(B48,C48)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q48" s="6" t="str" cm="1">
+        <f t="array" ref="Q48">_xll.GEO_ADMINCODE(B48,C48)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R48" s="6" t="str" cm="1">
+        <f t="array" ref="R48">_xll.GEO_ADMINTYPE(B48,C48)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="str">
         <v>Z045</v>
       </c>
@@ -4704,8 +5264,20 @@
         <f t="array" ref="O49">_xll.GEO_TIMEZONE(B49,C49)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P49" s="6" t="str" cm="1">
+        <f t="array" ref="P49">_xll.GEO_ADMIN(B49,C49)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q49" s="6" t="str" cm="1">
+        <f t="array" ref="Q49">_xll.GEO_ADMINCODE(B49,C49)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R49" s="6" t="str" cm="1">
+        <f t="array" ref="R49">_xll.GEO_ADMINTYPE(B49,C49)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="str">
         <v>Z046</v>
       </c>
@@ -4759,8 +5331,20 @@
         <f t="array" ref="O50">_xll.GEO_TIMEZONE(B50,C50)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P50" s="6" t="str" cm="1">
+        <f t="array" ref="P50">_xll.GEO_ADMIN(B50,C50)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q50" s="6" t="str" cm="1">
+        <f t="array" ref="Q50">_xll.GEO_ADMINCODE(B50,C50)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R50" s="6" t="str" cm="1">
+        <f t="array" ref="R50">_xll.GEO_ADMINTYPE(B50,C50)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="str">
         <v>Z047</v>
       </c>
@@ -4814,8 +5398,20 @@
         <f t="array" ref="O51">_xll.GEO_TIMEZONE(B51,C51)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P51" s="6" t="str" cm="1">
+        <f t="array" ref="P51">_xll.GEO_ADMIN(B51,C51)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q51" s="6" t="str" cm="1">
+        <f t="array" ref="Q51">_xll.GEO_ADMINCODE(B51,C51)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R51" s="6" t="str" cm="1">
+        <f t="array" ref="R51">_xll.GEO_ADMINTYPE(B51,C51)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="str">
         <v>Z048</v>
       </c>
@@ -4869,8 +5465,20 @@
         <f t="array" ref="O52">_xll.GEO_TIMEZONE(B52,C52)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P52" s="6" t="str" cm="1">
+        <f t="array" ref="P52">_xll.GEO_ADMIN(B52,C52)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q52" s="6" t="str" cm="1">
+        <f t="array" ref="Q52">_xll.GEO_ADMINCODE(B52,C52)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R52" s="6" t="str" cm="1">
+        <f t="array" ref="R52">_xll.GEO_ADMINTYPE(B52,C52)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="str">
         <v>Z049</v>
       </c>
@@ -4924,8 +5532,20 @@
         <f t="array" ref="O53">_xll.GEO_TIMEZONE(B53,C53)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P53" s="6" t="str" cm="1">
+        <f t="array" ref="P53">_xll.GEO_ADMIN(B53,C53)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q53" s="6" t="str" cm="1">
+        <f t="array" ref="Q53">_xll.GEO_ADMINCODE(B53,C53)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R53" s="6" t="str" cm="1">
+        <f t="array" ref="R53">_xll.GEO_ADMINTYPE(B53,C53)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="str">
         <v>Z050</v>
       </c>
@@ -4979,8 +5599,20 @@
         <f t="array" ref="O54">_xll.GEO_TIMEZONE(B54,C54)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P54" s="6" t="str" cm="1">
+        <f t="array" ref="P54">_xll.GEO_ADMIN(B54,C54)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q54" s="6" t="str" cm="1">
+        <f t="array" ref="Q54">_xll.GEO_ADMINCODE(B54,C54)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R54" s="6" t="str" cm="1">
+        <f t="array" ref="R54">_xll.GEO_ADMINTYPE(B54,C54)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="str">
         <v>Z051</v>
       </c>
@@ -5034,8 +5666,20 @@
         <f t="array" ref="O55">_xll.GEO_TIMEZONE(B55,C55)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P55" s="6" t="str" cm="1">
+        <f t="array" ref="P55">_xll.GEO_ADMIN(B55,C55)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q55" s="6" t="str" cm="1">
+        <f t="array" ref="Q55">_xll.GEO_ADMINCODE(B55,C55)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R55" s="6" t="str" cm="1">
+        <f t="array" ref="R55">_xll.GEO_ADMINTYPE(B55,C55)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="str">
         <v>Z052</v>
       </c>
@@ -5089,8 +5733,20 @@
         <f t="array" ref="O56">_xll.GEO_TIMEZONE(B56,C56)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P56" s="6" t="str" cm="1">
+        <f t="array" ref="P56">_xll.GEO_ADMIN(B56,C56)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q56" s="6" t="str" cm="1">
+        <f t="array" ref="Q56">_xll.GEO_ADMINCODE(B56,C56)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R56" s="6" t="str" cm="1">
+        <f t="array" ref="R56">_xll.GEO_ADMINTYPE(B56,C56)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="str">
         <v>Z053</v>
       </c>
@@ -5144,8 +5800,20 @@
         <f t="array" ref="O57">_xll.GEO_TIMEZONE(B57,C57)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P57" s="6" t="str" cm="1">
+        <f t="array" ref="P57">_xll.GEO_ADMIN(B57,C57)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q57" s="6" t="str" cm="1">
+        <f t="array" ref="Q57">_xll.GEO_ADMINCODE(B57,C57)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R57" s="6" t="str" cm="1">
+        <f t="array" ref="R57">_xll.GEO_ADMINTYPE(B57,C57)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="10" t="str">
         <v>Z054</v>
       </c>
@@ -5199,8 +5867,20 @@
         <f t="array" ref="O58">_xll.GEO_TIMEZONE(B58,C58)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P58" s="6" t="str" cm="1">
+        <f t="array" ref="P58">_xll.GEO_ADMIN(B58,C58)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q58" s="6" t="str" cm="1">
+        <f t="array" ref="Q58">_xll.GEO_ADMINCODE(B58,C58)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R58" s="6" t="str" cm="1">
+        <f t="array" ref="R58">_xll.GEO_ADMINTYPE(B58,C58)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="10" t="str">
         <v>Z055</v>
       </c>
@@ -5254,8 +5934,20 @@
         <f t="array" ref="O59">_xll.GEO_TIMEZONE(B59,C59)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P59" s="6" t="str" cm="1">
+        <f t="array" ref="P59">_xll.GEO_ADMIN(B59,C59)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q59" s="6" t="str" cm="1">
+        <f t="array" ref="Q59">_xll.GEO_ADMINCODE(B59,C59)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R59" s="6" t="str" cm="1">
+        <f t="array" ref="R59">_xll.GEO_ADMINTYPE(B59,C59)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="str">
         <v>Z056</v>
       </c>
@@ -5309,8 +6001,20 @@
         <f t="array" ref="O60">_xll.GEO_TIMEZONE(B60,C60)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P60" s="6" t="str" cm="1">
+        <f t="array" ref="P60">_xll.GEO_ADMIN(B60,C60)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q60" s="6" t="str" cm="1">
+        <f t="array" ref="Q60">_xll.GEO_ADMINCODE(B60,C60)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R60" s="6" t="str" cm="1">
+        <f t="array" ref="R60">_xll.GEO_ADMINTYPE(B60,C60)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="10" t="str">
         <v>Z057</v>
       </c>
@@ -5364,8 +6068,20 @@
         <f t="array" ref="O61">_xll.GEO_TIMEZONE(B61,C61)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P61" s="6" t="str" cm="1">
+        <f t="array" ref="P61">_xll.GEO_ADMIN(B61,C61)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q61" s="6" t="str" cm="1">
+        <f t="array" ref="Q61">_xll.GEO_ADMINCODE(B61,C61)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R61" s="6" t="str" cm="1">
+        <f t="array" ref="R61">_xll.GEO_ADMINTYPE(B61,C61)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="str">
         <v>Z058</v>
       </c>
@@ -5419,8 +6135,20 @@
         <f t="array" ref="O62">_xll.GEO_TIMEZONE(B62,C62)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P62" s="6" t="str" cm="1">
+        <f t="array" ref="P62">_xll.GEO_ADMIN(B62,C62)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q62" s="6" t="str" cm="1">
+        <f t="array" ref="Q62">_xll.GEO_ADMINCODE(B62,C62)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R62" s="6" t="str" cm="1">
+        <f t="array" ref="R62">_xll.GEO_ADMINTYPE(B62,C62)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="str">
         <v>Z059</v>
       </c>
@@ -5474,8 +6202,20 @@
         <f t="array" ref="O63">_xll.GEO_TIMEZONE(B63,C63)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P63" s="6" t="str" cm="1">
+        <f t="array" ref="P63">_xll.GEO_ADMIN(B63,C63)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q63" s="6" t="str" cm="1">
+        <f t="array" ref="Q63">_xll.GEO_ADMINCODE(B63,C63)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R63" s="6" t="str" cm="1">
+        <f t="array" ref="R63">_xll.GEO_ADMINTYPE(B63,C63)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="10" t="str">
         <v>Z060</v>
       </c>
@@ -5529,8 +6269,20 @@
         <f t="array" ref="O64">_xll.GEO_TIMEZONE(B64,C64)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P64" s="6" t="str" cm="1">
+        <f t="array" ref="P64">_xll.GEO_ADMIN(B64,C64)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q64" s="6" t="str" cm="1">
+        <f t="array" ref="Q64">_xll.GEO_ADMINCODE(B64,C64)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R64" s="6" t="str" cm="1">
+        <f t="array" ref="R64">_xll.GEO_ADMINTYPE(B64,C64)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="str">
         <v>Z061</v>
       </c>
@@ -5584,8 +6336,20 @@
         <f t="array" ref="O65">_xll.GEO_TIMEZONE(B65,C65)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P65" s="6" t="str" cm="1">
+        <f t="array" ref="P65">_xll.GEO_ADMIN(B65,C65)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q65" s="6" t="str" cm="1">
+        <f t="array" ref="Q65">_xll.GEO_ADMINCODE(B65,C65)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R65" s="6" t="str" cm="1">
+        <f t="array" ref="R65">_xll.GEO_ADMINTYPE(B65,C65)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="10" t="str">
         <v>Z062</v>
       </c>
@@ -5639,8 +6403,20 @@
         <f t="array" ref="O66">_xll.GEO_TIMEZONE(B66,C66)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P66" s="6" t="str" cm="1">
+        <f t="array" ref="P66">_xll.GEO_ADMIN(B66,C66)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q66" s="6" t="str" cm="1">
+        <f t="array" ref="Q66">_xll.GEO_ADMINCODE(B66,C66)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R66" s="6" t="str" cm="1">
+        <f t="array" ref="R66">_xll.GEO_ADMINTYPE(B66,C66)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="10" t="str">
         <v>Z063</v>
       </c>
@@ -5694,8 +6470,20 @@
         <f t="array" ref="O67">_xll.GEO_TIMEZONE(B67,C67)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P67" s="6" t="str" cm="1">
+        <f t="array" ref="P67">_xll.GEO_ADMIN(B67,C67)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q67" s="6" t="str" cm="1">
+        <f t="array" ref="Q67">_xll.GEO_ADMINCODE(B67,C67)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R67" s="6" t="str" cm="1">
+        <f t="array" ref="R67">_xll.GEO_ADMINTYPE(B67,C67)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="10" t="str">
         <v>Z064</v>
       </c>
@@ -5749,8 +6537,20 @@
         <f t="array" ref="O68">_xll.GEO_TIMEZONE(B68,C68)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P68" s="6" t="str" cm="1">
+        <f t="array" ref="P68">_xll.GEO_ADMIN(B68,C68)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q68" s="6" t="str" cm="1">
+        <f t="array" ref="Q68">_xll.GEO_ADMINCODE(B68,C68)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R68" s="6" t="str" cm="1">
+        <f t="array" ref="R68">_xll.GEO_ADMINTYPE(B68,C68)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="10" t="str">
         <v>Z065</v>
       </c>
@@ -5804,8 +6604,20 @@
         <f t="array" ref="O69">_xll.GEO_TIMEZONE(B69,C69)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P69" s="6" t="str" cm="1">
+        <f t="array" ref="P69">_xll.GEO_ADMIN(B69,C69)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q69" s="6" t="str" cm="1">
+        <f t="array" ref="Q69">_xll.GEO_ADMINCODE(B69,C69)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R69" s="6" t="str" cm="1">
+        <f t="array" ref="R69">_xll.GEO_ADMINTYPE(B69,C69)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="str">
         <v>Z066</v>
       </c>
@@ -5859,8 +6671,20 @@
         <f t="array" ref="O70">_xll.GEO_TIMEZONE(B70,C70)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P70" s="6" t="str" cm="1">
+        <f t="array" ref="P70">_xll.GEO_ADMIN(B70,C70)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q70" s="6" t="str" cm="1">
+        <f t="array" ref="Q70">_xll.GEO_ADMINCODE(B70,C70)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R70" s="6" t="str" cm="1">
+        <f t="array" ref="R70">_xll.GEO_ADMINTYPE(B70,C70)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="str">
         <v>Z067</v>
       </c>
@@ -5914,8 +6738,20 @@
         <f t="array" ref="O71">_xll.GEO_TIMEZONE(B71,C71)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P71" s="6" t="str" cm="1">
+        <f t="array" ref="P71">_xll.GEO_ADMIN(B71,C71)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q71" s="6" t="str" cm="1">
+        <f t="array" ref="Q71">_xll.GEO_ADMINCODE(B71,C71)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R71" s="6" t="str" cm="1">
+        <f t="array" ref="R71">_xll.GEO_ADMINTYPE(B71,C71)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="10" t="str">
         <v>Z068</v>
       </c>
@@ -5969,8 +6805,20 @@
         <f t="array" ref="O72">_xll.GEO_TIMEZONE(B72,C72)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P72" s="6" t="str" cm="1">
+        <f t="array" ref="P72">_xll.GEO_ADMIN(B72,C72)</f>
+        <v>Australian Capital Territory</v>
+      </c>
+      <c r="Q72" s="6" t="str" cm="1">
+        <f t="array" ref="Q72">_xll.GEO_ADMINCODE(B72,C72)</f>
+        <v>AU-ACT</v>
+      </c>
+      <c r="R72" s="6" t="str" cm="1">
+        <f t="array" ref="R72">_xll.GEO_ADMINTYPE(B72,C72)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" s="10" t="str">
         <v>Z069</v>
       </c>
@@ -6024,8 +6872,20 @@
         <f t="array" ref="O73">_xll.GEO_TIMEZONE(B73,C73)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P73" s="6" t="str" cm="1">
+        <f t="array" ref="P73">_xll.GEO_ADMIN(B73,C73)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q73" s="6" t="str" cm="1">
+        <f t="array" ref="Q73">_xll.GEO_ADMINCODE(B73,C73)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R73" s="6" t="str" cm="1">
+        <f t="array" ref="R73">_xll.GEO_ADMINTYPE(B73,C73)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="str">
         <v>Z070</v>
       </c>
@@ -6079,8 +6939,20 @@
         <f t="array" ref="O74">_xll.GEO_TIMEZONE(B74,C74)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P74" s="6" t="str" cm="1">
+        <f t="array" ref="P74">_xll.GEO_ADMIN(B74,C74)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q74" s="6" t="str" cm="1">
+        <f t="array" ref="Q74">_xll.GEO_ADMINCODE(B74,C74)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R74" s="6" t="str" cm="1">
+        <f t="array" ref="R74">_xll.GEO_ADMINTYPE(B74,C74)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="str">
         <v>Z071</v>
       </c>
@@ -6134,8 +7006,20 @@
         <f t="array" ref="O75">_xll.GEO_TIMEZONE(B75,C75)</f>
         <v>Australia/Darwin</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P75" s="6" t="str" cm="1">
+        <f t="array" ref="P75">_xll.GEO_ADMIN(B75,C75)</f>
+        <v>Northern Territory</v>
+      </c>
+      <c r="Q75" s="6" t="str" cm="1">
+        <f t="array" ref="Q75">_xll.GEO_ADMINCODE(B75,C75)</f>
+        <v>AU-NT</v>
+      </c>
+      <c r="R75" s="6" t="str" cm="1">
+        <f t="array" ref="R75">_xll.GEO_ADMINTYPE(B75,C75)</f>
+        <v>territory</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="str">
         <v>Z072</v>
       </c>
@@ -6189,8 +7073,20 @@
         <f t="array" ref="O76">_xll.GEO_TIMEZONE(B76,C76)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P76" s="6" t="str" cm="1">
+        <f t="array" ref="P76">_xll.GEO_ADMIN(B76,C76)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q76" s="6" t="str" cm="1">
+        <f t="array" ref="Q76">_xll.GEO_ADMINCODE(B76,C76)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R76" s="6" t="str" cm="1">
+        <f t="array" ref="R76">_xll.GEO_ADMINTYPE(B76,C76)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="10" t="str">
         <v>Z073</v>
       </c>
@@ -6244,8 +7140,20 @@
         <f t="array" ref="O77">_xll.GEO_TIMEZONE(B77,C77)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P77" s="6" t="str" cm="1">
+        <f t="array" ref="P77">_xll.GEO_ADMIN(B77,C77)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q77" s="6" t="str" cm="1">
+        <f t="array" ref="Q77">_xll.GEO_ADMINCODE(B77,C77)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R77" s="6" t="str" cm="1">
+        <f t="array" ref="R77">_xll.GEO_ADMINTYPE(B77,C77)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="str">
         <v>Z074</v>
       </c>
@@ -6299,8 +7207,20 @@
         <f t="array" ref="O78">_xll.GEO_TIMEZONE(B78,C78)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P78" s="6" t="str" cm="1">
+        <f t="array" ref="P78">_xll.GEO_ADMIN(B78,C78)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q78" s="6" t="str" cm="1">
+        <f t="array" ref="Q78">_xll.GEO_ADMINCODE(B78,C78)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R78" s="6" t="str" cm="1">
+        <f t="array" ref="R78">_xll.GEO_ADMINTYPE(B78,C78)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="10" t="str">
         <v>Z075</v>
       </c>
@@ -6354,8 +7274,20 @@
         <f t="array" ref="O79">_xll.GEO_TIMEZONE(B79,C79)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P79" s="6" t="str" cm="1">
+        <f t="array" ref="P79">_xll.GEO_ADMIN(B79,C79)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q79" s="6" t="str" cm="1">
+        <f t="array" ref="Q79">_xll.GEO_ADMINCODE(B79,C79)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R79" s="6" t="str" cm="1">
+        <f t="array" ref="R79">_xll.GEO_ADMINTYPE(B79,C79)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="10" t="str">
         <v>Z076</v>
       </c>
@@ -6409,8 +7341,20 @@
         <f t="array" ref="O80">_xll.GEO_TIMEZONE(B80,C80)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P80" s="6" t="str" cm="1">
+        <f t="array" ref="P80">_xll.GEO_ADMIN(B80,C80)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q80" s="6" t="str" cm="1">
+        <f t="array" ref="Q80">_xll.GEO_ADMINCODE(B80,C80)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R80" s="6" t="str" cm="1">
+        <f t="array" ref="R80">_xll.GEO_ADMINTYPE(B80,C80)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="str">
         <v>Z077</v>
       </c>
@@ -6464,8 +7408,20 @@
         <f t="array" ref="O81">_xll.GEO_TIMEZONE(B81,C81)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P81" s="6" t="str" cm="1">
+        <f t="array" ref="P81">_xll.GEO_ADMIN(B81,C81)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q81" s="6" t="str" cm="1">
+        <f t="array" ref="Q81">_xll.GEO_ADMINCODE(B81,C81)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R81" s="6" t="str" cm="1">
+        <f t="array" ref="R81">_xll.GEO_ADMINTYPE(B81,C81)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="10" t="str">
         <v>Z078</v>
       </c>
@@ -6519,8 +7475,20 @@
         <f t="array" ref="O82">_xll.GEO_TIMEZONE(B82,C82)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P82" s="6" t="str" cm="1">
+        <f t="array" ref="P82">_xll.GEO_ADMIN(B82,C82)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q82" s="6" t="str" cm="1">
+        <f t="array" ref="Q82">_xll.GEO_ADMINCODE(B82,C82)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R82" s="6" t="str" cm="1">
+        <f t="array" ref="R82">_xll.GEO_ADMINTYPE(B82,C82)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="str">
         <v>Z079</v>
       </c>
@@ -6574,8 +7542,20 @@
         <f t="array" ref="O83">_xll.GEO_TIMEZONE(B83,C83)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P83" s="6" t="str" cm="1">
+        <f t="array" ref="P83">_xll.GEO_ADMIN(B83,C83)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q83" s="6" t="str" cm="1">
+        <f t="array" ref="Q83">_xll.GEO_ADMINCODE(B83,C83)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R83" s="6" t="str" cm="1">
+        <f t="array" ref="R83">_xll.GEO_ADMINTYPE(B83,C83)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="10" t="str">
         <v>Z080</v>
       </c>
@@ -6629,8 +7609,20 @@
         <f t="array" ref="O84">_xll.GEO_TIMEZONE(B84,C84)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P84" s="6" t="str" cm="1">
+        <f t="array" ref="P84">_xll.GEO_ADMIN(B84,C84)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q84" s="6" t="str" cm="1">
+        <f t="array" ref="Q84">_xll.GEO_ADMINCODE(B84,C84)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R84" s="6" t="str" cm="1">
+        <f t="array" ref="R84">_xll.GEO_ADMINTYPE(B84,C84)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="str">
         <v>Z081</v>
       </c>
@@ -6684,8 +7676,20 @@
         <f t="array" ref="O85">_xll.GEO_TIMEZONE(B85,C85)</f>
         <v>Australia/Hobart</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P85" s="6" t="str" cm="1">
+        <f t="array" ref="P85">_xll.GEO_ADMIN(B85,C85)</f>
+        <v>Tasmania</v>
+      </c>
+      <c r="Q85" s="6" t="str" cm="1">
+        <f t="array" ref="Q85">_xll.GEO_ADMINCODE(B85,C85)</f>
+        <v>AU-TAS</v>
+      </c>
+      <c r="R85" s="6" t="str" cm="1">
+        <f t="array" ref="R85">_xll.GEO_ADMINTYPE(B85,C85)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="10" t="str">
         <v>Z082</v>
       </c>
@@ -6739,8 +7743,20 @@
         <f t="array" ref="O86">_xll.GEO_TIMEZONE(B86,C86)</f>
         <v>Australia/Hobart</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P86" s="6" t="str" cm="1">
+        <f t="array" ref="P86">_xll.GEO_ADMIN(B86,C86)</f>
+        <v>Tasmania</v>
+      </c>
+      <c r="Q86" s="6" t="str" cm="1">
+        <f t="array" ref="Q86">_xll.GEO_ADMINCODE(B86,C86)</f>
+        <v>AU-TAS</v>
+      </c>
+      <c r="R86" s="6" t="str" cm="1">
+        <f t="array" ref="R86">_xll.GEO_ADMINTYPE(B86,C86)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="10" t="str">
         <v>Z083</v>
       </c>
@@ -6794,8 +7810,20 @@
         <f t="array" ref="O87">_xll.GEO_TIMEZONE(B87,C87)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P87" s="6" t="str" cm="1">
+        <f t="array" ref="P87">_xll.GEO_ADMIN(B87,C87)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q87" s="6" t="str" cm="1">
+        <f t="array" ref="Q87">_xll.GEO_ADMINCODE(B87,C87)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R87" s="6" t="str" cm="1">
+        <f t="array" ref="R87">_xll.GEO_ADMINTYPE(B87,C87)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="10" t="str">
         <v>Z084</v>
       </c>
@@ -6849,8 +7877,20 @@
         <f t="array" ref="O88">_xll.GEO_TIMEZONE(B88,C88)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P88" s="6" t="str" cm="1">
+        <f t="array" ref="P88">_xll.GEO_ADMIN(B88,C88)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q88" s="6" t="str" cm="1">
+        <f t="array" ref="Q88">_xll.GEO_ADMINCODE(B88,C88)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R88" s="6" t="str" cm="1">
+        <f t="array" ref="R88">_xll.GEO_ADMINTYPE(B88,C88)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="str">
         <v>Z085</v>
       </c>
@@ -6904,8 +7944,20 @@
         <f t="array" ref="O89">_xll.GEO_TIMEZONE(B89,C89)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P89" s="6" t="str" cm="1">
+        <f t="array" ref="P89">_xll.GEO_ADMIN(B89,C89)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q89" s="6" t="str" cm="1">
+        <f t="array" ref="Q89">_xll.GEO_ADMINCODE(B89,C89)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R89" s="6" t="str" cm="1">
+        <f t="array" ref="R89">_xll.GEO_ADMINTYPE(B89,C89)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="10" t="str">
         <v>Z086</v>
       </c>
@@ -6959,8 +8011,20 @@
         <f t="array" ref="O90">_xll.GEO_TIMEZONE(B90,C90)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P90" s="6" t="str" cm="1">
+        <f t="array" ref="P90">_xll.GEO_ADMIN(B90,C90)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q90" s="6" t="str" cm="1">
+        <f t="array" ref="Q90">_xll.GEO_ADMINCODE(B90,C90)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R90" s="6" t="str" cm="1">
+        <f t="array" ref="R90">_xll.GEO_ADMINTYPE(B90,C90)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="10" t="str">
         <v>Z087</v>
       </c>
@@ -7014,8 +8078,20 @@
         <f t="array" ref="O91">_xll.GEO_TIMEZONE(B91,C91)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P91" s="6" t="str" cm="1">
+        <f t="array" ref="P91">_xll.GEO_ADMIN(B91,C91)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q91" s="6" t="str" cm="1">
+        <f t="array" ref="Q91">_xll.GEO_ADMINCODE(B91,C91)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R91" s="6" t="str" cm="1">
+        <f t="array" ref="R91">_xll.GEO_ADMINTYPE(B91,C91)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="10" t="str">
         <v>Z088</v>
       </c>
@@ -7069,8 +8145,20 @@
         <f t="array" ref="O92">_xll.GEO_TIMEZONE(B92,C92)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P92" s="6" t="str" cm="1">
+        <f t="array" ref="P92">_xll.GEO_ADMIN(B92,C92)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q92" s="6" t="str" cm="1">
+        <f t="array" ref="Q92">_xll.GEO_ADMINCODE(B92,C92)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R92" s="6" t="str" cm="1">
+        <f t="array" ref="R92">_xll.GEO_ADMINTYPE(B92,C92)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="str">
         <v>Z089</v>
       </c>
@@ -7124,8 +8212,20 @@
         <f t="array" ref="O93">_xll.GEO_TIMEZONE(B93,C93)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P93" s="6" t="str" cm="1">
+        <f t="array" ref="P93">_xll.GEO_ADMIN(B93,C93)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q93" s="6" t="str" cm="1">
+        <f t="array" ref="Q93">_xll.GEO_ADMINCODE(B93,C93)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R93" s="6" t="str" cm="1">
+        <f t="array" ref="R93">_xll.GEO_ADMINTYPE(B93,C93)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="10" t="str">
         <v>Z090</v>
       </c>
@@ -7179,8 +8279,20 @@
         <f t="array" ref="O94">_xll.GEO_TIMEZONE(B94,C94)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P94" s="6" t="str" cm="1">
+        <f t="array" ref="P94">_xll.GEO_ADMIN(B94,C94)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q94" s="6" t="str" cm="1">
+        <f t="array" ref="Q94">_xll.GEO_ADMINCODE(B94,C94)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R94" s="6" t="str" cm="1">
+        <f t="array" ref="R94">_xll.GEO_ADMINTYPE(B94,C94)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="str">
         <v>Z091</v>
       </c>
@@ -7234,8 +8346,20 @@
         <f t="array" ref="O95">_xll.GEO_TIMEZONE(B95,C95)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P95" s="6" t="str" cm="1">
+        <f t="array" ref="P95">_xll.GEO_ADMIN(B95,C95)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q95" s="6" t="str" cm="1">
+        <f t="array" ref="Q95">_xll.GEO_ADMINCODE(B95,C95)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R95" s="6" t="str" cm="1">
+        <f t="array" ref="R95">_xll.GEO_ADMINTYPE(B95,C95)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="str">
         <v>Z092</v>
       </c>
@@ -7289,8 +8413,20 @@
         <f t="array" ref="O96">_xll.GEO_TIMEZONE(B96,C96)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P96" s="6" t="str" cm="1">
+        <f t="array" ref="P96">_xll.GEO_ADMIN(B96,C96)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q96" s="6" t="str" cm="1">
+        <f t="array" ref="Q96">_xll.GEO_ADMINCODE(B96,C96)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R96" s="6" t="str" cm="1">
+        <f t="array" ref="R96">_xll.GEO_ADMINTYPE(B96,C96)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="10" t="str">
         <v>Z093</v>
       </c>
@@ -7344,8 +8480,20 @@
         <f t="array" ref="O97">_xll.GEO_TIMEZONE(B97,C97)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P97" s="6" t="str" cm="1">
+        <f t="array" ref="P97">_xll.GEO_ADMIN(B97,C97)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q97" s="6" t="str" cm="1">
+        <f t="array" ref="Q97">_xll.GEO_ADMINCODE(B97,C97)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R97" s="6" t="str" cm="1">
+        <f t="array" ref="R97">_xll.GEO_ADMINTYPE(B97,C97)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="10" t="str">
         <v>Z094</v>
       </c>
@@ -7399,8 +8547,20 @@
         <f t="array" ref="O98">_xll.GEO_TIMEZONE(B98,C98)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P98" s="6" t="str" cm="1">
+        <f t="array" ref="P98">_xll.GEO_ADMIN(B98,C98)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q98" s="6" t="str" cm="1">
+        <f t="array" ref="Q98">_xll.GEO_ADMINCODE(B98,C98)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R98" s="6" t="str" cm="1">
+        <f t="array" ref="R98">_xll.GEO_ADMINTYPE(B98,C98)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="str">
         <v>Z095</v>
       </c>
@@ -7454,8 +8614,20 @@
         <f t="array" ref="O99">_xll.GEO_TIMEZONE(B99,C99)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P99" s="6" t="str" cm="1">
+        <f t="array" ref="P99">_xll.GEO_ADMIN(B99,C99)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q99" s="6" t="str" cm="1">
+        <f t="array" ref="Q99">_xll.GEO_ADMINCODE(B99,C99)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R99" s="6" t="str" cm="1">
+        <f t="array" ref="R99">_xll.GEO_ADMINTYPE(B99,C99)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="10" t="str">
         <v>Z096</v>
       </c>
@@ -7509,8 +8681,20 @@
         <f t="array" ref="O100">_xll.GEO_TIMEZONE(B100,C100)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P100" s="6" t="str" cm="1">
+        <f t="array" ref="P100">_xll.GEO_ADMIN(B100,C100)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q100" s="6" t="str" cm="1">
+        <f t="array" ref="Q100">_xll.GEO_ADMINCODE(B100,C100)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R100" s="6" t="str" cm="1">
+        <f t="array" ref="R100">_xll.GEO_ADMINTYPE(B100,C100)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="10" t="str">
         <v>Z097</v>
       </c>
@@ -7564,8 +8748,20 @@
         <f t="array" ref="O101">_xll.GEO_TIMEZONE(B101,C101)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P101" s="6" t="str" cm="1">
+        <f t="array" ref="P101">_xll.GEO_ADMIN(B101,C101)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q101" s="6" t="str" cm="1">
+        <f t="array" ref="Q101">_xll.GEO_ADMINCODE(B101,C101)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R101" s="6" t="str" cm="1">
+        <f t="array" ref="R101">_xll.GEO_ADMINTYPE(B101,C101)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="str">
         <v>Z098</v>
       </c>
@@ -7619,8 +8815,20 @@
         <f t="array" ref="O102">_xll.GEO_TIMEZONE(B102,C102)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P102" s="6" t="str" cm="1">
+        <f t="array" ref="P102">_xll.GEO_ADMIN(B102,C102)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q102" s="6" t="str" cm="1">
+        <f t="array" ref="Q102">_xll.GEO_ADMINCODE(B102,C102)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R102" s="6" t="str" cm="1">
+        <f t="array" ref="R102">_xll.GEO_ADMINTYPE(B102,C102)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="10" t="str">
         <v>Z099</v>
       </c>
@@ -7674,8 +8882,20 @@
         <f t="array" ref="O103">_xll.GEO_TIMEZONE(B103,C103)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P103" s="6" t="str" cm="1">
+        <f t="array" ref="P103">_xll.GEO_ADMIN(B103,C103)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q103" s="6" t="str" cm="1">
+        <f t="array" ref="Q103">_xll.GEO_ADMINCODE(B103,C103)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R103" s="6" t="str" cm="1">
+        <f t="array" ref="R103">_xll.GEO_ADMINTYPE(B103,C103)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="10" t="str">
         <v>Z100</v>
       </c>
@@ -7729,8 +8949,20 @@
         <f t="array" ref="O104">_xll.GEO_TIMEZONE(B104,C104)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P104" s="6" t="str" cm="1">
+        <f t="array" ref="P104">_xll.GEO_ADMIN(B104,C104)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q104" s="6" t="str" cm="1">
+        <f t="array" ref="Q104">_xll.GEO_ADMINCODE(B104,C104)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R104" s="6" t="str" cm="1">
+        <f t="array" ref="R104">_xll.GEO_ADMINTYPE(B104,C104)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="10" t="str">
         <v>Z101</v>
       </c>
@@ -7784,8 +9016,20 @@
         <f t="array" ref="O105">_xll.GEO_TIMEZONE(B105,C105)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P105" s="6" t="str" cm="1">
+        <f t="array" ref="P105">_xll.GEO_ADMIN(B105,C105)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q105" s="6" t="str" cm="1">
+        <f t="array" ref="Q105">_xll.GEO_ADMINCODE(B105,C105)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R105" s="6" t="str" cm="1">
+        <f t="array" ref="R105">_xll.GEO_ADMINTYPE(B105,C105)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="10" t="str">
         <v>Z102</v>
       </c>
@@ -7839,8 +9083,20 @@
         <f t="array" ref="O106">_xll.GEO_TIMEZONE(B106,C106)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P106" s="6" t="str" cm="1">
+        <f t="array" ref="P106">_xll.GEO_ADMIN(B106,C106)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q106" s="6" t="str" cm="1">
+        <f t="array" ref="Q106">_xll.GEO_ADMINCODE(B106,C106)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R106" s="6" t="str" cm="1">
+        <f t="array" ref="R106">_xll.GEO_ADMINTYPE(B106,C106)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="str">
         <v>Z103</v>
       </c>
@@ -7894,8 +9150,20 @@
         <f t="array" ref="O107">_xll.GEO_TIMEZONE(B107,C107)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P107" s="6" t="str" cm="1">
+        <f t="array" ref="P107">_xll.GEO_ADMIN(B107,C107)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q107" s="6" t="str" cm="1">
+        <f t="array" ref="Q107">_xll.GEO_ADMINCODE(B107,C107)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R107" s="6" t="str" cm="1">
+        <f t="array" ref="R107">_xll.GEO_ADMINTYPE(B107,C107)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="str">
         <v>Z104</v>
       </c>
@@ -7949,8 +9217,20 @@
         <f t="array" ref="O108">_xll.GEO_TIMEZONE(B108,C108)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P108" s="6" t="str" cm="1">
+        <f t="array" ref="P108">_xll.GEO_ADMIN(B108,C108)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q108" s="6" t="str" cm="1">
+        <f t="array" ref="Q108">_xll.GEO_ADMINCODE(B108,C108)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R108" s="6" t="str" cm="1">
+        <f t="array" ref="R108">_xll.GEO_ADMINTYPE(B108,C108)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="str">
         <v>Z105</v>
       </c>
@@ -8004,8 +9284,20 @@
         <f t="array" ref="O109">_xll.GEO_TIMEZONE(B109,C109)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P109" s="6" t="str" cm="1">
+        <f t="array" ref="P109">_xll.GEO_ADMIN(B109,C109)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q109" s="6" t="str" cm="1">
+        <f t="array" ref="Q109">_xll.GEO_ADMINCODE(B109,C109)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R109" s="6" t="str" cm="1">
+        <f t="array" ref="R109">_xll.GEO_ADMINTYPE(B109,C109)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110" s="10" t="str">
         <v>Z106</v>
       </c>
@@ -8059,8 +9351,20 @@
         <f t="array" ref="O110">_xll.GEO_TIMEZONE(B110,C110)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P110" s="6" t="str" cm="1">
+        <f t="array" ref="P110">_xll.GEO_ADMIN(B110,C110)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q110" s="6" t="str" cm="1">
+        <f t="array" ref="Q110">_xll.GEO_ADMINCODE(B110,C110)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R110" s="6" t="str" cm="1">
+        <f t="array" ref="R110">_xll.GEO_ADMINTYPE(B110,C110)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="str">
         <v>Z107</v>
       </c>
@@ -8114,8 +9418,20 @@
         <f t="array" ref="O111">_xll.GEO_TIMEZONE(B111,C111)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P111" s="6" t="str" cm="1">
+        <f t="array" ref="P111">_xll.GEO_ADMIN(B111,C111)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q111" s="6" t="str" cm="1">
+        <f t="array" ref="Q111">_xll.GEO_ADMINCODE(B111,C111)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R111" s="6" t="str" cm="1">
+        <f t="array" ref="R111">_xll.GEO_ADMINTYPE(B111,C111)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112" s="10" t="str">
         <v>Z108</v>
       </c>
@@ -8169,8 +9485,20 @@
         <f t="array" ref="O112">_xll.GEO_TIMEZONE(B112,C112)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P112" s="6" t="str" cm="1">
+        <f t="array" ref="P112">_xll.GEO_ADMIN(B112,C112)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q112" s="6" t="str" cm="1">
+        <f t="array" ref="Q112">_xll.GEO_ADMINCODE(B112,C112)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R112" s="6" t="str" cm="1">
+        <f t="array" ref="R112">_xll.GEO_ADMINTYPE(B112,C112)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113" s="10" t="str">
         <v>Z109</v>
       </c>
@@ -8224,8 +9552,20 @@
         <f t="array" ref="O113">_xll.GEO_TIMEZONE(B113,C113)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P113" s="6" t="str" cm="1">
+        <f t="array" ref="P113">_xll.GEO_ADMIN(B113,C113)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q113" s="6" t="str" cm="1">
+        <f t="array" ref="Q113">_xll.GEO_ADMINCODE(B113,C113)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R113" s="6" t="str" cm="1">
+        <f t="array" ref="R113">_xll.GEO_ADMINTYPE(B113,C113)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114" s="10" t="str">
         <v>Z110</v>
       </c>
@@ -8279,8 +9619,20 @@
         <f t="array" ref="O114">_xll.GEO_TIMEZONE(B114,C114)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P114" s="6" t="str" cm="1">
+        <f t="array" ref="P114">_xll.GEO_ADMIN(B114,C114)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q114" s="6" t="str" cm="1">
+        <f t="array" ref="Q114">_xll.GEO_ADMINCODE(B114,C114)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R114" s="6" t="str" cm="1">
+        <f t="array" ref="R114">_xll.GEO_ADMINTYPE(B114,C114)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115" s="10" t="str">
         <v>Z111</v>
       </c>
@@ -8334,8 +9686,20 @@
         <f t="array" ref="O115">_xll.GEO_TIMEZONE(B115,C115)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P115" s="6" t="str" cm="1">
+        <f t="array" ref="P115">_xll.GEO_ADMIN(B115,C115)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q115" s="6" t="str" cm="1">
+        <f t="array" ref="Q115">_xll.GEO_ADMINCODE(B115,C115)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R115" s="6" t="str" cm="1">
+        <f t="array" ref="R115">_xll.GEO_ADMINTYPE(B115,C115)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116" s="10" t="str">
         <v>Z112</v>
       </c>
@@ -8389,8 +9753,20 @@
         <f t="array" ref="O116">_xll.GEO_TIMEZONE(B116,C116)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P116" s="6" t="str" cm="1">
+        <f t="array" ref="P116">_xll.GEO_ADMIN(B116,C116)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q116" s="6" t="str" cm="1">
+        <f t="array" ref="Q116">_xll.GEO_ADMINCODE(B116,C116)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R116" s="6" t="str" cm="1">
+        <f t="array" ref="R116">_xll.GEO_ADMINTYPE(B116,C116)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="str">
         <v>Z113</v>
       </c>
@@ -8444,8 +9820,20 @@
         <f t="array" ref="O117">_xll.GEO_TIMEZONE(B117,C117)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P117" s="6" t="str" cm="1">
+        <f t="array" ref="P117">_xll.GEO_ADMIN(B117,C117)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q117" s="6" t="str" cm="1">
+        <f t="array" ref="Q117">_xll.GEO_ADMINCODE(B117,C117)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R117" s="6" t="str" cm="1">
+        <f t="array" ref="R117">_xll.GEO_ADMINTYPE(B117,C117)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118" s="10" t="str">
         <v>Z114</v>
       </c>
@@ -8499,8 +9887,20 @@
         <f t="array" ref="O118">_xll.GEO_TIMEZONE(B118,C118)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P118" s="6" t="str" cm="1">
+        <f t="array" ref="P118">_xll.GEO_ADMIN(B118,C118)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q118" s="6" t="str" cm="1">
+        <f t="array" ref="Q118">_xll.GEO_ADMINCODE(B118,C118)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R118" s="6" t="str" cm="1">
+        <f t="array" ref="R118">_xll.GEO_ADMINTYPE(B118,C118)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119" s="10" t="str">
         <v>Z115</v>
       </c>
@@ -8554,8 +9954,20 @@
         <f t="array" ref="O119">_xll.GEO_TIMEZONE(B119,C119)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P119" s="6" t="str" cm="1">
+        <f t="array" ref="P119">_xll.GEO_ADMIN(B119,C119)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q119" s="6" t="str" cm="1">
+        <f t="array" ref="Q119">_xll.GEO_ADMINCODE(B119,C119)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R119" s="6" t="str" cm="1">
+        <f t="array" ref="R119">_xll.GEO_ADMINTYPE(B119,C119)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120" s="10" t="str">
         <v>Z116</v>
       </c>
@@ -8609,8 +10021,20 @@
         <f t="array" ref="O120">_xll.GEO_TIMEZONE(B120,C120)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P120" s="6" t="str" cm="1">
+        <f t="array" ref="P120">_xll.GEO_ADMIN(B120,C120)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q120" s="6" t="str" cm="1">
+        <f t="array" ref="Q120">_xll.GEO_ADMINCODE(B120,C120)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R120" s="6" t="str" cm="1">
+        <f t="array" ref="R120">_xll.GEO_ADMINTYPE(B120,C120)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121" s="10" t="str">
         <v>Z117</v>
       </c>
@@ -8664,8 +10088,20 @@
         <f t="array" ref="O121">_xll.GEO_TIMEZONE(B121,C121)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P121" s="6" t="str" cm="1">
+        <f t="array" ref="P121">_xll.GEO_ADMIN(B121,C121)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q121" s="6" t="str" cm="1">
+        <f t="array" ref="Q121">_xll.GEO_ADMINCODE(B121,C121)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R121" s="6" t="str" cm="1">
+        <f t="array" ref="R121">_xll.GEO_ADMINTYPE(B121,C121)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122" s="10" t="str">
         <v>Z118</v>
       </c>
@@ -8719,8 +10155,20 @@
         <f t="array" ref="O122">_xll.GEO_TIMEZONE(B122,C122)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P122" s="6" t="str" cm="1">
+        <f t="array" ref="P122">_xll.GEO_ADMIN(B122,C122)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q122" s="6" t="str" cm="1">
+        <f t="array" ref="Q122">_xll.GEO_ADMINCODE(B122,C122)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R122" s="6" t="str" cm="1">
+        <f t="array" ref="R122">_xll.GEO_ADMINTYPE(B122,C122)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="str">
         <v>Z119</v>
       </c>
@@ -8774,8 +10222,20 @@
         <f t="array" ref="O123">_xll.GEO_TIMEZONE(B123,C123)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P123" s="6" t="str" cm="1">
+        <f t="array" ref="P123">_xll.GEO_ADMIN(B123,C123)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q123" s="6" t="str" cm="1">
+        <f t="array" ref="Q123">_xll.GEO_ADMINCODE(B123,C123)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R123" s="6" t="str" cm="1">
+        <f t="array" ref="R123">_xll.GEO_ADMINTYPE(B123,C123)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124" s="10" t="str">
         <v>Z120</v>
       </c>
@@ -8829,8 +10289,20 @@
         <f t="array" ref="O124">_xll.GEO_TIMEZONE(B124,C124)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P124" s="6" t="str" cm="1">
+        <f t="array" ref="P124">_xll.GEO_ADMIN(B124,C124)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q124" s="6" t="str" cm="1">
+        <f t="array" ref="Q124">_xll.GEO_ADMINCODE(B124,C124)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R124" s="6" t="str" cm="1">
+        <f t="array" ref="R124">_xll.GEO_ADMINTYPE(B124,C124)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125" s="10" t="str">
         <v>Z121</v>
       </c>
@@ -8884,8 +10356,20 @@
         <f t="array" ref="O125">_xll.GEO_TIMEZONE(B125,C125)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P125" s="6" t="str" cm="1">
+        <f t="array" ref="P125">_xll.GEO_ADMIN(B125,C125)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q125" s="6" t="str" cm="1">
+        <f t="array" ref="Q125">_xll.GEO_ADMINCODE(B125,C125)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R125" s="6" t="str" cm="1">
+        <f t="array" ref="R125">_xll.GEO_ADMINTYPE(B125,C125)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126" s="10" t="str">
         <v>Z122</v>
       </c>
@@ -8939,8 +10423,20 @@
         <f t="array" ref="O126">_xll.GEO_TIMEZONE(B126,C126)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P126" s="6" t="str" cm="1">
+        <f t="array" ref="P126">_xll.GEO_ADMIN(B126,C126)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q126" s="6" t="str" cm="1">
+        <f t="array" ref="Q126">_xll.GEO_ADMINCODE(B126,C126)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R126" s="6" t="str" cm="1">
+        <f t="array" ref="R126">_xll.GEO_ADMINTYPE(B126,C126)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127" s="10" t="str">
         <v>Z123</v>
       </c>
@@ -8994,8 +10490,20 @@
         <f t="array" ref="O127">_xll.GEO_TIMEZONE(B127,C127)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P127" s="6" t="str" cm="1">
+        <f t="array" ref="P127">_xll.GEO_ADMIN(B127,C127)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q127" s="6" t="str" cm="1">
+        <f t="array" ref="Q127">_xll.GEO_ADMINCODE(B127,C127)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R127" s="6" t="str" cm="1">
+        <f t="array" ref="R127">_xll.GEO_ADMINTYPE(B127,C127)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128" s="10" t="str">
         <v>Z124</v>
       </c>
@@ -9049,8 +10557,20 @@
         <f t="array" ref="O128">_xll.GEO_TIMEZONE(B128,C128)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P128" s="6" t="str" cm="1">
+        <f t="array" ref="P128">_xll.GEO_ADMIN(B128,C128)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q128" s="6" t="str" cm="1">
+        <f t="array" ref="Q128">_xll.GEO_ADMINCODE(B128,C128)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R128" s="6" t="str" cm="1">
+        <f t="array" ref="R128">_xll.GEO_ADMINTYPE(B128,C128)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="str">
         <v>Z125</v>
       </c>
@@ -9104,8 +10624,20 @@
         <f t="array" ref="O129">_xll.GEO_TIMEZONE(B129,C129)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P129" s="6" t="str" cm="1">
+        <f t="array" ref="P129">_xll.GEO_ADMIN(B129,C129)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q129" s="6" t="str" cm="1">
+        <f t="array" ref="Q129">_xll.GEO_ADMINCODE(B129,C129)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R129" s="6" t="str" cm="1">
+        <f t="array" ref="R129">_xll.GEO_ADMINTYPE(B129,C129)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130" s="10" t="str">
         <v>Z126</v>
       </c>
@@ -9159,8 +10691,20 @@
         <f t="array" ref="O130">_xll.GEO_TIMEZONE(B130,C130)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P130" s="6" t="str" cm="1">
+        <f t="array" ref="P130">_xll.GEO_ADMIN(B130,C130)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q130" s="6" t="str" cm="1">
+        <f t="array" ref="Q130">_xll.GEO_ADMINCODE(B130,C130)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R130" s="6" t="str" cm="1">
+        <f t="array" ref="R130">_xll.GEO_ADMINTYPE(B130,C130)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131" s="10" t="str">
         <v>Z127</v>
       </c>
@@ -9214,8 +10758,20 @@
         <f t="array" ref="O131">_xll.GEO_TIMEZONE(B131,C131)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P131" s="6" t="str" cm="1">
+        <f t="array" ref="P131">_xll.GEO_ADMIN(B131,C131)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q131" s="6" t="str" cm="1">
+        <f t="array" ref="Q131">_xll.GEO_ADMINCODE(B131,C131)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R131" s="6" t="str" cm="1">
+        <f t="array" ref="R131">_xll.GEO_ADMINTYPE(B131,C131)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132" s="10" t="str">
         <v>Z128</v>
       </c>
@@ -9269,8 +10825,20 @@
         <f t="array" ref="O132">_xll.GEO_TIMEZONE(B132,C132)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P132" s="6" t="str" cm="1">
+        <f t="array" ref="P132">_xll.GEO_ADMIN(B132,C132)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q132" s="6" t="str" cm="1">
+        <f t="array" ref="Q132">_xll.GEO_ADMINCODE(B132,C132)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R132" s="6" t="str" cm="1">
+        <f t="array" ref="R132">_xll.GEO_ADMINTYPE(B132,C132)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="10" t="str">
         <v>Z129</v>
       </c>
@@ -9324,8 +10892,20 @@
         <f t="array" ref="O133">_xll.GEO_TIMEZONE(B133,C133)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P133" s="6" t="str" cm="1">
+        <f t="array" ref="P133">_xll.GEO_ADMIN(B133,C133)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q133" s="6" t="str" cm="1">
+        <f t="array" ref="Q133">_xll.GEO_ADMINCODE(B133,C133)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R133" s="6" t="str" cm="1">
+        <f t="array" ref="R133">_xll.GEO_ADMINTYPE(B133,C133)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A134" s="10" t="str">
         <v>Z130</v>
       </c>
@@ -9379,8 +10959,20 @@
         <f t="array" ref="O134">_xll.GEO_TIMEZONE(B134,C134)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P134" s="6" t="str" cm="1">
+        <f t="array" ref="P134">_xll.GEO_ADMIN(B134,C134)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q134" s="6" t="str" cm="1">
+        <f t="array" ref="Q134">_xll.GEO_ADMINCODE(B134,C134)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R134" s="6" t="str" cm="1">
+        <f t="array" ref="R134">_xll.GEO_ADMINTYPE(B134,C134)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="str">
         <v>Z131</v>
       </c>
@@ -9434,8 +11026,20 @@
         <f t="array" ref="O135">_xll.GEO_TIMEZONE(B135,C135)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P135" s="6" t="str" cm="1">
+        <f t="array" ref="P135">_xll.GEO_ADMIN(B135,C135)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q135" s="6" t="str" cm="1">
+        <f t="array" ref="Q135">_xll.GEO_ADMINCODE(B135,C135)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R135" s="6" t="str" cm="1">
+        <f t="array" ref="R135">_xll.GEO_ADMINTYPE(B135,C135)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136" s="10" t="str">
         <v>Z132</v>
       </c>
@@ -9489,8 +11093,20 @@
         <f t="array" ref="O136">_xll.GEO_TIMEZONE(B136,C136)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P136" s="6" t="str" cm="1">
+        <f t="array" ref="P136">_xll.GEO_ADMIN(B136,C136)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q136" s="6" t="str" cm="1">
+        <f t="array" ref="Q136">_xll.GEO_ADMINCODE(B136,C136)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R136" s="6" t="str" cm="1">
+        <f t="array" ref="R136">_xll.GEO_ADMINTYPE(B136,C136)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137" s="10" t="str">
         <v>Z133</v>
       </c>
@@ -9544,8 +11160,20 @@
         <f t="array" ref="O137">_xll.GEO_TIMEZONE(B137,C137)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P137" s="6" t="str" cm="1">
+        <f t="array" ref="P137">_xll.GEO_ADMIN(B137,C137)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q137" s="6" t="str" cm="1">
+        <f t="array" ref="Q137">_xll.GEO_ADMINCODE(B137,C137)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R137" s="6" t="str" cm="1">
+        <f t="array" ref="R137">_xll.GEO_ADMINTYPE(B137,C137)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138" s="10" t="str">
         <v>Z134</v>
       </c>
@@ -9599,8 +11227,20 @@
         <f t="array" ref="O138">_xll.GEO_TIMEZONE(B138,C138)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P138" s="6" t="str" cm="1">
+        <f t="array" ref="P138">_xll.GEO_ADMIN(B138,C138)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q138" s="6" t="str" cm="1">
+        <f t="array" ref="Q138">_xll.GEO_ADMINCODE(B138,C138)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R138" s="6" t="str" cm="1">
+        <f t="array" ref="R138">_xll.GEO_ADMINTYPE(B138,C138)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139" s="10" t="str">
         <v>Z135</v>
       </c>
@@ -9654,8 +11294,20 @@
         <f t="array" ref="O139">_xll.GEO_TIMEZONE(B139,C139)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P139" s="6" t="str" cm="1">
+        <f t="array" ref="P139">_xll.GEO_ADMIN(B139,C139)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q139" s="6" t="str" cm="1">
+        <f t="array" ref="Q139">_xll.GEO_ADMINCODE(B139,C139)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R139" s="6" t="str" cm="1">
+        <f t="array" ref="R139">_xll.GEO_ADMINTYPE(B139,C139)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140" s="10" t="str">
         <v>Z136</v>
       </c>
@@ -9709,8 +11361,20 @@
         <f t="array" ref="O140">_xll.GEO_TIMEZONE(B140,C140)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P140" s="6" t="str" cm="1">
+        <f t="array" ref="P140">_xll.GEO_ADMIN(B140,C140)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q140" s="6" t="str" cm="1">
+        <f t="array" ref="Q140">_xll.GEO_ADMINCODE(B140,C140)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R140" s="6" t="str" cm="1">
+        <f t="array" ref="R140">_xll.GEO_ADMINTYPE(B140,C140)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141" s="10" t="str">
         <v>Z137</v>
       </c>
@@ -9764,8 +11428,20 @@
         <f t="array" ref="O141">_xll.GEO_TIMEZONE(B141,C141)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P141" s="6" t="str" cm="1">
+        <f t="array" ref="P141">_xll.GEO_ADMIN(B141,C141)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q141" s="6" t="str" cm="1">
+        <f t="array" ref="Q141">_xll.GEO_ADMINCODE(B141,C141)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R141" s="6" t="str" cm="1">
+        <f t="array" ref="R141">_xll.GEO_ADMINTYPE(B141,C141)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142" s="10" t="str">
         <v>Z138</v>
       </c>
@@ -9819,8 +11495,20 @@
         <f t="array" ref="O142">_xll.GEO_TIMEZONE(B142,C142)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P142" s="6" t="str" cm="1">
+        <f t="array" ref="P142">_xll.GEO_ADMIN(B142,C142)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q142" s="6" t="str" cm="1">
+        <f t="array" ref="Q142">_xll.GEO_ADMINCODE(B142,C142)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R142" s="6" t="str" cm="1">
+        <f t="array" ref="R142">_xll.GEO_ADMINTYPE(B142,C142)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A143" s="10" t="str">
         <v>Z139</v>
       </c>
@@ -9874,8 +11562,20 @@
         <f t="array" ref="O143">_xll.GEO_TIMEZONE(B143,C143)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P143" s="6" t="str" cm="1">
+        <f t="array" ref="P143">_xll.GEO_ADMIN(B143,C143)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q143" s="6" t="str" cm="1">
+        <f t="array" ref="Q143">_xll.GEO_ADMINCODE(B143,C143)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R143" s="6" t="str" cm="1">
+        <f t="array" ref="R143">_xll.GEO_ADMINTYPE(B143,C143)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144" s="10" t="str">
         <v>Z140</v>
       </c>
@@ -9929,8 +11629,20 @@
         <f t="array" ref="O144">_xll.GEO_TIMEZONE(B144,C144)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P144" s="6" t="str" cm="1">
+        <f t="array" ref="P144">_xll.GEO_ADMIN(B144,C144)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q144" s="6" t="str" cm="1">
+        <f t="array" ref="Q144">_xll.GEO_ADMINCODE(B144,C144)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R144" s="6" t="str" cm="1">
+        <f t="array" ref="R144">_xll.GEO_ADMINTYPE(B144,C144)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A145" s="10" t="str">
         <v>Z141</v>
       </c>
@@ -9984,8 +11696,20 @@
         <f t="array" ref="O145">_xll.GEO_TIMEZONE(B145,C145)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P145" s="6" t="str" cm="1">
+        <f t="array" ref="P145">_xll.GEO_ADMIN(B145,C145)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q145" s="6" t="str" cm="1">
+        <f t="array" ref="Q145">_xll.GEO_ADMINCODE(B145,C145)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R145" s="6" t="str" cm="1">
+        <f t="array" ref="R145">_xll.GEO_ADMINTYPE(B145,C145)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146" s="10" t="str">
         <v>Z142</v>
       </c>
@@ -10039,8 +11763,20 @@
         <f t="array" ref="O146">_xll.GEO_TIMEZONE(B146,C146)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P146" s="6" t="str" cm="1">
+        <f t="array" ref="P146">_xll.GEO_ADMIN(B146,C146)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q146" s="6" t="str" cm="1">
+        <f t="array" ref="Q146">_xll.GEO_ADMINCODE(B146,C146)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R146" s="6" t="str" cm="1">
+        <f t="array" ref="R146">_xll.GEO_ADMINTYPE(B146,C146)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="str">
         <v>Z143</v>
       </c>
@@ -10094,8 +11830,20 @@
         <f t="array" ref="O147">_xll.GEO_TIMEZONE(B147,C147)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P147" s="6" t="str" cm="1">
+        <f t="array" ref="P147">_xll.GEO_ADMIN(B147,C147)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q147" s="6" t="str" cm="1">
+        <f t="array" ref="Q147">_xll.GEO_ADMINCODE(B147,C147)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R147" s="6" t="str" cm="1">
+        <f t="array" ref="R147">_xll.GEO_ADMINTYPE(B147,C147)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148" s="10" t="str">
         <v>Z144</v>
       </c>
@@ -10149,8 +11897,20 @@
         <f t="array" ref="O148">_xll.GEO_TIMEZONE(B148,C148)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P148" s="6" t="str" cm="1">
+        <f t="array" ref="P148">_xll.GEO_ADMIN(B148,C148)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q148" s="6" t="str" cm="1">
+        <f t="array" ref="Q148">_xll.GEO_ADMINCODE(B148,C148)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R148" s="6" t="str" cm="1">
+        <f t="array" ref="R148">_xll.GEO_ADMINTYPE(B148,C148)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149" s="10" t="str">
         <v>Z145</v>
       </c>
@@ -10204,8 +11964,20 @@
         <f t="array" ref="O149">_xll.GEO_TIMEZONE(B149,C149)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P149" s="6" t="str" cm="1">
+        <f t="array" ref="P149">_xll.GEO_ADMIN(B149,C149)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q149" s="6" t="str" cm="1">
+        <f t="array" ref="Q149">_xll.GEO_ADMINCODE(B149,C149)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R149" s="6" t="str" cm="1">
+        <f t="array" ref="R149">_xll.GEO_ADMINTYPE(B149,C149)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150" s="10" t="str">
         <v>Z146</v>
       </c>
@@ -10259,8 +12031,20 @@
         <f t="array" ref="O150">_xll.GEO_TIMEZONE(B150,C150)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P150" s="6" t="str" cm="1">
+        <f t="array" ref="P150">_xll.GEO_ADMIN(B150,C150)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q150" s="6" t="str" cm="1">
+        <f t="array" ref="Q150">_xll.GEO_ADMINCODE(B150,C150)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R150" s="6" t="str" cm="1">
+        <f t="array" ref="R150">_xll.GEO_ADMINTYPE(B150,C150)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151" s="10" t="str">
         <v>Z147</v>
       </c>
@@ -10314,8 +12098,20 @@
         <f t="array" ref="O151">_xll.GEO_TIMEZONE(B151,C151)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P151" s="6" t="str" cm="1">
+        <f t="array" ref="P151">_xll.GEO_ADMIN(B151,C151)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q151" s="6" t="str" cm="1">
+        <f t="array" ref="Q151">_xll.GEO_ADMINCODE(B151,C151)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R151" s="6" t="str" cm="1">
+        <f t="array" ref="R151">_xll.GEO_ADMINTYPE(B151,C151)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A152" s="10" t="str">
         <v>Z148</v>
       </c>
@@ -10369,8 +12165,20 @@
         <f t="array" ref="O152">_xll.GEO_TIMEZONE(B152,C152)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P152" s="6" t="str" cm="1">
+        <f t="array" ref="P152">_xll.GEO_ADMIN(B152,C152)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q152" s="6" t="str" cm="1">
+        <f t="array" ref="Q152">_xll.GEO_ADMINCODE(B152,C152)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R152" s="6" t="str" cm="1">
+        <f t="array" ref="R152">_xll.GEO_ADMINTYPE(B152,C152)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="str">
         <v>Z149</v>
       </c>
@@ -10424,8 +12232,20 @@
         <f t="array" ref="O153">_xll.GEO_TIMEZONE(B153,C153)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P153" s="6" t="str" cm="1">
+        <f t="array" ref="P153">_xll.GEO_ADMIN(B153,C153)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q153" s="6" t="str" cm="1">
+        <f t="array" ref="Q153">_xll.GEO_ADMINCODE(B153,C153)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R153" s="6" t="str" cm="1">
+        <f t="array" ref="R153">_xll.GEO_ADMINTYPE(B153,C153)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154" s="10" t="str">
         <v>Z150</v>
       </c>
@@ -10479,8 +12299,20 @@
         <f t="array" ref="O154">_xll.GEO_TIMEZONE(B154,C154)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P154" s="6" t="str" cm="1">
+        <f t="array" ref="P154">_xll.GEO_ADMIN(B154,C154)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q154" s="6" t="str" cm="1">
+        <f t="array" ref="Q154">_xll.GEO_ADMINCODE(B154,C154)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R154" s="6" t="str" cm="1">
+        <f t="array" ref="R154">_xll.GEO_ADMINTYPE(B154,C154)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155" s="10" t="str">
         <v>Z151</v>
       </c>
@@ -10534,8 +12366,20 @@
         <f t="array" ref="O155">_xll.GEO_TIMEZONE(B155,C155)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P155" s="6" t="str" cm="1">
+        <f t="array" ref="P155">_xll.GEO_ADMIN(B155,C155)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q155" s="6" t="str" cm="1">
+        <f t="array" ref="Q155">_xll.GEO_ADMINCODE(B155,C155)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R155" s="6" t="str" cm="1">
+        <f t="array" ref="R155">_xll.GEO_ADMINTYPE(B155,C155)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156" s="10" t="str">
         <v>Z152</v>
       </c>
@@ -10589,8 +12433,20 @@
         <f t="array" ref="O156">_xll.GEO_TIMEZONE(B156,C156)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P156" s="6" t="str" cm="1">
+        <f t="array" ref="P156">_xll.GEO_ADMIN(B156,C156)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q156" s="6" t="str" cm="1">
+        <f t="array" ref="Q156">_xll.GEO_ADMINCODE(B156,C156)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R156" s="6" t="str" cm="1">
+        <f t="array" ref="R156">_xll.GEO_ADMINTYPE(B156,C156)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157" s="10" t="str">
         <v>Z153</v>
       </c>
@@ -10644,8 +12500,20 @@
         <f t="array" ref="O157">_xll.GEO_TIMEZONE(B157,C157)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P157" s="6" t="str" cm="1">
+        <f t="array" ref="P157">_xll.GEO_ADMIN(B157,C157)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q157" s="6" t="str" cm="1">
+        <f t="array" ref="Q157">_xll.GEO_ADMINCODE(B157,C157)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R157" s="6" t="str" cm="1">
+        <f t="array" ref="R157">_xll.GEO_ADMINTYPE(B157,C157)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158" s="10" t="str">
         <v>Z154</v>
       </c>
@@ -10699,8 +12567,20 @@
         <f t="array" ref="O158">_xll.GEO_TIMEZONE(B158,C158)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P158" s="6" t="str" cm="1">
+        <f t="array" ref="P158">_xll.GEO_ADMIN(B158,C158)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q158" s="6" t="str" cm="1">
+        <f t="array" ref="Q158">_xll.GEO_ADMINCODE(B158,C158)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R158" s="6" t="str" cm="1">
+        <f t="array" ref="R158">_xll.GEO_ADMINTYPE(B158,C158)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159" s="10" t="str">
         <v>Z155</v>
       </c>
@@ -10754,8 +12634,20 @@
         <f t="array" ref="O159">_xll.GEO_TIMEZONE(B159,C159)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P159" s="6" t="str" cm="1">
+        <f t="array" ref="P159">_xll.GEO_ADMIN(B159,C159)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q159" s="6" t="str" cm="1">
+        <f t="array" ref="Q159">_xll.GEO_ADMINCODE(B159,C159)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R159" s="6" t="str" cm="1">
+        <f t="array" ref="R159">_xll.GEO_ADMINTYPE(B159,C159)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A160" s="10" t="str">
         <v>Z156</v>
       </c>
@@ -10809,8 +12701,20 @@
         <f t="array" ref="O160">_xll.GEO_TIMEZONE(B160,C160)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P160" s="6" t="str" cm="1">
+        <f t="array" ref="P160">_xll.GEO_ADMIN(B160,C160)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q160" s="6" t="str" cm="1">
+        <f t="array" ref="Q160">_xll.GEO_ADMINCODE(B160,C160)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R160" s="6" t="str" cm="1">
+        <f t="array" ref="R160">_xll.GEO_ADMINTYPE(B160,C160)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161" s="10" t="str">
         <v>Z157</v>
       </c>
@@ -10864,8 +12768,20 @@
         <f t="array" ref="O161">_xll.GEO_TIMEZONE(B161,C161)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P161" s="6" t="str" cm="1">
+        <f t="array" ref="P161">_xll.GEO_ADMIN(B161,C161)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q161" s="6" t="str" cm="1">
+        <f t="array" ref="Q161">_xll.GEO_ADMINCODE(B161,C161)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R161" s="6" t="str" cm="1">
+        <f t="array" ref="R161">_xll.GEO_ADMINTYPE(B161,C161)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162" s="10" t="str">
         <v>Z158</v>
       </c>
@@ -10919,8 +12835,20 @@
         <f t="array" ref="O162">_xll.GEO_TIMEZONE(B162,C162)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P162" s="6" t="str" cm="1">
+        <f t="array" ref="P162">_xll.GEO_ADMIN(B162,C162)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q162" s="6" t="str" cm="1">
+        <f t="array" ref="Q162">_xll.GEO_ADMINCODE(B162,C162)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R162" s="6" t="str" cm="1">
+        <f t="array" ref="R162">_xll.GEO_ADMINTYPE(B162,C162)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="10" t="str">
         <v>Z159</v>
       </c>
@@ -10974,8 +12902,20 @@
         <f t="array" ref="O163">_xll.GEO_TIMEZONE(B163,C163)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P163" s="6" t="str" cm="1">
+        <f t="array" ref="P163">_xll.GEO_ADMIN(B163,C163)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q163" s="6" t="str" cm="1">
+        <f t="array" ref="Q163">_xll.GEO_ADMINCODE(B163,C163)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R163" s="6" t="str" cm="1">
+        <f t="array" ref="R163">_xll.GEO_ADMINTYPE(B163,C163)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164" s="10" t="str">
         <v>Z160</v>
       </c>
@@ -11029,8 +12969,20 @@
         <f t="array" ref="O164">_xll.GEO_TIMEZONE(B164,C164)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P164" s="6" t="str" cm="1">
+        <f t="array" ref="P164">_xll.GEO_ADMIN(B164,C164)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q164" s="6" t="str" cm="1">
+        <f t="array" ref="Q164">_xll.GEO_ADMINCODE(B164,C164)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R164" s="6" t="str" cm="1">
+        <f t="array" ref="R164">_xll.GEO_ADMINTYPE(B164,C164)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="str">
         <v>Z161</v>
       </c>
@@ -11084,8 +13036,20 @@
         <f t="array" ref="O165">_xll.GEO_TIMEZONE(B165,C165)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P165" s="6" t="str" cm="1">
+        <f t="array" ref="P165">_xll.GEO_ADMIN(B165,C165)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q165" s="6" t="str" cm="1">
+        <f t="array" ref="Q165">_xll.GEO_ADMINCODE(B165,C165)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R165" s="6" t="str" cm="1">
+        <f t="array" ref="R165">_xll.GEO_ADMINTYPE(B165,C165)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166" s="10" t="str">
         <v>Z162</v>
       </c>
@@ -11139,8 +13103,20 @@
         <f t="array" ref="O166">_xll.GEO_TIMEZONE(B166,C166)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P166" s="6" t="str" cm="1">
+        <f t="array" ref="P166">_xll.GEO_ADMIN(B166,C166)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q166" s="6" t="str" cm="1">
+        <f t="array" ref="Q166">_xll.GEO_ADMINCODE(B166,C166)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R166" s="6" t="str" cm="1">
+        <f t="array" ref="R166">_xll.GEO_ADMINTYPE(B166,C166)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="10" t="str">
         <v>Z163</v>
       </c>
@@ -11194,8 +13170,20 @@
         <f t="array" ref="O167">_xll.GEO_TIMEZONE(B167,C167)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P167" s="6" t="str" cm="1">
+        <f t="array" ref="P167">_xll.GEO_ADMIN(B167,C167)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q167" s="6" t="str" cm="1">
+        <f t="array" ref="Q167">_xll.GEO_ADMINCODE(B167,C167)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R167" s="6" t="str" cm="1">
+        <f t="array" ref="R167">_xll.GEO_ADMINTYPE(B167,C167)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" s="10" t="str">
         <v>Z164</v>
       </c>
@@ -11249,8 +13237,20 @@
         <f t="array" ref="O168">_xll.GEO_TIMEZONE(B168,C168)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P168" s="6" t="str" cm="1">
+        <f t="array" ref="P168">_xll.GEO_ADMIN(B168,C168)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q168" s="6" t="str" cm="1">
+        <f t="array" ref="Q168">_xll.GEO_ADMINCODE(B168,C168)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R168" s="6" t="str" cm="1">
+        <f t="array" ref="R168">_xll.GEO_ADMINTYPE(B168,C168)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A169" s="10" t="str">
         <v>Z165</v>
       </c>
@@ -11304,8 +13304,20 @@
         <f t="array" ref="O169">_xll.GEO_TIMEZONE(B169,C169)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P169" s="6" t="str" cm="1">
+        <f t="array" ref="P169">_xll.GEO_ADMIN(B169,C169)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q169" s="6" t="str" cm="1">
+        <f t="array" ref="Q169">_xll.GEO_ADMINCODE(B169,C169)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R169" s="6" t="str" cm="1">
+        <f t="array" ref="R169">_xll.GEO_ADMINTYPE(B169,C169)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170" s="10" t="str">
         <v>Z166</v>
       </c>
@@ -11359,8 +13371,20 @@
         <f t="array" ref="O170">_xll.GEO_TIMEZONE(B170,C170)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P170" s="6" t="str" cm="1">
+        <f t="array" ref="P170">_xll.GEO_ADMIN(B170,C170)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q170" s="6" t="str" cm="1">
+        <f t="array" ref="Q170">_xll.GEO_ADMINCODE(B170,C170)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R170" s="6" t="str" cm="1">
+        <f t="array" ref="R170">_xll.GEO_ADMINTYPE(B170,C170)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="str">
         <v>Z167</v>
       </c>
@@ -11414,8 +13438,20 @@
         <f t="array" ref="O171">_xll.GEO_TIMEZONE(B171,C171)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P171" s="6" t="str" cm="1">
+        <f t="array" ref="P171">_xll.GEO_ADMIN(B171,C171)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q171" s="6" t="str" cm="1">
+        <f t="array" ref="Q171">_xll.GEO_ADMINCODE(B171,C171)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R171" s="6" t="str" cm="1">
+        <f t="array" ref="R171">_xll.GEO_ADMINTYPE(B171,C171)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172" s="10" t="str">
         <v>Z168</v>
       </c>
@@ -11469,8 +13505,20 @@
         <f t="array" ref="O172">_xll.GEO_TIMEZONE(B172,C172)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P172" s="6" t="str" cm="1">
+        <f t="array" ref="P172">_xll.GEO_ADMIN(B172,C172)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q172" s="6" t="str" cm="1">
+        <f t="array" ref="Q172">_xll.GEO_ADMINCODE(B172,C172)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R172" s="6" t="str" cm="1">
+        <f t="array" ref="R172">_xll.GEO_ADMINTYPE(B172,C172)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173" s="10" t="str">
         <v>Z169</v>
       </c>
@@ -11524,8 +13572,20 @@
         <f t="array" ref="O173">_xll.GEO_TIMEZONE(B173,C173)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P173" s="6" t="str" cm="1">
+        <f t="array" ref="P173">_xll.GEO_ADMIN(B173,C173)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q173" s="6" t="str" cm="1">
+        <f t="array" ref="Q173">_xll.GEO_ADMINCODE(B173,C173)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R173" s="6" t="str" cm="1">
+        <f t="array" ref="R173">_xll.GEO_ADMINTYPE(B173,C173)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174" s="10" t="str">
         <v>Z170</v>
       </c>
@@ -11579,8 +13639,20 @@
         <f t="array" ref="O174">_xll.GEO_TIMEZONE(B174,C174)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P174" s="6" t="str" cm="1">
+        <f t="array" ref="P174">_xll.GEO_ADMIN(B174,C174)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q174" s="6" t="str" cm="1">
+        <f t="array" ref="Q174">_xll.GEO_ADMINCODE(B174,C174)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R174" s="6" t="str" cm="1">
+        <f t="array" ref="R174">_xll.GEO_ADMINTYPE(B174,C174)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175" s="10" t="str">
         <v>Z171</v>
       </c>
@@ -11634,8 +13706,20 @@
         <f t="array" ref="O175">_xll.GEO_TIMEZONE(B175,C175)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P175" s="6" t="str" cm="1">
+        <f t="array" ref="P175">_xll.GEO_ADMIN(B175,C175)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q175" s="6" t="str" cm="1">
+        <f t="array" ref="Q175">_xll.GEO_ADMINCODE(B175,C175)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R175" s="6" t="str" cm="1">
+        <f t="array" ref="R175">_xll.GEO_ADMINTYPE(B175,C175)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176" s="10" t="str">
         <v>Z172</v>
       </c>
@@ -11689,8 +13773,20 @@
         <f t="array" ref="O176">_xll.GEO_TIMEZONE(B176,C176)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P176" s="6" t="str" cm="1">
+        <f t="array" ref="P176">_xll.GEO_ADMIN(B176,C176)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q176" s="6" t="str" cm="1">
+        <f t="array" ref="Q176">_xll.GEO_ADMINCODE(B176,C176)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R176" s="6" t="str" cm="1">
+        <f t="array" ref="R176">_xll.GEO_ADMINTYPE(B176,C176)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177" s="10" t="str">
         <v>Z173</v>
       </c>
@@ -11744,8 +13840,20 @@
         <f t="array" ref="O177">_xll.GEO_TIMEZONE(B177,C177)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P177" s="6" t="str" cm="1">
+        <f t="array" ref="P177">_xll.GEO_ADMIN(B177,C177)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q177" s="6" t="str" cm="1">
+        <f t="array" ref="Q177">_xll.GEO_ADMINCODE(B177,C177)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R177" s="6" t="str" cm="1">
+        <f t="array" ref="R177">_xll.GEO_ADMINTYPE(B177,C177)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178" s="10" t="str">
         <v>Z174</v>
       </c>
@@ -11799,8 +13907,20 @@
         <f t="array" ref="O178">_xll.GEO_TIMEZONE(B178,C178)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P178" s="6" t="str" cm="1">
+        <f t="array" ref="P178">_xll.GEO_ADMIN(B178,C178)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q178" s="6" t="str" cm="1">
+        <f t="array" ref="Q178">_xll.GEO_ADMINCODE(B178,C178)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R178" s="6" t="str" cm="1">
+        <f t="array" ref="R178">_xll.GEO_ADMINTYPE(B178,C178)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A179" s="10" t="str">
         <v>Z175</v>
       </c>
@@ -11854,8 +13974,20 @@
         <f t="array" ref="O179">_xll.GEO_TIMEZONE(B179,C179)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P179" s="6" t="str" cm="1">
+        <f t="array" ref="P179">_xll.GEO_ADMIN(B179,C179)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q179" s="6" t="str" cm="1">
+        <f t="array" ref="Q179">_xll.GEO_ADMINCODE(B179,C179)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R179" s="6" t="str" cm="1">
+        <f t="array" ref="R179">_xll.GEO_ADMINTYPE(B179,C179)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180" s="10" t="str">
         <v>Z176</v>
       </c>
@@ -11909,8 +14041,20 @@
         <f t="array" ref="O180">_xll.GEO_TIMEZONE(B180,C180)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P180" s="6" t="str" cm="1">
+        <f t="array" ref="P180">_xll.GEO_ADMIN(B180,C180)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q180" s="6" t="str" cm="1">
+        <f t="array" ref="Q180">_xll.GEO_ADMINCODE(B180,C180)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R180" s="6" t="str" cm="1">
+        <f t="array" ref="R180">_xll.GEO_ADMINTYPE(B180,C180)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181" s="10" t="str">
         <v>Z177</v>
       </c>
@@ -11964,8 +14108,20 @@
         <f t="array" ref="O181">_xll.GEO_TIMEZONE(B181,C181)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P181" s="6" t="str" cm="1">
+        <f t="array" ref="P181">_xll.GEO_ADMIN(B181,C181)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q181" s="6" t="str" cm="1">
+        <f t="array" ref="Q181">_xll.GEO_ADMINCODE(B181,C181)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R181" s="6" t="str" cm="1">
+        <f t="array" ref="R181">_xll.GEO_ADMINTYPE(B181,C181)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A182" s="10" t="str">
         <v>Z178</v>
       </c>
@@ -12019,8 +14175,20 @@
         <f t="array" ref="O182">_xll.GEO_TIMEZONE(B182,C182)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P182" s="6" t="str" cm="1">
+        <f t="array" ref="P182">_xll.GEO_ADMIN(B182,C182)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q182" s="6" t="str" cm="1">
+        <f t="array" ref="Q182">_xll.GEO_ADMINCODE(B182,C182)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R182" s="6" t="str" cm="1">
+        <f t="array" ref="R182">_xll.GEO_ADMINTYPE(B182,C182)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="str">
         <v>Z179</v>
       </c>
@@ -12074,8 +14242,20 @@
         <f t="array" ref="O183">_xll.GEO_TIMEZONE(B183,C183)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P183" s="6" t="str" cm="1">
+        <f t="array" ref="P183">_xll.GEO_ADMIN(B183,C183)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q183" s="6" t="str" cm="1">
+        <f t="array" ref="Q183">_xll.GEO_ADMINCODE(B183,C183)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R183" s="6" t="str" cm="1">
+        <f t="array" ref="R183">_xll.GEO_ADMINTYPE(B183,C183)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184" s="10" t="str">
         <v>Z180</v>
       </c>
@@ -12129,8 +14309,20 @@
         <f t="array" ref="O184">_xll.GEO_TIMEZONE(B184,C184)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P184" s="6" t="str" cm="1">
+        <f t="array" ref="P184">_xll.GEO_ADMIN(B184,C184)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q184" s="6" t="str" cm="1">
+        <f t="array" ref="Q184">_xll.GEO_ADMINCODE(B184,C184)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R184" s="6" t="str" cm="1">
+        <f t="array" ref="R184">_xll.GEO_ADMINTYPE(B184,C184)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185" s="10" t="str">
         <v>Z181</v>
       </c>
@@ -12184,8 +14376,20 @@
         <f t="array" ref="O185">_xll.GEO_TIMEZONE(B185,C185)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P185" s="6" t="str" cm="1">
+        <f t="array" ref="P185">_xll.GEO_ADMIN(B185,C185)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q185" s="6" t="str" cm="1">
+        <f t="array" ref="Q185">_xll.GEO_ADMINCODE(B185,C185)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R185" s="6" t="str" cm="1">
+        <f t="array" ref="R185">_xll.GEO_ADMINTYPE(B185,C185)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186" s="10" t="str">
         <v>Z182</v>
       </c>
@@ -12239,8 +14443,20 @@
         <f t="array" ref="O186">_xll.GEO_TIMEZONE(B186,C186)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P186" s="6" t="str" cm="1">
+        <f t="array" ref="P186">_xll.GEO_ADMIN(B186,C186)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q186" s="6" t="str" cm="1">
+        <f t="array" ref="Q186">_xll.GEO_ADMINCODE(B186,C186)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R186" s="6" t="str" cm="1">
+        <f t="array" ref="R186">_xll.GEO_ADMINTYPE(B186,C186)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187" s="10" t="str">
         <v>Z183</v>
       </c>
@@ -12294,8 +14510,20 @@
         <f t="array" ref="O187">_xll.GEO_TIMEZONE(B187,C187)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P187" s="6" t="str" cm="1">
+        <f t="array" ref="P187">_xll.GEO_ADMIN(B187,C187)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q187" s="6" t="str" cm="1">
+        <f t="array" ref="Q187">_xll.GEO_ADMINCODE(B187,C187)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R187" s="6" t="str" cm="1">
+        <f t="array" ref="R187">_xll.GEO_ADMINTYPE(B187,C187)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188" s="10" t="str">
         <v>Z184</v>
       </c>
@@ -12349,8 +14577,20 @@
         <f t="array" ref="O188">_xll.GEO_TIMEZONE(B188,C188)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P188" s="6" t="str" cm="1">
+        <f t="array" ref="P188">_xll.GEO_ADMIN(B188,C188)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q188" s="6" t="str" cm="1">
+        <f t="array" ref="Q188">_xll.GEO_ADMINCODE(B188,C188)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R188" s="6" t="str" cm="1">
+        <f t="array" ref="R188">_xll.GEO_ADMINTYPE(B188,C188)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="str">
         <v>Z185</v>
       </c>
@@ -12404,8 +14644,20 @@
         <f t="array" ref="O189">_xll.GEO_TIMEZONE(B189,C189)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P189" s="6" t="str" cm="1">
+        <f t="array" ref="P189">_xll.GEO_ADMIN(B189,C189)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q189" s="6" t="str" cm="1">
+        <f t="array" ref="Q189">_xll.GEO_ADMINCODE(B189,C189)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R189" s="6" t="str" cm="1">
+        <f t="array" ref="R189">_xll.GEO_ADMINTYPE(B189,C189)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190" s="10" t="str">
         <v>Z186</v>
       </c>
@@ -12459,8 +14711,20 @@
         <f t="array" ref="O190">_xll.GEO_TIMEZONE(B190,C190)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P190" s="6" t="str" cm="1">
+        <f t="array" ref="P190">_xll.GEO_ADMIN(B190,C190)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q190" s="6" t="str" cm="1">
+        <f t="array" ref="Q190">_xll.GEO_ADMINCODE(B190,C190)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R190" s="6" t="str" cm="1">
+        <f t="array" ref="R190">_xll.GEO_ADMINTYPE(B190,C190)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191" s="10" t="str">
         <v>Z187</v>
       </c>
@@ -12514,8 +14778,20 @@
         <f t="array" ref="O191">_xll.GEO_TIMEZONE(B191,C191)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P191" s="6" t="str" cm="1">
+        <f t="array" ref="P191">_xll.GEO_ADMIN(B191,C191)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q191" s="6" t="str" cm="1">
+        <f t="array" ref="Q191">_xll.GEO_ADMINCODE(B191,C191)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R191" s="6" t="str" cm="1">
+        <f t="array" ref="R191">_xll.GEO_ADMINTYPE(B191,C191)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192" s="10" t="str">
         <v>Z188</v>
       </c>
@@ -12569,8 +14845,20 @@
         <f t="array" ref="O192">_xll.GEO_TIMEZONE(B192,C192)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P192" s="6" t="str" cm="1">
+        <f t="array" ref="P192">_xll.GEO_ADMIN(B192,C192)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q192" s="6" t="str" cm="1">
+        <f t="array" ref="Q192">_xll.GEO_ADMINCODE(B192,C192)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R192" s="6" t="str" cm="1">
+        <f t="array" ref="R192">_xll.GEO_ADMINTYPE(B192,C192)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="10" t="str">
         <v>Z189</v>
       </c>
@@ -12624,8 +14912,20 @@
         <f t="array" ref="O193">_xll.GEO_TIMEZONE(B193,C193)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P193" s="6" t="str" cm="1">
+        <f t="array" ref="P193">_xll.GEO_ADMIN(B193,C193)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q193" s="6" t="str" cm="1">
+        <f t="array" ref="Q193">_xll.GEO_ADMINCODE(B193,C193)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R193" s="6" t="str" cm="1">
+        <f t="array" ref="R193">_xll.GEO_ADMINTYPE(B193,C193)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="10" t="str">
         <v>Z190</v>
       </c>
@@ -12679,8 +14979,20 @@
         <f t="array" ref="O194">_xll.GEO_TIMEZONE(B194,C194)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P194" s="6" t="str" cm="1">
+        <f t="array" ref="P194">_xll.GEO_ADMIN(B194,C194)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q194" s="6" t="str" cm="1">
+        <f t="array" ref="Q194">_xll.GEO_ADMINCODE(B194,C194)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R194" s="6" t="str" cm="1">
+        <f t="array" ref="R194">_xll.GEO_ADMINTYPE(B194,C194)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="10" t="str">
         <v>Z191</v>
       </c>
@@ -12734,8 +15046,20 @@
         <f t="array" ref="O195">_xll.GEO_TIMEZONE(B195,C195)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P195" s="6" t="str" cm="1">
+        <f t="array" ref="P195">_xll.GEO_ADMIN(B195,C195)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q195" s="6" t="str" cm="1">
+        <f t="array" ref="Q195">_xll.GEO_ADMINCODE(B195,C195)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R195" s="6" t="str" cm="1">
+        <f t="array" ref="R195">_xll.GEO_ADMINTYPE(B195,C195)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="10" t="str">
         <v>Z192</v>
       </c>
@@ -12789,8 +15113,20 @@
         <f t="array" ref="O196">_xll.GEO_TIMEZONE(B196,C196)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P196" s="6" t="str" cm="1">
+        <f t="array" ref="P196">_xll.GEO_ADMIN(B196,C196)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q196" s="6" t="str" cm="1">
+        <f t="array" ref="Q196">_xll.GEO_ADMINCODE(B196,C196)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R196" s="6" t="str" cm="1">
+        <f t="array" ref="R196">_xll.GEO_ADMINTYPE(B196,C196)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="10" t="str">
         <v>Z193</v>
       </c>
@@ -12844,8 +15180,20 @@
         <f t="array" ref="O197">_xll.GEO_TIMEZONE(B197,C197)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P197" s="6" t="str" cm="1">
+        <f t="array" ref="P197">_xll.GEO_ADMIN(B197,C197)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q197" s="6" t="str" cm="1">
+        <f t="array" ref="Q197">_xll.GEO_ADMINCODE(B197,C197)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R197" s="6" t="str" cm="1">
+        <f t="array" ref="R197">_xll.GEO_ADMINTYPE(B197,C197)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198" s="10" t="str">
         <v>Z194</v>
       </c>
@@ -12899,8 +15247,20 @@
         <f t="array" ref="O198">_xll.GEO_TIMEZONE(B198,C198)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P198" s="6" t="str" cm="1">
+        <f t="array" ref="P198">_xll.GEO_ADMIN(B198,C198)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q198" s="6" t="str" cm="1">
+        <f t="array" ref="Q198">_xll.GEO_ADMINCODE(B198,C198)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R198" s="6" t="str" cm="1">
+        <f t="array" ref="R198">_xll.GEO_ADMINTYPE(B198,C198)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="10" t="str">
         <v>Z195</v>
       </c>
@@ -12954,8 +15314,20 @@
         <f t="array" ref="O199">_xll.GEO_TIMEZONE(B199,C199)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P199" s="6" t="str" cm="1">
+        <f t="array" ref="P199">_xll.GEO_ADMIN(B199,C199)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q199" s="6" t="str" cm="1">
+        <f t="array" ref="Q199">_xll.GEO_ADMINCODE(B199,C199)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R199" s="6" t="str" cm="1">
+        <f t="array" ref="R199">_xll.GEO_ADMINTYPE(B199,C199)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200" s="10" t="str">
         <v>Z196</v>
       </c>
@@ -13009,8 +15381,20 @@
         <f t="array" ref="O200">_xll.GEO_TIMEZONE(B200,C200)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P200" s="6" t="str" cm="1">
+        <f t="array" ref="P200">_xll.GEO_ADMIN(B200,C200)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q200" s="6" t="str" cm="1">
+        <f t="array" ref="Q200">_xll.GEO_ADMINCODE(B200,C200)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R200" s="6" t="str" cm="1">
+        <f t="array" ref="R200">_xll.GEO_ADMINTYPE(B200,C200)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="str">
         <v>Z197</v>
       </c>
@@ -13064,8 +15448,20 @@
         <f t="array" ref="O201">_xll.GEO_TIMEZONE(B201,C201)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P201" s="6" t="str" cm="1">
+        <f t="array" ref="P201">_xll.GEO_ADMIN(B201,C201)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q201" s="6" t="str" cm="1">
+        <f t="array" ref="Q201">_xll.GEO_ADMINCODE(B201,C201)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R201" s="6" t="str" cm="1">
+        <f t="array" ref="R201">_xll.GEO_ADMINTYPE(B201,C201)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="10" t="str">
         <v>Z198</v>
       </c>
@@ -13119,8 +15515,20 @@
         <f t="array" ref="O202">_xll.GEO_TIMEZONE(B202,C202)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P202" s="6" t="str" cm="1">
+        <f t="array" ref="P202">_xll.GEO_ADMIN(B202,C202)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q202" s="6" t="str" cm="1">
+        <f t="array" ref="Q202">_xll.GEO_ADMINCODE(B202,C202)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R202" s="6" t="str" cm="1">
+        <f t="array" ref="R202">_xll.GEO_ADMINTYPE(B202,C202)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="10" t="str">
         <v>Z199</v>
       </c>
@@ -13174,8 +15582,20 @@
         <f t="array" ref="O203">_xll.GEO_TIMEZONE(B203,C203)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P203" s="6" t="str" cm="1">
+        <f t="array" ref="P203">_xll.GEO_ADMIN(B203,C203)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q203" s="6" t="str" cm="1">
+        <f t="array" ref="Q203">_xll.GEO_ADMINCODE(B203,C203)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R203" s="6" t="str" cm="1">
+        <f t="array" ref="R203">_xll.GEO_ADMINTYPE(B203,C203)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="10" t="str">
         <v>Z200</v>
       </c>
@@ -13229,8 +15649,20 @@
         <f t="array" ref="O204">_xll.GEO_TIMEZONE(B204,C204)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P204" s="6" t="str" cm="1">
+        <f t="array" ref="P204">_xll.GEO_ADMIN(B204,C204)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q204" s="6" t="str" cm="1">
+        <f t="array" ref="Q204">_xll.GEO_ADMINCODE(B204,C204)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R204" s="6" t="str" cm="1">
+        <f t="array" ref="R204">_xll.GEO_ADMINTYPE(B204,C204)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205" s="10" t="str">
         <v>Z201</v>
       </c>
@@ -13284,8 +15716,20 @@
         <f t="array" ref="O205">_xll.GEO_TIMEZONE(B205,C205)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P205" s="6" t="str" cm="1">
+        <f t="array" ref="P205">_xll.GEO_ADMIN(B205,C205)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q205" s="6" t="str" cm="1">
+        <f t="array" ref="Q205">_xll.GEO_ADMINCODE(B205,C205)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R205" s="6" t="str" cm="1">
+        <f t="array" ref="R205">_xll.GEO_ADMINTYPE(B205,C205)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="10" t="str">
         <v>Z202</v>
       </c>
@@ -13339,8 +15783,20 @@
         <f t="array" ref="O206">_xll.GEO_TIMEZONE(B206,C206)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P206" s="6" t="str" cm="1">
+        <f t="array" ref="P206">_xll.GEO_ADMIN(B206,C206)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q206" s="6" t="str" cm="1">
+        <f t="array" ref="Q206">_xll.GEO_ADMINCODE(B206,C206)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R206" s="6" t="str" cm="1">
+        <f t="array" ref="R206">_xll.GEO_ADMINTYPE(B206,C206)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="str">
         <v>Z203</v>
       </c>
@@ -13394,8 +15850,20 @@
         <f t="array" ref="O207">_xll.GEO_TIMEZONE(B207,C207)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P207" s="6" t="str" cm="1">
+        <f t="array" ref="P207">_xll.GEO_ADMIN(B207,C207)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q207" s="6" t="str" cm="1">
+        <f t="array" ref="Q207">_xll.GEO_ADMINCODE(B207,C207)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R207" s="6" t="str" cm="1">
+        <f t="array" ref="R207">_xll.GEO_ADMINTYPE(B207,C207)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208" s="10" t="str">
         <v>Z204</v>
       </c>
@@ -13449,8 +15917,20 @@
         <f t="array" ref="O208">_xll.GEO_TIMEZONE(B208,C208)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P208" s="6" t="str" cm="1">
+        <f t="array" ref="P208">_xll.GEO_ADMIN(B208,C208)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q208" s="6" t="str" cm="1">
+        <f t="array" ref="Q208">_xll.GEO_ADMINCODE(B208,C208)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R208" s="6" t="str" cm="1">
+        <f t="array" ref="R208">_xll.GEO_ADMINTYPE(B208,C208)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209" s="10" t="str">
         <v>Z205</v>
       </c>
@@ -13504,8 +15984,20 @@
         <f t="array" ref="O209">_xll.GEO_TIMEZONE(B209,C209)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P209" s="6" t="str" cm="1">
+        <f t="array" ref="P209">_xll.GEO_ADMIN(B209,C209)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q209" s="6" t="str" cm="1">
+        <f t="array" ref="Q209">_xll.GEO_ADMINCODE(B209,C209)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R209" s="6" t="str" cm="1">
+        <f t="array" ref="R209">_xll.GEO_ADMINTYPE(B209,C209)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210" s="10" t="str">
         <v>Z206</v>
       </c>
@@ -13559,8 +16051,20 @@
         <f t="array" ref="O210">_xll.GEO_TIMEZONE(B210,C210)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P210" s="6" t="str" cm="1">
+        <f t="array" ref="P210">_xll.GEO_ADMIN(B210,C210)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q210" s="6" t="str" cm="1">
+        <f t="array" ref="Q210">_xll.GEO_ADMINCODE(B210,C210)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R210" s="6" t="str" cm="1">
+        <f t="array" ref="R210">_xll.GEO_ADMINTYPE(B210,C210)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A211" s="10" t="str">
         <v>Z207</v>
       </c>
@@ -13614,8 +16118,20 @@
         <f t="array" ref="O211">_xll.GEO_TIMEZONE(B211,C211)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P211" s="6" t="str" cm="1">
+        <f t="array" ref="P211">_xll.GEO_ADMIN(B211,C211)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q211" s="6" t="str" cm="1">
+        <f t="array" ref="Q211">_xll.GEO_ADMINCODE(B211,C211)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R211" s="6" t="str" cm="1">
+        <f t="array" ref="R211">_xll.GEO_ADMINTYPE(B211,C211)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A212" s="10" t="str">
         <v>Z208</v>
       </c>
@@ -13669,8 +16185,20 @@
         <f t="array" ref="O212">_xll.GEO_TIMEZONE(B212,C212)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P212" s="6" t="str" cm="1">
+        <f t="array" ref="P212">_xll.GEO_ADMIN(B212,C212)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q212" s="6" t="str" cm="1">
+        <f t="array" ref="Q212">_xll.GEO_ADMINCODE(B212,C212)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R212" s="6" t="str" cm="1">
+        <f t="array" ref="R212">_xll.GEO_ADMINTYPE(B212,C212)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213" s="10" t="str">
         <v>Z209</v>
       </c>
@@ -13724,8 +16252,20 @@
         <f t="array" ref="O213">_xll.GEO_TIMEZONE(B213,C213)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P213" s="6" t="str" cm="1">
+        <f t="array" ref="P213">_xll.GEO_ADMIN(B213,C213)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q213" s="6" t="str" cm="1">
+        <f t="array" ref="Q213">_xll.GEO_ADMINCODE(B213,C213)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R213" s="6" t="str" cm="1">
+        <f t="array" ref="R213">_xll.GEO_ADMINTYPE(B213,C213)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214" s="10" t="str">
         <v>Z210</v>
       </c>
@@ -13779,8 +16319,20 @@
         <f t="array" ref="O214">_xll.GEO_TIMEZONE(B214,C214)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P214" s="6" t="str" cm="1">
+        <f t="array" ref="P214">_xll.GEO_ADMIN(B214,C214)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q214" s="6" t="str" cm="1">
+        <f t="array" ref="Q214">_xll.GEO_ADMINCODE(B214,C214)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R214" s="6" t="str" cm="1">
+        <f t="array" ref="R214">_xll.GEO_ADMINTYPE(B214,C214)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215" s="10" t="str">
         <v>Z211</v>
       </c>
@@ -13834,8 +16386,20 @@
         <f t="array" ref="O215">_xll.GEO_TIMEZONE(B215,C215)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P215" s="6" t="str" cm="1">
+        <f t="array" ref="P215">_xll.GEO_ADMIN(B215,C215)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q215" s="6" t="str" cm="1">
+        <f t="array" ref="Q215">_xll.GEO_ADMINCODE(B215,C215)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R215" s="6" t="str" cm="1">
+        <f t="array" ref="R215">_xll.GEO_ADMINTYPE(B215,C215)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216" s="10" t="str">
         <v>Z212</v>
       </c>
@@ -13889,8 +16453,20 @@
         <f t="array" ref="O216">_xll.GEO_TIMEZONE(B216,C216)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P216" s="6" t="str" cm="1">
+        <f t="array" ref="P216">_xll.GEO_ADMIN(B216,C216)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q216" s="6" t="str" cm="1">
+        <f t="array" ref="Q216">_xll.GEO_ADMINCODE(B216,C216)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R216" s="6" t="str" cm="1">
+        <f t="array" ref="R216">_xll.GEO_ADMINTYPE(B216,C216)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A217" s="10" t="str">
         <v>Z213</v>
       </c>
@@ -13944,8 +16520,20 @@
         <f t="array" ref="O217">_xll.GEO_TIMEZONE(B217,C217)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P217" s="6" t="str" cm="1">
+        <f t="array" ref="P217">_xll.GEO_ADMIN(B217,C217)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q217" s="6" t="str" cm="1">
+        <f t="array" ref="Q217">_xll.GEO_ADMINCODE(B217,C217)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R217" s="6" t="str" cm="1">
+        <f t="array" ref="R217">_xll.GEO_ADMINTYPE(B217,C217)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218" s="10" t="str">
         <v>Z214</v>
       </c>
@@ -13999,8 +16587,20 @@
         <f t="array" ref="O218">_xll.GEO_TIMEZONE(B218,C218)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P218" s="6" t="str" cm="1">
+        <f t="array" ref="P218">_xll.GEO_ADMIN(B218,C218)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q218" s="6" t="str" cm="1">
+        <f t="array" ref="Q218">_xll.GEO_ADMINCODE(B218,C218)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R218" s="6" t="str" cm="1">
+        <f t="array" ref="R218">_xll.GEO_ADMINTYPE(B218,C218)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="str">
         <v>Z215</v>
       </c>
@@ -14054,8 +16654,20 @@
         <f t="array" ref="O219">_xll.GEO_TIMEZONE(B219,C219)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P219" s="6" t="str" cm="1">
+        <f t="array" ref="P219">_xll.GEO_ADMIN(B219,C219)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q219" s="6" t="str" cm="1">
+        <f t="array" ref="Q219">_xll.GEO_ADMINCODE(B219,C219)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R219" s="6" t="str" cm="1">
+        <f t="array" ref="R219">_xll.GEO_ADMINTYPE(B219,C219)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220" s="10" t="str">
         <v>Z216</v>
       </c>
@@ -14109,8 +16721,20 @@
         <f t="array" ref="O220">_xll.GEO_TIMEZONE(B220,C220)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P220" s="6" t="str" cm="1">
+        <f t="array" ref="P220">_xll.GEO_ADMIN(B220,C220)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q220" s="6" t="str" cm="1">
+        <f t="array" ref="Q220">_xll.GEO_ADMINCODE(B220,C220)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R220" s="6" t="str" cm="1">
+        <f t="array" ref="R220">_xll.GEO_ADMINTYPE(B220,C220)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221" s="10" t="str">
         <v>Z217</v>
       </c>
@@ -14164,8 +16788,20 @@
         <f t="array" ref="O221">_xll.GEO_TIMEZONE(B221,C221)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P221" s="6" t="str" cm="1">
+        <f t="array" ref="P221">_xll.GEO_ADMIN(B221,C221)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q221" s="6" t="str" cm="1">
+        <f t="array" ref="Q221">_xll.GEO_ADMINCODE(B221,C221)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R221" s="6" t="str" cm="1">
+        <f t="array" ref="R221">_xll.GEO_ADMINTYPE(B221,C221)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222" s="10" t="str">
         <v>Z218</v>
       </c>
@@ -14219,8 +16855,20 @@
         <f t="array" ref="O222">_xll.GEO_TIMEZONE(B222,C222)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P222" s="6" t="str" cm="1">
+        <f t="array" ref="P222">_xll.GEO_ADMIN(B222,C222)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q222" s="6" t="str" cm="1">
+        <f t="array" ref="Q222">_xll.GEO_ADMINCODE(B222,C222)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R222" s="6" t="str" cm="1">
+        <f t="array" ref="R222">_xll.GEO_ADMINTYPE(B222,C222)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A223" s="10" t="str">
         <v>Z219</v>
       </c>
@@ -14274,8 +16922,20 @@
         <f t="array" ref="O223">_xll.GEO_TIMEZONE(B223,C223)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P223" s="6" t="str" cm="1">
+        <f t="array" ref="P223">_xll.GEO_ADMIN(B223,C223)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q223" s="6" t="str" cm="1">
+        <f t="array" ref="Q223">_xll.GEO_ADMINCODE(B223,C223)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R223" s="6" t="str" cm="1">
+        <f t="array" ref="R223">_xll.GEO_ADMINTYPE(B223,C223)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224" s="10" t="str">
         <v>Z220</v>
       </c>
@@ -14329,8 +16989,20 @@
         <f t="array" ref="O224">_xll.GEO_TIMEZONE(B224,C224)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P224" s="6" t="str" cm="1">
+        <f t="array" ref="P224">_xll.GEO_ADMIN(B224,C224)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q224" s="6" t="str" cm="1">
+        <f t="array" ref="Q224">_xll.GEO_ADMINCODE(B224,C224)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R224" s="6" t="str" cm="1">
+        <f t="array" ref="R224">_xll.GEO_ADMINTYPE(B224,C224)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="str">
         <v>Z221</v>
       </c>
@@ -14384,8 +17056,20 @@
         <f t="array" ref="O225">_xll.GEO_TIMEZONE(B225,C225)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P225" s="6" t="str" cm="1">
+        <f t="array" ref="P225">_xll.GEO_ADMIN(B225,C225)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q225" s="6" t="str" cm="1">
+        <f t="array" ref="Q225">_xll.GEO_ADMINCODE(B225,C225)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R225" s="6" t="str" cm="1">
+        <f t="array" ref="R225">_xll.GEO_ADMINTYPE(B225,C225)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226" s="10" t="str">
         <v>Z222</v>
       </c>
@@ -14439,8 +17123,20 @@
         <f t="array" ref="O226">_xll.GEO_TIMEZONE(B226,C226)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P226" s="6" t="str" cm="1">
+        <f t="array" ref="P226">_xll.GEO_ADMIN(B226,C226)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q226" s="6" t="str" cm="1">
+        <f t="array" ref="Q226">_xll.GEO_ADMINCODE(B226,C226)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R226" s="6" t="str" cm="1">
+        <f t="array" ref="R226">_xll.GEO_ADMINTYPE(B226,C226)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A227" s="10" t="str">
         <v>Z223</v>
       </c>
@@ -14494,8 +17190,20 @@
         <f t="array" ref="O227">_xll.GEO_TIMEZONE(B227,C227)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P227" s="6" t="str" cm="1">
+        <f t="array" ref="P227">_xll.GEO_ADMIN(B227,C227)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q227" s="6" t="str" cm="1">
+        <f t="array" ref="Q227">_xll.GEO_ADMINCODE(B227,C227)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R227" s="6" t="str" cm="1">
+        <f t="array" ref="R227">_xll.GEO_ADMINTYPE(B227,C227)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228" s="10" t="str">
         <v>Z224</v>
       </c>
@@ -14549,8 +17257,20 @@
         <f t="array" ref="O228">_xll.GEO_TIMEZONE(B228,C228)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P228" s="6" t="str" cm="1">
+        <f t="array" ref="P228">_xll.GEO_ADMIN(B228,C228)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q228" s="6" t="str" cm="1">
+        <f t="array" ref="Q228">_xll.GEO_ADMINCODE(B228,C228)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R228" s="6" t="str" cm="1">
+        <f t="array" ref="R228">_xll.GEO_ADMINTYPE(B228,C228)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229" s="10" t="str">
         <v>Z225</v>
       </c>
@@ -14604,8 +17324,20 @@
         <f t="array" ref="O229">_xll.GEO_TIMEZONE(B229,C229)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P229" s="6" t="str" cm="1">
+        <f t="array" ref="P229">_xll.GEO_ADMIN(B229,C229)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q229" s="6" t="str" cm="1">
+        <f t="array" ref="Q229">_xll.GEO_ADMINCODE(B229,C229)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R229" s="6" t="str" cm="1">
+        <f t="array" ref="R229">_xll.GEO_ADMINTYPE(B229,C229)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230" s="10" t="str">
         <v>Z226</v>
       </c>
@@ -14659,8 +17391,20 @@
         <f t="array" ref="O230">_xll.GEO_TIMEZONE(B230,C230)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P230" s="6" t="str" cm="1">
+        <f t="array" ref="P230">_xll.GEO_ADMIN(B230,C230)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q230" s="6" t="str" cm="1">
+        <f t="array" ref="Q230">_xll.GEO_ADMINCODE(B230,C230)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R230" s="6" t="str" cm="1">
+        <f t="array" ref="R230">_xll.GEO_ADMINTYPE(B230,C230)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231" s="10" t="str">
         <v>Z227</v>
       </c>
@@ -14714,8 +17458,20 @@
         <f t="array" ref="O231">_xll.GEO_TIMEZONE(B231,C231)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P231" s="6" t="str" cm="1">
+        <f t="array" ref="P231">_xll.GEO_ADMIN(B231,C231)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q231" s="6" t="str" cm="1">
+        <f t="array" ref="Q231">_xll.GEO_ADMINCODE(B231,C231)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R231" s="6" t="str" cm="1">
+        <f t="array" ref="R231">_xll.GEO_ADMINTYPE(B231,C231)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A232" s="10" t="str">
         <v>Z228</v>
       </c>
@@ -14769,8 +17525,20 @@
         <f t="array" ref="O232">_xll.GEO_TIMEZONE(B232,C232)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P232" s="6" t="str" cm="1">
+        <f t="array" ref="P232">_xll.GEO_ADMIN(B232,C232)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q232" s="6" t="str" cm="1">
+        <f t="array" ref="Q232">_xll.GEO_ADMINCODE(B232,C232)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R232" s="6" t="str" cm="1">
+        <f t="array" ref="R232">_xll.GEO_ADMINTYPE(B232,C232)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233" s="10" t="str">
         <v>Z229</v>
       </c>
@@ -14824,8 +17592,20 @@
         <f t="array" ref="O233">_xll.GEO_TIMEZONE(B233,C233)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P233" s="6" t="str" cm="1">
+        <f t="array" ref="P233">_xll.GEO_ADMIN(B233,C233)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q233" s="6" t="str" cm="1">
+        <f t="array" ref="Q233">_xll.GEO_ADMINCODE(B233,C233)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R233" s="6" t="str" cm="1">
+        <f t="array" ref="R233">_xll.GEO_ADMINTYPE(B233,C233)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234" s="10" t="str">
         <v>Z230</v>
       </c>
@@ -14879,8 +17659,20 @@
         <f t="array" ref="O234">_xll.GEO_TIMEZONE(B234,C234)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P234" s="6" t="str" cm="1">
+        <f t="array" ref="P234">_xll.GEO_ADMIN(B234,C234)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q234" s="6" t="str" cm="1">
+        <f t="array" ref="Q234">_xll.GEO_ADMINCODE(B234,C234)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R234" s="6" t="str" cm="1">
+        <f t="array" ref="R234">_xll.GEO_ADMINTYPE(B234,C234)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235" s="10" t="str">
         <v>Z231</v>
       </c>
@@ -14934,8 +17726,20 @@
         <f t="array" ref="O235">_xll.GEO_TIMEZONE(B235,C235)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P235" s="6" t="str" cm="1">
+        <f t="array" ref="P235">_xll.GEO_ADMIN(B235,C235)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q235" s="6" t="str" cm="1">
+        <f t="array" ref="Q235">_xll.GEO_ADMINCODE(B235,C235)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R235" s="6" t="str" cm="1">
+        <f t="array" ref="R235">_xll.GEO_ADMINTYPE(B235,C235)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236" s="10" t="str">
         <v>Z232</v>
       </c>
@@ -14989,8 +17793,20 @@
         <f t="array" ref="O236">_xll.GEO_TIMEZONE(B236,C236)</f>
         <v>Australia/Perth</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P236" s="6" t="str" cm="1">
+        <f t="array" ref="P236">_xll.GEO_ADMIN(B236,C236)</f>
+        <v>Western Australia</v>
+      </c>
+      <c r="Q236" s="6" t="str" cm="1">
+        <f t="array" ref="Q236">_xll.GEO_ADMINCODE(B236,C236)</f>
+        <v>AU-WA</v>
+      </c>
+      <c r="R236" s="6" t="str" cm="1">
+        <f t="array" ref="R236">_xll.GEO_ADMINTYPE(B236,C236)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="str">
         <v>Z233</v>
       </c>
@@ -15044,8 +17860,20 @@
         <f t="array" ref="O237">_xll.GEO_TIMEZONE(B237,C237)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P237" s="6" t="str" cm="1">
+        <f t="array" ref="P237">_xll.GEO_ADMIN(B237,C237)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q237" s="6" t="str" cm="1">
+        <f t="array" ref="Q237">_xll.GEO_ADMINCODE(B237,C237)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R237" s="6" t="str" cm="1">
+        <f t="array" ref="R237">_xll.GEO_ADMINTYPE(B237,C237)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A238" s="10" t="str">
         <v>Z234</v>
       </c>
@@ -15099,8 +17927,20 @@
         <f t="array" ref="O238">_xll.GEO_TIMEZONE(B238,C238)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P238" s="6" t="str" cm="1">
+        <f t="array" ref="P238">_xll.GEO_ADMIN(B238,C238)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q238" s="6" t="str" cm="1">
+        <f t="array" ref="Q238">_xll.GEO_ADMINCODE(B238,C238)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R238" s="6" t="str" cm="1">
+        <f t="array" ref="R238">_xll.GEO_ADMINTYPE(B238,C238)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239" s="10" t="str">
         <v>Z235</v>
       </c>
@@ -15154,8 +17994,20 @@
         <f t="array" ref="O239">_xll.GEO_TIMEZONE(B239,C239)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P239" s="6" t="str" cm="1">
+        <f t="array" ref="P239">_xll.GEO_ADMIN(B239,C239)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q239" s="6" t="str" cm="1">
+        <f t="array" ref="Q239">_xll.GEO_ADMINCODE(B239,C239)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R239" s="6" t="str" cm="1">
+        <f t="array" ref="R239">_xll.GEO_ADMINTYPE(B239,C239)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A240" s="10" t="str">
         <v>Z236</v>
       </c>
@@ -15209,8 +18061,20 @@
         <f t="array" ref="O240">_xll.GEO_TIMEZONE(B240,C240)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P240" s="6" t="str" cm="1">
+        <f t="array" ref="P240">_xll.GEO_ADMIN(B240,C240)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q240" s="6" t="str" cm="1">
+        <f t="array" ref="Q240">_xll.GEO_ADMINCODE(B240,C240)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R240" s="6" t="str" cm="1">
+        <f t="array" ref="R240">_xll.GEO_ADMINTYPE(B240,C240)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241" s="10" t="str">
         <v>Z237</v>
       </c>
@@ -15264,8 +18128,20 @@
         <f t="array" ref="O241">_xll.GEO_TIMEZONE(B241,C241)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P241" s="6" t="str" cm="1">
+        <f t="array" ref="P241">_xll.GEO_ADMIN(B241,C241)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q241" s="6" t="str" cm="1">
+        <f t="array" ref="Q241">_xll.GEO_ADMINCODE(B241,C241)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R241" s="6" t="str" cm="1">
+        <f t="array" ref="R241">_xll.GEO_ADMINTYPE(B241,C241)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A242" s="10" t="str">
         <v>Z238</v>
       </c>
@@ -15319,8 +18195,20 @@
         <f t="array" ref="O242">_xll.GEO_TIMEZONE(B242,C242)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P242" s="6" t="str" cm="1">
+        <f t="array" ref="P242">_xll.GEO_ADMIN(B242,C242)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q242" s="6" t="str" cm="1">
+        <f t="array" ref="Q242">_xll.GEO_ADMINCODE(B242,C242)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R242" s="6" t="str" cm="1">
+        <f t="array" ref="R242">_xll.GEO_ADMINTYPE(B242,C242)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="str">
         <v>Z239</v>
       </c>
@@ -15374,8 +18262,20 @@
         <f t="array" ref="O243">_xll.GEO_TIMEZONE(B243,C243)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P243" s="6" t="str" cm="1">
+        <f t="array" ref="P243">_xll.GEO_ADMIN(B243,C243)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q243" s="6" t="str" cm="1">
+        <f t="array" ref="Q243">_xll.GEO_ADMINCODE(B243,C243)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R243" s="6" t="str" cm="1">
+        <f t="array" ref="R243">_xll.GEO_ADMINTYPE(B243,C243)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244" s="10" t="str">
         <v>Z240</v>
       </c>
@@ -15429,8 +18329,20 @@
         <f t="array" ref="O244">_xll.GEO_TIMEZONE(B244,C244)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P244" s="6" t="str" cm="1">
+        <f t="array" ref="P244">_xll.GEO_ADMIN(B244,C244)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q244" s="6" t="str" cm="1">
+        <f t="array" ref="Q244">_xll.GEO_ADMINCODE(B244,C244)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R244" s="6" t="str" cm="1">
+        <f t="array" ref="R244">_xll.GEO_ADMINTYPE(B244,C244)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245" s="10" t="str">
         <v>Z241</v>
       </c>
@@ -15484,8 +18396,20 @@
         <f t="array" ref="O245">_xll.GEO_TIMEZONE(B245,C245)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P245" s="6" t="str" cm="1">
+        <f t="array" ref="P245">_xll.GEO_ADMIN(B245,C245)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q245" s="6" t="str" cm="1">
+        <f t="array" ref="Q245">_xll.GEO_ADMINCODE(B245,C245)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R245" s="6" t="str" cm="1">
+        <f t="array" ref="R245">_xll.GEO_ADMINTYPE(B245,C245)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246" s="10" t="str">
         <v>Z242</v>
       </c>
@@ -15539,8 +18463,20 @@
         <f t="array" ref="O246">_xll.GEO_TIMEZONE(B246,C246)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P246" s="6" t="str" cm="1">
+        <f t="array" ref="P246">_xll.GEO_ADMIN(B246,C246)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q246" s="6" t="str" cm="1">
+        <f t="array" ref="Q246">_xll.GEO_ADMINCODE(B246,C246)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R246" s="6" t="str" cm="1">
+        <f t="array" ref="R246">_xll.GEO_ADMINTYPE(B246,C246)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247" s="10" t="str">
         <v>Z243</v>
       </c>
@@ -15594,8 +18530,20 @@
         <f t="array" ref="O247">_xll.GEO_TIMEZONE(B247,C247)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P247" s="6" t="str" cm="1">
+        <f t="array" ref="P247">_xll.GEO_ADMIN(B247,C247)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q247" s="6" t="str" cm="1">
+        <f t="array" ref="Q247">_xll.GEO_ADMINCODE(B247,C247)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R247" s="6" t="str" cm="1">
+        <f t="array" ref="R247">_xll.GEO_ADMINTYPE(B247,C247)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248" s="10" t="str">
         <v>Z244</v>
       </c>
@@ -15649,8 +18597,20 @@
         <f t="array" ref="O248">_xll.GEO_TIMEZONE(B248,C248)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P248" s="6" t="str" cm="1">
+        <f t="array" ref="P248">_xll.GEO_ADMIN(B248,C248)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q248" s="6" t="str" cm="1">
+        <f t="array" ref="Q248">_xll.GEO_ADMINCODE(B248,C248)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R248" s="6" t="str" cm="1">
+        <f t="array" ref="R248">_xll.GEO_ADMINTYPE(B248,C248)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249" s="10" t="str">
         <v>Z245</v>
       </c>
@@ -15704,8 +18664,20 @@
         <f t="array" ref="O249">_xll.GEO_TIMEZONE(B249,C249)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P249" s="6" t="str" cm="1">
+        <f t="array" ref="P249">_xll.GEO_ADMIN(B249,C249)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q249" s="6" t="str" cm="1">
+        <f t="array" ref="Q249">_xll.GEO_ADMINCODE(B249,C249)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R249" s="6" t="str" cm="1">
+        <f t="array" ref="R249">_xll.GEO_ADMINTYPE(B249,C249)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A250" s="10" t="str">
         <v>Z246</v>
       </c>
@@ -15759,8 +18731,20 @@
         <f t="array" ref="O250">_xll.GEO_TIMEZONE(B250,C250)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P250" s="6" t="str" cm="1">
+        <f t="array" ref="P250">_xll.GEO_ADMIN(B250,C250)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q250" s="6" t="str" cm="1">
+        <f t="array" ref="Q250">_xll.GEO_ADMINCODE(B250,C250)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R250" s="6" t="str" cm="1">
+        <f t="array" ref="R250">_xll.GEO_ADMINTYPE(B250,C250)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251" s="10" t="str">
         <v>Z247</v>
       </c>
@@ -15814,8 +18798,20 @@
         <f t="array" ref="O251">_xll.GEO_TIMEZONE(B251,C251)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P251" s="6" t="str" cm="1">
+        <f t="array" ref="P251">_xll.GEO_ADMIN(B251,C251)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q251" s="6" t="str" cm="1">
+        <f t="array" ref="Q251">_xll.GEO_ADMINCODE(B251,C251)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R251" s="6" t="str" cm="1">
+        <f t="array" ref="R251">_xll.GEO_ADMINTYPE(B251,C251)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A252" s="10" t="str">
         <v>Z248</v>
       </c>
@@ -15869,8 +18865,20 @@
         <f t="array" ref="O252">_xll.GEO_TIMEZONE(B252,C252)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P252" s="6" t="str" cm="1">
+        <f t="array" ref="P252">_xll.GEO_ADMIN(B252,C252)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q252" s="6" t="str" cm="1">
+        <f t="array" ref="Q252">_xll.GEO_ADMINCODE(B252,C252)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R252" s="6" t="str" cm="1">
+        <f t="array" ref="R252">_xll.GEO_ADMINTYPE(B252,C252)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253" s="10" t="str">
         <v>Z249</v>
       </c>
@@ -15924,8 +18932,20 @@
         <f t="array" ref="O253">_xll.GEO_TIMEZONE(B253,C253)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P253" s="6" t="str" cm="1">
+        <f t="array" ref="P253">_xll.GEO_ADMIN(B253,C253)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q253" s="6" t="str" cm="1">
+        <f t="array" ref="Q253">_xll.GEO_ADMINCODE(B253,C253)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R253" s="6" t="str" cm="1">
+        <f t="array" ref="R253">_xll.GEO_ADMINTYPE(B253,C253)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254" s="10" t="str">
         <v>Z250</v>
       </c>
@@ -15979,8 +18999,20 @@
         <f t="array" ref="O254">_xll.GEO_TIMEZONE(B254,C254)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P254" s="6" t="str" cm="1">
+        <f t="array" ref="P254">_xll.GEO_ADMIN(B254,C254)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q254" s="6" t="str" cm="1">
+        <f t="array" ref="Q254">_xll.GEO_ADMINCODE(B254,C254)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R254" s="6" t="str" cm="1">
+        <f t="array" ref="R254">_xll.GEO_ADMINTYPE(B254,C254)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="str">
         <v>Z251</v>
       </c>
@@ -16034,8 +19066,20 @@
         <f t="array" ref="O255">_xll.GEO_TIMEZONE(B255,C255)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P255" s="6" t="str" cm="1">
+        <f t="array" ref="P255">_xll.GEO_ADMIN(B255,C255)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q255" s="6" t="str" cm="1">
+        <f t="array" ref="Q255">_xll.GEO_ADMINCODE(B255,C255)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R255" s="6" t="str" cm="1">
+        <f t="array" ref="R255">_xll.GEO_ADMINTYPE(B255,C255)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256" s="10" t="str">
         <v>Z252</v>
       </c>
@@ -16089,8 +19133,20 @@
         <f t="array" ref="O256">_xll.GEO_TIMEZONE(B256,C256)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P256" s="6" t="str" cm="1">
+        <f t="array" ref="P256">_xll.GEO_ADMIN(B256,C256)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q256" s="6" t="str" cm="1">
+        <f t="array" ref="Q256">_xll.GEO_ADMINCODE(B256,C256)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R256" s="6" t="str" cm="1">
+        <f t="array" ref="R256">_xll.GEO_ADMINTYPE(B256,C256)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A257" s="10" t="str">
         <v>Z253</v>
       </c>
@@ -16144,8 +19200,20 @@
         <f t="array" ref="O257">_xll.GEO_TIMEZONE(B257,C257)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P257" s="6" t="str" cm="1">
+        <f t="array" ref="P257">_xll.GEO_ADMIN(B257,C257)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q257" s="6" t="str" cm="1">
+        <f t="array" ref="Q257">_xll.GEO_ADMINCODE(B257,C257)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R257" s="6" t="str" cm="1">
+        <f t="array" ref="R257">_xll.GEO_ADMINTYPE(B257,C257)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258" s="10" t="str">
         <v>Z254</v>
       </c>
@@ -16199,8 +19267,20 @@
         <f t="array" ref="O258">_xll.GEO_TIMEZONE(B258,C258)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P258" s="6" t="str" cm="1">
+        <f t="array" ref="P258">_xll.GEO_ADMIN(B258,C258)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q258" s="6" t="str" cm="1">
+        <f t="array" ref="Q258">_xll.GEO_ADMINCODE(B258,C258)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R258" s="6" t="str" cm="1">
+        <f t="array" ref="R258">_xll.GEO_ADMINTYPE(B258,C258)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259" s="10" t="str">
         <v>Z255</v>
       </c>
@@ -16254,8 +19334,20 @@
         <f t="array" ref="O259">_xll.GEO_TIMEZONE(B259,C259)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P259" s="6" t="str" cm="1">
+        <f t="array" ref="P259">_xll.GEO_ADMIN(B259,C259)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q259" s="6" t="str" cm="1">
+        <f t="array" ref="Q259">_xll.GEO_ADMINCODE(B259,C259)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R259" s="6" t="str" cm="1">
+        <f t="array" ref="R259">_xll.GEO_ADMINTYPE(B259,C259)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260" s="10" t="str">
         <v>Z256</v>
       </c>
@@ -16309,8 +19401,20 @@
         <f t="array" ref="O260">_xll.GEO_TIMEZONE(B260,C260)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P260" s="6" t="str" cm="1">
+        <f t="array" ref="P260">_xll.GEO_ADMIN(B260,C260)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q260" s="6" t="str" cm="1">
+        <f t="array" ref="Q260">_xll.GEO_ADMINCODE(B260,C260)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R260" s="6" t="str" cm="1">
+        <f t="array" ref="R260">_xll.GEO_ADMINTYPE(B260,C260)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="str">
         <v>Z257</v>
       </c>
@@ -16364,8 +19468,20 @@
         <f t="array" ref="O261">_xll.GEO_TIMEZONE(B261,C261)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P261" s="6" t="str" cm="1">
+        <f t="array" ref="P261">_xll.GEO_ADMIN(B261,C261)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q261" s="6" t="str" cm="1">
+        <f t="array" ref="Q261">_xll.GEO_ADMINCODE(B261,C261)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R261" s="6" t="str" cm="1">
+        <f t="array" ref="R261">_xll.GEO_ADMINTYPE(B261,C261)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A262" s="10" t="str">
         <v>Z258</v>
       </c>
@@ -16419,8 +19535,20 @@
         <f t="array" ref="O262">_xll.GEO_TIMEZONE(B262,C262)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P262" s="6" t="str" cm="1">
+        <f t="array" ref="P262">_xll.GEO_ADMIN(B262,C262)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q262" s="6" t="str" cm="1">
+        <f t="array" ref="Q262">_xll.GEO_ADMINCODE(B262,C262)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R262" s="6" t="str" cm="1">
+        <f t="array" ref="R262">_xll.GEO_ADMINTYPE(B262,C262)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A263" s="10" t="str">
         <v>Z259</v>
       </c>
@@ -16474,8 +19602,20 @@
         <f t="array" ref="O263">_xll.GEO_TIMEZONE(B263,C263)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P263" s="6" t="str" cm="1">
+        <f t="array" ref="P263">_xll.GEO_ADMIN(B263,C263)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q263" s="6" t="str" cm="1">
+        <f t="array" ref="Q263">_xll.GEO_ADMINCODE(B263,C263)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R263" s="6" t="str" cm="1">
+        <f t="array" ref="R263">_xll.GEO_ADMINTYPE(B263,C263)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A264" s="10" t="str">
         <v>Z260</v>
       </c>
@@ -16529,8 +19669,20 @@
         <f t="array" ref="O264">_xll.GEO_TIMEZONE(B264,C264)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P264" s="6" t="str" cm="1">
+        <f t="array" ref="P264">_xll.GEO_ADMIN(B264,C264)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q264" s="6" t="str" cm="1">
+        <f t="array" ref="Q264">_xll.GEO_ADMINCODE(B264,C264)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R264" s="6" t="str" cm="1">
+        <f t="array" ref="R264">_xll.GEO_ADMINTYPE(B264,C264)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A265" s="10" t="str">
         <v>Z261</v>
       </c>
@@ -16584,8 +19736,20 @@
         <f t="array" ref="O265">_xll.GEO_TIMEZONE(B265,C265)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P265" s="6" t="str" cm="1">
+        <f t="array" ref="P265">_xll.GEO_ADMIN(B265,C265)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q265" s="6" t="str" cm="1">
+        <f t="array" ref="Q265">_xll.GEO_ADMINCODE(B265,C265)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R265" s="6" t="str" cm="1">
+        <f t="array" ref="R265">_xll.GEO_ADMINTYPE(B265,C265)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A266" s="10" t="str">
         <v>Z262</v>
       </c>
@@ -16639,8 +19803,20 @@
         <f t="array" ref="O266">_xll.GEO_TIMEZONE(B266,C266)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P266" s="6" t="str" cm="1">
+        <f t="array" ref="P266">_xll.GEO_ADMIN(B266,C266)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q266" s="6" t="str" cm="1">
+        <f t="array" ref="Q266">_xll.GEO_ADMINCODE(B266,C266)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R266" s="6" t="str" cm="1">
+        <f t="array" ref="R266">_xll.GEO_ADMINTYPE(B266,C266)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A267" s="10" t="str">
         <v>Z263</v>
       </c>
@@ -16694,8 +19870,20 @@
         <f t="array" ref="O267">_xll.GEO_TIMEZONE(B267,C267)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P267" s="6" t="str" cm="1">
+        <f t="array" ref="P267">_xll.GEO_ADMIN(B267,C267)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q267" s="6" t="str" cm="1">
+        <f t="array" ref="Q267">_xll.GEO_ADMINCODE(B267,C267)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R267" s="6" t="str" cm="1">
+        <f t="array" ref="R267">_xll.GEO_ADMINTYPE(B267,C267)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268" s="10" t="str">
         <v>Z264</v>
       </c>
@@ -16749,8 +19937,20 @@
         <f t="array" ref="O268">_xll.GEO_TIMEZONE(B268,C268)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P268" s="6" t="str" cm="1">
+        <f t="array" ref="P268">_xll.GEO_ADMIN(B268,C268)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q268" s="6" t="str" cm="1">
+        <f t="array" ref="Q268">_xll.GEO_ADMINCODE(B268,C268)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R268" s="6" t="str" cm="1">
+        <f t="array" ref="R268">_xll.GEO_ADMINTYPE(B268,C268)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A269" s="10" t="str">
         <v>Z265</v>
       </c>
@@ -16804,8 +20004,20 @@
         <f t="array" ref="O269">_xll.GEO_TIMEZONE(B269,C269)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P269" s="6" t="str" cm="1">
+        <f t="array" ref="P269">_xll.GEO_ADMIN(B269,C269)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q269" s="6" t="str" cm="1">
+        <f t="array" ref="Q269">_xll.GEO_ADMINCODE(B269,C269)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R269" s="6" t="str" cm="1">
+        <f t="array" ref="R269">_xll.GEO_ADMINTYPE(B269,C269)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A270" s="10" t="str">
         <v>Z266</v>
       </c>
@@ -16859,8 +20071,20 @@
         <f t="array" ref="O270">_xll.GEO_TIMEZONE(B270,C270)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P270" s="6" t="str" cm="1">
+        <f t="array" ref="P270">_xll.GEO_ADMIN(B270,C270)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q270" s="6" t="str" cm="1">
+        <f t="array" ref="Q270">_xll.GEO_ADMINCODE(B270,C270)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R270" s="6" t="str" cm="1">
+        <f t="array" ref="R270">_xll.GEO_ADMINTYPE(B270,C270)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A271" s="10" t="str">
         <v>Z267</v>
       </c>
@@ -16914,8 +20138,20 @@
         <f t="array" ref="O271">_xll.GEO_TIMEZONE(B271,C271)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P271" s="6" t="str" cm="1">
+        <f t="array" ref="P271">_xll.GEO_ADMIN(B271,C271)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q271" s="6" t="str" cm="1">
+        <f t="array" ref="Q271">_xll.GEO_ADMINCODE(B271,C271)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R271" s="6" t="str" cm="1">
+        <f t="array" ref="R271">_xll.GEO_ADMINTYPE(B271,C271)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A272" s="10" t="str">
         <v>Z268</v>
       </c>
@@ -16969,8 +20205,20 @@
         <f t="array" ref="O272">_xll.GEO_TIMEZONE(B272,C272)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P272" s="6" t="str" cm="1">
+        <f t="array" ref="P272">_xll.GEO_ADMIN(B272,C272)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q272" s="6" t="str" cm="1">
+        <f t="array" ref="Q272">_xll.GEO_ADMINCODE(B272,C272)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R272" s="6" t="str" cm="1">
+        <f t="array" ref="R272">_xll.GEO_ADMINTYPE(B272,C272)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="str">
         <v>Z269</v>
       </c>
@@ -17024,8 +20272,20 @@
         <f t="array" ref="O273">_xll.GEO_TIMEZONE(B273,C273)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P273" s="6" t="str" cm="1">
+        <f t="array" ref="P273">_xll.GEO_ADMIN(B273,C273)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q273" s="6" t="str" cm="1">
+        <f t="array" ref="Q273">_xll.GEO_ADMINCODE(B273,C273)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R273" s="6" t="str" cm="1">
+        <f t="array" ref="R273">_xll.GEO_ADMINTYPE(B273,C273)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A274" s="10" t="str">
         <v>Z270</v>
       </c>
@@ -17079,8 +20339,20 @@
         <f t="array" ref="O274">_xll.GEO_TIMEZONE(B274,C274)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P274" s="6" t="str" cm="1">
+        <f t="array" ref="P274">_xll.GEO_ADMIN(B274,C274)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q274" s="6" t="str" cm="1">
+        <f t="array" ref="Q274">_xll.GEO_ADMINCODE(B274,C274)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R274" s="6" t="str" cm="1">
+        <f t="array" ref="R274">_xll.GEO_ADMINTYPE(B274,C274)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A275" s="10" t="str">
         <v>Z271</v>
       </c>
@@ -17134,8 +20406,20 @@
         <f t="array" ref="O275">_xll.GEO_TIMEZONE(B275,C275)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P275" s="6" t="str" cm="1">
+        <f t="array" ref="P275">_xll.GEO_ADMIN(B275,C275)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q275" s="6" t="str" cm="1">
+        <f t="array" ref="Q275">_xll.GEO_ADMINCODE(B275,C275)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R275" s="6" t="str" cm="1">
+        <f t="array" ref="R275">_xll.GEO_ADMINTYPE(B275,C275)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A276" s="10" t="str">
         <v>Z272</v>
       </c>
@@ -17189,8 +20473,20 @@
         <f t="array" ref="O276">_xll.GEO_TIMEZONE(B276,C276)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P276" s="6" t="str" cm="1">
+        <f t="array" ref="P276">_xll.GEO_ADMIN(B276,C276)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q276" s="6" t="str" cm="1">
+        <f t="array" ref="Q276">_xll.GEO_ADMINCODE(B276,C276)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R276" s="6" t="str" cm="1">
+        <f t="array" ref="R276">_xll.GEO_ADMINTYPE(B276,C276)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277" s="10" t="str">
         <v>Z273</v>
       </c>
@@ -17244,8 +20540,20 @@
         <f t="array" ref="O277">_xll.GEO_TIMEZONE(B277,C277)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P277" s="6" t="str" cm="1">
+        <f t="array" ref="P277">_xll.GEO_ADMIN(B277,C277)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q277" s="6" t="str" cm="1">
+        <f t="array" ref="Q277">_xll.GEO_ADMINCODE(B277,C277)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R277" s="6" t="str" cm="1">
+        <f t="array" ref="R277">_xll.GEO_ADMINTYPE(B277,C277)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278" s="10" t="str">
         <v>Z274</v>
       </c>
@@ -17299,8 +20607,20 @@
         <f t="array" ref="O278">_xll.GEO_TIMEZONE(B278,C278)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P278" s="6" t="str" cm="1">
+        <f t="array" ref="P278">_xll.GEO_ADMIN(B278,C278)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q278" s="6" t="str" cm="1">
+        <f t="array" ref="Q278">_xll.GEO_ADMINCODE(B278,C278)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R278" s="6" t="str" cm="1">
+        <f t="array" ref="R278">_xll.GEO_ADMINTYPE(B278,C278)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="str">
         <v>Z275</v>
       </c>
@@ -17354,8 +20674,20 @@
         <f t="array" ref="O279">_xll.GEO_TIMEZONE(B279,C279)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P279" s="6" t="str" cm="1">
+        <f t="array" ref="P279">_xll.GEO_ADMIN(B279,C279)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q279" s="6" t="str" cm="1">
+        <f t="array" ref="Q279">_xll.GEO_ADMINCODE(B279,C279)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R279" s="6" t="str" cm="1">
+        <f t="array" ref="R279">_xll.GEO_ADMINTYPE(B279,C279)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A280" s="10" t="str">
         <v>Z276</v>
       </c>
@@ -17409,8 +20741,20 @@
         <f t="array" ref="O280">_xll.GEO_TIMEZONE(B280,C280)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P280" s="6" t="str" cm="1">
+        <f t="array" ref="P280">_xll.GEO_ADMIN(B280,C280)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q280" s="6" t="str" cm="1">
+        <f t="array" ref="Q280">_xll.GEO_ADMINCODE(B280,C280)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R280" s="6" t="str" cm="1">
+        <f t="array" ref="R280">_xll.GEO_ADMINTYPE(B280,C280)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281" s="10" t="str">
         <v>Z277</v>
       </c>
@@ -17464,8 +20808,20 @@
         <f t="array" ref="O281">_xll.GEO_TIMEZONE(B281,C281)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P281" s="6" t="str" cm="1">
+        <f t="array" ref="P281">_xll.GEO_ADMIN(B281,C281)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q281" s="6" t="str" cm="1">
+        <f t="array" ref="Q281">_xll.GEO_ADMINCODE(B281,C281)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R281" s="6" t="str" cm="1">
+        <f t="array" ref="R281">_xll.GEO_ADMINTYPE(B281,C281)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A282" s="10" t="str">
         <v>Z278</v>
       </c>
@@ -17519,8 +20875,20 @@
         <f t="array" ref="O282">_xll.GEO_TIMEZONE(B282,C282)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P282" s="6" t="str" cm="1">
+        <f t="array" ref="P282">_xll.GEO_ADMIN(B282,C282)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q282" s="6" t="str" cm="1">
+        <f t="array" ref="Q282">_xll.GEO_ADMINCODE(B282,C282)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R282" s="6" t="str" cm="1">
+        <f t="array" ref="R282">_xll.GEO_ADMINTYPE(B282,C282)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283" s="10" t="str">
         <v>Z279</v>
       </c>
@@ -17574,8 +20942,20 @@
         <f t="array" ref="O283">_xll.GEO_TIMEZONE(B283,C283)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P283" s="6" t="str" cm="1">
+        <f t="array" ref="P283">_xll.GEO_ADMIN(B283,C283)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q283" s="6" t="str" cm="1">
+        <f t="array" ref="Q283">_xll.GEO_ADMINCODE(B283,C283)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R283" s="6" t="str" cm="1">
+        <f t="array" ref="R283">_xll.GEO_ADMINTYPE(B283,C283)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284" s="10" t="str">
         <v>Z280</v>
       </c>
@@ -17629,8 +21009,20 @@
         <f t="array" ref="O284">_xll.GEO_TIMEZONE(B284,C284)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P284" s="6" t="str" cm="1">
+        <f t="array" ref="P284">_xll.GEO_ADMIN(B284,C284)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q284" s="6" t="str" cm="1">
+        <f t="array" ref="Q284">_xll.GEO_ADMINCODE(B284,C284)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R284" s="6" t="str" cm="1">
+        <f t="array" ref="R284">_xll.GEO_ADMINTYPE(B284,C284)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A285" s="10" t="str">
         <v>Z281</v>
       </c>
@@ -17684,8 +21076,20 @@
         <f t="array" ref="O285">_xll.GEO_TIMEZONE(B285,C285)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P285" s="6" t="str" cm="1">
+        <f t="array" ref="P285">_xll.GEO_ADMIN(B285,C285)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q285" s="6" t="str" cm="1">
+        <f t="array" ref="Q285">_xll.GEO_ADMINCODE(B285,C285)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R285" s="6" t="str" cm="1">
+        <f t="array" ref="R285">_xll.GEO_ADMINTYPE(B285,C285)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A286" s="10" t="str">
         <v>Z282</v>
       </c>
@@ -17739,8 +21143,20 @@
         <f t="array" ref="O286">_xll.GEO_TIMEZONE(B286,C286)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P286" s="6" t="str" cm="1">
+        <f t="array" ref="P286">_xll.GEO_ADMIN(B286,C286)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q286" s="6" t="str" cm="1">
+        <f t="array" ref="Q286">_xll.GEO_ADMINCODE(B286,C286)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R286" s="6" t="str" cm="1">
+        <f t="array" ref="R286">_xll.GEO_ADMINTYPE(B286,C286)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A287" s="10" t="str">
         <v>Z283</v>
       </c>
@@ -17794,8 +21210,20 @@
         <f t="array" ref="O287">_xll.GEO_TIMEZONE(B287,C287)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P287" s="6" t="str" cm="1">
+        <f t="array" ref="P287">_xll.GEO_ADMIN(B287,C287)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q287" s="6" t="str" cm="1">
+        <f t="array" ref="Q287">_xll.GEO_ADMINCODE(B287,C287)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R287" s="6" t="str" cm="1">
+        <f t="array" ref="R287">_xll.GEO_ADMINTYPE(B287,C287)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A288" s="10" t="str">
         <v>Z284</v>
       </c>
@@ -17849,8 +21277,20 @@
         <f t="array" ref="O288">_xll.GEO_TIMEZONE(B288,C288)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P288" s="6" t="str" cm="1">
+        <f t="array" ref="P288">_xll.GEO_ADMIN(B288,C288)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q288" s="6" t="str" cm="1">
+        <f t="array" ref="Q288">_xll.GEO_ADMINCODE(B288,C288)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R288" s="6" t="str" cm="1">
+        <f t="array" ref="R288">_xll.GEO_ADMINTYPE(B288,C288)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A289" s="10" t="str">
         <v>Z285</v>
       </c>
@@ -17904,8 +21344,20 @@
         <f t="array" ref="O289">_xll.GEO_TIMEZONE(B289,C289)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P289" s="6" t="str" cm="1">
+        <f t="array" ref="P289">_xll.GEO_ADMIN(B289,C289)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q289" s="6" t="str" cm="1">
+        <f t="array" ref="Q289">_xll.GEO_ADMINCODE(B289,C289)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R289" s="6" t="str" cm="1">
+        <f t="array" ref="R289">_xll.GEO_ADMINTYPE(B289,C289)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A290" s="10" t="str">
         <v>Z286</v>
       </c>
@@ -17959,8 +21411,20 @@
         <f t="array" ref="O290">_xll.GEO_TIMEZONE(B290,C290)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P290" s="6" t="str" cm="1">
+        <f t="array" ref="P290">_xll.GEO_ADMIN(B290,C290)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q290" s="6" t="str" cm="1">
+        <f t="array" ref="Q290">_xll.GEO_ADMINCODE(B290,C290)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R290" s="6" t="str" cm="1">
+        <f t="array" ref="R290">_xll.GEO_ADMINTYPE(B290,C290)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="str">
         <v>Z287</v>
       </c>
@@ -18014,8 +21478,20 @@
         <f t="array" ref="O291">_xll.GEO_TIMEZONE(B291,C291)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P291" s="6" t="str" cm="1">
+        <f t="array" ref="P291">_xll.GEO_ADMIN(B291,C291)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q291" s="6" t="str" cm="1">
+        <f t="array" ref="Q291">_xll.GEO_ADMINCODE(B291,C291)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R291" s="6" t="str" cm="1">
+        <f t="array" ref="R291">_xll.GEO_ADMINTYPE(B291,C291)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A292" s="10" t="str">
         <v>Z288</v>
       </c>
@@ -18069,8 +21545,20 @@
         <f t="array" ref="O292">_xll.GEO_TIMEZONE(B292,C292)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P292" s="6" t="str" cm="1">
+        <f t="array" ref="P292">_xll.GEO_ADMIN(B292,C292)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q292" s="6" t="str" cm="1">
+        <f t="array" ref="Q292">_xll.GEO_ADMINCODE(B292,C292)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R292" s="6" t="str" cm="1">
+        <f t="array" ref="R292">_xll.GEO_ADMINTYPE(B292,C292)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A293" s="10" t="str">
         <v>Z289</v>
       </c>
@@ -18124,8 +21612,20 @@
         <f t="array" ref="O293">_xll.GEO_TIMEZONE(B293,C293)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P293" s="6" t="str" cm="1">
+        <f t="array" ref="P293">_xll.GEO_ADMIN(B293,C293)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q293" s="6" t="str" cm="1">
+        <f t="array" ref="Q293">_xll.GEO_ADMINCODE(B293,C293)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R293" s="6" t="str" cm="1">
+        <f t="array" ref="R293">_xll.GEO_ADMINTYPE(B293,C293)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294" s="10" t="str">
         <v>Z290</v>
       </c>
@@ -18179,8 +21679,20 @@
         <f t="array" ref="O294">_xll.GEO_TIMEZONE(B294,C294)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P294" s="6" t="str" cm="1">
+        <f t="array" ref="P294">_xll.GEO_ADMIN(B294,C294)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q294" s="6" t="str" cm="1">
+        <f t="array" ref="Q294">_xll.GEO_ADMINCODE(B294,C294)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R294" s="6" t="str" cm="1">
+        <f t="array" ref="R294">_xll.GEO_ADMINTYPE(B294,C294)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295" s="10" t="str">
         <v>Z291</v>
       </c>
@@ -18234,8 +21746,20 @@
         <f t="array" ref="O295">_xll.GEO_TIMEZONE(B295,C295)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P295" s="6" t="str" cm="1">
+        <f t="array" ref="P295">_xll.GEO_ADMIN(B295,C295)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q295" s="6" t="str" cm="1">
+        <f t="array" ref="Q295">_xll.GEO_ADMINCODE(B295,C295)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R295" s="6" t="str" cm="1">
+        <f t="array" ref="R295">_xll.GEO_ADMINTYPE(B295,C295)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296" s="10" t="str">
         <v>Z292</v>
       </c>
@@ -18289,8 +21813,20 @@
         <f t="array" ref="O296">_xll.GEO_TIMEZONE(B296,C296)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P296" s="6" t="str" cm="1">
+        <f t="array" ref="P296">_xll.GEO_ADMIN(B296,C296)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q296" s="6" t="str" cm="1">
+        <f t="array" ref="Q296">_xll.GEO_ADMINCODE(B296,C296)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R296" s="6" t="str" cm="1">
+        <f t="array" ref="R296">_xll.GEO_ADMINTYPE(B296,C296)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="str">
         <v>Z293</v>
       </c>
@@ -18344,8 +21880,20 @@
         <f t="array" ref="O297">_xll.GEO_TIMEZONE(B297,C297)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P297" s="6" t="str" cm="1">
+        <f t="array" ref="P297">_xll.GEO_ADMIN(B297,C297)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q297" s="6" t="str" cm="1">
+        <f t="array" ref="Q297">_xll.GEO_ADMINCODE(B297,C297)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R297" s="6" t="str" cm="1">
+        <f t="array" ref="R297">_xll.GEO_ADMINTYPE(B297,C297)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298" s="10" t="str">
         <v>Z294</v>
       </c>
@@ -18399,8 +21947,20 @@
         <f t="array" ref="O298">_xll.GEO_TIMEZONE(B298,C298)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P298" s="6" t="str" cm="1">
+        <f t="array" ref="P298">_xll.GEO_ADMIN(B298,C298)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q298" s="6" t="str" cm="1">
+        <f t="array" ref="Q298">_xll.GEO_ADMINCODE(B298,C298)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R298" s="6" t="str" cm="1">
+        <f t="array" ref="R298">_xll.GEO_ADMINTYPE(B298,C298)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A299" s="10" t="str">
         <v>Z295</v>
       </c>
@@ -18454,8 +22014,20 @@
         <f t="array" ref="O299">_xll.GEO_TIMEZONE(B299,C299)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P299" s="6" t="str" cm="1">
+        <f t="array" ref="P299">_xll.GEO_ADMIN(B299,C299)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q299" s="6" t="str" cm="1">
+        <f t="array" ref="Q299">_xll.GEO_ADMINCODE(B299,C299)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R299" s="6" t="str" cm="1">
+        <f t="array" ref="R299">_xll.GEO_ADMINTYPE(B299,C299)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A300" s="10" t="str">
         <v>Z296</v>
       </c>
@@ -18509,8 +22081,20 @@
         <f t="array" ref="O300">_xll.GEO_TIMEZONE(B300,C300)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P300" s="6" t="str" cm="1">
+        <f t="array" ref="P300">_xll.GEO_ADMIN(B300,C300)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q300" s="6" t="str" cm="1">
+        <f t="array" ref="Q300">_xll.GEO_ADMINCODE(B300,C300)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R300" s="6" t="str" cm="1">
+        <f t="array" ref="R300">_xll.GEO_ADMINTYPE(B300,C300)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A301" s="10" t="str">
         <v>Z297</v>
       </c>
@@ -18564,8 +22148,20 @@
         <f t="array" ref="O301">_xll.GEO_TIMEZONE(B301,C301)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P301" s="6" t="str" cm="1">
+        <f t="array" ref="P301">_xll.GEO_ADMIN(B301,C301)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q301" s="6" t="str" cm="1">
+        <f t="array" ref="Q301">_xll.GEO_ADMINCODE(B301,C301)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R301" s="6" t="str" cm="1">
+        <f t="array" ref="R301">_xll.GEO_ADMINTYPE(B301,C301)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302" s="10" t="str">
         <v>Z298</v>
       </c>
@@ -18619,8 +22215,20 @@
         <f t="array" ref="O302">_xll.GEO_TIMEZONE(B302,C302)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P302" s="6" t="str" cm="1">
+        <f t="array" ref="P302">_xll.GEO_ADMIN(B302,C302)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q302" s="6" t="str" cm="1">
+        <f t="array" ref="Q302">_xll.GEO_ADMINCODE(B302,C302)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R302" s="6" t="str" cm="1">
+        <f t="array" ref="R302">_xll.GEO_ADMINTYPE(B302,C302)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A303" s="10" t="str">
         <v>Z299</v>
       </c>
@@ -18674,8 +22282,20 @@
         <f t="array" ref="O303">_xll.GEO_TIMEZONE(B303,C303)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P303" s="6" t="str" cm="1">
+        <f t="array" ref="P303">_xll.GEO_ADMIN(B303,C303)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q303" s="6" t="str" cm="1">
+        <f t="array" ref="Q303">_xll.GEO_ADMINCODE(B303,C303)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R303" s="6" t="str" cm="1">
+        <f t="array" ref="R303">_xll.GEO_ADMINTYPE(B303,C303)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A304" s="10" t="str">
         <v>Z300</v>
       </c>
@@ -18729,8 +22349,20 @@
         <f t="array" ref="O304">_xll.GEO_TIMEZONE(B304,C304)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P304" s="6" t="str" cm="1">
+        <f t="array" ref="P304">_xll.GEO_ADMIN(B304,C304)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q304" s="6" t="str" cm="1">
+        <f t="array" ref="Q304">_xll.GEO_ADMINCODE(B304,C304)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R304" s="6" t="str" cm="1">
+        <f t="array" ref="R304">_xll.GEO_ADMINTYPE(B304,C304)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A305" s="10" t="str">
         <v>Z301</v>
       </c>
@@ -18784,8 +22416,20 @@
         <f t="array" ref="O305">_xll.GEO_TIMEZONE(B305,C305)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P305" s="6" t="str" cm="1">
+        <f t="array" ref="P305">_xll.GEO_ADMIN(B305,C305)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q305" s="6" t="str" cm="1">
+        <f t="array" ref="Q305">_xll.GEO_ADMINCODE(B305,C305)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R305" s="6" t="str" cm="1">
+        <f t="array" ref="R305">_xll.GEO_ADMINTYPE(B305,C305)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A306" s="10" t="str">
         <v>Z302</v>
       </c>
@@ -18839,8 +22483,20 @@
         <f t="array" ref="O306">_xll.GEO_TIMEZONE(B306,C306)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P306" s="6" t="str" cm="1">
+        <f t="array" ref="P306">_xll.GEO_ADMIN(B306,C306)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q306" s="6" t="str" cm="1">
+        <f t="array" ref="Q306">_xll.GEO_ADMINCODE(B306,C306)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R306" s="6" t="str" cm="1">
+        <f t="array" ref="R306">_xll.GEO_ADMINTYPE(B306,C306)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A307" s="10" t="str">
         <v>Z303</v>
       </c>
@@ -18894,8 +22550,20 @@
         <f t="array" ref="O307">_xll.GEO_TIMEZONE(B307,C307)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P307" s="6" t="str" cm="1">
+        <f t="array" ref="P307">_xll.GEO_ADMIN(B307,C307)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q307" s="6" t="str" cm="1">
+        <f t="array" ref="Q307">_xll.GEO_ADMINCODE(B307,C307)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R307" s="6" t="str" cm="1">
+        <f t="array" ref="R307">_xll.GEO_ADMINTYPE(B307,C307)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A308" s="10" t="str">
         <v>Z304</v>
       </c>
@@ -18949,8 +22617,20 @@
         <f t="array" ref="O308">_xll.GEO_TIMEZONE(B308,C308)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P308" s="6" t="str" cm="1">
+        <f t="array" ref="P308">_xll.GEO_ADMIN(B308,C308)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q308" s="6" t="str" cm="1">
+        <f t="array" ref="Q308">_xll.GEO_ADMINCODE(B308,C308)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R308" s="6" t="str" cm="1">
+        <f t="array" ref="R308">_xll.GEO_ADMINTYPE(B308,C308)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="str">
         <v>Z305</v>
       </c>
@@ -19004,8 +22684,20 @@
         <f t="array" ref="O309">_xll.GEO_TIMEZONE(B309,C309)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P309" s="6" t="str" cm="1">
+        <f t="array" ref="P309">_xll.GEO_ADMIN(B309,C309)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q309" s="6" t="str" cm="1">
+        <f t="array" ref="Q309">_xll.GEO_ADMINCODE(B309,C309)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R309" s="6" t="str" cm="1">
+        <f t="array" ref="R309">_xll.GEO_ADMINTYPE(B309,C309)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310" s="10" t="str">
         <v>Z306</v>
       </c>
@@ -19059,8 +22751,20 @@
         <f t="array" ref="O310">_xll.GEO_TIMEZONE(B310,C310)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P310" s="6" t="str" cm="1">
+        <f t="array" ref="P310">_xll.GEO_ADMIN(B310,C310)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q310" s="6" t="str" cm="1">
+        <f t="array" ref="Q310">_xll.GEO_ADMINCODE(B310,C310)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R310" s="6" t="str" cm="1">
+        <f t="array" ref="R310">_xll.GEO_ADMINTYPE(B310,C310)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A311" s="10" t="str">
         <v>Z307</v>
       </c>
@@ -19114,8 +22818,20 @@
         <f t="array" ref="O311">_xll.GEO_TIMEZONE(B311,C311)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P311" s="6" t="str" cm="1">
+        <f t="array" ref="P311">_xll.GEO_ADMIN(B311,C311)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q311" s="6" t="str" cm="1">
+        <f t="array" ref="Q311">_xll.GEO_ADMINCODE(B311,C311)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R311" s="6" t="str" cm="1">
+        <f t="array" ref="R311">_xll.GEO_ADMINTYPE(B311,C311)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A312" s="10" t="str">
         <v>Z308</v>
       </c>
@@ -19169,8 +22885,20 @@
         <f t="array" ref="O312">_xll.GEO_TIMEZONE(B312,C312)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P312" s="6" t="str" cm="1">
+        <f t="array" ref="P312">_xll.GEO_ADMIN(B312,C312)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q312" s="6" t="str" cm="1">
+        <f t="array" ref="Q312">_xll.GEO_ADMINCODE(B312,C312)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R312" s="6" t="str" cm="1">
+        <f t="array" ref="R312">_xll.GEO_ADMINTYPE(B312,C312)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A313" s="10" t="str">
         <v>Z309</v>
       </c>
@@ -19224,8 +22952,20 @@
         <f t="array" ref="O313">_xll.GEO_TIMEZONE(B313,C313)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P313" s="6" t="str" cm="1">
+        <f t="array" ref="P313">_xll.GEO_ADMIN(B313,C313)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q313" s="6" t="str" cm="1">
+        <f t="array" ref="Q313">_xll.GEO_ADMINCODE(B313,C313)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R313" s="6" t="str" cm="1">
+        <f t="array" ref="R313">_xll.GEO_ADMINTYPE(B313,C313)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314" s="10" t="str">
         <v>Z310</v>
       </c>
@@ -19279,8 +23019,20 @@
         <f t="array" ref="O314">_xll.GEO_TIMEZONE(B314,C314)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P314" s="6" t="str" cm="1">
+        <f t="array" ref="P314">_xll.GEO_ADMIN(B314,C314)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q314" s="6" t="str" cm="1">
+        <f t="array" ref="Q314">_xll.GEO_ADMINCODE(B314,C314)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R314" s="6" t="str" cm="1">
+        <f t="array" ref="R314">_xll.GEO_ADMINTYPE(B314,C314)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="str">
         <v>Z311</v>
       </c>
@@ -19334,8 +23086,20 @@
         <f t="array" ref="O315">_xll.GEO_TIMEZONE(B315,C315)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P315" s="6" t="str" cm="1">
+        <f t="array" ref="P315">_xll.GEO_ADMIN(B315,C315)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q315" s="6" t="str" cm="1">
+        <f t="array" ref="Q315">_xll.GEO_ADMINCODE(B315,C315)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R315" s="6" t="str" cm="1">
+        <f t="array" ref="R315">_xll.GEO_ADMINTYPE(B315,C315)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A316" s="10" t="str">
         <v>Z312</v>
       </c>
@@ -19389,8 +23153,20 @@
         <f t="array" ref="O316">_xll.GEO_TIMEZONE(B316,C316)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P316" s="6" t="str" cm="1">
+        <f t="array" ref="P316">_xll.GEO_ADMIN(B316,C316)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q316" s="6" t="str" cm="1">
+        <f t="array" ref="Q316">_xll.GEO_ADMINCODE(B316,C316)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R316" s="6" t="str" cm="1">
+        <f t="array" ref="R316">_xll.GEO_ADMINTYPE(B316,C316)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A317" s="10" t="str">
         <v>Z313</v>
       </c>
@@ -19444,8 +23220,20 @@
         <f t="array" ref="O317">_xll.GEO_TIMEZONE(B317,C317)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P317" s="6" t="str" cm="1">
+        <f t="array" ref="P317">_xll.GEO_ADMIN(B317,C317)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q317" s="6" t="str" cm="1">
+        <f t="array" ref="Q317">_xll.GEO_ADMINCODE(B317,C317)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R317" s="6" t="str" cm="1">
+        <f t="array" ref="R317">_xll.GEO_ADMINTYPE(B317,C317)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A318" s="10" t="str">
         <v>Z314</v>
       </c>
@@ -19499,8 +23287,20 @@
         <f t="array" ref="O318">_xll.GEO_TIMEZONE(B318,C318)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P318" s="6" t="str" cm="1">
+        <f t="array" ref="P318">_xll.GEO_ADMIN(B318,C318)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q318" s="6" t="str" cm="1">
+        <f t="array" ref="Q318">_xll.GEO_ADMINCODE(B318,C318)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R318" s="6" t="str" cm="1">
+        <f t="array" ref="R318">_xll.GEO_ADMINTYPE(B318,C318)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A319" s="10" t="str">
         <v>Z315</v>
       </c>
@@ -19554,8 +23354,20 @@
         <f t="array" ref="O319">_xll.GEO_TIMEZONE(B319,C319)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P319" s="6" t="str" cm="1">
+        <f t="array" ref="P319">_xll.GEO_ADMIN(B319,C319)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q319" s="6" t="str" cm="1">
+        <f t="array" ref="Q319">_xll.GEO_ADMINCODE(B319,C319)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R319" s="6" t="str" cm="1">
+        <f t="array" ref="R319">_xll.GEO_ADMINTYPE(B319,C319)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320" s="10" t="str">
         <v>Z316</v>
       </c>
@@ -19609,8 +23421,20 @@
         <f t="array" ref="O320">_xll.GEO_TIMEZONE(B320,C320)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P320" s="6" t="str" cm="1">
+        <f t="array" ref="P320">_xll.GEO_ADMIN(B320,C320)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q320" s="6" t="str" cm="1">
+        <f t="array" ref="Q320">_xll.GEO_ADMINCODE(B320,C320)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R320" s="6" t="str" cm="1">
+        <f t="array" ref="R320">_xll.GEO_ADMINTYPE(B320,C320)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A321" s="10" t="str">
         <v>Z317</v>
       </c>
@@ -19664,8 +23488,20 @@
         <f t="array" ref="O321">_xll.GEO_TIMEZONE(B321,C321)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P321" s="6" t="str" cm="1">
+        <f t="array" ref="P321">_xll.GEO_ADMIN(B321,C321)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q321" s="6" t="str" cm="1">
+        <f t="array" ref="Q321">_xll.GEO_ADMINCODE(B321,C321)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R321" s="6" t="str" cm="1">
+        <f t="array" ref="R321">_xll.GEO_ADMINTYPE(B321,C321)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322" s="10" t="str">
         <v>Z318</v>
       </c>
@@ -19719,8 +23555,20 @@
         <f t="array" ref="O322">_xll.GEO_TIMEZONE(B322,C322)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P322" s="6" t="str" cm="1">
+        <f t="array" ref="P322">_xll.GEO_ADMIN(B322,C322)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q322" s="6" t="str" cm="1">
+        <f t="array" ref="Q322">_xll.GEO_ADMINCODE(B322,C322)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R322" s="6" t="str" cm="1">
+        <f t="array" ref="R322">_xll.GEO_ADMINTYPE(B322,C322)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A323" s="10" t="str">
         <v>Z319</v>
       </c>
@@ -19774,8 +23622,20 @@
         <f t="array" ref="O323">_xll.GEO_TIMEZONE(B323,C323)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P323" s="6" t="str" cm="1">
+        <f t="array" ref="P323">_xll.GEO_ADMIN(B323,C323)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q323" s="6" t="str" cm="1">
+        <f t="array" ref="Q323">_xll.GEO_ADMINCODE(B323,C323)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R323" s="6" t="str" cm="1">
+        <f t="array" ref="R323">_xll.GEO_ADMINTYPE(B323,C323)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A324" s="10" t="str">
         <v>Z320</v>
       </c>
@@ -19829,8 +23689,20 @@
         <f t="array" ref="O324">_xll.GEO_TIMEZONE(B324,C324)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P324" s="6" t="str" cm="1">
+        <f t="array" ref="P324">_xll.GEO_ADMIN(B324,C324)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q324" s="6" t="str" cm="1">
+        <f t="array" ref="Q324">_xll.GEO_ADMINCODE(B324,C324)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R324" s="6" t="str" cm="1">
+        <f t="array" ref="R324">_xll.GEO_ADMINTYPE(B324,C324)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A325" s="10" t="str">
         <v>Z321</v>
       </c>
@@ -19884,8 +23756,20 @@
         <f t="array" ref="O325">_xll.GEO_TIMEZONE(B325,C325)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P325" s="6" t="str" cm="1">
+        <f t="array" ref="P325">_xll.GEO_ADMIN(B325,C325)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q325" s="6" t="str" cm="1">
+        <f t="array" ref="Q325">_xll.GEO_ADMINCODE(B325,C325)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R325" s="6" t="str" cm="1">
+        <f t="array" ref="R325">_xll.GEO_ADMINTYPE(B325,C325)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A326" s="10" t="str">
         <v>Z322</v>
       </c>
@@ -19939,8 +23823,20 @@
         <f t="array" ref="O326">_xll.GEO_TIMEZONE(B326,C326)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P326" s="6" t="str" cm="1">
+        <f t="array" ref="P326">_xll.GEO_ADMIN(B326,C326)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q326" s="6" t="str" cm="1">
+        <f t="array" ref="Q326">_xll.GEO_ADMINCODE(B326,C326)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R326" s="6" t="str" cm="1">
+        <f t="array" ref="R326">_xll.GEO_ADMINTYPE(B326,C326)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="str">
         <v>Z323</v>
       </c>
@@ -19994,8 +23890,20 @@
         <f t="array" ref="O327">_xll.GEO_TIMEZONE(B327,C327)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P327" s="6" t="str" cm="1">
+        <f t="array" ref="P327">_xll.GEO_ADMIN(B327,C327)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q327" s="6" t="str" cm="1">
+        <f t="array" ref="Q327">_xll.GEO_ADMINCODE(B327,C327)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R327" s="6" t="str" cm="1">
+        <f t="array" ref="R327">_xll.GEO_ADMINTYPE(B327,C327)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A328" s="10" t="str">
         <v>Z324</v>
       </c>
@@ -20049,8 +23957,20 @@
         <f t="array" ref="O328">_xll.GEO_TIMEZONE(B328,C328)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P328" s="6" t="str" cm="1">
+        <f t="array" ref="P328">_xll.GEO_ADMIN(B328,C328)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q328" s="6" t="str" cm="1">
+        <f t="array" ref="Q328">_xll.GEO_ADMINCODE(B328,C328)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R328" s="6" t="str" cm="1">
+        <f t="array" ref="R328">_xll.GEO_ADMINTYPE(B328,C328)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A329" s="10" t="str">
         <v>Z325</v>
       </c>
@@ -20104,8 +24024,20 @@
         <f t="array" ref="O329">_xll.GEO_TIMEZONE(B329,C329)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P329" s="6" t="str" cm="1">
+        <f t="array" ref="P329">_xll.GEO_ADMIN(B329,C329)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q329" s="6" t="str" cm="1">
+        <f t="array" ref="Q329">_xll.GEO_ADMINCODE(B329,C329)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R329" s="6" t="str" cm="1">
+        <f t="array" ref="R329">_xll.GEO_ADMINTYPE(B329,C329)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330" s="10" t="str">
         <v>Z326</v>
       </c>
@@ -20159,8 +24091,20 @@
         <f t="array" ref="O330">_xll.GEO_TIMEZONE(B330,C330)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P330" s="6" t="str" cm="1">
+        <f t="array" ref="P330">_xll.GEO_ADMIN(B330,C330)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q330" s="6" t="str" cm="1">
+        <f t="array" ref="Q330">_xll.GEO_ADMINCODE(B330,C330)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R330" s="6" t="str" cm="1">
+        <f t="array" ref="R330">_xll.GEO_ADMINTYPE(B330,C330)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A331" s="10" t="str">
         <v>Z327</v>
       </c>
@@ -20214,8 +24158,20 @@
         <f t="array" ref="O331">_xll.GEO_TIMEZONE(B331,C331)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P331" s="6" t="str" cm="1">
+        <f t="array" ref="P331">_xll.GEO_ADMIN(B331,C331)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q331" s="6" t="str" cm="1">
+        <f t="array" ref="Q331">_xll.GEO_ADMINCODE(B331,C331)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R331" s="6" t="str" cm="1">
+        <f t="array" ref="R331">_xll.GEO_ADMINTYPE(B331,C331)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A332" s="10" t="str">
         <v>Z328</v>
       </c>
@@ -20269,8 +24225,20 @@
         <f t="array" ref="O332">_xll.GEO_TIMEZONE(B332,C332)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P332" s="6" t="str" cm="1">
+        <f t="array" ref="P332">_xll.GEO_ADMIN(B332,C332)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q332" s="6" t="str" cm="1">
+        <f t="array" ref="Q332">_xll.GEO_ADMINCODE(B332,C332)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R332" s="6" t="str" cm="1">
+        <f t="array" ref="R332">_xll.GEO_ADMINTYPE(B332,C332)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="str">
         <v>Z329</v>
       </c>
@@ -20324,8 +24292,20 @@
         <f t="array" ref="O333">_xll.GEO_TIMEZONE(B333,C333)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P333" s="6" t="str" cm="1">
+        <f t="array" ref="P333">_xll.GEO_ADMIN(B333,C333)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q333" s="6" t="str" cm="1">
+        <f t="array" ref="Q333">_xll.GEO_ADMINCODE(B333,C333)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R333" s="6" t="str" cm="1">
+        <f t="array" ref="R333">_xll.GEO_ADMINTYPE(B333,C333)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A334" s="10" t="str">
         <v>Z330</v>
       </c>
@@ -20379,8 +24359,20 @@
         <f t="array" ref="O334">_xll.GEO_TIMEZONE(B334,C334)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P334" s="6" t="str" cm="1">
+        <f t="array" ref="P334">_xll.GEO_ADMIN(B334,C334)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q334" s="6" t="str" cm="1">
+        <f t="array" ref="Q334">_xll.GEO_ADMINCODE(B334,C334)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R334" s="6" t="str" cm="1">
+        <f t="array" ref="R334">_xll.GEO_ADMINTYPE(B334,C334)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A335" s="10" t="str">
         <v>Z331</v>
       </c>
@@ -20434,8 +24426,20 @@
         <f t="array" ref="O335">_xll.GEO_TIMEZONE(B335,C335)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P335" s="6" t="str" cm="1">
+        <f t="array" ref="P335">_xll.GEO_ADMIN(B335,C335)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q335" s="6" t="str" cm="1">
+        <f t="array" ref="Q335">_xll.GEO_ADMINCODE(B335,C335)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R335" s="6" t="str" cm="1">
+        <f t="array" ref="R335">_xll.GEO_ADMINTYPE(B335,C335)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A336" s="10" t="str">
         <v>Z332</v>
       </c>
@@ -20489,8 +24493,20 @@
         <f t="array" ref="O336">_xll.GEO_TIMEZONE(B336,C336)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P336" s="6" t="str" cm="1">
+        <f t="array" ref="P336">_xll.GEO_ADMIN(B336,C336)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q336" s="6" t="str" cm="1">
+        <f t="array" ref="Q336">_xll.GEO_ADMINCODE(B336,C336)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R336" s="6" t="str" cm="1">
+        <f t="array" ref="R336">_xll.GEO_ADMINTYPE(B336,C336)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A337" s="10" t="str">
         <v>Z333</v>
       </c>
@@ -20544,8 +24560,20 @@
         <f t="array" ref="O337">_xll.GEO_TIMEZONE(B337,C337)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P337" s="6" t="str" cm="1">
+        <f t="array" ref="P337">_xll.GEO_ADMIN(B337,C337)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q337" s="6" t="str" cm="1">
+        <f t="array" ref="Q337">_xll.GEO_ADMINCODE(B337,C337)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R337" s="6" t="str" cm="1">
+        <f t="array" ref="R337">_xll.GEO_ADMINTYPE(B337,C337)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338" s="10" t="str">
         <v>Z334</v>
       </c>
@@ -20599,8 +24627,20 @@
         <f t="array" ref="O338">_xll.GEO_TIMEZONE(B338,C338)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P338" s="6" t="str" cm="1">
+        <f t="array" ref="P338">_xll.GEO_ADMIN(B338,C338)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q338" s="6" t="str" cm="1">
+        <f t="array" ref="Q338">_xll.GEO_ADMINCODE(B338,C338)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R338" s="6" t="str" cm="1">
+        <f t="array" ref="R338">_xll.GEO_ADMINTYPE(B338,C338)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339" s="10" t="str">
         <v>Z335</v>
       </c>
@@ -20654,8 +24694,20 @@
         <f t="array" ref="O339">_xll.GEO_TIMEZONE(B339,C339)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P339" s="6" t="str" cm="1">
+        <f t="array" ref="P339">_xll.GEO_ADMIN(B339,C339)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q339" s="6" t="str" cm="1">
+        <f t="array" ref="Q339">_xll.GEO_ADMINCODE(B339,C339)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R339" s="6" t="str" cm="1">
+        <f t="array" ref="R339">_xll.GEO_ADMINTYPE(B339,C339)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340" s="10" t="str">
         <v>Z336</v>
       </c>
@@ -20709,8 +24761,20 @@
         <f t="array" ref="O340">_xll.GEO_TIMEZONE(B340,C340)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P340" s="6" t="str" cm="1">
+        <f t="array" ref="P340">_xll.GEO_ADMIN(B340,C340)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q340" s="6" t="str" cm="1">
+        <f t="array" ref="Q340">_xll.GEO_ADMINCODE(B340,C340)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R340" s="6" t="str" cm="1">
+        <f t="array" ref="R340">_xll.GEO_ADMINTYPE(B340,C340)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341" s="10" t="str">
         <v>Z337</v>
       </c>
@@ -20764,8 +24828,20 @@
         <f t="array" ref="O341">_xll.GEO_TIMEZONE(B341,C341)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P341" s="6" t="str" cm="1">
+        <f t="array" ref="P341">_xll.GEO_ADMIN(B341,C341)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q341" s="6" t="str" cm="1">
+        <f t="array" ref="Q341">_xll.GEO_ADMINCODE(B341,C341)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R341" s="6" t="str" cm="1">
+        <f t="array" ref="R341">_xll.GEO_ADMINTYPE(B341,C341)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342" s="10" t="str">
         <v>Z338</v>
       </c>
@@ -20819,8 +24895,20 @@
         <f t="array" ref="O342">_xll.GEO_TIMEZONE(B342,C342)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P342" s="6" t="str" cm="1">
+        <f t="array" ref="P342">_xll.GEO_ADMIN(B342,C342)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q342" s="6" t="str" cm="1">
+        <f t="array" ref="Q342">_xll.GEO_ADMINCODE(B342,C342)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R342" s="6" t="str" cm="1">
+        <f t="array" ref="R342">_xll.GEO_ADMINTYPE(B342,C342)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343" s="10" t="str">
         <v>Z339</v>
       </c>
@@ -20874,8 +24962,20 @@
         <f t="array" ref="O343">_xll.GEO_TIMEZONE(B343,C343)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P343" s="6" t="str" cm="1">
+        <f t="array" ref="P343">_xll.GEO_ADMIN(B343,C343)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q343" s="6" t="str" cm="1">
+        <f t="array" ref="Q343">_xll.GEO_ADMINCODE(B343,C343)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R343" s="6" t="str" cm="1">
+        <f t="array" ref="R343">_xll.GEO_ADMINTYPE(B343,C343)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344" s="10" t="str">
         <v>Z340</v>
       </c>
@@ -20929,8 +25029,20 @@
         <f t="array" ref="O344">_xll.GEO_TIMEZONE(B344,C344)</f>
         <v>Australia/Brisbane</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P344" s="6" t="str" cm="1">
+        <f t="array" ref="P344">_xll.GEO_ADMIN(B344,C344)</f>
+        <v>Queensland</v>
+      </c>
+      <c r="Q344" s="6" t="str" cm="1">
+        <f t="array" ref="Q344">_xll.GEO_ADMINCODE(B344,C344)</f>
+        <v>AU-QLD</v>
+      </c>
+      <c r="R344" s="6" t="str" cm="1">
+        <f t="array" ref="R344">_xll.GEO_ADMINTYPE(B344,C344)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="str">
         <v>Z341</v>
       </c>
@@ -20984,8 +25096,20 @@
         <f t="array" ref="O345">_xll.GEO_TIMEZONE(B345,C345)</f>
         <v>Australia/Melbourne</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P345" s="6" t="str" cm="1">
+        <f t="array" ref="P345">_xll.GEO_ADMIN(B345,C345)</f>
+        <v>Victoria</v>
+      </c>
+      <c r="Q345" s="6" t="str" cm="1">
+        <f t="array" ref="Q345">_xll.GEO_ADMINCODE(B345,C345)</f>
+        <v>AU-VIC</v>
+      </c>
+      <c r="R345" s="6" t="str" cm="1">
+        <f t="array" ref="R345">_xll.GEO_ADMINTYPE(B345,C345)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346" s="10" t="str">
         <v>Z342</v>
       </c>
@@ -21039,8 +25163,20 @@
         <f t="array" ref="O346">_xll.GEO_TIMEZONE(B346,C346)</f>
         <v>Australia/Sydney</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P346" s="6" t="str" cm="1">
+        <f t="array" ref="P346">_xll.GEO_ADMIN(B346,C346)</f>
+        <v>New South Wales</v>
+      </c>
+      <c r="Q346" s="6" t="str" cm="1">
+        <f t="array" ref="Q346">_xll.GEO_ADMINCODE(B346,C346)</f>
+        <v>AU-NSW</v>
+      </c>
+      <c r="R346" s="6" t="str" cm="1">
+        <f t="array" ref="R346">_xll.GEO_ADMINTYPE(B346,C346)</f>
+        <v>state</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347" s="10" t="str">
         <v>Z2856</v>
       </c>
@@ -21094,8 +25230,20 @@
         <f t="array" ref="O347">_xll.GEO_TIMEZONE(B347,C347)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P347" s="6" t="str" cm="1">
+        <f t="array" ref="P347">_xll.GEO_ADMIN(B347,C347)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q347" s="6" t="str" cm="1">
+        <f t="array" ref="Q347">_xll.GEO_ADMINCODE(B347,C347)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R347" s="6" t="str" cm="1">
+        <f t="array" ref="R347">_xll.GEO_ADMINTYPE(B347,C347)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348" s="10" t="str">
         <v>Z2857</v>
       </c>
@@ -21149,8 +25297,20 @@
         <f t="array" ref="O348">_xll.GEO_TIMEZONE(B348,C348)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P348" s="6" t="str" cm="1">
+        <f t="array" ref="P348">_xll.GEO_ADMIN(B348,C348)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q348" s="6" t="str" cm="1">
+        <f t="array" ref="Q348">_xll.GEO_ADMINCODE(B348,C348)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R348" s="6" t="str" cm="1">
+        <f t="array" ref="R348">_xll.GEO_ADMINTYPE(B348,C348)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349" s="10" t="str">
         <v>Z2858</v>
       </c>
@@ -21204,8 +25364,20 @@
         <f t="array" ref="O349">_xll.GEO_TIMEZONE(B349,C349)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P349" s="6" t="str" cm="1">
+        <f t="array" ref="P349">_xll.GEO_ADMIN(B349,C349)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q349" s="6" t="str" cm="1">
+        <f t="array" ref="Q349">_xll.GEO_ADMINCODE(B349,C349)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R349" s="6" t="str" cm="1">
+        <f t="array" ref="R349">_xll.GEO_ADMINTYPE(B349,C349)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350" s="10" t="str">
         <v>Z2859</v>
       </c>
@@ -21259,8 +25431,20 @@
         <f t="array" ref="O350">_xll.GEO_TIMEZONE(B350,C350)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P350" s="6" t="str" cm="1">
+        <f t="array" ref="P350">_xll.GEO_ADMIN(B350,C350)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q350" s="6" t="str" cm="1">
+        <f t="array" ref="Q350">_xll.GEO_ADMINCODE(B350,C350)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R350" s="6" t="str" cm="1">
+        <f t="array" ref="R350">_xll.GEO_ADMINTYPE(B350,C350)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="str">
         <v>Z2860</v>
       </c>
@@ -21314,8 +25498,20 @@
         <f t="array" ref="O351">_xll.GEO_TIMEZONE(B351,C351)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P351" s="6" t="str" cm="1">
+        <f t="array" ref="P351">_xll.GEO_ADMIN(B351,C351)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q351" s="6" t="str" cm="1">
+        <f t="array" ref="Q351">_xll.GEO_ADMINCODE(B351,C351)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R351" s="6" t="str" cm="1">
+        <f t="array" ref="R351">_xll.GEO_ADMINTYPE(B351,C351)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352" s="10" t="str">
         <v>Z2861</v>
       </c>
@@ -21369,8 +25565,20 @@
         <f t="array" ref="O352">_xll.GEO_TIMEZONE(B352,C352)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P352" s="6" t="str" cm="1">
+        <f t="array" ref="P352">_xll.GEO_ADMIN(B352,C352)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q352" s="6" t="str" cm="1">
+        <f t="array" ref="Q352">_xll.GEO_ADMINCODE(B352,C352)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R352" s="6" t="str" cm="1">
+        <f t="array" ref="R352">_xll.GEO_ADMINTYPE(B352,C352)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353" s="10" t="str">
         <v>Z2862</v>
       </c>
@@ -21424,8 +25632,20 @@
         <f t="array" ref="O353">_xll.GEO_TIMEZONE(B353,C353)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P353" s="6" t="str" cm="1">
+        <f t="array" ref="P353">_xll.GEO_ADMIN(B353,C353)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q353" s="6" t="str" cm="1">
+        <f t="array" ref="Q353">_xll.GEO_ADMINCODE(B353,C353)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R353" s="6" t="str" cm="1">
+        <f t="array" ref="R353">_xll.GEO_ADMINTYPE(B353,C353)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A354" s="10" t="str">
         <v>Z2863</v>
       </c>
@@ -21479,8 +25699,20 @@
         <f t="array" ref="O354">_xll.GEO_TIMEZONE(B354,C354)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P354" s="6" t="str" cm="1">
+        <f t="array" ref="P354">_xll.GEO_ADMIN(B354,C354)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q354" s="6" t="str" cm="1">
+        <f t="array" ref="Q354">_xll.GEO_ADMINCODE(B354,C354)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R354" s="6" t="str" cm="1">
+        <f t="array" ref="R354">_xll.GEO_ADMINTYPE(B354,C354)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A355" s="10" t="str">
         <v>Z2864</v>
       </c>
@@ -21534,8 +25766,20 @@
         <f t="array" ref="O355">_xll.GEO_TIMEZONE(B355,C355)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P355" s="6" t="str" cm="1">
+        <f t="array" ref="P355">_xll.GEO_ADMIN(B355,C355)</f>
+        <v>Auckland</v>
+      </c>
+      <c r="Q355" s="6" t="str" cm="1">
+        <f t="array" ref="Q355">_xll.GEO_ADMINCODE(B355,C355)</f>
+        <v>NZ-AUK</v>
+      </c>
+      <c r="R355" s="6" t="str" cm="1">
+        <f t="array" ref="R355">_xll.GEO_ADMINTYPE(B355,C355)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A356" s="10" t="str">
         <v>Z2865</v>
       </c>
@@ -21589,8 +25833,20 @@
         <f t="array" ref="O356">_xll.GEO_TIMEZONE(B356,C356)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P356" s="6" t="str" cm="1">
+        <f t="array" ref="P356">_xll.GEO_ADMIN(B356,C356)</f>
+        <v>Canterbury</v>
+      </c>
+      <c r="Q356" s="6" t="str" cm="1">
+        <f t="array" ref="Q356">_xll.GEO_ADMINCODE(B356,C356)</f>
+        <v>NZ-CAN</v>
+      </c>
+      <c r="R356" s="6" t="str" cm="1">
+        <f t="array" ref="R356">_xll.GEO_ADMINTYPE(B356,C356)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A357" s="10" t="str">
         <v>Z2866</v>
       </c>
@@ -21644,8 +25900,20 @@
         <f t="array" ref="O357">_xll.GEO_TIMEZONE(B357,C357)</f>
         <v>Pacific/Auckland</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P357" s="6" t="str" cm="1">
+        <f t="array" ref="P357">_xll.GEO_ADMIN(B357,C357)</f>
+        <v>Wellington</v>
+      </c>
+      <c r="Q357" s="6" t="str" cm="1">
+        <f t="array" ref="Q357">_xll.GEO_ADMINCODE(B357,C357)</f>
+        <v>NZ-WGN</v>
+      </c>
+      <c r="R357" s="6" t="str" cm="1">
+        <f t="array" ref="R357">_xll.GEO_ADMINTYPE(B357,C357)</f>
+        <v>region</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A358" s="10" t="str">
         <v>Z2867</v>
       </c>
@@ -21698,6 +25966,18 @@
       <c r="O358" s="6" t="str" cm="1">
         <f t="array" ref="O358">_xll.GEO_TIMEZONE(B358,C358)</f>
         <v>Pacific/Auckland</v>
+      </c>
+      <c r="P358" s="6" t="str" cm="1">
+        <f t="array" ref="P358">_xll.GEO_ADMIN(B358,C358)</f>
+        <v>Wellington</v>
+      </c>
+      <c r="Q358" s="6" t="str" cm="1">
+        <f t="array" ref="Q358">_xll.GEO_ADMINCODE(B358,C358)</f>
+        <v>NZ-WGN</v>
+      </c>
+      <c r="R358" s="6" t="str" cm="1">
+        <f t="array" ref="R358">_xll.GEO_ADMINTYPE(B358,C358)</f>
+        <v>region</v>
       </c>
     </row>
   </sheetData>

--- a/examples/AtlasGeoTest.xlsx
+++ b/examples/AtlasGeoTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\repos\AtlasGeoAddin\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D792B5-694D-4285-8EAB-69390F44E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C3A68-862B-4E71-B6F1-7E8354C2F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
+    <workbookView xWindow="-30420" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{1E8F694D-E107-46A2-B946-5E661F5F05A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F1" s="12" t="str" cm="1">
         <f t="array" ref="F1">_xll.GEO_VERSION()</f>
-        <v>1.0.0+f8cba5d1a4ee3998ef0b7eac962ecb08cefd8e8c</v>
+        <v>v0.4.3</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
